--- a/service-loans/template/Template_CW_CMA_TL_WCTL.xlsx
+++ b/service-loans/template/Template_CW_CMA_TL_WCTL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="nMIDBcyH02QIBA4bXtkulhW+BkwLjO6uUdnHuLe/vey9rIzKWc8NDkCsYZON8UKSky/yikEzYHsiuF6pBe7KDg==" workbookSaltValue="OCFZwCBGKUImSpaXHpKcuQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Operating Stmt." sheetId="2" r:id="rId1"/>
@@ -657,10 +657,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -1237,9 +1237,9 @@
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1421,14 +1421,89 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1446,7 +1521,20 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1454,6 +1542,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1467,89 +1561,16 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="6" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="6" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1557,24 +1578,20 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1582,24 +1599,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1915,30 +1915,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B67" sqref="B67"/>
       <selection pane="topRight" activeCell="B67" sqref="B67"/>
       <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
-      <selection pane="bottomRight" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="25" width="17.7109375" style="15" customWidth="1" collapsed="1"/>
-    <col min="26" max="33" width="9.140625" style="15" hidden="1"/>
+    <col min="26" max="33" width="9.140625" style="15" hidden="1" customWidth="1"/>
     <col min="34" max="16384" width="9.140625" style="15" hidden="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16384" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="104" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
@@ -1946,7 +1946,7 @@
       <c r="J1" s="14"/>
       <c r="K1" s="14"/>
       <c r="L1" s="14"/>
-      <c r="M1" s="92"/>
+      <c r="M1" s="81"/>
       <c r="N1" s="39" t="s">
         <v>46</v>
       </c>
@@ -1965,13 +1965,13 @@
       <c r="S1" s="40"/>
     </row>
     <row r="2" spans="1:16384" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
@@ -1979,7 +1979,7 @@
       <c r="J2" s="16"/>
       <c r="K2" s="16"/>
       <c r="L2" s="16"/>
-      <c r="M2" s="93"/>
+      <c r="M2" s="82"/>
       <c r="N2" s="40" t="s">
         <v>41</v>
       </c>
@@ -1990,13 +1990,13 @@
       <c r="S2" s="40"/>
     </row>
     <row r="3" spans="1:16384" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>
@@ -2004,7 +2004,7 @@
       <c r="J3" s="17"/>
       <c r="K3" s="17"/>
       <c r="L3" s="17"/>
-      <c r="M3" s="94"/>
+      <c r="M3" s="83"/>
       <c r="N3" s="40"/>
       <c r="O3" s="40"/>
       <c r="P3" s="40"/>
@@ -2013,15 +2013,15 @@
       <c r="S3" s="40"/>
     </row>
     <row r="4" spans="1:16384" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="104" t="s">
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="105" t="s">
+      <c r="E4" s="93" t="s">
         <v>40</v>
       </c>
       <c r="F4" s="19"/>
@@ -18406,7 +18406,7 @@
     </row>
     <row r="5" spans="1:16384" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="20"/>
-      <c r="B5" s="99">
+      <c r="B5" s="87">
         <v>2015</v>
       </c>
       <c r="C5" s="26">
@@ -18504,76 +18504,76 @@
     </row>
     <row r="6" spans="1:16384" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="101" t="s">
+      <c r="C6" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="101" t="s">
+      <c r="D6" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="102" t="s">
+      <c r="E6" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="102" t="s">
+      <c r="F6" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="102" t="s">
+      <c r="G6" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="102" t="s">
+      <c r="H6" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="102" t="s">
+      <c r="I6" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="102" t="s">
+      <c r="J6" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="102" t="s">
+      <c r="K6" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="L6" s="102" t="s">
+      <c r="L6" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="M6" s="102" t="s">
+      <c r="M6" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="N6" s="102" t="s">
+      <c r="N6" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="O6" s="102" t="s">
+      <c r="O6" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="102" t="s">
+      <c r="P6" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="Q6" s="102" t="s">
+      <c r="Q6" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="R6" s="102" t="s">
+      <c r="R6" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="S6" s="102" t="s">
+      <c r="S6" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="T6" s="102" t="s">
+      <c r="T6" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="U6" s="102" t="s">
+      <c r="U6" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="V6" s="102" t="s">
+      <c r="V6" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="W6" s="102" t="s">
+      <c r="W6" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="X6" s="102" t="s">
+      <c r="X6" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="Y6" s="103" t="s">
+      <c r="Y6" s="91" t="s">
         <v>37</v>
       </c>
     </row>
@@ -18581,30 +18581,30 @@
       <c r="A7" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="96"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="97"/>
-      <c r="L7" s="97"/>
-      <c r="M7" s="97"/>
-      <c r="N7" s="98"/>
-      <c r="O7" s="98"/>
-      <c r="P7" s="98"/>
-      <c r="Q7" s="98"/>
-      <c r="R7" s="98"/>
-      <c r="S7" s="98"/>
-      <c r="T7" s="98"/>
-      <c r="U7" s="98"/>
-      <c r="V7" s="98"/>
-      <c r="W7" s="98"/>
-      <c r="X7" s="98"/>
-      <c r="Y7" s="98"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="86"/>
+      <c r="P7" s="86"/>
+      <c r="Q7" s="86"/>
+      <c r="R7" s="86"/>
+      <c r="S7" s="86"/>
+      <c r="T7" s="86"/>
+      <c r="U7" s="86"/>
+      <c r="V7" s="86"/>
+      <c r="W7" s="86"/>
+      <c r="X7" s="86"/>
+      <c r="Y7" s="86"/>
     </row>
     <row r="8" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
@@ -18622,18 +18622,18 @@
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
-      <c r="N8" s="91"/>
-      <c r="O8" s="91"/>
-      <c r="P8" s="91"/>
-      <c r="Q8" s="91"/>
-      <c r="R8" s="91"/>
-      <c r="S8" s="91"/>
-      <c r="T8" s="91"/>
-      <c r="U8" s="91"/>
-      <c r="V8" s="91"/>
-      <c r="W8" s="91"/>
-      <c r="X8" s="91"/>
-      <c r="Y8" s="91"/>
+      <c r="N8" s="80"/>
+      <c r="O8" s="80"/>
+      <c r="P8" s="80"/>
+      <c r="Q8" s="80"/>
+      <c r="R8" s="80"/>
+      <c r="S8" s="80"/>
+      <c r="T8" s="80"/>
+      <c r="U8" s="80"/>
+      <c r="V8" s="80"/>
+      <c r="W8" s="80"/>
+      <c r="X8" s="80"/>
+      <c r="Y8" s="80"/>
     </row>
     <row r="9" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
@@ -18651,18 +18651,18 @@
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
-      <c r="N9" s="91"/>
-      <c r="O9" s="91"/>
-      <c r="P9" s="91"/>
-      <c r="Q9" s="91"/>
-      <c r="R9" s="91"/>
-      <c r="S9" s="91"/>
-      <c r="T9" s="91"/>
-      <c r="U9" s="91"/>
-      <c r="V9" s="91"/>
-      <c r="W9" s="91"/>
-      <c r="X9" s="91"/>
-      <c r="Y9" s="91"/>
+      <c r="N9" s="80"/>
+      <c r="O9" s="80"/>
+      <c r="P9" s="80"/>
+      <c r="Q9" s="80"/>
+      <c r="R9" s="80"/>
+      <c r="S9" s="80"/>
+      <c r="T9" s="80"/>
+      <c r="U9" s="80"/>
+      <c r="V9" s="80"/>
+      <c r="W9" s="80"/>
+      <c r="X9" s="80"/>
+      <c r="Y9" s="80"/>
     </row>
     <row r="10" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
@@ -18680,18 +18680,18 @@
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-      <c r="N10" s="91"/>
-      <c r="O10" s="91"/>
-      <c r="P10" s="91"/>
-      <c r="Q10" s="91"/>
-      <c r="R10" s="91"/>
-      <c r="S10" s="91"/>
-      <c r="T10" s="91"/>
-      <c r="U10" s="91"/>
-      <c r="V10" s="91"/>
-      <c r="W10" s="91"/>
-      <c r="X10" s="91"/>
-      <c r="Y10" s="91"/>
+      <c r="N10" s="80"/>
+      <c r="O10" s="80"/>
+      <c r="P10" s="80"/>
+      <c r="Q10" s="80"/>
+      <c r="R10" s="80"/>
+      <c r="S10" s="80"/>
+      <c r="T10" s="80"/>
+      <c r="U10" s="80"/>
+      <c r="V10" s="80"/>
+      <c r="W10" s="80"/>
+      <c r="X10" s="80"/>
+      <c r="Y10" s="80"/>
     </row>
     <row r="11" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
@@ -18808,18 +18808,18 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
-      <c r="N12" s="91"/>
-      <c r="O12" s="91"/>
-      <c r="P12" s="91"/>
-      <c r="Q12" s="91"/>
-      <c r="R12" s="91"/>
-      <c r="S12" s="91"/>
-      <c r="T12" s="91"/>
-      <c r="U12" s="91"/>
-      <c r="V12" s="91"/>
-      <c r="W12" s="91"/>
-      <c r="X12" s="91"/>
-      <c r="Y12" s="91"/>
+      <c r="N12" s="80"/>
+      <c r="O12" s="80"/>
+      <c r="P12" s="80"/>
+      <c r="Q12" s="80"/>
+      <c r="R12" s="80"/>
+      <c r="S12" s="80"/>
+      <c r="T12" s="80"/>
+      <c r="U12" s="80"/>
+      <c r="V12" s="80"/>
+      <c r="W12" s="80"/>
+      <c r="X12" s="80"/>
+      <c r="Y12" s="80"/>
     </row>
     <row r="13" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
@@ -18837,18 +18837,18 @@
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-      <c r="N13" s="91"/>
-      <c r="O13" s="91"/>
-      <c r="P13" s="91"/>
-      <c r="Q13" s="91"/>
-      <c r="R13" s="91"/>
-      <c r="S13" s="91"/>
-      <c r="T13" s="91"/>
-      <c r="U13" s="91"/>
-      <c r="V13" s="91"/>
-      <c r="W13" s="91"/>
-      <c r="X13" s="91"/>
-      <c r="Y13" s="91"/>
+      <c r="N13" s="80"/>
+      <c r="O13" s="80"/>
+      <c r="P13" s="80"/>
+      <c r="Q13" s="80"/>
+      <c r="R13" s="80"/>
+      <c r="S13" s="80"/>
+      <c r="T13" s="80"/>
+      <c r="U13" s="80"/>
+      <c r="V13" s="80"/>
+      <c r="W13" s="80"/>
+      <c r="X13" s="80"/>
+      <c r="Y13" s="80"/>
     </row>
     <row r="14" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
@@ -18866,18 +18866,18 @@
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
-      <c r="N14" s="91"/>
-      <c r="O14" s="91"/>
-      <c r="P14" s="91"/>
-      <c r="Q14" s="91"/>
-      <c r="R14" s="91"/>
-      <c r="S14" s="91"/>
-      <c r="T14" s="91"/>
-      <c r="U14" s="91"/>
-      <c r="V14" s="91"/>
-      <c r="W14" s="91"/>
-      <c r="X14" s="91"/>
-      <c r="Y14" s="91"/>
+      <c r="N14" s="80"/>
+      <c r="O14" s="80"/>
+      <c r="P14" s="80"/>
+      <c r="Q14" s="80"/>
+      <c r="R14" s="80"/>
+      <c r="S14" s="80"/>
+      <c r="T14" s="80"/>
+      <c r="U14" s="80"/>
+      <c r="V14" s="80"/>
+      <c r="W14" s="80"/>
+      <c r="X14" s="80"/>
+      <c r="Y14" s="80"/>
     </row>
     <row r="15" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
@@ -18994,18 +18994,18 @@
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
-      <c r="N16" s="91"/>
-      <c r="O16" s="91"/>
-      <c r="P16" s="91"/>
-      <c r="Q16" s="91"/>
-      <c r="R16" s="91"/>
-      <c r="S16" s="91"/>
-      <c r="T16" s="91"/>
-      <c r="U16" s="91"/>
-      <c r="V16" s="91"/>
-      <c r="W16" s="91"/>
-      <c r="X16" s="91"/>
-      <c r="Y16" s="91"/>
+      <c r="N16" s="80"/>
+      <c r="O16" s="80"/>
+      <c r="P16" s="80"/>
+      <c r="Q16" s="80"/>
+      <c r="R16" s="80"/>
+      <c r="S16" s="80"/>
+      <c r="T16" s="80"/>
+      <c r="U16" s="80"/>
+      <c r="V16" s="80"/>
+      <c r="W16" s="80"/>
+      <c r="X16" s="80"/>
+      <c r="Y16" s="80"/>
     </row>
     <row r="17" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
@@ -19119,18 +19119,18 @@
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
-      <c r="N18" s="91"/>
-      <c r="O18" s="91"/>
-      <c r="P18" s="91"/>
-      <c r="Q18" s="91"/>
-      <c r="R18" s="91"/>
-      <c r="S18" s="91"/>
-      <c r="T18" s="91"/>
-      <c r="U18" s="91"/>
-      <c r="V18" s="91"/>
-      <c r="W18" s="91"/>
-      <c r="X18" s="91"/>
-      <c r="Y18" s="91"/>
+      <c r="N18" s="80"/>
+      <c r="O18" s="80"/>
+      <c r="P18" s="80"/>
+      <c r="Q18" s="80"/>
+      <c r="R18" s="80"/>
+      <c r="S18" s="80"/>
+      <c r="T18" s="80"/>
+      <c r="U18" s="80"/>
+      <c r="V18" s="80"/>
+      <c r="W18" s="80"/>
+      <c r="X18" s="80"/>
+      <c r="Y18" s="80"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
@@ -19148,18 +19148,18 @@
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
-      <c r="N19" s="91"/>
-      <c r="O19" s="91"/>
-      <c r="P19" s="91"/>
-      <c r="Q19" s="91"/>
-      <c r="R19" s="91"/>
-      <c r="S19" s="91"/>
-      <c r="T19" s="91"/>
-      <c r="U19" s="91"/>
-      <c r="V19" s="91"/>
-      <c r="W19" s="91"/>
-      <c r="X19" s="91"/>
-      <c r="Y19" s="91"/>
+      <c r="N19" s="80"/>
+      <c r="O19" s="80"/>
+      <c r="P19" s="80"/>
+      <c r="Q19" s="80"/>
+      <c r="R19" s="80"/>
+      <c r="S19" s="80"/>
+      <c r="T19" s="80"/>
+      <c r="U19" s="80"/>
+      <c r="V19" s="80"/>
+      <c r="W19" s="80"/>
+      <c r="X19" s="80"/>
+      <c r="Y19" s="80"/>
     </row>
     <row r="20" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
@@ -19278,18 +19278,18 @@
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
-      <c r="N21" s="91"/>
-      <c r="O21" s="91"/>
-      <c r="P21" s="91"/>
-      <c r="Q21" s="91"/>
-      <c r="R21" s="91"/>
-      <c r="S21" s="91"/>
-      <c r="T21" s="91"/>
-      <c r="U21" s="91"/>
-      <c r="V21" s="91"/>
-      <c r="W21" s="91"/>
-      <c r="X21" s="91"/>
-      <c r="Y21" s="91"/>
+      <c r="N21" s="80"/>
+      <c r="O21" s="80"/>
+      <c r="P21" s="80"/>
+      <c r="Q21" s="80"/>
+      <c r="R21" s="80"/>
+      <c r="S21" s="80"/>
+      <c r="T21" s="80"/>
+      <c r="U21" s="80"/>
+      <c r="V21" s="80"/>
+      <c r="W21" s="80"/>
+      <c r="X21" s="80"/>
+      <c r="Y21" s="80"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
@@ -19307,18 +19307,18 @@
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
-      <c r="N22" s="91"/>
-      <c r="O22" s="91"/>
-      <c r="P22" s="91"/>
-      <c r="Q22" s="91"/>
-      <c r="R22" s="91"/>
-      <c r="S22" s="91"/>
-      <c r="T22" s="91"/>
-      <c r="U22" s="91"/>
-      <c r="V22" s="91"/>
-      <c r="W22" s="91"/>
-      <c r="X22" s="91"/>
-      <c r="Y22" s="91"/>
+      <c r="N22" s="80"/>
+      <c r="O22" s="80"/>
+      <c r="P22" s="80"/>
+      <c r="Q22" s="80"/>
+      <c r="R22" s="80"/>
+      <c r="S22" s="80"/>
+      <c r="T22" s="80"/>
+      <c r="U22" s="80"/>
+      <c r="V22" s="80"/>
+      <c r="W22" s="80"/>
+      <c r="X22" s="80"/>
+      <c r="Y22" s="80"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="22"/>
@@ -19334,18 +19334,18 @@
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
-      <c r="N23" s="91"/>
-      <c r="O23" s="91"/>
-      <c r="P23" s="91"/>
-      <c r="Q23" s="91"/>
-      <c r="R23" s="91"/>
-      <c r="S23" s="91"/>
-      <c r="T23" s="91"/>
-      <c r="U23" s="91"/>
-      <c r="V23" s="91"/>
-      <c r="W23" s="91"/>
-      <c r="X23" s="91"/>
-      <c r="Y23" s="91"/>
+      <c r="N23" s="80"/>
+      <c r="O23" s="80"/>
+      <c r="P23" s="80"/>
+      <c r="Q23" s="80"/>
+      <c r="R23" s="80"/>
+      <c r="S23" s="80"/>
+      <c r="T23" s="80"/>
+      <c r="U23" s="80"/>
+      <c r="V23" s="80"/>
+      <c r="W23" s="80"/>
+      <c r="X23" s="80"/>
+      <c r="Y23" s="80"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
@@ -19464,18 +19464,18 @@
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
-      <c r="N25" s="91"/>
-      <c r="O25" s="91"/>
-      <c r="P25" s="91"/>
-      <c r="Q25" s="91"/>
-      <c r="R25" s="91"/>
-      <c r="S25" s="91"/>
-      <c r="T25" s="91"/>
-      <c r="U25" s="91"/>
-      <c r="V25" s="91"/>
-      <c r="W25" s="91"/>
-      <c r="X25" s="91"/>
-      <c r="Y25" s="91"/>
+      <c r="N25" s="80"/>
+      <c r="O25" s="80"/>
+      <c r="P25" s="80"/>
+      <c r="Q25" s="80"/>
+      <c r="R25" s="80"/>
+      <c r="S25" s="80"/>
+      <c r="T25" s="80"/>
+      <c r="U25" s="80"/>
+      <c r="V25" s="80"/>
+      <c r="W25" s="80"/>
+      <c r="X25" s="80"/>
+      <c r="Y25" s="80"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
@@ -19493,18 +19493,18 @@
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
-      <c r="N26" s="91"/>
-      <c r="O26" s="91"/>
-      <c r="P26" s="91"/>
-      <c r="Q26" s="91"/>
-      <c r="R26" s="91"/>
-      <c r="S26" s="91"/>
-      <c r="T26" s="91"/>
-      <c r="U26" s="91"/>
-      <c r="V26" s="91"/>
-      <c r="W26" s="91"/>
-      <c r="X26" s="91"/>
-      <c r="Y26" s="91"/>
+      <c r="N26" s="80"/>
+      <c r="O26" s="80"/>
+      <c r="P26" s="80"/>
+      <c r="Q26" s="80"/>
+      <c r="R26" s="80"/>
+      <c r="S26" s="80"/>
+      <c r="T26" s="80"/>
+      <c r="U26" s="80"/>
+      <c r="V26" s="80"/>
+      <c r="W26" s="80"/>
+      <c r="X26" s="80"/>
+      <c r="Y26" s="80"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="22"/>
@@ -19520,18 +19520,18 @@
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
-      <c r="N27" s="91"/>
-      <c r="O27" s="91"/>
-      <c r="P27" s="91"/>
-      <c r="Q27" s="91"/>
-      <c r="R27" s="91"/>
-      <c r="S27" s="91"/>
-      <c r="T27" s="91"/>
-      <c r="U27" s="91"/>
-      <c r="V27" s="91"/>
-      <c r="W27" s="91"/>
-      <c r="X27" s="91"/>
-      <c r="Y27" s="91"/>
+      <c r="N27" s="80"/>
+      <c r="O27" s="80"/>
+      <c r="P27" s="80"/>
+      <c r="Q27" s="80"/>
+      <c r="R27" s="80"/>
+      <c r="S27" s="80"/>
+      <c r="T27" s="80"/>
+      <c r="U27" s="80"/>
+      <c r="V27" s="80"/>
+      <c r="W27" s="80"/>
+      <c r="X27" s="80"/>
+      <c r="Y27" s="80"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
@@ -19549,18 +19549,18 @@
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
-      <c r="N28" s="91"/>
-      <c r="O28" s="91"/>
-      <c r="P28" s="91"/>
-      <c r="Q28" s="91"/>
-      <c r="R28" s="91"/>
-      <c r="S28" s="91"/>
-      <c r="T28" s="91"/>
-      <c r="U28" s="91"/>
-      <c r="V28" s="91"/>
-      <c r="W28" s="91"/>
-      <c r="X28" s="91"/>
-      <c r="Y28" s="91"/>
+      <c r="N28" s="80"/>
+      <c r="O28" s="80"/>
+      <c r="P28" s="80"/>
+      <c r="Q28" s="80"/>
+      <c r="R28" s="80"/>
+      <c r="S28" s="80"/>
+      <c r="T28" s="80"/>
+      <c r="U28" s="80"/>
+      <c r="V28" s="80"/>
+      <c r="W28" s="80"/>
+      <c r="X28" s="80"/>
+      <c r="Y28" s="80"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="22"/>
@@ -19576,18 +19576,18 @@
       <c r="K29" s="10"/>
       <c r="L29" s="10"/>
       <c r="M29" s="10"/>
-      <c r="N29" s="91"/>
-      <c r="O29" s="91"/>
-      <c r="P29" s="91"/>
-      <c r="Q29" s="91"/>
-      <c r="R29" s="91"/>
-      <c r="S29" s="91"/>
-      <c r="T29" s="91"/>
-      <c r="U29" s="91"/>
-      <c r="V29" s="91"/>
-      <c r="W29" s="91"/>
-      <c r="X29" s="91"/>
-      <c r="Y29" s="91"/>
+      <c r="N29" s="80"/>
+      <c r="O29" s="80"/>
+      <c r="P29" s="80"/>
+      <c r="Q29" s="80"/>
+      <c r="R29" s="80"/>
+      <c r="S29" s="80"/>
+      <c r="T29" s="80"/>
+      <c r="U29" s="80"/>
+      <c r="V29" s="80"/>
+      <c r="W29" s="80"/>
+      <c r="X29" s="80"/>
+      <c r="Y29" s="80"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
@@ -19605,18 +19605,18 @@
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
-      <c r="N30" s="91"/>
-      <c r="O30" s="91"/>
-      <c r="P30" s="91"/>
-      <c r="Q30" s="91"/>
-      <c r="R30" s="91"/>
-      <c r="S30" s="91"/>
-      <c r="T30" s="91"/>
-      <c r="U30" s="91"/>
-      <c r="V30" s="91"/>
-      <c r="W30" s="91"/>
-      <c r="X30" s="91"/>
-      <c r="Y30" s="91"/>
+      <c r="N30" s="80"/>
+      <c r="O30" s="80"/>
+      <c r="P30" s="80"/>
+      <c r="Q30" s="80"/>
+      <c r="R30" s="80"/>
+      <c r="S30" s="80"/>
+      <c r="T30" s="80"/>
+      <c r="U30" s="80"/>
+      <c r="V30" s="80"/>
+      <c r="W30" s="80"/>
+      <c r="X30" s="80"/>
+      <c r="Y30" s="80"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="22"/>
@@ -19632,18 +19632,18 @@
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
-      <c r="N31" s="91"/>
-      <c r="O31" s="91"/>
-      <c r="P31" s="91"/>
-      <c r="Q31" s="91"/>
-      <c r="R31" s="91"/>
-      <c r="S31" s="91"/>
-      <c r="T31" s="91"/>
-      <c r="U31" s="91"/>
-      <c r="V31" s="91"/>
-      <c r="W31" s="91"/>
-      <c r="X31" s="91"/>
-      <c r="Y31" s="91"/>
+      <c r="N31" s="80"/>
+      <c r="O31" s="80"/>
+      <c r="P31" s="80"/>
+      <c r="Q31" s="80"/>
+      <c r="R31" s="80"/>
+      <c r="S31" s="80"/>
+      <c r="T31" s="80"/>
+      <c r="U31" s="80"/>
+      <c r="V31" s="80"/>
+      <c r="W31" s="80"/>
+      <c r="X31" s="80"/>
+      <c r="Y31" s="80"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
@@ -19661,18 +19661,18 @@
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
-      <c r="N32" s="91"/>
-      <c r="O32" s="91"/>
-      <c r="P32" s="91"/>
-      <c r="Q32" s="91"/>
-      <c r="R32" s="91"/>
-      <c r="S32" s="91"/>
-      <c r="T32" s="91"/>
-      <c r="U32" s="91"/>
-      <c r="V32" s="91"/>
-      <c r="W32" s="91"/>
-      <c r="X32" s="91"/>
-      <c r="Y32" s="91"/>
+      <c r="N32" s="80"/>
+      <c r="O32" s="80"/>
+      <c r="P32" s="80"/>
+      <c r="Q32" s="80"/>
+      <c r="R32" s="80"/>
+      <c r="S32" s="80"/>
+      <c r="T32" s="80"/>
+      <c r="U32" s="80"/>
+      <c r="V32" s="80"/>
+      <c r="W32" s="80"/>
+      <c r="X32" s="80"/>
+      <c r="Y32" s="80"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="22"/>
@@ -19688,18 +19688,18 @@
       <c r="K33" s="10"/>
       <c r="L33" s="10"/>
       <c r="M33" s="10"/>
-      <c r="N33" s="91"/>
-      <c r="O33" s="91"/>
-      <c r="P33" s="91"/>
-      <c r="Q33" s="91"/>
-      <c r="R33" s="91"/>
-      <c r="S33" s="91"/>
-      <c r="T33" s="91"/>
-      <c r="U33" s="91"/>
-      <c r="V33" s="91"/>
-      <c r="W33" s="91"/>
-      <c r="X33" s="91"/>
-      <c r="Y33" s="91"/>
+      <c r="N33" s="80"/>
+      <c r="O33" s="80"/>
+      <c r="P33" s="80"/>
+      <c r="Q33" s="80"/>
+      <c r="R33" s="80"/>
+      <c r="S33" s="80"/>
+      <c r="T33" s="80"/>
+      <c r="U33" s="80"/>
+      <c r="V33" s="80"/>
+      <c r="W33" s="80"/>
+      <c r="X33" s="80"/>
+      <c r="Y33" s="80"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
@@ -19717,18 +19717,18 @@
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
       <c r="M34" s="7"/>
-      <c r="N34" s="91"/>
-      <c r="O34" s="91"/>
-      <c r="P34" s="91"/>
-      <c r="Q34" s="91"/>
-      <c r="R34" s="91"/>
-      <c r="S34" s="91"/>
-      <c r="T34" s="91"/>
-      <c r="U34" s="91"/>
-      <c r="V34" s="91"/>
-      <c r="W34" s="91"/>
-      <c r="X34" s="91"/>
-      <c r="Y34" s="91"/>
+      <c r="N34" s="80"/>
+      <c r="O34" s="80"/>
+      <c r="P34" s="80"/>
+      <c r="Q34" s="80"/>
+      <c r="R34" s="80"/>
+      <c r="S34" s="80"/>
+      <c r="T34" s="80"/>
+      <c r="U34" s="80"/>
+      <c r="V34" s="80"/>
+      <c r="W34" s="80"/>
+      <c r="X34" s="80"/>
+      <c r="Y34" s="80"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="22"/>
@@ -19744,18 +19744,18 @@
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
       <c r="M35" s="7"/>
-      <c r="N35" s="91"/>
-      <c r="O35" s="91"/>
-      <c r="P35" s="91"/>
-      <c r="Q35" s="91"/>
-      <c r="R35" s="91"/>
-      <c r="S35" s="91"/>
-      <c r="T35" s="91"/>
-      <c r="U35" s="91"/>
-      <c r="V35" s="91"/>
-      <c r="W35" s="91"/>
-      <c r="X35" s="91"/>
-      <c r="Y35" s="91"/>
+      <c r="N35" s="80"/>
+      <c r="O35" s="80"/>
+      <c r="P35" s="80"/>
+      <c r="Q35" s="80"/>
+      <c r="R35" s="80"/>
+      <c r="S35" s="80"/>
+      <c r="T35" s="80"/>
+      <c r="U35" s="80"/>
+      <c r="V35" s="80"/>
+      <c r="W35" s="80"/>
+      <c r="X35" s="80"/>
+      <c r="Y35" s="80"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
@@ -19872,18 +19872,18 @@
       <c r="K37" s="10"/>
       <c r="L37" s="10"/>
       <c r="M37" s="10"/>
-      <c r="N37" s="91"/>
-      <c r="O37" s="91"/>
-      <c r="P37" s="91"/>
-      <c r="Q37" s="91"/>
-      <c r="R37" s="91"/>
-      <c r="S37" s="91"/>
-      <c r="T37" s="91"/>
-      <c r="U37" s="91"/>
-      <c r="V37" s="91"/>
-      <c r="W37" s="91"/>
-      <c r="X37" s="91"/>
-      <c r="Y37" s="91"/>
+      <c r="N37" s="80"/>
+      <c r="O37" s="80"/>
+      <c r="P37" s="80"/>
+      <c r="Q37" s="80"/>
+      <c r="R37" s="80"/>
+      <c r="S37" s="80"/>
+      <c r="T37" s="80"/>
+      <c r="U37" s="80"/>
+      <c r="V37" s="80"/>
+      <c r="W37" s="80"/>
+      <c r="X37" s="80"/>
+      <c r="Y37" s="80"/>
     </row>
     <row r="38" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
@@ -19901,18 +19901,18 @@
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
       <c r="M38" s="7"/>
-      <c r="N38" s="91"/>
-      <c r="O38" s="91"/>
-      <c r="P38" s="91"/>
-      <c r="Q38" s="91"/>
-      <c r="R38" s="91"/>
-      <c r="S38" s="91"/>
-      <c r="T38" s="91"/>
-      <c r="U38" s="91"/>
-      <c r="V38" s="91"/>
-      <c r="W38" s="91"/>
-      <c r="X38" s="91"/>
-      <c r="Y38" s="91"/>
+      <c r="N38" s="80"/>
+      <c r="O38" s="80"/>
+      <c r="P38" s="80"/>
+      <c r="Q38" s="80"/>
+      <c r="R38" s="80"/>
+      <c r="S38" s="80"/>
+      <c r="T38" s="80"/>
+      <c r="U38" s="80"/>
+      <c r="V38" s="80"/>
+      <c r="W38" s="80"/>
+      <c r="X38" s="80"/>
+      <c r="Y38" s="80"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="22"/>
@@ -19928,18 +19928,18 @@
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
-      <c r="N39" s="91"/>
-      <c r="O39" s="91"/>
-      <c r="P39" s="91"/>
-      <c r="Q39" s="91"/>
-      <c r="R39" s="91"/>
-      <c r="S39" s="91"/>
-      <c r="T39" s="91"/>
-      <c r="U39" s="91"/>
-      <c r="V39" s="91"/>
-      <c r="W39" s="91"/>
-      <c r="X39" s="91"/>
-      <c r="Y39" s="91"/>
+      <c r="N39" s="80"/>
+      <c r="O39" s="80"/>
+      <c r="P39" s="80"/>
+      <c r="Q39" s="80"/>
+      <c r="R39" s="80"/>
+      <c r="S39" s="80"/>
+      <c r="T39" s="80"/>
+      <c r="U39" s="80"/>
+      <c r="V39" s="80"/>
+      <c r="W39" s="80"/>
+      <c r="X39" s="80"/>
+      <c r="Y39" s="80"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
@@ -20056,18 +20056,18 @@
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
       <c r="M41" s="7"/>
-      <c r="N41" s="91"/>
-      <c r="O41" s="91"/>
-      <c r="P41" s="91"/>
-      <c r="Q41" s="91"/>
-      <c r="R41" s="91"/>
-      <c r="S41" s="91"/>
-      <c r="T41" s="91"/>
-      <c r="U41" s="91"/>
-      <c r="V41" s="91"/>
-      <c r="W41" s="91"/>
-      <c r="X41" s="91"/>
-      <c r="Y41" s="91"/>
+      <c r="N41" s="80"/>
+      <c r="O41" s="80"/>
+      <c r="P41" s="80"/>
+      <c r="Q41" s="80"/>
+      <c r="R41" s="80"/>
+      <c r="S41" s="80"/>
+      <c r="T41" s="80"/>
+      <c r="U41" s="80"/>
+      <c r="V41" s="80"/>
+      <c r="W41" s="80"/>
+      <c r="X41" s="80"/>
+      <c r="Y41" s="80"/>
     </row>
     <row r="42" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
@@ -20085,18 +20085,18 @@
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
       <c r="M42" s="8"/>
-      <c r="N42" s="91"/>
-      <c r="O42" s="91"/>
-      <c r="P42" s="91"/>
-      <c r="Q42" s="91"/>
-      <c r="R42" s="91"/>
-      <c r="S42" s="91"/>
-      <c r="T42" s="91"/>
-      <c r="U42" s="91"/>
-      <c r="V42" s="91"/>
-      <c r="W42" s="91"/>
-      <c r="X42" s="91"/>
-      <c r="Y42" s="91"/>
+      <c r="N42" s="80"/>
+      <c r="O42" s="80"/>
+      <c r="P42" s="80"/>
+      <c r="Q42" s="80"/>
+      <c r="R42" s="80"/>
+      <c r="S42" s="80"/>
+      <c r="T42" s="80"/>
+      <c r="U42" s="80"/>
+      <c r="V42" s="80"/>
+      <c r="W42" s="80"/>
+      <c r="X42" s="80"/>
+      <c r="Y42" s="80"/>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="22"/>
@@ -20112,18 +20112,18 @@
       <c r="K43" s="10"/>
       <c r="L43" s="10"/>
       <c r="M43" s="10"/>
-      <c r="N43" s="91"/>
-      <c r="O43" s="91"/>
-      <c r="P43" s="91"/>
-      <c r="Q43" s="91"/>
-      <c r="R43" s="91"/>
-      <c r="S43" s="91"/>
-      <c r="T43" s="91"/>
-      <c r="U43" s="91"/>
-      <c r="V43" s="91"/>
-      <c r="W43" s="91"/>
-      <c r="X43" s="91"/>
-      <c r="Y43" s="91"/>
+      <c r="N43" s="80"/>
+      <c r="O43" s="80"/>
+      <c r="P43" s="80"/>
+      <c r="Q43" s="80"/>
+      <c r="R43" s="80"/>
+      <c r="S43" s="80"/>
+      <c r="T43" s="80"/>
+      <c r="U43" s="80"/>
+      <c r="V43" s="80"/>
+      <c r="W43" s="80"/>
+      <c r="X43" s="80"/>
+      <c r="Y43" s="80"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
@@ -20240,18 +20240,18 @@
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
-      <c r="N45" s="91"/>
-      <c r="O45" s="91"/>
-      <c r="P45" s="91"/>
-      <c r="Q45" s="91"/>
-      <c r="R45" s="91"/>
-      <c r="S45" s="91"/>
-      <c r="T45" s="91"/>
-      <c r="U45" s="91"/>
-      <c r="V45" s="91"/>
-      <c r="W45" s="91"/>
-      <c r="X45" s="91"/>
-      <c r="Y45" s="91"/>
+      <c r="N45" s="80"/>
+      <c r="O45" s="80"/>
+      <c r="P45" s="80"/>
+      <c r="Q45" s="80"/>
+      <c r="R45" s="80"/>
+      <c r="S45" s="80"/>
+      <c r="T45" s="80"/>
+      <c r="U45" s="80"/>
+      <c r="V45" s="80"/>
+      <c r="W45" s="80"/>
+      <c r="X45" s="80"/>
+      <c r="Y45" s="80"/>
     </row>
     <row r="46" spans="1:25" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
@@ -20269,18 +20269,18 @@
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
       <c r="M46" s="8"/>
-      <c r="N46" s="91"/>
-      <c r="O46" s="91"/>
-      <c r="P46" s="91"/>
-      <c r="Q46" s="91"/>
-      <c r="R46" s="91"/>
-      <c r="S46" s="91"/>
-      <c r="T46" s="91"/>
-      <c r="U46" s="91"/>
-      <c r="V46" s="91"/>
-      <c r="W46" s="91"/>
-      <c r="X46" s="91"/>
-      <c r="Y46" s="91"/>
+      <c r="N46" s="80"/>
+      <c r="O46" s="80"/>
+      <c r="P46" s="80"/>
+      <c r="Q46" s="80"/>
+      <c r="R46" s="80"/>
+      <c r="S46" s="80"/>
+      <c r="T46" s="80"/>
+      <c r="U46" s="80"/>
+      <c r="V46" s="80"/>
+      <c r="W46" s="80"/>
+      <c r="X46" s="80"/>
+      <c r="Y46" s="80"/>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="22"/>
@@ -20296,18 +20296,18 @@
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
       <c r="M47" s="8"/>
-      <c r="N47" s="91"/>
-      <c r="O47" s="91"/>
-      <c r="P47" s="91"/>
-      <c r="Q47" s="91"/>
-      <c r="R47" s="91"/>
-      <c r="S47" s="91"/>
-      <c r="T47" s="91"/>
-      <c r="U47" s="91"/>
-      <c r="V47" s="91"/>
-      <c r="W47" s="91"/>
-      <c r="X47" s="91"/>
-      <c r="Y47" s="91"/>
+      <c r="N47" s="80"/>
+      <c r="O47" s="80"/>
+      <c r="P47" s="80"/>
+      <c r="Q47" s="80"/>
+      <c r="R47" s="80"/>
+      <c r="S47" s="80"/>
+      <c r="T47" s="80"/>
+      <c r="U47" s="80"/>
+      <c r="V47" s="80"/>
+      <c r="W47" s="80"/>
+      <c r="X47" s="80"/>
+      <c r="Y47" s="80"/>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
@@ -20424,18 +20424,18 @@
       <c r="K49" s="8"/>
       <c r="L49" s="8"/>
       <c r="M49" s="8"/>
-      <c r="N49" s="91"/>
-      <c r="O49" s="91"/>
-      <c r="P49" s="91"/>
-      <c r="Q49" s="91"/>
-      <c r="R49" s="91"/>
-      <c r="S49" s="91"/>
-      <c r="T49" s="91"/>
-      <c r="U49" s="91"/>
-      <c r="V49" s="91"/>
-      <c r="W49" s="91"/>
-      <c r="X49" s="91"/>
-      <c r="Y49" s="91"/>
+      <c r="N49" s="80"/>
+      <c r="O49" s="80"/>
+      <c r="P49" s="80"/>
+      <c r="Q49" s="80"/>
+      <c r="R49" s="80"/>
+      <c r="S49" s="80"/>
+      <c r="T49" s="80"/>
+      <c r="U49" s="80"/>
+      <c r="V49" s="80"/>
+      <c r="W49" s="80"/>
+      <c r="X49" s="80"/>
+      <c r="Y49" s="80"/>
     </row>
     <row r="50" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
@@ -20453,18 +20453,18 @@
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
       <c r="M50" s="8"/>
-      <c r="N50" s="91"/>
-      <c r="O50" s="91"/>
-      <c r="P50" s="91"/>
-      <c r="Q50" s="91"/>
-      <c r="R50" s="91"/>
-      <c r="S50" s="91"/>
-      <c r="T50" s="91"/>
-      <c r="U50" s="91"/>
-      <c r="V50" s="91"/>
-      <c r="W50" s="91"/>
-      <c r="X50" s="91"/>
-      <c r="Y50" s="91"/>
+      <c r="N50" s="80"/>
+      <c r="O50" s="80"/>
+      <c r="P50" s="80"/>
+      <c r="Q50" s="80"/>
+      <c r="R50" s="80"/>
+      <c r="S50" s="80"/>
+      <c r="T50" s="80"/>
+      <c r="U50" s="80"/>
+      <c r="V50" s="80"/>
+      <c r="W50" s="80"/>
+      <c r="X50" s="80"/>
+      <c r="Y50" s="80"/>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="22"/>
@@ -20480,18 +20480,18 @@
       <c r="K51" s="10"/>
       <c r="L51" s="10"/>
       <c r="M51" s="10"/>
-      <c r="N51" s="91"/>
-      <c r="O51" s="91"/>
-      <c r="P51" s="91"/>
-      <c r="Q51" s="91"/>
-      <c r="R51" s="91"/>
-      <c r="S51" s="91"/>
-      <c r="T51" s="91"/>
-      <c r="U51" s="91"/>
-      <c r="V51" s="91"/>
-      <c r="W51" s="91"/>
-      <c r="X51" s="91"/>
-      <c r="Y51" s="91"/>
+      <c r="N51" s="80"/>
+      <c r="O51" s="80"/>
+      <c r="P51" s="80"/>
+      <c r="Q51" s="80"/>
+      <c r="R51" s="80"/>
+      <c r="S51" s="80"/>
+      <c r="T51" s="80"/>
+      <c r="U51" s="80"/>
+      <c r="V51" s="80"/>
+      <c r="W51" s="80"/>
+      <c r="X51" s="80"/>
+      <c r="Y51" s="80"/>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
@@ -20608,18 +20608,18 @@
       <c r="K53" s="10"/>
       <c r="L53" s="10"/>
       <c r="M53" s="10"/>
-      <c r="N53" s="91"/>
-      <c r="O53" s="91"/>
-      <c r="P53" s="91"/>
-      <c r="Q53" s="91"/>
-      <c r="R53" s="91"/>
-      <c r="S53" s="91"/>
-      <c r="T53" s="91"/>
-      <c r="U53" s="91"/>
-      <c r="V53" s="91"/>
-      <c r="W53" s="91"/>
-      <c r="X53" s="91"/>
-      <c r="Y53" s="91"/>
+      <c r="N53" s="80"/>
+      <c r="O53" s="80"/>
+      <c r="P53" s="80"/>
+      <c r="Q53" s="80"/>
+      <c r="R53" s="80"/>
+      <c r="S53" s="80"/>
+      <c r="T53" s="80"/>
+      <c r="U53" s="80"/>
+      <c r="V53" s="80"/>
+      <c r="W53" s="80"/>
+      <c r="X53" s="80"/>
+      <c r="Y53" s="80"/>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="22" t="s">
@@ -20637,18 +20637,18 @@
       <c r="K54" s="10"/>
       <c r="L54" s="10"/>
       <c r="M54" s="10"/>
-      <c r="N54" s="91"/>
-      <c r="O54" s="91"/>
-      <c r="P54" s="91"/>
-      <c r="Q54" s="91"/>
-      <c r="R54" s="91"/>
-      <c r="S54" s="91"/>
-      <c r="T54" s="91"/>
-      <c r="U54" s="91"/>
-      <c r="V54" s="91"/>
-      <c r="W54" s="91"/>
-      <c r="X54" s="91"/>
-      <c r="Y54" s="91"/>
+      <c r="N54" s="80"/>
+      <c r="O54" s="80"/>
+      <c r="P54" s="80"/>
+      <c r="Q54" s="80"/>
+      <c r="R54" s="80"/>
+      <c r="S54" s="80"/>
+      <c r="T54" s="80"/>
+      <c r="U54" s="80"/>
+      <c r="V54" s="80"/>
+      <c r="W54" s="80"/>
+      <c r="X54" s="80"/>
+      <c r="Y54" s="80"/>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="22"/>
@@ -20664,18 +20664,18 @@
       <c r="K55" s="10"/>
       <c r="L55" s="10"/>
       <c r="M55" s="10"/>
-      <c r="N55" s="91"/>
-      <c r="O55" s="91"/>
-      <c r="P55" s="91"/>
-      <c r="Q55" s="91"/>
-      <c r="R55" s="91"/>
-      <c r="S55" s="91"/>
-      <c r="T55" s="91"/>
-      <c r="U55" s="91"/>
-      <c r="V55" s="91"/>
-      <c r="W55" s="91"/>
-      <c r="X55" s="91"/>
-      <c r="Y55" s="91"/>
+      <c r="N55" s="80"/>
+      <c r="O55" s="80"/>
+      <c r="P55" s="80"/>
+      <c r="Q55" s="80"/>
+      <c r="R55" s="80"/>
+      <c r="S55" s="80"/>
+      <c r="T55" s="80"/>
+      <c r="U55" s="80"/>
+      <c r="V55" s="80"/>
+      <c r="W55" s="80"/>
+      <c r="X55" s="80"/>
+      <c r="Y55" s="80"/>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
@@ -20693,18 +20693,18 @@
       <c r="K56" s="8"/>
       <c r="L56" s="8"/>
       <c r="M56" s="8"/>
-      <c r="N56" s="91"/>
-      <c r="O56" s="91"/>
-      <c r="P56" s="91"/>
-      <c r="Q56" s="91"/>
-      <c r="R56" s="91"/>
-      <c r="S56" s="91"/>
-      <c r="T56" s="91"/>
-      <c r="U56" s="91"/>
-      <c r="V56" s="91"/>
-      <c r="W56" s="91"/>
-      <c r="X56" s="91"/>
-      <c r="Y56" s="91"/>
+      <c r="N56" s="80"/>
+      <c r="O56" s="80"/>
+      <c r="P56" s="80"/>
+      <c r="Q56" s="80"/>
+      <c r="R56" s="80"/>
+      <c r="S56" s="80"/>
+      <c r="T56" s="80"/>
+      <c r="U56" s="80"/>
+      <c r="V56" s="80"/>
+      <c r="W56" s="80"/>
+      <c r="X56" s="80"/>
+      <c r="Y56" s="80"/>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="22"/>
@@ -20720,18 +20720,18 @@
       <c r="K57" s="10"/>
       <c r="L57" s="10"/>
       <c r="M57" s="10"/>
-      <c r="N57" s="91"/>
-      <c r="O57" s="91"/>
-      <c r="P57" s="91"/>
-      <c r="Q57" s="91"/>
-      <c r="R57" s="91"/>
-      <c r="S57" s="91"/>
-      <c r="T57" s="91"/>
-      <c r="U57" s="91"/>
-      <c r="V57" s="91"/>
-      <c r="W57" s="91"/>
-      <c r="X57" s="91"/>
-      <c r="Y57" s="91"/>
+      <c r="N57" s="80"/>
+      <c r="O57" s="80"/>
+      <c r="P57" s="80"/>
+      <c r="Q57" s="80"/>
+      <c r="R57" s="80"/>
+      <c r="S57" s="80"/>
+      <c r="T57" s="80"/>
+      <c r="U57" s="80"/>
+      <c r="V57" s="80"/>
+      <c r="W57" s="80"/>
+      <c r="X57" s="80"/>
+      <c r="Y57" s="80"/>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="s">
@@ -20848,18 +20848,18 @@
       <c r="K59" s="10"/>
       <c r="L59" s="10"/>
       <c r="M59" s="10"/>
-      <c r="N59" s="91"/>
-      <c r="O59" s="91"/>
-      <c r="P59" s="91"/>
-      <c r="Q59" s="91"/>
-      <c r="R59" s="91"/>
-      <c r="S59" s="91"/>
-      <c r="T59" s="91"/>
-      <c r="U59" s="91"/>
-      <c r="V59" s="91"/>
-      <c r="W59" s="91"/>
-      <c r="X59" s="91"/>
-      <c r="Y59" s="91"/>
+      <c r="N59" s="80"/>
+      <c r="O59" s="80"/>
+      <c r="P59" s="80"/>
+      <c r="Q59" s="80"/>
+      <c r="R59" s="80"/>
+      <c r="S59" s="80"/>
+      <c r="T59" s="80"/>
+      <c r="U59" s="80"/>
+      <c r="V59" s="80"/>
+      <c r="W59" s="80"/>
+      <c r="X59" s="80"/>
+      <c r="Y59" s="80"/>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="22" t="s">
@@ -20976,18 +20976,18 @@
       <c r="K61" s="10"/>
       <c r="L61" s="10"/>
       <c r="M61" s="10"/>
-      <c r="N61" s="91"/>
-      <c r="O61" s="91"/>
-      <c r="P61" s="91"/>
-      <c r="Q61" s="91"/>
-      <c r="R61" s="91"/>
-      <c r="S61" s="91"/>
-      <c r="T61" s="91"/>
-      <c r="U61" s="91"/>
-      <c r="V61" s="91"/>
-      <c r="W61" s="91"/>
-      <c r="X61" s="91"/>
-      <c r="Y61" s="91"/>
+      <c r="N61" s="80"/>
+      <c r="O61" s="80"/>
+      <c r="P61" s="80"/>
+      <c r="Q61" s="80"/>
+      <c r="R61" s="80"/>
+      <c r="S61" s="80"/>
+      <c r="T61" s="80"/>
+      <c r="U61" s="80"/>
+      <c r="V61" s="80"/>
+      <c r="W61" s="80"/>
+      <c r="X61" s="80"/>
+      <c r="Y61" s="80"/>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="22" t="s">
@@ -21005,18 +21005,18 @@
       <c r="K62" s="8"/>
       <c r="L62" s="8"/>
       <c r="M62" s="8"/>
-      <c r="N62" s="91"/>
-      <c r="O62" s="91"/>
-      <c r="P62" s="91"/>
-      <c r="Q62" s="91"/>
-      <c r="R62" s="91"/>
-      <c r="S62" s="91"/>
-      <c r="T62" s="91"/>
-      <c r="U62" s="91"/>
-      <c r="V62" s="91"/>
-      <c r="W62" s="91"/>
-      <c r="X62" s="91"/>
-      <c r="Y62" s="91"/>
+      <c r="N62" s="80"/>
+      <c r="O62" s="80"/>
+      <c r="P62" s="80"/>
+      <c r="Q62" s="80"/>
+      <c r="R62" s="80"/>
+      <c r="S62" s="80"/>
+      <c r="T62" s="80"/>
+      <c r="U62" s="80"/>
+      <c r="V62" s="80"/>
+      <c r="W62" s="80"/>
+      <c r="X62" s="80"/>
+      <c r="Y62" s="80"/>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="22"/>
@@ -21032,18 +21032,18 @@
       <c r="K63" s="10"/>
       <c r="L63" s="10"/>
       <c r="M63" s="10"/>
-      <c r="N63" s="91"/>
-      <c r="O63" s="91"/>
-      <c r="P63" s="91"/>
-      <c r="Q63" s="91"/>
-      <c r="R63" s="91"/>
-      <c r="S63" s="91"/>
-      <c r="T63" s="91"/>
-      <c r="U63" s="91"/>
-      <c r="V63" s="91"/>
-      <c r="W63" s="91"/>
-      <c r="X63" s="91"/>
-      <c r="Y63" s="91"/>
+      <c r="N63" s="80"/>
+      <c r="O63" s="80"/>
+      <c r="P63" s="80"/>
+      <c r="Q63" s="80"/>
+      <c r="R63" s="80"/>
+      <c r="S63" s="80"/>
+      <c r="T63" s="80"/>
+      <c r="U63" s="80"/>
+      <c r="V63" s="80"/>
+      <c r="W63" s="80"/>
+      <c r="X63" s="80"/>
+      <c r="Y63" s="80"/>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="22" t="s">
@@ -21160,18 +21160,18 @@
       <c r="K65" s="8"/>
       <c r="L65" s="8"/>
       <c r="M65" s="8"/>
-      <c r="N65" s="91"/>
-      <c r="O65" s="91"/>
-      <c r="P65" s="91"/>
-      <c r="Q65" s="91"/>
-      <c r="R65" s="91"/>
-      <c r="S65" s="91"/>
-      <c r="T65" s="91"/>
-      <c r="U65" s="91"/>
-      <c r="V65" s="91"/>
-      <c r="W65" s="91"/>
-      <c r="X65" s="91"/>
-      <c r="Y65" s="91"/>
+      <c r="N65" s="80"/>
+      <c r="O65" s="80"/>
+      <c r="P65" s="80"/>
+      <c r="Q65" s="80"/>
+      <c r="R65" s="80"/>
+      <c r="S65" s="80"/>
+      <c r="T65" s="80"/>
+      <c r="U65" s="80"/>
+      <c r="V65" s="80"/>
+      <c r="W65" s="80"/>
+      <c r="X65" s="80"/>
+      <c r="Y65" s="80"/>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" s="22" t="s">
@@ -21189,18 +21189,18 @@
       <c r="K66" s="8"/>
       <c r="L66" s="8"/>
       <c r="M66" s="8"/>
-      <c r="N66" s="91"/>
-      <c r="O66" s="91"/>
-      <c r="P66" s="91"/>
-      <c r="Q66" s="91"/>
-      <c r="R66" s="91"/>
-      <c r="S66" s="91"/>
-      <c r="T66" s="91"/>
-      <c r="U66" s="91"/>
-      <c r="V66" s="91"/>
-      <c r="W66" s="91"/>
-      <c r="X66" s="91"/>
-      <c r="Y66" s="91"/>
+      <c r="N66" s="80"/>
+      <c r="O66" s="80"/>
+      <c r="P66" s="80"/>
+      <c r="Q66" s="80"/>
+      <c r="R66" s="80"/>
+      <c r="S66" s="80"/>
+      <c r="T66" s="80"/>
+      <c r="U66" s="80"/>
+      <c r="V66" s="80"/>
+      <c r="W66" s="80"/>
+      <c r="X66" s="80"/>
+      <c r="Y66" s="80"/>
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" s="22" t="s">
@@ -21319,18 +21319,18 @@
       <c r="K68" s="8"/>
       <c r="L68" s="8"/>
       <c r="M68" s="8"/>
-      <c r="N68" s="91"/>
-      <c r="O68" s="91"/>
-      <c r="P68" s="91"/>
-      <c r="Q68" s="91"/>
-      <c r="R68" s="91"/>
-      <c r="S68" s="91"/>
-      <c r="T68" s="91"/>
-      <c r="U68" s="91"/>
-      <c r="V68" s="91"/>
-      <c r="W68" s="91"/>
-      <c r="X68" s="91"/>
-      <c r="Y68" s="91"/>
+      <c r="N68" s="80"/>
+      <c r="O68" s="80"/>
+      <c r="P68" s="80"/>
+      <c r="Q68" s="80"/>
+      <c r="R68" s="80"/>
+      <c r="S68" s="80"/>
+      <c r="T68" s="80"/>
+      <c r="U68" s="80"/>
+      <c r="V68" s="80"/>
+      <c r="W68" s="80"/>
+      <c r="X68" s="80"/>
+      <c r="Y68" s="80"/>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" s="22" t="s">
@@ -21550,18 +21550,18 @@
       <c r="K71" s="8"/>
       <c r="L71" s="8"/>
       <c r="M71" s="8"/>
-      <c r="N71" s="91"/>
-      <c r="O71" s="91"/>
-      <c r="P71" s="91"/>
-      <c r="Q71" s="91"/>
-      <c r="R71" s="91"/>
-      <c r="S71" s="91"/>
-      <c r="T71" s="91"/>
-      <c r="U71" s="91"/>
-      <c r="V71" s="91"/>
-      <c r="W71" s="91"/>
-      <c r="X71" s="91"/>
-      <c r="Y71" s="91"/>
+      <c r="N71" s="80"/>
+      <c r="O71" s="80"/>
+      <c r="P71" s="80"/>
+      <c r="Q71" s="80"/>
+      <c r="R71" s="80"/>
+      <c r="S71" s="80"/>
+      <c r="T71" s="80"/>
+      <c r="U71" s="80"/>
+      <c r="V71" s="80"/>
+      <c r="W71" s="80"/>
+      <c r="X71" s="80"/>
+      <c r="Y71" s="80"/>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" s="22"/>
@@ -21577,18 +21577,18 @@
       <c r="K72" s="8"/>
       <c r="L72" s="8"/>
       <c r="M72" s="8"/>
-      <c r="N72" s="91"/>
-      <c r="O72" s="91"/>
-      <c r="P72" s="91"/>
-      <c r="Q72" s="91"/>
-      <c r="R72" s="91"/>
-      <c r="S72" s="91"/>
-      <c r="T72" s="91"/>
-      <c r="U72" s="91"/>
-      <c r="V72" s="91"/>
-      <c r="W72" s="91"/>
-      <c r="X72" s="91"/>
-      <c r="Y72" s="91"/>
+      <c r="N72" s="80"/>
+      <c r="O72" s="80"/>
+      <c r="P72" s="80"/>
+      <c r="Q72" s="80"/>
+      <c r="R72" s="80"/>
+      <c r="S72" s="80"/>
+      <c r="T72" s="80"/>
+      <c r="U72" s="80"/>
+      <c r="V72" s="80"/>
+      <c r="W72" s="80"/>
+      <c r="X72" s="80"/>
+      <c r="Y72" s="80"/>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" s="22" t="s">
@@ -21705,18 +21705,18 @@
       <c r="K74" s="8"/>
       <c r="L74" s="8"/>
       <c r="M74" s="8"/>
-      <c r="N74" s="91"/>
-      <c r="O74" s="91"/>
-      <c r="P74" s="91"/>
-      <c r="Q74" s="91"/>
-      <c r="R74" s="91"/>
-      <c r="S74" s="91"/>
-      <c r="T74" s="91"/>
-      <c r="U74" s="91"/>
-      <c r="V74" s="91"/>
-      <c r="W74" s="91"/>
-      <c r="X74" s="91"/>
-      <c r="Y74" s="91"/>
+      <c r="N74" s="80"/>
+      <c r="O74" s="80"/>
+      <c r="P74" s="80"/>
+      <c r="Q74" s="80"/>
+      <c r="R74" s="80"/>
+      <c r="S74" s="80"/>
+      <c r="T74" s="80"/>
+      <c r="U74" s="80"/>
+      <c r="V74" s="80"/>
+      <c r="W74" s="80"/>
+      <c r="X74" s="80"/>
+      <c r="Y74" s="80"/>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" s="22" t="s">
@@ -21734,18 +21734,18 @@
       <c r="K75" s="8"/>
       <c r="L75" s="8"/>
       <c r="M75" s="8"/>
-      <c r="N75" s="91"/>
-      <c r="O75" s="91"/>
-      <c r="P75" s="91"/>
-      <c r="Q75" s="91"/>
-      <c r="R75" s="91"/>
-      <c r="S75" s="91"/>
-      <c r="T75" s="91"/>
-      <c r="U75" s="91"/>
-      <c r="V75" s="91"/>
-      <c r="W75" s="91"/>
-      <c r="X75" s="91"/>
-      <c r="Y75" s="91"/>
+      <c r="N75" s="80"/>
+      <c r="O75" s="80"/>
+      <c r="P75" s="80"/>
+      <c r="Q75" s="80"/>
+      <c r="R75" s="80"/>
+      <c r="S75" s="80"/>
+      <c r="T75" s="80"/>
+      <c r="U75" s="80"/>
+      <c r="V75" s="80"/>
+      <c r="W75" s="80"/>
+      <c r="X75" s="80"/>
+      <c r="Y75" s="80"/>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" s="22" t="s">
@@ -21763,18 +21763,18 @@
       <c r="K76" s="8"/>
       <c r="L76" s="8"/>
       <c r="M76" s="8"/>
-      <c r="N76" s="91"/>
-      <c r="O76" s="91"/>
-      <c r="P76" s="91"/>
-      <c r="Q76" s="91"/>
-      <c r="R76" s="91"/>
-      <c r="S76" s="91"/>
-      <c r="T76" s="91"/>
-      <c r="U76" s="91"/>
-      <c r="V76" s="91"/>
-      <c r="W76" s="91"/>
-      <c r="X76" s="91"/>
-      <c r="Y76" s="91"/>
+      <c r="N76" s="80"/>
+      <c r="O76" s="80"/>
+      <c r="P76" s="80"/>
+      <c r="Q76" s="80"/>
+      <c r="R76" s="80"/>
+      <c r="S76" s="80"/>
+      <c r="T76" s="80"/>
+      <c r="U76" s="80"/>
+      <c r="V76" s="80"/>
+      <c r="W76" s="80"/>
+      <c r="X76" s="80"/>
+      <c r="Y76" s="80"/>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" s="22" t="s">
@@ -21792,18 +21792,18 @@
       <c r="K77" s="8"/>
       <c r="L77" s="8"/>
       <c r="M77" s="8"/>
-      <c r="N77" s="91"/>
-      <c r="O77" s="91"/>
-      <c r="P77" s="91"/>
-      <c r="Q77" s="91"/>
-      <c r="R77" s="91"/>
-      <c r="S77" s="91"/>
-      <c r="T77" s="91"/>
-      <c r="U77" s="91"/>
-      <c r="V77" s="91"/>
-      <c r="W77" s="91"/>
-      <c r="X77" s="91"/>
-      <c r="Y77" s="91"/>
+      <c r="N77" s="80"/>
+      <c r="O77" s="80"/>
+      <c r="P77" s="80"/>
+      <c r="Q77" s="80"/>
+      <c r="R77" s="80"/>
+      <c r="S77" s="80"/>
+      <c r="T77" s="80"/>
+      <c r="U77" s="80"/>
+      <c r="V77" s="80"/>
+      <c r="W77" s="80"/>
+      <c r="X77" s="80"/>
+      <c r="Y77" s="80"/>
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" s="22" t="str">
@@ -21924,18 +21924,18 @@
       <c r="K79" s="8"/>
       <c r="L79" s="8"/>
       <c r="M79" s="8"/>
-      <c r="N79" s="91"/>
-      <c r="O79" s="91"/>
-      <c r="P79" s="91"/>
-      <c r="Q79" s="91"/>
-      <c r="R79" s="91"/>
-      <c r="S79" s="91"/>
-      <c r="T79" s="91"/>
-      <c r="U79" s="91"/>
-      <c r="V79" s="91"/>
-      <c r="W79" s="91"/>
-      <c r="X79" s="91"/>
-      <c r="Y79" s="91"/>
+      <c r="N79" s="80"/>
+      <c r="O79" s="80"/>
+      <c r="P79" s="80"/>
+      <c r="Q79" s="80"/>
+      <c r="R79" s="80"/>
+      <c r="S79" s="80"/>
+      <c r="T79" s="80"/>
+      <c r="U79" s="80"/>
+      <c r="V79" s="80"/>
+      <c r="W79" s="80"/>
+      <c r="X79" s="80"/>
+      <c r="Y79" s="80"/>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" s="22" t="s">
@@ -21953,18 +21953,18 @@
       <c r="K80" s="8"/>
       <c r="L80" s="8"/>
       <c r="M80" s="8"/>
-      <c r="N80" s="91"/>
-      <c r="O80" s="91"/>
-      <c r="P80" s="91"/>
-      <c r="Q80" s="91"/>
-      <c r="R80" s="91"/>
-      <c r="S80" s="91"/>
-      <c r="T80" s="91"/>
-      <c r="U80" s="91"/>
-      <c r="V80" s="91"/>
-      <c r="W80" s="91"/>
-      <c r="X80" s="91"/>
-      <c r="Y80" s="91"/>
+      <c r="N80" s="80"/>
+      <c r="O80" s="80"/>
+      <c r="P80" s="80"/>
+      <c r="Q80" s="80"/>
+      <c r="R80" s="80"/>
+      <c r="S80" s="80"/>
+      <c r="T80" s="80"/>
+      <c r="U80" s="80"/>
+      <c r="V80" s="80"/>
+      <c r="W80" s="80"/>
+      <c r="X80" s="80"/>
+      <c r="Y80" s="80"/>
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" s="22"/>
@@ -21980,18 +21980,18 @@
       <c r="K81" s="8"/>
       <c r="L81" s="8"/>
       <c r="M81" s="8"/>
-      <c r="N81" s="91"/>
-      <c r="O81" s="91"/>
-      <c r="P81" s="91"/>
-      <c r="Q81" s="91"/>
-      <c r="R81" s="91"/>
-      <c r="S81" s="91"/>
-      <c r="T81" s="91"/>
-      <c r="U81" s="91"/>
-      <c r="V81" s="91"/>
-      <c r="W81" s="91"/>
-      <c r="X81" s="91"/>
-      <c r="Y81" s="91"/>
+      <c r="N81" s="80"/>
+      <c r="O81" s="80"/>
+      <c r="P81" s="80"/>
+      <c r="Q81" s="80"/>
+      <c r="R81" s="80"/>
+      <c r="S81" s="80"/>
+      <c r="T81" s="80"/>
+      <c r="U81" s="80"/>
+      <c r="V81" s="80"/>
+      <c r="W81" s="80"/>
+      <c r="X81" s="80"/>
+      <c r="Y81" s="80"/>
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82" s="22" t="s">
@@ -22108,18 +22108,18 @@
       <c r="K83" s="8"/>
       <c r="L83" s="8"/>
       <c r="M83" s="8"/>
-      <c r="N83" s="91"/>
-      <c r="O83" s="91"/>
-      <c r="P83" s="91"/>
-      <c r="Q83" s="91"/>
-      <c r="R83" s="91"/>
-      <c r="S83" s="91"/>
-      <c r="T83" s="91"/>
-      <c r="U83" s="91"/>
-      <c r="V83" s="91"/>
-      <c r="W83" s="91"/>
-      <c r="X83" s="91"/>
-      <c r="Y83" s="91"/>
+      <c r="N83" s="80"/>
+      <c r="O83" s="80"/>
+      <c r="P83" s="80"/>
+      <c r="Q83" s="80"/>
+      <c r="R83" s="80"/>
+      <c r="S83" s="80"/>
+      <c r="T83" s="80"/>
+      <c r="U83" s="80"/>
+      <c r="V83" s="80"/>
+      <c r="W83" s="80"/>
+      <c r="X83" s="80"/>
+      <c r="Y83" s="80"/>
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" s="22" t="s">
@@ -22236,18 +22236,18 @@
       <c r="K85" s="8"/>
       <c r="L85" s="8"/>
       <c r="M85" s="8"/>
-      <c r="N85" s="91"/>
-      <c r="O85" s="91"/>
-      <c r="P85" s="91"/>
-      <c r="Q85" s="91"/>
-      <c r="R85" s="91"/>
-      <c r="S85" s="91"/>
-      <c r="T85" s="91"/>
-      <c r="U85" s="91"/>
-      <c r="V85" s="91"/>
-      <c r="W85" s="91"/>
-      <c r="X85" s="91"/>
-      <c r="Y85" s="91"/>
+      <c r="N85" s="80"/>
+      <c r="O85" s="80"/>
+      <c r="P85" s="80"/>
+      <c r="Q85" s="80"/>
+      <c r="R85" s="80"/>
+      <c r="S85" s="80"/>
+      <c r="T85" s="80"/>
+      <c r="U85" s="80"/>
+      <c r="V85" s="80"/>
+      <c r="W85" s="80"/>
+      <c r="X85" s="80"/>
+      <c r="Y85" s="80"/>
     </row>
     <row r="86" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="25" t="s">
@@ -22396,13 +22396,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="117" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
       <c r="F1" s="37"/>
       <c r="G1" s="38"/>
       <c r="H1" s="38"/>
@@ -22423,13 +22423,13 @@
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="118" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
       <c r="F2" s="41"/>
       <c r="G2" s="41"/>
       <c r="H2" s="41"/>
@@ -22440,13 +22440,13 @@
       <c r="M2" s="41"/>
     </row>
     <row r="3" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="121" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
       <c r="F3" s="43"/>
       <c r="G3" s="43"/>
       <c r="H3" s="43"/>
@@ -22457,15 +22457,15 @@
       <c r="M3" s="43"/>
     </row>
     <row r="4" spans="1:25" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="119" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="123" t="s">
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="124" t="s">
+      <c r="E4" s="99" t="s">
         <v>40</v>
       </c>
       <c r="F4" s="44"/>
@@ -22490,10 +22490,10 @@
       <c r="Y4" s="44"/>
     </row>
     <row r="5" spans="1:25" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="115" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="99">
+      <c r="B5" s="87">
         <f>'Operating Stmt.'!B5</f>
         <v>2015</v>
       </c>
@@ -22591,159 +22591,159 @@
       </c>
     </row>
     <row r="6" spans="1:25" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="110"/>
-      <c r="B6" s="115" t="str">
+      <c r="A6" s="116"/>
+      <c r="B6" s="122" t="str">
         <f>+'Operating Stmt.'!B6:B6</f>
         <v>Audited</v>
       </c>
-      <c r="C6" s="84" t="str">
+      <c r="C6" s="111" t="str">
         <f>+'Operating Stmt.'!C6:C6</f>
         <v>Audited</v>
       </c>
-      <c r="D6" s="84" t="str">
+      <c r="D6" s="111" t="str">
         <f>+'Operating Stmt.'!D6:D6</f>
         <v>Audited</v>
       </c>
-      <c r="E6" s="84" t="str">
+      <c r="E6" s="111" t="str">
         <f>+'Operating Stmt.'!E6:E6</f>
         <v>Estimated</v>
       </c>
-      <c r="F6" s="84" t="str">
+      <c r="F6" s="111" t="str">
         <f>+'Operating Stmt.'!F6:F6</f>
         <v>Projected</v>
       </c>
-      <c r="G6" s="84" t="str">
+      <c r="G6" s="111" t="str">
         <f>+'Operating Stmt.'!G6:G6</f>
         <v>Projected</v>
       </c>
-      <c r="H6" s="84" t="str">
+      <c r="H6" s="111" t="str">
         <f>+'Operating Stmt.'!H6:H6</f>
         <v>Projected</v>
       </c>
-      <c r="I6" s="84" t="str">
+      <c r="I6" s="111" t="str">
         <f>+'Operating Stmt.'!I6:I6</f>
         <v>Projected</v>
       </c>
-      <c r="J6" s="84" t="str">
+      <c r="J6" s="111" t="str">
         <f>+'Operating Stmt.'!J6:J6</f>
         <v>Projected</v>
       </c>
-      <c r="K6" s="84" t="str">
+      <c r="K6" s="111" t="str">
         <f>+'Operating Stmt.'!K6:K6</f>
         <v>Projected</v>
       </c>
-      <c r="L6" s="84" t="str">
+      <c r="L6" s="111" t="str">
         <f>+'Operating Stmt.'!L6:L6</f>
         <v>Projected</v>
       </c>
-      <c r="M6" s="106" t="str">
+      <c r="M6" s="109" t="str">
         <f>+'Operating Stmt.'!M6:M6</f>
         <v>Projected</v>
       </c>
-      <c r="N6" s="107" t="str">
+      <c r="N6" s="125" t="str">
         <f>+'Operating Stmt.'!N6:N6</f>
         <v>Projected</v>
       </c>
-      <c r="O6" s="107" t="str">
+      <c r="O6" s="125" t="str">
         <f>+'Operating Stmt.'!O6:O6</f>
         <v>Projected</v>
       </c>
-      <c r="P6" s="107" t="str">
+      <c r="P6" s="125" t="str">
         <f>+'Operating Stmt.'!P6:P6</f>
         <v>Projected</v>
       </c>
-      <c r="Q6" s="107" t="str">
+      <c r="Q6" s="125" t="str">
         <f>+'Operating Stmt.'!Q6:Q6</f>
         <v>Projected</v>
       </c>
-      <c r="R6" s="107" t="str">
+      <c r="R6" s="125" t="str">
         <f>+'Operating Stmt.'!R6:R6</f>
         <v>Projected</v>
       </c>
-      <c r="S6" s="107" t="str">
+      <c r="S6" s="125" t="str">
         <f>+'Operating Stmt.'!S6:S6</f>
         <v>Projected</v>
       </c>
-      <c r="T6" s="107" t="str">
+      <c r="T6" s="125" t="str">
         <f>+'Operating Stmt.'!T6:T6</f>
         <v>Projected</v>
       </c>
-      <c r="U6" s="107" t="str">
+      <c r="U6" s="125" t="str">
         <f>+'Operating Stmt.'!U6:U6</f>
         <v>Projected</v>
       </c>
-      <c r="V6" s="107" t="str">
+      <c r="V6" s="125" t="str">
         <f>+'Operating Stmt.'!V6:V6</f>
         <v>Projected</v>
       </c>
-      <c r="W6" s="107" t="str">
+      <c r="W6" s="125" t="str">
         <f>+'Operating Stmt.'!W6:W6</f>
         <v>Projected</v>
       </c>
-      <c r="X6" s="107" t="str">
+      <c r="X6" s="125" t="str">
         <f>+'Operating Stmt.'!X6:X6</f>
         <v>Projected</v>
       </c>
-      <c r="Y6" s="116" t="str">
+      <c r="Y6" s="127" t="str">
         <f>+'Operating Stmt.'!Y6:Y6</f>
         <v>Projected</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="110"/>
-      <c r="B7" s="117"/>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="119"/>
-      <c r="L7" s="119"/>
-      <c r="M7" s="120"/>
-      <c r="N7" s="121"/>
-      <c r="O7" s="121"/>
-      <c r="P7" s="121"/>
-      <c r="Q7" s="121"/>
-      <c r="R7" s="121"/>
-      <c r="S7" s="121"/>
-      <c r="T7" s="121"/>
-      <c r="U7" s="121"/>
-      <c r="V7" s="121"/>
-      <c r="W7" s="121"/>
-      <c r="X7" s="121"/>
-      <c r="Y7" s="122"/>
+      <c r="A7" s="116"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="124"/>
+      <c r="D7" s="124"/>
+      <c r="E7" s="124"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="112"/>
+      <c r="M7" s="110"/>
+      <c r="N7" s="126"/>
+      <c r="O7" s="126"/>
+      <c r="P7" s="126"/>
+      <c r="Q7" s="126"/>
+      <c r="R7" s="126"/>
+      <c r="S7" s="126"/>
+      <c r="T7" s="126"/>
+      <c r="U7" s="126"/>
+      <c r="V7" s="126"/>
+      <c r="W7" s="126"/>
+      <c r="X7" s="126"/>
+      <c r="Y7" s="128"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="112"/>
-      <c r="C8" s="112"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="113"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="113"/>
-      <c r="H8" s="113"/>
-      <c r="I8" s="113"/>
-      <c r="J8" s="113"/>
-      <c r="K8" s="113"/>
-      <c r="L8" s="113"/>
-      <c r="M8" s="113"/>
-      <c r="N8" s="114"/>
-      <c r="O8" s="114"/>
-      <c r="P8" s="114"/>
-      <c r="Q8" s="114"/>
-      <c r="R8" s="114"/>
-      <c r="S8" s="114"/>
-      <c r="T8" s="114"/>
-      <c r="U8" s="114"/>
-      <c r="V8" s="114"/>
-      <c r="W8" s="114"/>
-      <c r="X8" s="114"/>
-      <c r="Y8" s="114"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="96"/>
+      <c r="K8" s="96"/>
+      <c r="L8" s="96"/>
+      <c r="M8" s="96"/>
+      <c r="N8" s="97"/>
+      <c r="O8" s="97"/>
+      <c r="P8" s="97"/>
+      <c r="Q8" s="97"/>
+      <c r="R8" s="97"/>
+      <c r="S8" s="97"/>
+      <c r="T8" s="97"/>
+      <c r="U8" s="97"/>
+      <c r="V8" s="97"/>
+      <c r="W8" s="97"/>
+      <c r="X8" s="97"/>
+      <c r="Y8" s="97"/>
     </row>
     <row r="9" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
@@ -22761,18 +22761,18 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
-      <c r="N9" s="108"/>
-      <c r="O9" s="108"/>
-      <c r="P9" s="108"/>
-      <c r="Q9" s="108"/>
-      <c r="R9" s="108"/>
-      <c r="S9" s="108"/>
-      <c r="T9" s="108"/>
-      <c r="U9" s="108"/>
-      <c r="V9" s="108"/>
-      <c r="W9" s="108"/>
-      <c r="X9" s="108"/>
-      <c r="Y9" s="108"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="94"/>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="94"/>
+      <c r="S9" s="94"/>
+      <c r="T9" s="94"/>
+      <c r="U9" s="94"/>
+      <c r="V9" s="94"/>
+      <c r="W9" s="94"/>
+      <c r="X9" s="94"/>
+      <c r="Y9" s="94"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
@@ -22790,18 +22790,18 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
-      <c r="N10" s="108"/>
-      <c r="O10" s="108"/>
-      <c r="P10" s="108"/>
-      <c r="Q10" s="108"/>
-      <c r="R10" s="108"/>
-      <c r="S10" s="108"/>
-      <c r="T10" s="108"/>
-      <c r="U10" s="108"/>
-      <c r="V10" s="108"/>
-      <c r="W10" s="108"/>
-      <c r="X10" s="108"/>
-      <c r="Y10" s="108"/>
+      <c r="N10" s="94"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="94"/>
+      <c r="Q10" s="94"/>
+      <c r="R10" s="94"/>
+      <c r="S10" s="94"/>
+      <c r="T10" s="94"/>
+      <c r="U10" s="94"/>
+      <c r="V10" s="94"/>
+      <c r="W10" s="94"/>
+      <c r="X10" s="94"/>
+      <c r="Y10" s="94"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
@@ -22819,18 +22819,18 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-      <c r="N11" s="108"/>
-      <c r="O11" s="108"/>
-      <c r="P11" s="108"/>
-      <c r="Q11" s="108"/>
-      <c r="R11" s="108"/>
-      <c r="S11" s="108"/>
-      <c r="T11" s="108"/>
-      <c r="U11" s="108"/>
-      <c r="V11" s="108"/>
-      <c r="W11" s="108"/>
-      <c r="X11" s="108"/>
-      <c r="Y11" s="108"/>
+      <c r="N11" s="94"/>
+      <c r="O11" s="94"/>
+      <c r="P11" s="94"/>
+      <c r="Q11" s="94"/>
+      <c r="R11" s="94"/>
+      <c r="S11" s="94"/>
+      <c r="T11" s="94"/>
+      <c r="U11" s="94"/>
+      <c r="V11" s="94"/>
+      <c r="W11" s="94"/>
+      <c r="X11" s="94"/>
+      <c r="Y11" s="94"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
@@ -22848,18 +22848,18 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
-      <c r="N12" s="108"/>
-      <c r="O12" s="108"/>
-      <c r="P12" s="108"/>
-      <c r="Q12" s="108"/>
-      <c r="R12" s="108"/>
-      <c r="S12" s="108"/>
-      <c r="T12" s="108"/>
-      <c r="U12" s="108"/>
-      <c r="V12" s="108"/>
-      <c r="W12" s="108"/>
-      <c r="X12" s="108"/>
-      <c r="Y12" s="108"/>
+      <c r="N12" s="94"/>
+      <c r="O12" s="94"/>
+      <c r="P12" s="94"/>
+      <c r="Q12" s="94"/>
+      <c r="R12" s="94"/>
+      <c r="S12" s="94"/>
+      <c r="T12" s="94"/>
+      <c r="U12" s="94"/>
+      <c r="V12" s="94"/>
+      <c r="W12" s="94"/>
+      <c r="X12" s="94"/>
+      <c r="Y12" s="94"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
@@ -22877,18 +22877,18 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
-      <c r="N13" s="108"/>
-      <c r="O13" s="108"/>
-      <c r="P13" s="108"/>
-      <c r="Q13" s="108"/>
-      <c r="R13" s="108"/>
-      <c r="S13" s="108"/>
-      <c r="T13" s="108"/>
-      <c r="U13" s="108"/>
-      <c r="V13" s="108"/>
-      <c r="W13" s="108"/>
-      <c r="X13" s="108"/>
-      <c r="Y13" s="108"/>
+      <c r="N13" s="94"/>
+      <c r="O13" s="94"/>
+      <c r="P13" s="94"/>
+      <c r="Q13" s="94"/>
+      <c r="R13" s="94"/>
+      <c r="S13" s="94"/>
+      <c r="T13" s="94"/>
+      <c r="U13" s="94"/>
+      <c r="V13" s="94"/>
+      <c r="W13" s="94"/>
+      <c r="X13" s="94"/>
+      <c r="Y13" s="94"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
@@ -22906,18 +22906,18 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
-      <c r="N14" s="108"/>
-      <c r="O14" s="108"/>
-      <c r="P14" s="108"/>
-      <c r="Q14" s="108"/>
-      <c r="R14" s="108"/>
-      <c r="S14" s="108"/>
-      <c r="T14" s="108"/>
-      <c r="U14" s="108"/>
-      <c r="V14" s="108"/>
-      <c r="W14" s="108"/>
-      <c r="X14" s="108"/>
-      <c r="Y14" s="108"/>
+      <c r="N14" s="94"/>
+      <c r="O14" s="94"/>
+      <c r="P14" s="94"/>
+      <c r="Q14" s="94"/>
+      <c r="R14" s="94"/>
+      <c r="S14" s="94"/>
+      <c r="T14" s="94"/>
+      <c r="U14" s="94"/>
+      <c r="V14" s="94"/>
+      <c r="W14" s="94"/>
+      <c r="X14" s="94"/>
+      <c r="Y14" s="94"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
@@ -23034,18 +23034,18 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-      <c r="N16" s="108"/>
-      <c r="O16" s="108"/>
-      <c r="P16" s="108"/>
-      <c r="Q16" s="108"/>
-      <c r="R16" s="108"/>
-      <c r="S16" s="108"/>
-      <c r="T16" s="108"/>
-      <c r="U16" s="108"/>
-      <c r="V16" s="108"/>
-      <c r="W16" s="108"/>
-      <c r="X16" s="108"/>
-      <c r="Y16" s="108"/>
+      <c r="N16" s="94"/>
+      <c r="O16" s="94"/>
+      <c r="P16" s="94"/>
+      <c r="Q16" s="94"/>
+      <c r="R16" s="94"/>
+      <c r="S16" s="94"/>
+      <c r="T16" s="94"/>
+      <c r="U16" s="94"/>
+      <c r="V16" s="94"/>
+      <c r="W16" s="94"/>
+      <c r="X16" s="94"/>
+      <c r="Y16" s="94"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
@@ -23063,18 +23063,18 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
-      <c r="N17" s="108"/>
-      <c r="O17" s="108"/>
-      <c r="P17" s="108"/>
-      <c r="Q17" s="108"/>
-      <c r="R17" s="108"/>
-      <c r="S17" s="108"/>
-      <c r="T17" s="108"/>
-      <c r="U17" s="108"/>
-      <c r="V17" s="108"/>
-      <c r="W17" s="108"/>
-      <c r="X17" s="108"/>
-      <c r="Y17" s="108"/>
+      <c r="N17" s="94"/>
+      <c r="O17" s="94"/>
+      <c r="P17" s="94"/>
+      <c r="Q17" s="94"/>
+      <c r="R17" s="94"/>
+      <c r="S17" s="94"/>
+      <c r="T17" s="94"/>
+      <c r="U17" s="94"/>
+      <c r="V17" s="94"/>
+      <c r="W17" s="94"/>
+      <c r="X17" s="94"/>
+      <c r="Y17" s="94"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="22"/>
@@ -23090,18 +23090,18 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
-      <c r="N18" s="108"/>
-      <c r="O18" s="108"/>
-      <c r="P18" s="108"/>
-      <c r="Q18" s="108"/>
-      <c r="R18" s="108"/>
-      <c r="S18" s="108"/>
-      <c r="T18" s="108"/>
-      <c r="U18" s="108"/>
-      <c r="V18" s="108"/>
-      <c r="W18" s="108"/>
-      <c r="X18" s="108"/>
-      <c r="Y18" s="108"/>
+      <c r="N18" s="94"/>
+      <c r="O18" s="94"/>
+      <c r="P18" s="94"/>
+      <c r="Q18" s="94"/>
+      <c r="R18" s="94"/>
+      <c r="S18" s="94"/>
+      <c r="T18" s="94"/>
+      <c r="U18" s="94"/>
+      <c r="V18" s="94"/>
+      <c r="W18" s="94"/>
+      <c r="X18" s="94"/>
+      <c r="Y18" s="94"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
@@ -23119,18 +23119,18 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-      <c r="N19" s="108"/>
-      <c r="O19" s="108"/>
-      <c r="P19" s="108"/>
-      <c r="Q19" s="108"/>
-      <c r="R19" s="108"/>
-      <c r="S19" s="108"/>
-      <c r="T19" s="108"/>
-      <c r="U19" s="108"/>
-      <c r="V19" s="108"/>
-      <c r="W19" s="108"/>
-      <c r="X19" s="108"/>
-      <c r="Y19" s="108"/>
+      <c r="N19" s="94"/>
+      <c r="O19" s="94"/>
+      <c r="P19" s="94"/>
+      <c r="Q19" s="94"/>
+      <c r="R19" s="94"/>
+      <c r="S19" s="94"/>
+      <c r="T19" s="94"/>
+      <c r="U19" s="94"/>
+      <c r="V19" s="94"/>
+      <c r="W19" s="94"/>
+      <c r="X19" s="94"/>
+      <c r="Y19" s="94"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="22"/>
@@ -23146,18 +23146,18 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
-      <c r="N20" s="108"/>
-      <c r="O20" s="108"/>
-      <c r="P20" s="108"/>
-      <c r="Q20" s="108"/>
-      <c r="R20" s="108"/>
-      <c r="S20" s="108"/>
-      <c r="T20" s="108"/>
-      <c r="U20" s="108"/>
-      <c r="V20" s="108"/>
-      <c r="W20" s="108"/>
-      <c r="X20" s="108"/>
-      <c r="Y20" s="108"/>
+      <c r="N20" s="94"/>
+      <c r="O20" s="94"/>
+      <c r="P20" s="94"/>
+      <c r="Q20" s="94"/>
+      <c r="R20" s="94"/>
+      <c r="S20" s="94"/>
+      <c r="T20" s="94"/>
+      <c r="U20" s="94"/>
+      <c r="V20" s="94"/>
+      <c r="W20" s="94"/>
+      <c r="X20" s="94"/>
+      <c r="Y20" s="94"/>
     </row>
     <row r="21" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
@@ -23175,18 +23175,18 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
-      <c r="N21" s="108"/>
-      <c r="O21" s="108"/>
-      <c r="P21" s="108"/>
-      <c r="Q21" s="108"/>
-      <c r="R21" s="108"/>
-      <c r="S21" s="108"/>
-      <c r="T21" s="108"/>
-      <c r="U21" s="108"/>
-      <c r="V21" s="108"/>
-      <c r="W21" s="108"/>
-      <c r="X21" s="108"/>
-      <c r="Y21" s="108"/>
+      <c r="N21" s="94"/>
+      <c r="O21" s="94"/>
+      <c r="P21" s="94"/>
+      <c r="Q21" s="94"/>
+      <c r="R21" s="94"/>
+      <c r="S21" s="94"/>
+      <c r="T21" s="94"/>
+      <c r="U21" s="94"/>
+      <c r="V21" s="94"/>
+      <c r="W21" s="94"/>
+      <c r="X21" s="94"/>
+      <c r="Y21" s="94"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="22"/>
@@ -23202,18 +23202,18 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
-      <c r="N22" s="108"/>
-      <c r="O22" s="108"/>
-      <c r="P22" s="108"/>
-      <c r="Q22" s="108"/>
-      <c r="R22" s="108"/>
-      <c r="S22" s="108"/>
-      <c r="T22" s="108"/>
-      <c r="U22" s="108"/>
-      <c r="V22" s="108"/>
-      <c r="W22" s="108"/>
-      <c r="X22" s="108"/>
-      <c r="Y22" s="108"/>
+      <c r="N22" s="94"/>
+      <c r="O22" s="94"/>
+      <c r="P22" s="94"/>
+      <c r="Q22" s="94"/>
+      <c r="R22" s="94"/>
+      <c r="S22" s="94"/>
+      <c r="T22" s="94"/>
+      <c r="U22" s="94"/>
+      <c r="V22" s="94"/>
+      <c r="W22" s="94"/>
+      <c r="X22" s="94"/>
+      <c r="Y22" s="94"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
@@ -23231,18 +23231,18 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
-      <c r="N23" s="108"/>
-      <c r="O23" s="108"/>
-      <c r="P23" s="108"/>
-      <c r="Q23" s="108"/>
-      <c r="R23" s="108"/>
-      <c r="S23" s="108"/>
-      <c r="T23" s="108"/>
-      <c r="U23" s="108"/>
-      <c r="V23" s="108"/>
-      <c r="W23" s="108"/>
-      <c r="X23" s="108"/>
-      <c r="Y23" s="108"/>
+      <c r="N23" s="94"/>
+      <c r="O23" s="94"/>
+      <c r="P23" s="94"/>
+      <c r="Q23" s="94"/>
+      <c r="R23" s="94"/>
+      <c r="S23" s="94"/>
+      <c r="T23" s="94"/>
+      <c r="U23" s="94"/>
+      <c r="V23" s="94"/>
+      <c r="W23" s="94"/>
+      <c r="X23" s="94"/>
+      <c r="Y23" s="94"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="22"/>
@@ -23258,18 +23258,18 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
-      <c r="N24" s="108"/>
-      <c r="O24" s="108"/>
-      <c r="P24" s="108"/>
-      <c r="Q24" s="108"/>
-      <c r="R24" s="108"/>
-      <c r="S24" s="108"/>
-      <c r="T24" s="108"/>
-      <c r="U24" s="108"/>
-      <c r="V24" s="108"/>
-      <c r="W24" s="108"/>
-      <c r="X24" s="108"/>
-      <c r="Y24" s="108"/>
+      <c r="N24" s="94"/>
+      <c r="O24" s="94"/>
+      <c r="P24" s="94"/>
+      <c r="Q24" s="94"/>
+      <c r="R24" s="94"/>
+      <c r="S24" s="94"/>
+      <c r="T24" s="94"/>
+      <c r="U24" s="94"/>
+      <c r="V24" s="94"/>
+      <c r="W24" s="94"/>
+      <c r="X24" s="94"/>
+      <c r="Y24" s="94"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
@@ -23287,18 +23287,18 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
-      <c r="N25" s="108"/>
-      <c r="O25" s="108"/>
-      <c r="P25" s="108"/>
-      <c r="Q25" s="108"/>
-      <c r="R25" s="108"/>
-      <c r="S25" s="108"/>
-      <c r="T25" s="108"/>
-      <c r="U25" s="108"/>
-      <c r="V25" s="108"/>
-      <c r="W25" s="108"/>
-      <c r="X25" s="108"/>
-      <c r="Y25" s="108"/>
+      <c r="N25" s="94"/>
+      <c r="O25" s="94"/>
+      <c r="P25" s="94"/>
+      <c r="Q25" s="94"/>
+      <c r="R25" s="94"/>
+      <c r="S25" s="94"/>
+      <c r="T25" s="94"/>
+      <c r="U25" s="94"/>
+      <c r="V25" s="94"/>
+      <c r="W25" s="94"/>
+      <c r="X25" s="94"/>
+      <c r="Y25" s="94"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="22"/>
@@ -23314,18 +23314,18 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
-      <c r="N26" s="108"/>
-      <c r="O26" s="108"/>
-      <c r="P26" s="108"/>
-      <c r="Q26" s="108"/>
-      <c r="R26" s="108"/>
-      <c r="S26" s="108"/>
-      <c r="T26" s="108"/>
-      <c r="U26" s="108"/>
-      <c r="V26" s="108"/>
-      <c r="W26" s="108"/>
-      <c r="X26" s="108"/>
-      <c r="Y26" s="108"/>
+      <c r="N26" s="94"/>
+      <c r="O26" s="94"/>
+      <c r="P26" s="94"/>
+      <c r="Q26" s="94"/>
+      <c r="R26" s="94"/>
+      <c r="S26" s="94"/>
+      <c r="T26" s="94"/>
+      <c r="U26" s="94"/>
+      <c r="V26" s="94"/>
+      <c r="W26" s="94"/>
+      <c r="X26" s="94"/>
+      <c r="Y26" s="94"/>
     </row>
     <row r="27" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
@@ -23343,18 +23343,18 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
-      <c r="N27" s="108"/>
-      <c r="O27" s="108"/>
-      <c r="P27" s="108"/>
-      <c r="Q27" s="108"/>
-      <c r="R27" s="108"/>
-      <c r="S27" s="108"/>
-      <c r="T27" s="108"/>
-      <c r="U27" s="108"/>
-      <c r="V27" s="108"/>
-      <c r="W27" s="108"/>
-      <c r="X27" s="108"/>
-      <c r="Y27" s="108"/>
+      <c r="N27" s="94"/>
+      <c r="O27" s="94"/>
+      <c r="P27" s="94"/>
+      <c r="Q27" s="94"/>
+      <c r="R27" s="94"/>
+      <c r="S27" s="94"/>
+      <c r="T27" s="94"/>
+      <c r="U27" s="94"/>
+      <c r="V27" s="94"/>
+      <c r="W27" s="94"/>
+      <c r="X27" s="94"/>
+      <c r="Y27" s="94"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="22"/>
@@ -23370,18 +23370,18 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
-      <c r="N28" s="108"/>
-      <c r="O28" s="108"/>
-      <c r="P28" s="108"/>
-      <c r="Q28" s="108"/>
-      <c r="R28" s="108"/>
-      <c r="S28" s="108"/>
-      <c r="T28" s="108"/>
-      <c r="U28" s="108"/>
-      <c r="V28" s="108"/>
-      <c r="W28" s="108"/>
-      <c r="X28" s="108"/>
-      <c r="Y28" s="108"/>
+      <c r="N28" s="94"/>
+      <c r="O28" s="94"/>
+      <c r="P28" s="94"/>
+      <c r="Q28" s="94"/>
+      <c r="R28" s="94"/>
+      <c r="S28" s="94"/>
+      <c r="T28" s="94"/>
+      <c r="U28" s="94"/>
+      <c r="V28" s="94"/>
+      <c r="W28" s="94"/>
+      <c r="X28" s="94"/>
+      <c r="Y28" s="94"/>
     </row>
     <row r="29" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="50" t="s">
@@ -23399,18 +23399,18 @@
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
-      <c r="N29" s="108"/>
-      <c r="O29" s="108"/>
-      <c r="P29" s="108"/>
-      <c r="Q29" s="108"/>
-      <c r="R29" s="108"/>
-      <c r="S29" s="108"/>
-      <c r="T29" s="108"/>
-      <c r="U29" s="108"/>
-      <c r="V29" s="108"/>
-      <c r="W29" s="108"/>
-      <c r="X29" s="108"/>
-      <c r="Y29" s="108"/>
+      <c r="N29" s="94"/>
+      <c r="O29" s="94"/>
+      <c r="P29" s="94"/>
+      <c r="Q29" s="94"/>
+      <c r="R29" s="94"/>
+      <c r="S29" s="94"/>
+      <c r="T29" s="94"/>
+      <c r="U29" s="94"/>
+      <c r="V29" s="94"/>
+      <c r="W29" s="94"/>
+      <c r="X29" s="94"/>
+      <c r="Y29" s="94"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="50"/>
@@ -23426,18 +23426,18 @@
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
-      <c r="N30" s="108"/>
-      <c r="O30" s="108"/>
-      <c r="P30" s="108"/>
-      <c r="Q30" s="108"/>
-      <c r="R30" s="108"/>
-      <c r="S30" s="108"/>
-      <c r="T30" s="108"/>
-      <c r="U30" s="108"/>
-      <c r="V30" s="108"/>
-      <c r="W30" s="108"/>
-      <c r="X30" s="108"/>
-      <c r="Y30" s="108"/>
+      <c r="N30" s="94"/>
+      <c r="O30" s="94"/>
+      <c r="P30" s="94"/>
+      <c r="Q30" s="94"/>
+      <c r="R30" s="94"/>
+      <c r="S30" s="94"/>
+      <c r="T30" s="94"/>
+      <c r="U30" s="94"/>
+      <c r="V30" s="94"/>
+      <c r="W30" s="94"/>
+      <c r="X30" s="94"/>
+      <c r="Y30" s="94"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="22"/>
@@ -23453,18 +23453,18 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
-      <c r="N31" s="108"/>
-      <c r="O31" s="108"/>
-      <c r="P31" s="108"/>
-      <c r="Q31" s="108"/>
-      <c r="R31" s="108"/>
-      <c r="S31" s="108"/>
-      <c r="T31" s="108"/>
-      <c r="U31" s="108"/>
-      <c r="V31" s="108"/>
-      <c r="W31" s="108"/>
-      <c r="X31" s="108"/>
-      <c r="Y31" s="108"/>
+      <c r="N31" s="94"/>
+      <c r="O31" s="94"/>
+      <c r="P31" s="94"/>
+      <c r="Q31" s="94"/>
+      <c r="R31" s="94"/>
+      <c r="S31" s="94"/>
+      <c r="T31" s="94"/>
+      <c r="U31" s="94"/>
+      <c r="V31" s="94"/>
+      <c r="W31" s="94"/>
+      <c r="X31" s="94"/>
+      <c r="Y31" s="94"/>
     </row>
     <row r="32" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="51" t="s">
@@ -23482,21 +23482,21 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
-      <c r="N32" s="108"/>
-      <c r="O32" s="108"/>
-      <c r="P32" s="108"/>
-      <c r="Q32" s="108"/>
-      <c r="R32" s="108"/>
-      <c r="S32" s="108"/>
-      <c r="T32" s="108"/>
-      <c r="U32" s="108"/>
-      <c r="V32" s="108"/>
-      <c r="W32" s="108"/>
-      <c r="X32" s="108"/>
-      <c r="Y32" s="108"/>
+      <c r="N32" s="94"/>
+      <c r="O32" s="94"/>
+      <c r="P32" s="94"/>
+      <c r="Q32" s="94"/>
+      <c r="R32" s="94"/>
+      <c r="S32" s="94"/>
+      <c r="T32" s="94"/>
+      <c r="U32" s="94"/>
+      <c r="V32" s="94"/>
+      <c r="W32" s="94"/>
+      <c r="X32" s="94"/>
+      <c r="Y32" s="94"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A33" s="85"/>
+      <c r="A33" s="113"/>
       <c r="B33" s="47"/>
       <c r="C33" s="47"/>
       <c r="D33" s="47"/>
@@ -23509,21 +23509,21 @@
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
-      <c r="N33" s="108"/>
-      <c r="O33" s="108"/>
-      <c r="P33" s="108"/>
-      <c r="Q33" s="108"/>
-      <c r="R33" s="108"/>
-      <c r="S33" s="108"/>
-      <c r="T33" s="108"/>
-      <c r="U33" s="108"/>
-      <c r="V33" s="108"/>
-      <c r="W33" s="108"/>
-      <c r="X33" s="108"/>
-      <c r="Y33" s="108"/>
+      <c r="N33" s="94"/>
+      <c r="O33" s="94"/>
+      <c r="P33" s="94"/>
+      <c r="Q33" s="94"/>
+      <c r="R33" s="94"/>
+      <c r="S33" s="94"/>
+      <c r="T33" s="94"/>
+      <c r="U33" s="94"/>
+      <c r="V33" s="94"/>
+      <c r="W33" s="94"/>
+      <c r="X33" s="94"/>
+      <c r="Y33" s="94"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A34" s="86"/>
+      <c r="A34" s="114"/>
       <c r="B34" s="47"/>
       <c r="C34" s="47"/>
       <c r="D34" s="47"/>
@@ -23536,18 +23536,18 @@
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
-      <c r="N34" s="108"/>
-      <c r="O34" s="108"/>
-      <c r="P34" s="108"/>
-      <c r="Q34" s="108"/>
-      <c r="R34" s="108"/>
-      <c r="S34" s="108"/>
-      <c r="T34" s="108"/>
-      <c r="U34" s="108"/>
-      <c r="V34" s="108"/>
-      <c r="W34" s="108"/>
-      <c r="X34" s="108"/>
-      <c r="Y34" s="108"/>
+      <c r="N34" s="94"/>
+      <c r="O34" s="94"/>
+      <c r="P34" s="94"/>
+      <c r="Q34" s="94"/>
+      <c r="R34" s="94"/>
+      <c r="S34" s="94"/>
+      <c r="T34" s="94"/>
+      <c r="U34" s="94"/>
+      <c r="V34" s="94"/>
+      <c r="W34" s="94"/>
+      <c r="X34" s="94"/>
+      <c r="Y34" s="94"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="53" t="s">
@@ -23664,18 +23664,18 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
-      <c r="N36" s="108"/>
-      <c r="O36" s="108"/>
-      <c r="P36" s="108"/>
-      <c r="Q36" s="108"/>
-      <c r="R36" s="108"/>
-      <c r="S36" s="108"/>
-      <c r="T36" s="108"/>
-      <c r="U36" s="108"/>
-      <c r="V36" s="108"/>
-      <c r="W36" s="108"/>
-      <c r="X36" s="108"/>
-      <c r="Y36" s="108"/>
+      <c r="N36" s="94"/>
+      <c r="O36" s="94"/>
+      <c r="P36" s="94"/>
+      <c r="Q36" s="94"/>
+      <c r="R36" s="94"/>
+      <c r="S36" s="94"/>
+      <c r="T36" s="94"/>
+      <c r="U36" s="94"/>
+      <c r="V36" s="94"/>
+      <c r="W36" s="94"/>
+      <c r="X36" s="94"/>
+      <c r="Y36" s="94"/>
     </row>
     <row r="37" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="54" t="s">
@@ -23792,18 +23792,18 @@
       <c r="K38" s="45"/>
       <c r="L38" s="45"/>
       <c r="M38" s="45"/>
-      <c r="N38" s="108"/>
-      <c r="O38" s="108"/>
-      <c r="P38" s="108"/>
-      <c r="Q38" s="108"/>
-      <c r="R38" s="108"/>
-      <c r="S38" s="108"/>
-      <c r="T38" s="108"/>
-      <c r="U38" s="108"/>
-      <c r="V38" s="108"/>
-      <c r="W38" s="108"/>
-      <c r="X38" s="108"/>
-      <c r="Y38" s="108"/>
+      <c r="N38" s="94"/>
+      <c r="O38" s="94"/>
+      <c r="P38" s="94"/>
+      <c r="Q38" s="94"/>
+      <c r="R38" s="94"/>
+      <c r="S38" s="94"/>
+      <c r="T38" s="94"/>
+      <c r="U38" s="94"/>
+      <c r="V38" s="94"/>
+      <c r="W38" s="94"/>
+      <c r="X38" s="94"/>
+      <c r="Y38" s="94"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="57" t="s">
@@ -23821,18 +23821,18 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-      <c r="N39" s="108"/>
-      <c r="O39" s="108"/>
-      <c r="P39" s="108"/>
-      <c r="Q39" s="108"/>
-      <c r="R39" s="108"/>
-      <c r="S39" s="108"/>
-      <c r="T39" s="108"/>
-      <c r="U39" s="108"/>
-      <c r="V39" s="108"/>
-      <c r="W39" s="108"/>
-      <c r="X39" s="108"/>
-      <c r="Y39" s="108"/>
+      <c r="N39" s="94"/>
+      <c r="O39" s="94"/>
+      <c r="P39" s="94"/>
+      <c r="Q39" s="94"/>
+      <c r="R39" s="94"/>
+      <c r="S39" s="94"/>
+      <c r="T39" s="94"/>
+      <c r="U39" s="94"/>
+      <c r="V39" s="94"/>
+      <c r="W39" s="94"/>
+      <c r="X39" s="94"/>
+      <c r="Y39" s="94"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="22"/>
@@ -23848,18 +23848,18 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-      <c r="N40" s="108"/>
-      <c r="O40" s="108"/>
-      <c r="P40" s="108"/>
-      <c r="Q40" s="108"/>
-      <c r="R40" s="108"/>
-      <c r="S40" s="108"/>
-      <c r="T40" s="108"/>
-      <c r="U40" s="108"/>
-      <c r="V40" s="108"/>
-      <c r="W40" s="108"/>
-      <c r="X40" s="108"/>
-      <c r="Y40" s="108"/>
+      <c r="N40" s="94"/>
+      <c r="O40" s="94"/>
+      <c r="P40" s="94"/>
+      <c r="Q40" s="94"/>
+      <c r="R40" s="94"/>
+      <c r="S40" s="94"/>
+      <c r="T40" s="94"/>
+      <c r="U40" s="94"/>
+      <c r="V40" s="94"/>
+      <c r="W40" s="94"/>
+      <c r="X40" s="94"/>
+      <c r="Y40" s="94"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
@@ -23877,18 +23877,18 @@
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
-      <c r="N41" s="108"/>
-      <c r="O41" s="108"/>
-      <c r="P41" s="108"/>
-      <c r="Q41" s="108"/>
-      <c r="R41" s="108"/>
-      <c r="S41" s="108"/>
-      <c r="T41" s="108"/>
-      <c r="U41" s="108"/>
-      <c r="V41" s="108"/>
-      <c r="W41" s="108"/>
-      <c r="X41" s="108"/>
-      <c r="Y41" s="108"/>
+      <c r="N41" s="94"/>
+      <c r="O41" s="94"/>
+      <c r="P41" s="94"/>
+      <c r="Q41" s="94"/>
+      <c r="R41" s="94"/>
+      <c r="S41" s="94"/>
+      <c r="T41" s="94"/>
+      <c r="U41" s="94"/>
+      <c r="V41" s="94"/>
+      <c r="W41" s="94"/>
+      <c r="X41" s="94"/>
+      <c r="Y41" s="94"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="22"/>
@@ -23904,18 +23904,18 @@
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
-      <c r="N42" s="108"/>
-      <c r="O42" s="108"/>
-      <c r="P42" s="108"/>
-      <c r="Q42" s="108"/>
-      <c r="R42" s="108"/>
-      <c r="S42" s="108"/>
-      <c r="T42" s="108"/>
-      <c r="U42" s="108"/>
-      <c r="V42" s="108"/>
-      <c r="W42" s="108"/>
-      <c r="X42" s="108"/>
-      <c r="Y42" s="108"/>
+      <c r="N42" s="94"/>
+      <c r="O42" s="94"/>
+      <c r="P42" s="94"/>
+      <c r="Q42" s="94"/>
+      <c r="R42" s="94"/>
+      <c r="S42" s="94"/>
+      <c r="T42" s="94"/>
+      <c r="U42" s="94"/>
+      <c r="V42" s="94"/>
+      <c r="W42" s="94"/>
+      <c r="X42" s="94"/>
+      <c r="Y42" s="94"/>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
@@ -23933,18 +23933,18 @@
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
-      <c r="N43" s="108"/>
-      <c r="O43" s="108"/>
-      <c r="P43" s="108"/>
-      <c r="Q43" s="108"/>
-      <c r="R43" s="108"/>
-      <c r="S43" s="108"/>
-      <c r="T43" s="108"/>
-      <c r="U43" s="108"/>
-      <c r="V43" s="108"/>
-      <c r="W43" s="108"/>
-      <c r="X43" s="108"/>
-      <c r="Y43" s="108"/>
+      <c r="N43" s="94"/>
+      <c r="O43" s="94"/>
+      <c r="P43" s="94"/>
+      <c r="Q43" s="94"/>
+      <c r="R43" s="94"/>
+      <c r="S43" s="94"/>
+      <c r="T43" s="94"/>
+      <c r="U43" s="94"/>
+      <c r="V43" s="94"/>
+      <c r="W43" s="94"/>
+      <c r="X43" s="94"/>
+      <c r="Y43" s="94"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="22"/>
@@ -23960,18 +23960,18 @@
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
-      <c r="N44" s="108"/>
-      <c r="O44" s="108"/>
-      <c r="P44" s="108"/>
-      <c r="Q44" s="108"/>
-      <c r="R44" s="108"/>
-      <c r="S44" s="108"/>
-      <c r="T44" s="108"/>
-      <c r="U44" s="108"/>
-      <c r="V44" s="108"/>
-      <c r="W44" s="108"/>
-      <c r="X44" s="108"/>
-      <c r="Y44" s="108"/>
+      <c r="N44" s="94"/>
+      <c r="O44" s="94"/>
+      <c r="P44" s="94"/>
+      <c r="Q44" s="94"/>
+      <c r="R44" s="94"/>
+      <c r="S44" s="94"/>
+      <c r="T44" s="94"/>
+      <c r="U44" s="94"/>
+      <c r="V44" s="94"/>
+      <c r="W44" s="94"/>
+      <c r="X44" s="94"/>
+      <c r="Y44" s="94"/>
     </row>
     <row r="45" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="24" t="s">
@@ -24090,18 +24090,18 @@
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
-      <c r="N46" s="108"/>
-      <c r="O46" s="108"/>
-      <c r="P46" s="108"/>
-      <c r="Q46" s="108"/>
-      <c r="R46" s="108"/>
-      <c r="S46" s="108"/>
-      <c r="T46" s="108"/>
-      <c r="U46" s="108"/>
-      <c r="V46" s="108"/>
-      <c r="W46" s="108"/>
-      <c r="X46" s="108"/>
-      <c r="Y46" s="108"/>
+      <c r="N46" s="94"/>
+      <c r="O46" s="94"/>
+      <c r="P46" s="94"/>
+      <c r="Q46" s="94"/>
+      <c r="R46" s="94"/>
+      <c r="S46" s="94"/>
+      <c r="T46" s="94"/>
+      <c r="U46" s="94"/>
+      <c r="V46" s="94"/>
+      <c r="W46" s="94"/>
+      <c r="X46" s="94"/>
+      <c r="Y46" s="94"/>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="58" t="s">
@@ -24119,18 +24119,18 @@
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
-      <c r="N47" s="108"/>
-      <c r="O47" s="108"/>
-      <c r="P47" s="108"/>
-      <c r="Q47" s="108"/>
-      <c r="R47" s="108"/>
-      <c r="S47" s="108"/>
-      <c r="T47" s="108"/>
-      <c r="U47" s="108"/>
-      <c r="V47" s="108"/>
-      <c r="W47" s="108"/>
-      <c r="X47" s="108"/>
-      <c r="Y47" s="108"/>
+      <c r="N47" s="94"/>
+      <c r="O47" s="94"/>
+      <c r="P47" s="94"/>
+      <c r="Q47" s="94"/>
+      <c r="R47" s="94"/>
+      <c r="S47" s="94"/>
+      <c r="T47" s="94"/>
+      <c r="U47" s="94"/>
+      <c r="V47" s="94"/>
+      <c r="W47" s="94"/>
+      <c r="X47" s="94"/>
+      <c r="Y47" s="94"/>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="22"/>
@@ -24146,18 +24146,18 @@
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
-      <c r="N48" s="108"/>
-      <c r="O48" s="108"/>
-      <c r="P48" s="108"/>
-      <c r="Q48" s="108"/>
-      <c r="R48" s="108"/>
-      <c r="S48" s="108"/>
-      <c r="T48" s="108"/>
-      <c r="U48" s="108"/>
-      <c r="V48" s="108"/>
-      <c r="W48" s="108"/>
-      <c r="X48" s="108"/>
-      <c r="Y48" s="108"/>
+      <c r="N48" s="94"/>
+      <c r="O48" s="94"/>
+      <c r="P48" s="94"/>
+      <c r="Q48" s="94"/>
+      <c r="R48" s="94"/>
+      <c r="S48" s="94"/>
+      <c r="T48" s="94"/>
+      <c r="U48" s="94"/>
+      <c r="V48" s="94"/>
+      <c r="W48" s="94"/>
+      <c r="X48" s="94"/>
+      <c r="Y48" s="94"/>
     </row>
     <row r="49" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="24" t="s">
@@ -24175,18 +24175,18 @@
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
-      <c r="N49" s="108"/>
-      <c r="O49" s="108"/>
-      <c r="P49" s="108"/>
-      <c r="Q49" s="108"/>
-      <c r="R49" s="108"/>
-      <c r="S49" s="108"/>
-      <c r="T49" s="108"/>
-      <c r="U49" s="108"/>
-      <c r="V49" s="108"/>
-      <c r="W49" s="108"/>
-      <c r="X49" s="108"/>
-      <c r="Y49" s="108"/>
+      <c r="N49" s="94"/>
+      <c r="O49" s="94"/>
+      <c r="P49" s="94"/>
+      <c r="Q49" s="94"/>
+      <c r="R49" s="94"/>
+      <c r="S49" s="94"/>
+      <c r="T49" s="94"/>
+      <c r="U49" s="94"/>
+      <c r="V49" s="94"/>
+      <c r="W49" s="94"/>
+      <c r="X49" s="94"/>
+      <c r="Y49" s="94"/>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
@@ -24204,18 +24204,18 @@
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
-      <c r="N50" s="108"/>
-      <c r="O50" s="108"/>
-      <c r="P50" s="108"/>
-      <c r="Q50" s="108"/>
-      <c r="R50" s="108"/>
-      <c r="S50" s="108"/>
-      <c r="T50" s="108"/>
-      <c r="U50" s="108"/>
-      <c r="V50" s="108"/>
-      <c r="W50" s="108"/>
-      <c r="X50" s="108"/>
-      <c r="Y50" s="108"/>
+      <c r="N50" s="94"/>
+      <c r="O50" s="94"/>
+      <c r="P50" s="94"/>
+      <c r="Q50" s="94"/>
+      <c r="R50" s="94"/>
+      <c r="S50" s="94"/>
+      <c r="T50" s="94"/>
+      <c r="U50" s="94"/>
+      <c r="V50" s="94"/>
+      <c r="W50" s="94"/>
+      <c r="X50" s="94"/>
+      <c r="Y50" s="94"/>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
@@ -24233,18 +24233,18 @@
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
-      <c r="N51" s="108"/>
-      <c r="O51" s="108"/>
-      <c r="P51" s="108"/>
-      <c r="Q51" s="108"/>
-      <c r="R51" s="108"/>
-      <c r="S51" s="108"/>
-      <c r="T51" s="108"/>
-      <c r="U51" s="108"/>
-      <c r="V51" s="108"/>
-      <c r="W51" s="108"/>
-      <c r="X51" s="108"/>
-      <c r="Y51" s="108"/>
+      <c r="N51" s="94"/>
+      <c r="O51" s="94"/>
+      <c r="P51" s="94"/>
+      <c r="Q51" s="94"/>
+      <c r="R51" s="94"/>
+      <c r="S51" s="94"/>
+      <c r="T51" s="94"/>
+      <c r="U51" s="94"/>
+      <c r="V51" s="94"/>
+      <c r="W51" s="94"/>
+      <c r="X51" s="94"/>
+      <c r="Y51" s="94"/>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="22"/>
@@ -24260,18 +24260,18 @@
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
-      <c r="N52" s="108"/>
-      <c r="O52" s="108"/>
-      <c r="P52" s="108"/>
-      <c r="Q52" s="108"/>
-      <c r="R52" s="108"/>
-      <c r="S52" s="108"/>
-      <c r="T52" s="108"/>
-      <c r="U52" s="108"/>
-      <c r="V52" s="108"/>
-      <c r="W52" s="108"/>
-      <c r="X52" s="108"/>
-      <c r="Y52" s="108"/>
+      <c r="N52" s="94"/>
+      <c r="O52" s="94"/>
+      <c r="P52" s="94"/>
+      <c r="Q52" s="94"/>
+      <c r="R52" s="94"/>
+      <c r="S52" s="94"/>
+      <c r="T52" s="94"/>
+      <c r="U52" s="94"/>
+      <c r="V52" s="94"/>
+      <c r="W52" s="94"/>
+      <c r="X52" s="94"/>
+      <c r="Y52" s="94"/>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
@@ -24289,18 +24289,18 @@
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
-      <c r="N53" s="108"/>
-      <c r="O53" s="108"/>
-      <c r="P53" s="108"/>
-      <c r="Q53" s="108"/>
-      <c r="R53" s="108"/>
-      <c r="S53" s="108"/>
-      <c r="T53" s="108"/>
-      <c r="U53" s="108"/>
-      <c r="V53" s="108"/>
-      <c r="W53" s="108"/>
-      <c r="X53" s="108"/>
-      <c r="Y53" s="108"/>
+      <c r="N53" s="94"/>
+      <c r="O53" s="94"/>
+      <c r="P53" s="94"/>
+      <c r="Q53" s="94"/>
+      <c r="R53" s="94"/>
+      <c r="S53" s="94"/>
+      <c r="T53" s="94"/>
+      <c r="U53" s="94"/>
+      <c r="V53" s="94"/>
+      <c r="W53" s="94"/>
+      <c r="X53" s="94"/>
+      <c r="Y53" s="94"/>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="22"/>
@@ -24316,18 +24316,18 @@
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
-      <c r="N54" s="108"/>
-      <c r="O54" s="108"/>
-      <c r="P54" s="108"/>
-      <c r="Q54" s="108"/>
-      <c r="R54" s="108"/>
-      <c r="S54" s="108"/>
-      <c r="T54" s="108"/>
-      <c r="U54" s="108"/>
-      <c r="V54" s="108"/>
-      <c r="W54" s="108"/>
-      <c r="X54" s="108"/>
-      <c r="Y54" s="108"/>
+      <c r="N54" s="94"/>
+      <c r="O54" s="94"/>
+      <c r="P54" s="94"/>
+      <c r="Q54" s="94"/>
+      <c r="R54" s="94"/>
+      <c r="S54" s="94"/>
+      <c r="T54" s="94"/>
+      <c r="U54" s="94"/>
+      <c r="V54" s="94"/>
+      <c r="W54" s="94"/>
+      <c r="X54" s="94"/>
+      <c r="Y54" s="94"/>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="59" t="s">
@@ -24444,18 +24444,18 @@
       <c r="K56" s="13"/>
       <c r="L56" s="13"/>
       <c r="M56" s="13"/>
-      <c r="N56" s="108"/>
-      <c r="O56" s="108"/>
-      <c r="P56" s="108"/>
-      <c r="Q56" s="108"/>
-      <c r="R56" s="108"/>
-      <c r="S56" s="108"/>
-      <c r="T56" s="108"/>
-      <c r="U56" s="108"/>
-      <c r="V56" s="108"/>
-      <c r="W56" s="108"/>
-      <c r="X56" s="108"/>
-      <c r="Y56" s="108"/>
+      <c r="N56" s="94"/>
+      <c r="O56" s="94"/>
+      <c r="P56" s="94"/>
+      <c r="Q56" s="94"/>
+      <c r="R56" s="94"/>
+      <c r="S56" s="94"/>
+      <c r="T56" s="94"/>
+      <c r="U56" s="94"/>
+      <c r="V56" s="94"/>
+      <c r="W56" s="94"/>
+      <c r="X56" s="94"/>
+      <c r="Y56" s="94"/>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="59" t="s">
@@ -24574,18 +24574,18 @@
       <c r="K58" s="13"/>
       <c r="L58" s="13"/>
       <c r="M58" s="13"/>
-      <c r="N58" s="108"/>
-      <c r="O58" s="108"/>
-      <c r="P58" s="108"/>
-      <c r="Q58" s="108"/>
-      <c r="R58" s="108"/>
-      <c r="S58" s="108"/>
-      <c r="T58" s="108"/>
-      <c r="U58" s="108"/>
-      <c r="V58" s="108"/>
-      <c r="W58" s="108"/>
-      <c r="X58" s="108"/>
-      <c r="Y58" s="108"/>
+      <c r="N58" s="94"/>
+      <c r="O58" s="94"/>
+      <c r="P58" s="94"/>
+      <c r="Q58" s="94"/>
+      <c r="R58" s="94"/>
+      <c r="S58" s="94"/>
+      <c r="T58" s="94"/>
+      <c r="U58" s="94"/>
+      <c r="V58" s="94"/>
+      <c r="W58" s="94"/>
+      <c r="X58" s="94"/>
+      <c r="Y58" s="94"/>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="60" t="s">
@@ -24603,18 +24603,18 @@
       <c r="K59" s="13"/>
       <c r="L59" s="13"/>
       <c r="M59" s="13"/>
-      <c r="N59" s="108"/>
-      <c r="O59" s="108"/>
-      <c r="P59" s="108"/>
-      <c r="Q59" s="108"/>
-      <c r="R59" s="108"/>
-      <c r="S59" s="108"/>
-      <c r="T59" s="108"/>
-      <c r="U59" s="108"/>
-      <c r="V59" s="108"/>
-      <c r="W59" s="108"/>
-      <c r="X59" s="108"/>
-      <c r="Y59" s="108"/>
+      <c r="N59" s="94"/>
+      <c r="O59" s="94"/>
+      <c r="P59" s="94"/>
+      <c r="Q59" s="94"/>
+      <c r="R59" s="94"/>
+      <c r="S59" s="94"/>
+      <c r="T59" s="94"/>
+      <c r="U59" s="94"/>
+      <c r="V59" s="94"/>
+      <c r="W59" s="94"/>
+      <c r="X59" s="94"/>
+      <c r="Y59" s="94"/>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="60" t="s">
@@ -24632,18 +24632,18 @@
       <c r="K60" s="13"/>
       <c r="L60" s="13"/>
       <c r="M60" s="13"/>
-      <c r="N60" s="108"/>
-      <c r="O60" s="108"/>
-      <c r="P60" s="108"/>
-      <c r="Q60" s="108"/>
-      <c r="R60" s="108"/>
-      <c r="S60" s="108"/>
-      <c r="T60" s="108"/>
-      <c r="U60" s="108"/>
-      <c r="V60" s="108"/>
-      <c r="W60" s="108"/>
-      <c r="X60" s="108"/>
-      <c r="Y60" s="108"/>
+      <c r="N60" s="94"/>
+      <c r="O60" s="94"/>
+      <c r="P60" s="94"/>
+      <c r="Q60" s="94"/>
+      <c r="R60" s="94"/>
+      <c r="S60" s="94"/>
+      <c r="T60" s="94"/>
+      <c r="U60" s="94"/>
+      <c r="V60" s="94"/>
+      <c r="W60" s="94"/>
+      <c r="X60" s="94"/>
+      <c r="Y60" s="94"/>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="60" t="s">
@@ -24661,18 +24661,18 @@
       <c r="K61" s="13"/>
       <c r="L61" s="13"/>
       <c r="M61" s="13"/>
-      <c r="N61" s="108"/>
-      <c r="O61" s="108"/>
-      <c r="P61" s="108"/>
-      <c r="Q61" s="108"/>
-      <c r="R61" s="108"/>
-      <c r="S61" s="108"/>
-      <c r="T61" s="108"/>
-      <c r="U61" s="108"/>
-      <c r="V61" s="108"/>
-      <c r="W61" s="108"/>
-      <c r="X61" s="108"/>
-      <c r="Y61" s="108"/>
+      <c r="N61" s="94"/>
+      <c r="O61" s="94"/>
+      <c r="P61" s="94"/>
+      <c r="Q61" s="94"/>
+      <c r="R61" s="94"/>
+      <c r="S61" s="94"/>
+      <c r="T61" s="94"/>
+      <c r="U61" s="94"/>
+      <c r="V61" s="94"/>
+      <c r="W61" s="94"/>
+      <c r="X61" s="94"/>
+      <c r="Y61" s="94"/>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="22"/>
@@ -24688,18 +24688,18 @@
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
-      <c r="N62" s="108"/>
-      <c r="O62" s="108"/>
-      <c r="P62" s="108"/>
-      <c r="Q62" s="108"/>
-      <c r="R62" s="108"/>
-      <c r="S62" s="108"/>
-      <c r="T62" s="108"/>
-      <c r="U62" s="108"/>
-      <c r="V62" s="108"/>
-      <c r="W62" s="108"/>
-      <c r="X62" s="108"/>
-      <c r="Y62" s="108"/>
+      <c r="N62" s="94"/>
+      <c r="O62" s="94"/>
+      <c r="P62" s="94"/>
+      <c r="Q62" s="94"/>
+      <c r="R62" s="94"/>
+      <c r="S62" s="94"/>
+      <c r="T62" s="94"/>
+      <c r="U62" s="94"/>
+      <c r="V62" s="94"/>
+      <c r="W62" s="94"/>
+      <c r="X62" s="94"/>
+      <c r="Y62" s="94"/>
     </row>
     <row r="63" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="61" t="s">
@@ -24816,18 +24816,18 @@
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
-      <c r="N64" s="108"/>
-      <c r="O64" s="108"/>
-      <c r="P64" s="108"/>
-      <c r="Q64" s="108"/>
-      <c r="R64" s="108"/>
-      <c r="S64" s="108"/>
-      <c r="T64" s="108"/>
-      <c r="U64" s="108"/>
-      <c r="V64" s="108"/>
-      <c r="W64" s="108"/>
-      <c r="X64" s="108"/>
-      <c r="Y64" s="108"/>
+      <c r="N64" s="94"/>
+      <c r="O64" s="94"/>
+      <c r="P64" s="94"/>
+      <c r="Q64" s="94"/>
+      <c r="R64" s="94"/>
+      <c r="S64" s="94"/>
+      <c r="T64" s="94"/>
+      <c r="U64" s="94"/>
+      <c r="V64" s="94"/>
+      <c r="W64" s="94"/>
+      <c r="X64" s="94"/>
+      <c r="Y64" s="94"/>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="46" t="s">
@@ -24845,18 +24845,18 @@
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
-      <c r="N65" s="108"/>
-      <c r="O65" s="108"/>
-      <c r="P65" s="108"/>
-      <c r="Q65" s="108"/>
-      <c r="R65" s="108"/>
-      <c r="S65" s="108"/>
-      <c r="T65" s="108"/>
-      <c r="U65" s="108"/>
-      <c r="V65" s="108"/>
-      <c r="W65" s="108"/>
-      <c r="X65" s="108"/>
-      <c r="Y65" s="108"/>
+      <c r="N65" s="94"/>
+      <c r="O65" s="94"/>
+      <c r="P65" s="94"/>
+      <c r="Q65" s="94"/>
+      <c r="R65" s="94"/>
+      <c r="S65" s="94"/>
+      <c r="T65" s="94"/>
+      <c r="U65" s="94"/>
+      <c r="V65" s="94"/>
+      <c r="W65" s="94"/>
+      <c r="X65" s="94"/>
+      <c r="Y65" s="94"/>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" s="22"/>
@@ -24872,18 +24872,18 @@
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
-      <c r="N66" s="108"/>
-      <c r="O66" s="108"/>
-      <c r="P66" s="108"/>
-      <c r="Q66" s="108"/>
-      <c r="R66" s="108"/>
-      <c r="S66" s="108"/>
-      <c r="T66" s="108"/>
-      <c r="U66" s="108"/>
-      <c r="V66" s="108"/>
-      <c r="W66" s="108"/>
-      <c r="X66" s="108"/>
-      <c r="Y66" s="108"/>
+      <c r="N66" s="94"/>
+      <c r="O66" s="94"/>
+      <c r="P66" s="94"/>
+      <c r="Q66" s="94"/>
+      <c r="R66" s="94"/>
+      <c r="S66" s="94"/>
+      <c r="T66" s="94"/>
+      <c r="U66" s="94"/>
+      <c r="V66" s="94"/>
+      <c r="W66" s="94"/>
+      <c r="X66" s="94"/>
+      <c r="Y66" s="94"/>
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" s="22" t="s">
@@ -24901,18 +24901,18 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-      <c r="N67" s="108"/>
-      <c r="O67" s="108"/>
-      <c r="P67" s="108"/>
-      <c r="Q67" s="108"/>
-      <c r="R67" s="108"/>
-      <c r="S67" s="108"/>
-      <c r="T67" s="108"/>
-      <c r="U67" s="108"/>
-      <c r="V67" s="108"/>
-      <c r="W67" s="108"/>
-      <c r="X67" s="108"/>
-      <c r="Y67" s="108"/>
+      <c r="N67" s="94"/>
+      <c r="O67" s="94"/>
+      <c r="P67" s="94"/>
+      <c r="Q67" s="94"/>
+      <c r="R67" s="94"/>
+      <c r="S67" s="94"/>
+      <c r="T67" s="94"/>
+      <c r="U67" s="94"/>
+      <c r="V67" s="94"/>
+      <c r="W67" s="94"/>
+      <c r="X67" s="94"/>
+      <c r="Y67" s="94"/>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" s="22"/>
@@ -24928,18 +24928,18 @@
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
-      <c r="N68" s="108"/>
-      <c r="O68" s="108"/>
-      <c r="P68" s="108"/>
-      <c r="Q68" s="108"/>
-      <c r="R68" s="108"/>
-      <c r="S68" s="108"/>
-      <c r="T68" s="108"/>
-      <c r="U68" s="108"/>
-      <c r="V68" s="108"/>
-      <c r="W68" s="108"/>
-      <c r="X68" s="108"/>
-      <c r="Y68" s="108"/>
+      <c r="N68" s="94"/>
+      <c r="O68" s="94"/>
+      <c r="P68" s="94"/>
+      <c r="Q68" s="94"/>
+      <c r="R68" s="94"/>
+      <c r="S68" s="94"/>
+      <c r="T68" s="94"/>
+      <c r="U68" s="94"/>
+      <c r="V68" s="94"/>
+      <c r="W68" s="94"/>
+      <c r="X68" s="94"/>
+      <c r="Y68" s="94"/>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" s="22" t="s">
@@ -24957,18 +24957,18 @@
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
-      <c r="N69" s="108"/>
-      <c r="O69" s="108"/>
-      <c r="P69" s="108"/>
-      <c r="Q69" s="108"/>
-      <c r="R69" s="108"/>
-      <c r="S69" s="108"/>
-      <c r="T69" s="108"/>
-      <c r="U69" s="108"/>
-      <c r="V69" s="108"/>
-      <c r="W69" s="108"/>
-      <c r="X69" s="108"/>
-      <c r="Y69" s="108"/>
+      <c r="N69" s="94"/>
+      <c r="O69" s="94"/>
+      <c r="P69" s="94"/>
+      <c r="Q69" s="94"/>
+      <c r="R69" s="94"/>
+      <c r="S69" s="94"/>
+      <c r="T69" s="94"/>
+      <c r="U69" s="94"/>
+      <c r="V69" s="94"/>
+      <c r="W69" s="94"/>
+      <c r="X69" s="94"/>
+      <c r="Y69" s="94"/>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" s="22"/>
@@ -24984,18 +24984,18 @@
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
-      <c r="N70" s="108"/>
-      <c r="O70" s="108"/>
-      <c r="P70" s="108"/>
-      <c r="Q70" s="108"/>
-      <c r="R70" s="108"/>
-      <c r="S70" s="108"/>
-      <c r="T70" s="108"/>
-      <c r="U70" s="108"/>
-      <c r="V70" s="108"/>
-      <c r="W70" s="108"/>
-      <c r="X70" s="108"/>
-      <c r="Y70" s="108"/>
+      <c r="N70" s="94"/>
+      <c r="O70" s="94"/>
+      <c r="P70" s="94"/>
+      <c r="Q70" s="94"/>
+      <c r="R70" s="94"/>
+      <c r="S70" s="94"/>
+      <c r="T70" s="94"/>
+      <c r="U70" s="94"/>
+      <c r="V70" s="94"/>
+      <c r="W70" s="94"/>
+      <c r="X70" s="94"/>
+      <c r="Y70" s="94"/>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" s="22" t="s">
@@ -25013,18 +25013,18 @@
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
-      <c r="N71" s="108"/>
-      <c r="O71" s="108"/>
-      <c r="P71" s="108"/>
-      <c r="Q71" s="108"/>
-      <c r="R71" s="108"/>
-      <c r="S71" s="108"/>
-      <c r="T71" s="108"/>
-      <c r="U71" s="108"/>
-      <c r="V71" s="108"/>
-      <c r="W71" s="108"/>
-      <c r="X71" s="108"/>
-      <c r="Y71" s="108"/>
+      <c r="N71" s="94"/>
+      <c r="O71" s="94"/>
+      <c r="P71" s="94"/>
+      <c r="Q71" s="94"/>
+      <c r="R71" s="94"/>
+      <c r="S71" s="94"/>
+      <c r="T71" s="94"/>
+      <c r="U71" s="94"/>
+      <c r="V71" s="94"/>
+      <c r="W71" s="94"/>
+      <c r="X71" s="94"/>
+      <c r="Y71" s="94"/>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" s="22"/>
@@ -25040,18 +25040,18 @@
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
-      <c r="N72" s="108"/>
-      <c r="O72" s="108"/>
-      <c r="P72" s="108"/>
-      <c r="Q72" s="108"/>
-      <c r="R72" s="108"/>
-      <c r="S72" s="108"/>
-      <c r="T72" s="108"/>
-      <c r="U72" s="108"/>
-      <c r="V72" s="108"/>
-      <c r="W72" s="108"/>
-      <c r="X72" s="108"/>
-      <c r="Y72" s="108"/>
+      <c r="N72" s="94"/>
+      <c r="O72" s="94"/>
+      <c r="P72" s="94"/>
+      <c r="Q72" s="94"/>
+      <c r="R72" s="94"/>
+      <c r="S72" s="94"/>
+      <c r="T72" s="94"/>
+      <c r="U72" s="94"/>
+      <c r="V72" s="94"/>
+      <c r="W72" s="94"/>
+      <c r="X72" s="94"/>
+      <c r="Y72" s="94"/>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" s="22" t="s">
@@ -25069,18 +25069,18 @@
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
-      <c r="N73" s="108"/>
-      <c r="O73" s="108"/>
-      <c r="P73" s="108"/>
-      <c r="Q73" s="108"/>
-      <c r="R73" s="108"/>
-      <c r="S73" s="108"/>
-      <c r="T73" s="108"/>
-      <c r="U73" s="108"/>
-      <c r="V73" s="108"/>
-      <c r="W73" s="108"/>
-      <c r="X73" s="108"/>
-      <c r="Y73" s="108"/>
+      <c r="N73" s="94"/>
+      <c r="O73" s="94"/>
+      <c r="P73" s="94"/>
+      <c r="Q73" s="94"/>
+      <c r="R73" s="94"/>
+      <c r="S73" s="94"/>
+      <c r="T73" s="94"/>
+      <c r="U73" s="94"/>
+      <c r="V73" s="94"/>
+      <c r="W73" s="94"/>
+      <c r="X73" s="94"/>
+      <c r="Y73" s="94"/>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" s="22"/>
@@ -25096,18 +25096,18 @@
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
       <c r="M74" s="3"/>
-      <c r="N74" s="108"/>
-      <c r="O74" s="108"/>
-      <c r="P74" s="108"/>
-      <c r="Q74" s="108"/>
-      <c r="R74" s="108"/>
-      <c r="S74" s="108"/>
-      <c r="T74" s="108"/>
-      <c r="U74" s="108"/>
-      <c r="V74" s="108"/>
-      <c r="W74" s="108"/>
-      <c r="X74" s="108"/>
-      <c r="Y74" s="108"/>
+      <c r="N74" s="94"/>
+      <c r="O74" s="94"/>
+      <c r="P74" s="94"/>
+      <c r="Q74" s="94"/>
+      <c r="R74" s="94"/>
+      <c r="S74" s="94"/>
+      <c r="T74" s="94"/>
+      <c r="U74" s="94"/>
+      <c r="V74" s="94"/>
+      <c r="W74" s="94"/>
+      <c r="X74" s="94"/>
+      <c r="Y74" s="94"/>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" s="22" t="s">
@@ -25125,18 +25125,18 @@
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
-      <c r="N75" s="108"/>
-      <c r="O75" s="108"/>
-      <c r="P75" s="108"/>
-      <c r="Q75" s="108"/>
-      <c r="R75" s="108"/>
-      <c r="S75" s="108"/>
-      <c r="T75" s="108"/>
-      <c r="U75" s="108"/>
-      <c r="V75" s="108"/>
-      <c r="W75" s="108"/>
-      <c r="X75" s="108"/>
-      <c r="Y75" s="108"/>
+      <c r="N75" s="94"/>
+      <c r="O75" s="94"/>
+      <c r="P75" s="94"/>
+      <c r="Q75" s="94"/>
+      <c r="R75" s="94"/>
+      <c r="S75" s="94"/>
+      <c r="T75" s="94"/>
+      <c r="U75" s="94"/>
+      <c r="V75" s="94"/>
+      <c r="W75" s="94"/>
+      <c r="X75" s="94"/>
+      <c r="Y75" s="94"/>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" s="22"/>
@@ -25152,18 +25152,18 @@
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
-      <c r="N76" s="108"/>
-      <c r="O76" s="108"/>
-      <c r="P76" s="108"/>
-      <c r="Q76" s="108"/>
-      <c r="R76" s="108"/>
-      <c r="S76" s="108"/>
-      <c r="T76" s="108"/>
-      <c r="U76" s="108"/>
-      <c r="V76" s="108"/>
-      <c r="W76" s="108"/>
-      <c r="X76" s="108"/>
-      <c r="Y76" s="108"/>
+      <c r="N76" s="94"/>
+      <c r="O76" s="94"/>
+      <c r="P76" s="94"/>
+      <c r="Q76" s="94"/>
+      <c r="R76" s="94"/>
+      <c r="S76" s="94"/>
+      <c r="T76" s="94"/>
+      <c r="U76" s="94"/>
+      <c r="V76" s="94"/>
+      <c r="W76" s="94"/>
+      <c r="X76" s="94"/>
+      <c r="Y76" s="94"/>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" s="22" t="s">
@@ -25181,18 +25181,18 @@
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
-      <c r="N77" s="108"/>
-      <c r="O77" s="108"/>
-      <c r="P77" s="108"/>
-      <c r="Q77" s="108"/>
-      <c r="R77" s="108"/>
-      <c r="S77" s="108"/>
-      <c r="T77" s="108"/>
-      <c r="U77" s="108"/>
-      <c r="V77" s="108"/>
-      <c r="W77" s="108"/>
-      <c r="X77" s="108"/>
-      <c r="Y77" s="108"/>
+      <c r="N77" s="94"/>
+      <c r="O77" s="94"/>
+      <c r="P77" s="94"/>
+      <c r="Q77" s="94"/>
+      <c r="R77" s="94"/>
+      <c r="S77" s="94"/>
+      <c r="T77" s="94"/>
+      <c r="U77" s="94"/>
+      <c r="V77" s="94"/>
+      <c r="W77" s="94"/>
+      <c r="X77" s="94"/>
+      <c r="Y77" s="94"/>
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" s="22"/>
@@ -25208,18 +25208,18 @@
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
       <c r="M78" s="3"/>
-      <c r="N78" s="108"/>
-      <c r="O78" s="108"/>
-      <c r="P78" s="108"/>
-      <c r="Q78" s="108"/>
-      <c r="R78" s="108"/>
-      <c r="S78" s="108"/>
-      <c r="T78" s="108"/>
-      <c r="U78" s="108"/>
-      <c r="V78" s="108"/>
-      <c r="W78" s="108"/>
-      <c r="X78" s="108"/>
-      <c r="Y78" s="108"/>
+      <c r="N78" s="94"/>
+      <c r="O78" s="94"/>
+      <c r="P78" s="94"/>
+      <c r="Q78" s="94"/>
+      <c r="R78" s="94"/>
+      <c r="S78" s="94"/>
+      <c r="T78" s="94"/>
+      <c r="U78" s="94"/>
+      <c r="V78" s="94"/>
+      <c r="W78" s="94"/>
+      <c r="X78" s="94"/>
+      <c r="Y78" s="94"/>
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" s="24" t="s">
@@ -25237,18 +25237,18 @@
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
       <c r="M79" s="3"/>
-      <c r="N79" s="108"/>
-      <c r="O79" s="108"/>
-      <c r="P79" s="108"/>
-      <c r="Q79" s="108"/>
-      <c r="R79" s="108"/>
-      <c r="S79" s="108"/>
-      <c r="T79" s="108"/>
-      <c r="U79" s="108"/>
-      <c r="V79" s="108"/>
-      <c r="W79" s="108"/>
-      <c r="X79" s="108"/>
-      <c r="Y79" s="108"/>
+      <c r="N79" s="94"/>
+      <c r="O79" s="94"/>
+      <c r="P79" s="94"/>
+      <c r="Q79" s="94"/>
+      <c r="R79" s="94"/>
+      <c r="S79" s="94"/>
+      <c r="T79" s="94"/>
+      <c r="U79" s="94"/>
+      <c r="V79" s="94"/>
+      <c r="W79" s="94"/>
+      <c r="X79" s="94"/>
+      <c r="Y79" s="94"/>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" s="22"/>
@@ -25264,18 +25264,18 @@
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
       <c r="M80" s="3"/>
-      <c r="N80" s="108"/>
-      <c r="O80" s="108"/>
-      <c r="P80" s="108"/>
-      <c r="Q80" s="108"/>
-      <c r="R80" s="108"/>
-      <c r="S80" s="108"/>
-      <c r="T80" s="108"/>
-      <c r="U80" s="108"/>
-      <c r="V80" s="108"/>
-      <c r="W80" s="108"/>
-      <c r="X80" s="108"/>
-      <c r="Y80" s="108"/>
+      <c r="N80" s="94"/>
+      <c r="O80" s="94"/>
+      <c r="P80" s="94"/>
+      <c r="Q80" s="94"/>
+      <c r="R80" s="94"/>
+      <c r="S80" s="94"/>
+      <c r="T80" s="94"/>
+      <c r="U80" s="94"/>
+      <c r="V80" s="94"/>
+      <c r="W80" s="94"/>
+      <c r="X80" s="94"/>
+      <c r="Y80" s="94"/>
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" s="22" t="s">
@@ -25293,18 +25293,18 @@
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
       <c r="M81" s="3"/>
-      <c r="N81" s="108"/>
-      <c r="O81" s="108"/>
-      <c r="P81" s="108"/>
-      <c r="Q81" s="108"/>
-      <c r="R81" s="108"/>
-      <c r="S81" s="108"/>
-      <c r="T81" s="108"/>
-      <c r="U81" s="108"/>
-      <c r="V81" s="108"/>
-      <c r="W81" s="108"/>
-      <c r="X81" s="108"/>
-      <c r="Y81" s="108"/>
+      <c r="N81" s="94"/>
+      <c r="O81" s="94"/>
+      <c r="P81" s="94"/>
+      <c r="Q81" s="94"/>
+      <c r="R81" s="94"/>
+      <c r="S81" s="94"/>
+      <c r="T81" s="94"/>
+      <c r="U81" s="94"/>
+      <c r="V81" s="94"/>
+      <c r="W81" s="94"/>
+      <c r="X81" s="94"/>
+      <c r="Y81" s="94"/>
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82" s="22"/>
@@ -25320,18 +25320,18 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-      <c r="N82" s="108"/>
-      <c r="O82" s="108"/>
-      <c r="P82" s="108"/>
-      <c r="Q82" s="108"/>
-      <c r="R82" s="108"/>
-      <c r="S82" s="108"/>
-      <c r="T82" s="108"/>
-      <c r="U82" s="108"/>
-      <c r="V82" s="108"/>
-      <c r="W82" s="108"/>
-      <c r="X82" s="108"/>
-      <c r="Y82" s="108"/>
+      <c r="N82" s="94"/>
+      <c r="O82" s="94"/>
+      <c r="P82" s="94"/>
+      <c r="Q82" s="94"/>
+      <c r="R82" s="94"/>
+      <c r="S82" s="94"/>
+      <c r="T82" s="94"/>
+      <c r="U82" s="94"/>
+      <c r="V82" s="94"/>
+      <c r="W82" s="94"/>
+      <c r="X82" s="94"/>
+      <c r="Y82" s="94"/>
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" s="22" t="s">
@@ -25349,18 +25349,18 @@
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
       <c r="M83" s="3"/>
-      <c r="N83" s="108"/>
-      <c r="O83" s="108"/>
-      <c r="P83" s="108"/>
-      <c r="Q83" s="108"/>
-      <c r="R83" s="108"/>
-      <c r="S83" s="108"/>
-      <c r="T83" s="108"/>
-      <c r="U83" s="108"/>
-      <c r="V83" s="108"/>
-      <c r="W83" s="108"/>
-      <c r="X83" s="108"/>
-      <c r="Y83" s="108"/>
+      <c r="N83" s="94"/>
+      <c r="O83" s="94"/>
+      <c r="P83" s="94"/>
+      <c r="Q83" s="94"/>
+      <c r="R83" s="94"/>
+      <c r="S83" s="94"/>
+      <c r="T83" s="94"/>
+      <c r="U83" s="94"/>
+      <c r="V83" s="94"/>
+      <c r="W83" s="94"/>
+      <c r="X83" s="94"/>
+      <c r="Y83" s="94"/>
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" s="22"/>
@@ -25376,18 +25376,18 @@
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
       <c r="M84" s="3"/>
-      <c r="N84" s="108"/>
-      <c r="O84" s="108"/>
-      <c r="P84" s="108"/>
-      <c r="Q84" s="108"/>
-      <c r="R84" s="108"/>
-      <c r="S84" s="108"/>
-      <c r="T84" s="108"/>
-      <c r="U84" s="108"/>
-      <c r="V84" s="108"/>
-      <c r="W84" s="108"/>
-      <c r="X84" s="108"/>
-      <c r="Y84" s="108"/>
+      <c r="N84" s="94"/>
+      <c r="O84" s="94"/>
+      <c r="P84" s="94"/>
+      <c r="Q84" s="94"/>
+      <c r="R84" s="94"/>
+      <c r="S84" s="94"/>
+      <c r="T84" s="94"/>
+      <c r="U84" s="94"/>
+      <c r="V84" s="94"/>
+      <c r="W84" s="94"/>
+      <c r="X84" s="94"/>
+      <c r="Y84" s="94"/>
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85" s="22" t="s">
@@ -25504,18 +25504,18 @@
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
       <c r="M86" s="3"/>
-      <c r="N86" s="108"/>
-      <c r="O86" s="108"/>
-      <c r="P86" s="108"/>
-      <c r="Q86" s="108"/>
-      <c r="R86" s="108"/>
-      <c r="S86" s="108"/>
-      <c r="T86" s="108"/>
-      <c r="U86" s="108"/>
-      <c r="V86" s="108"/>
-      <c r="W86" s="108"/>
-      <c r="X86" s="108"/>
-      <c r="Y86" s="108"/>
+      <c r="N86" s="94"/>
+      <c r="O86" s="94"/>
+      <c r="P86" s="94"/>
+      <c r="Q86" s="94"/>
+      <c r="R86" s="94"/>
+      <c r="S86" s="94"/>
+      <c r="T86" s="94"/>
+      <c r="U86" s="94"/>
+      <c r="V86" s="94"/>
+      <c r="W86" s="94"/>
+      <c r="X86" s="94"/>
+      <c r="Y86" s="94"/>
     </row>
     <row r="87" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="62" t="s">
@@ -25674,14 +25674,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFC99"/>
+  <dimension ref="A1:XFD99"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B67" sqref="B67"/>
       <selection pane="topRight" activeCell="B67" sqref="B67"/>
       <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -25694,13 +25694,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="117" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
       <c r="F1" s="38"/>
       <c r="G1" s="38"/>
       <c r="H1" s="38"/>
@@ -25721,13 +25721,13 @@
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="118" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
       <c r="F2" s="41"/>
       <c r="G2" s="41"/>
       <c r="H2" s="41"/>
@@ -25738,13 +25738,13 @@
       <c r="M2" s="41"/>
     </row>
     <row r="3" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="121" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
       <c r="F3" s="43"/>
       <c r="G3" s="43"/>
       <c r="H3" s="43"/>
@@ -25755,11 +25755,11 @@
       <c r="M3" s="43"/>
     </row>
     <row r="4" spans="1:25" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="119" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
       <c r="D4" s="18" t="s">
         <v>41</v>
       </c>
@@ -25788,10 +25788,10 @@
       <c r="Y4" s="44"/>
     </row>
     <row r="5" spans="1:25" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="125" t="s">
+      <c r="A5" s="130" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="99">
+      <c r="B5" s="87">
         <f>'Operating Stmt.'!B5</f>
         <v>2015</v>
       </c>
@@ -25889,159 +25889,159 @@
       </c>
     </row>
     <row r="6" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="126"/>
-      <c r="B6" s="115" t="str">
+      <c r="A6" s="131"/>
+      <c r="B6" s="122" t="str">
         <f>Liabilities!B6</f>
         <v>Audited</v>
       </c>
-      <c r="C6" s="84" t="str">
+      <c r="C6" s="111" t="str">
         <f>Liabilities!C6</f>
         <v>Audited</v>
       </c>
-      <c r="D6" s="84" t="str">
+      <c r="D6" s="111" t="str">
         <f>Liabilities!D6</f>
         <v>Audited</v>
       </c>
-      <c r="E6" s="84" t="str">
+      <c r="E6" s="111" t="str">
         <f>Liabilities!E6</f>
         <v>Estimated</v>
       </c>
-      <c r="F6" s="84" t="str">
+      <c r="F6" s="111" t="str">
         <f>Liabilities!F6</f>
         <v>Projected</v>
       </c>
-      <c r="G6" s="84" t="str">
+      <c r="G6" s="111" t="str">
         <f>Liabilities!G6</f>
         <v>Projected</v>
       </c>
-      <c r="H6" s="84" t="str">
+      <c r="H6" s="111" t="str">
         <f>Liabilities!H6</f>
         <v>Projected</v>
       </c>
-      <c r="I6" s="84" t="str">
+      <c r="I6" s="111" t="str">
         <f>Liabilities!I6</f>
         <v>Projected</v>
       </c>
-      <c r="J6" s="84" t="str">
+      <c r="J6" s="111" t="str">
         <f>Liabilities!J6</f>
         <v>Projected</v>
       </c>
-      <c r="K6" s="84" t="str">
+      <c r="K6" s="111" t="str">
         <f>Liabilities!K6</f>
         <v>Projected</v>
       </c>
-      <c r="L6" s="84" t="str">
+      <c r="L6" s="111" t="str">
         <f>Liabilities!L6</f>
         <v>Projected</v>
       </c>
-      <c r="M6" s="106" t="str">
+      <c r="M6" s="109" t="str">
         <f>Liabilities!M6</f>
         <v>Projected</v>
       </c>
-      <c r="N6" s="106" t="str">
+      <c r="N6" s="109" t="str">
         <f>Liabilities!N6</f>
         <v>Projected</v>
       </c>
-      <c r="O6" s="106" t="str">
+      <c r="O6" s="109" t="str">
         <f>Liabilities!O6</f>
         <v>Projected</v>
       </c>
-      <c r="P6" s="106" t="str">
+      <c r="P6" s="109" t="str">
         <f>Liabilities!P6</f>
         <v>Projected</v>
       </c>
-      <c r="Q6" s="106" t="str">
+      <c r="Q6" s="109" t="str">
         <f>Liabilities!Q6</f>
         <v>Projected</v>
       </c>
-      <c r="R6" s="106" t="str">
+      <c r="R6" s="109" t="str">
         <f>Liabilities!R6</f>
         <v>Projected</v>
       </c>
-      <c r="S6" s="106" t="str">
+      <c r="S6" s="109" t="str">
         <f>Liabilities!S6</f>
         <v>Projected</v>
       </c>
-      <c r="T6" s="106" t="str">
+      <c r="T6" s="109" t="str">
         <f>Liabilities!T6</f>
         <v>Projected</v>
       </c>
-      <c r="U6" s="106" t="str">
+      <c r="U6" s="109" t="str">
         <f>Liabilities!U6</f>
         <v>Projected</v>
       </c>
-      <c r="V6" s="106" t="str">
+      <c r="V6" s="109" t="str">
         <f>Liabilities!V6</f>
         <v>Projected</v>
       </c>
-      <c r="W6" s="106" t="str">
+      <c r="W6" s="109" t="str">
         <f>Liabilities!W6</f>
         <v>Projected</v>
       </c>
-      <c r="X6" s="106" t="str">
+      <c r="X6" s="109" t="str">
         <f>Liabilities!X6</f>
         <v>Projected</v>
       </c>
-      <c r="Y6" s="131" t="str">
+      <c r="Y6" s="132" t="str">
         <f>Liabilities!Y6</f>
         <v>Projected</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="126"/>
-      <c r="B7" s="117"/>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="118"/>
-      <c r="L7" s="118"/>
-      <c r="M7" s="132"/>
-      <c r="N7" s="132"/>
-      <c r="O7" s="132"/>
-      <c r="P7" s="132"/>
-      <c r="Q7" s="132"/>
-      <c r="R7" s="132"/>
-      <c r="S7" s="132"/>
-      <c r="T7" s="132"/>
-      <c r="U7" s="132"/>
-      <c r="V7" s="132"/>
-      <c r="W7" s="132"/>
-      <c r="X7" s="132"/>
+      <c r="A7" s="131"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="124"/>
+      <c r="D7" s="124"/>
+      <c r="E7" s="124"/>
+      <c r="F7" s="124"/>
+      <c r="G7" s="124"/>
+      <c r="H7" s="124"/>
+      <c r="I7" s="124"/>
+      <c r="J7" s="124"/>
+      <c r="K7" s="124"/>
+      <c r="L7" s="124"/>
+      <c r="M7" s="129"/>
+      <c r="N7" s="129"/>
+      <c r="O7" s="129"/>
+      <c r="P7" s="129"/>
+      <c r="Q7" s="129"/>
+      <c r="R7" s="129"/>
+      <c r="S7" s="129"/>
+      <c r="T7" s="129"/>
+      <c r="U7" s="129"/>
+      <c r="V7" s="129"/>
+      <c r="W7" s="129"/>
+      <c r="X7" s="129"/>
       <c r="Y7" s="133"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="B8" s="127"/>
-      <c r="C8" s="128"/>
-      <c r="D8" s="128"/>
-      <c r="E8" s="129"/>
-      <c r="F8" s="129"/>
-      <c r="G8" s="129"/>
-      <c r="H8" s="129"/>
-      <c r="I8" s="129"/>
-      <c r="J8" s="129"/>
-      <c r="K8" s="129"/>
-      <c r="L8" s="129"/>
-      <c r="M8" s="130"/>
-      <c r="N8" s="114"/>
-      <c r="O8" s="114"/>
-      <c r="P8" s="114"/>
-      <c r="Q8" s="114"/>
-      <c r="R8" s="114"/>
-      <c r="S8" s="114"/>
-      <c r="T8" s="114"/>
-      <c r="U8" s="114"/>
-      <c r="V8" s="114"/>
-      <c r="W8" s="114"/>
-      <c r="X8" s="114"/>
-      <c r="Y8" s="114"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="103"/>
+      <c r="N8" s="97"/>
+      <c r="O8" s="97"/>
+      <c r="P8" s="97"/>
+      <c r="Q8" s="97"/>
+      <c r="R8" s="97"/>
+      <c r="S8" s="97"/>
+      <c r="T8" s="97"/>
+      <c r="U8" s="97"/>
+      <c r="V8" s="97"/>
+      <c r="W8" s="97"/>
+      <c r="X8" s="97"/>
+      <c r="Y8" s="97"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="67" t="s">
@@ -26059,18 +26059,18 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
-      <c r="N9" s="108"/>
-      <c r="O9" s="108"/>
-      <c r="P9" s="108"/>
-      <c r="Q9" s="108"/>
-      <c r="R9" s="108"/>
-      <c r="S9" s="108"/>
-      <c r="T9" s="108"/>
-      <c r="U9" s="108"/>
-      <c r="V9" s="108"/>
-      <c r="W9" s="108"/>
-      <c r="X9" s="108"/>
-      <c r="Y9" s="108"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="94"/>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="94"/>
+      <c r="S9" s="94"/>
+      <c r="T9" s="94"/>
+      <c r="U9" s="94"/>
+      <c r="V9" s="94"/>
+      <c r="W9" s="94"/>
+      <c r="X9" s="94"/>
+      <c r="Y9" s="94"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="67"/>
@@ -26086,18 +26086,18 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
-      <c r="N10" s="108"/>
-      <c r="O10" s="108"/>
-      <c r="P10" s="108"/>
-      <c r="Q10" s="108"/>
-      <c r="R10" s="108"/>
-      <c r="S10" s="108"/>
-      <c r="T10" s="108"/>
-      <c r="U10" s="108"/>
-      <c r="V10" s="108"/>
-      <c r="W10" s="108"/>
-      <c r="X10" s="108"/>
-      <c r="Y10" s="108"/>
+      <c r="N10" s="94"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="94"/>
+      <c r="Q10" s="94"/>
+      <c r="R10" s="94"/>
+      <c r="S10" s="94"/>
+      <c r="T10" s="94"/>
+      <c r="U10" s="94"/>
+      <c r="V10" s="94"/>
+      <c r="W10" s="94"/>
+      <c r="X10" s="94"/>
+      <c r="Y10" s="94"/>
     </row>
     <row r="11" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="69" t="s">
@@ -26216,18 +26216,18 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
-      <c r="N12" s="108"/>
-      <c r="O12" s="108"/>
-      <c r="P12" s="108"/>
-      <c r="Q12" s="108"/>
-      <c r="R12" s="108"/>
-      <c r="S12" s="108"/>
-      <c r="T12" s="108"/>
-      <c r="U12" s="108"/>
-      <c r="V12" s="108"/>
-      <c r="W12" s="108"/>
-      <c r="X12" s="108"/>
-      <c r="Y12" s="108"/>
+      <c r="N12" s="94"/>
+      <c r="O12" s="94"/>
+      <c r="P12" s="94"/>
+      <c r="Q12" s="94"/>
+      <c r="R12" s="94"/>
+      <c r="S12" s="94"/>
+      <c r="T12" s="94"/>
+      <c r="U12" s="94"/>
+      <c r="V12" s="94"/>
+      <c r="W12" s="94"/>
+      <c r="X12" s="94"/>
+      <c r="Y12" s="94"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="67" t="s">
@@ -26245,18 +26245,18 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
-      <c r="N13" s="108"/>
-      <c r="O13" s="108"/>
-      <c r="P13" s="108"/>
-      <c r="Q13" s="108"/>
-      <c r="R13" s="108"/>
-      <c r="S13" s="108"/>
-      <c r="T13" s="108"/>
-      <c r="U13" s="108"/>
-      <c r="V13" s="108"/>
-      <c r="W13" s="108"/>
-      <c r="X13" s="108"/>
-      <c r="Y13" s="108"/>
+      <c r="N13" s="94"/>
+      <c r="O13" s="94"/>
+      <c r="P13" s="94"/>
+      <c r="Q13" s="94"/>
+      <c r="R13" s="94"/>
+      <c r="S13" s="94"/>
+      <c r="T13" s="94"/>
+      <c r="U13" s="94"/>
+      <c r="V13" s="94"/>
+      <c r="W13" s="94"/>
+      <c r="X13" s="94"/>
+      <c r="Y13" s="94"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="67" t="s">
@@ -26274,18 +26274,18 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
-      <c r="N14" s="108"/>
-      <c r="O14" s="108"/>
-      <c r="P14" s="108"/>
-      <c r="Q14" s="108"/>
-      <c r="R14" s="108"/>
-      <c r="S14" s="108"/>
-      <c r="T14" s="108"/>
-      <c r="U14" s="108"/>
-      <c r="V14" s="108"/>
-      <c r="W14" s="108"/>
-      <c r="X14" s="108"/>
-      <c r="Y14" s="108"/>
+      <c r="N14" s="94"/>
+      <c r="O14" s="94"/>
+      <c r="P14" s="94"/>
+      <c r="Q14" s="94"/>
+      <c r="R14" s="94"/>
+      <c r="S14" s="94"/>
+      <c r="T14" s="94"/>
+      <c r="U14" s="94"/>
+      <c r="V14" s="94"/>
+      <c r="W14" s="94"/>
+      <c r="X14" s="94"/>
+      <c r="Y14" s="94"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="67" t="s">
@@ -26303,18 +26303,18 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
-      <c r="N15" s="108"/>
-      <c r="O15" s="108"/>
-      <c r="P15" s="108"/>
-      <c r="Q15" s="108"/>
-      <c r="R15" s="108"/>
-      <c r="S15" s="108"/>
-      <c r="T15" s="108"/>
-      <c r="U15" s="108"/>
-      <c r="V15" s="108"/>
-      <c r="W15" s="108"/>
-      <c r="X15" s="108"/>
-      <c r="Y15" s="108"/>
+      <c r="N15" s="94"/>
+      <c r="O15" s="94"/>
+      <c r="P15" s="94"/>
+      <c r="Q15" s="94"/>
+      <c r="R15" s="94"/>
+      <c r="S15" s="94"/>
+      <c r="T15" s="94"/>
+      <c r="U15" s="94"/>
+      <c r="V15" s="94"/>
+      <c r="W15" s="94"/>
+      <c r="X15" s="94"/>
+      <c r="Y15" s="94"/>
     </row>
     <row r="16" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="69" t="s">
@@ -26332,18 +26332,18 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-      <c r="N16" s="108"/>
-      <c r="O16" s="108"/>
-      <c r="P16" s="108"/>
-      <c r="Q16" s="108"/>
-      <c r="R16" s="108"/>
-      <c r="S16" s="108"/>
-      <c r="T16" s="108"/>
-      <c r="U16" s="108"/>
-      <c r="V16" s="108"/>
-      <c r="W16" s="108"/>
-      <c r="X16" s="108"/>
-      <c r="Y16" s="108"/>
+      <c r="N16" s="94"/>
+      <c r="O16" s="94"/>
+      <c r="P16" s="94"/>
+      <c r="Q16" s="94"/>
+      <c r="R16" s="94"/>
+      <c r="S16" s="94"/>
+      <c r="T16" s="94"/>
+      <c r="U16" s="94"/>
+      <c r="V16" s="94"/>
+      <c r="W16" s="94"/>
+      <c r="X16" s="94"/>
+      <c r="Y16" s="94"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="67" t="s">
@@ -26361,18 +26361,18 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
-      <c r="N17" s="108"/>
-      <c r="O17" s="108"/>
-      <c r="P17" s="108"/>
-      <c r="Q17" s="108"/>
-      <c r="R17" s="108"/>
-      <c r="S17" s="108"/>
-      <c r="T17" s="108"/>
-      <c r="U17" s="108"/>
-      <c r="V17" s="108"/>
-      <c r="W17" s="108"/>
-      <c r="X17" s="108"/>
-      <c r="Y17" s="108"/>
+      <c r="N17" s="94"/>
+      <c r="O17" s="94"/>
+      <c r="P17" s="94"/>
+      <c r="Q17" s="94"/>
+      <c r="R17" s="94"/>
+      <c r="S17" s="94"/>
+      <c r="T17" s="94"/>
+      <c r="U17" s="94"/>
+      <c r="V17" s="94"/>
+      <c r="W17" s="94"/>
+      <c r="X17" s="94"/>
+      <c r="Y17" s="94"/>
     </row>
     <row r="18" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="69" t="s">
@@ -26390,18 +26390,18 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
-      <c r="N18" s="108"/>
-      <c r="O18" s="108"/>
-      <c r="P18" s="108"/>
-      <c r="Q18" s="108"/>
-      <c r="R18" s="108"/>
-      <c r="S18" s="108"/>
-      <c r="T18" s="108"/>
-      <c r="U18" s="108"/>
-      <c r="V18" s="108"/>
-      <c r="W18" s="108"/>
-      <c r="X18" s="108"/>
-      <c r="Y18" s="108"/>
+      <c r="N18" s="94"/>
+      <c r="O18" s="94"/>
+      <c r="P18" s="94"/>
+      <c r="Q18" s="94"/>
+      <c r="R18" s="94"/>
+      <c r="S18" s="94"/>
+      <c r="T18" s="94"/>
+      <c r="U18" s="94"/>
+      <c r="V18" s="94"/>
+      <c r="W18" s="94"/>
+      <c r="X18" s="94"/>
+      <c r="Y18" s="94"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="67" t="s">
@@ -26419,18 +26419,18 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-      <c r="N19" s="108"/>
-      <c r="O19" s="108"/>
-      <c r="P19" s="108"/>
-      <c r="Q19" s="108"/>
-      <c r="R19" s="108"/>
-      <c r="S19" s="108"/>
-      <c r="T19" s="108"/>
-      <c r="U19" s="108"/>
-      <c r="V19" s="108"/>
-      <c r="W19" s="108"/>
-      <c r="X19" s="108"/>
-      <c r="Y19" s="108"/>
+      <c r="N19" s="94"/>
+      <c r="O19" s="94"/>
+      <c r="P19" s="94"/>
+      <c r="Q19" s="94"/>
+      <c r="R19" s="94"/>
+      <c r="S19" s="94"/>
+      <c r="T19" s="94"/>
+      <c r="U19" s="94"/>
+      <c r="V19" s="94"/>
+      <c r="W19" s="94"/>
+      <c r="X19" s="94"/>
+      <c r="Y19" s="94"/>
     </row>
     <row r="20" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="69" t="s">
@@ -26448,18 +26448,18 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
-      <c r="N20" s="108"/>
-      <c r="O20" s="108"/>
-      <c r="P20" s="108"/>
-      <c r="Q20" s="108"/>
-      <c r="R20" s="108"/>
-      <c r="S20" s="108"/>
-      <c r="T20" s="108"/>
-      <c r="U20" s="108"/>
-      <c r="V20" s="108"/>
-      <c r="W20" s="108"/>
-      <c r="X20" s="108"/>
-      <c r="Y20" s="108"/>
+      <c r="N20" s="94"/>
+      <c r="O20" s="94"/>
+      <c r="P20" s="94"/>
+      <c r="Q20" s="94"/>
+      <c r="R20" s="94"/>
+      <c r="S20" s="94"/>
+      <c r="T20" s="94"/>
+      <c r="U20" s="94"/>
+      <c r="V20" s="94"/>
+      <c r="W20" s="94"/>
+      <c r="X20" s="94"/>
+      <c r="Y20" s="94"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="67"/>
@@ -26475,18 +26475,18 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
-      <c r="N21" s="108"/>
-      <c r="O21" s="108"/>
-      <c r="P21" s="108"/>
-      <c r="Q21" s="108"/>
-      <c r="R21" s="108"/>
-      <c r="S21" s="108"/>
-      <c r="T21" s="108"/>
-      <c r="U21" s="108"/>
-      <c r="V21" s="108"/>
-      <c r="W21" s="108"/>
-      <c r="X21" s="108"/>
-      <c r="Y21" s="108"/>
+      <c r="N21" s="94"/>
+      <c r="O21" s="94"/>
+      <c r="P21" s="94"/>
+      <c r="Q21" s="94"/>
+      <c r="R21" s="94"/>
+      <c r="S21" s="94"/>
+      <c r="T21" s="94"/>
+      <c r="U21" s="94"/>
+      <c r="V21" s="94"/>
+      <c r="W21" s="94"/>
+      <c r="X21" s="94"/>
+      <c r="Y21" s="94"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="67" t="s">
@@ -26603,18 +26603,18 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
-      <c r="N23" s="108"/>
-      <c r="O23" s="108"/>
-      <c r="P23" s="108"/>
-      <c r="Q23" s="108"/>
-      <c r="R23" s="108"/>
-      <c r="S23" s="108"/>
-      <c r="T23" s="108"/>
-      <c r="U23" s="108"/>
-      <c r="V23" s="108"/>
-      <c r="W23" s="108"/>
-      <c r="X23" s="108"/>
-      <c r="Y23" s="108"/>
+      <c r="N23" s="94"/>
+      <c r="O23" s="94"/>
+      <c r="P23" s="94"/>
+      <c r="Q23" s="94"/>
+      <c r="R23" s="94"/>
+      <c r="S23" s="94"/>
+      <c r="T23" s="94"/>
+      <c r="U23" s="94"/>
+      <c r="V23" s="94"/>
+      <c r="W23" s="94"/>
+      <c r="X23" s="94"/>
+      <c r="Y23" s="94"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="67" t="s">
@@ -26733,18 +26733,18 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
-      <c r="N25" s="108"/>
-      <c r="O25" s="108"/>
-      <c r="P25" s="108"/>
-      <c r="Q25" s="108"/>
-      <c r="R25" s="108"/>
-      <c r="S25" s="108"/>
-      <c r="T25" s="108"/>
-      <c r="U25" s="108"/>
-      <c r="V25" s="108"/>
-      <c r="W25" s="108"/>
-      <c r="X25" s="108"/>
-      <c r="Y25" s="108"/>
+      <c r="N25" s="94"/>
+      <c r="O25" s="94"/>
+      <c r="P25" s="94"/>
+      <c r="Q25" s="94"/>
+      <c r="R25" s="94"/>
+      <c r="S25" s="94"/>
+      <c r="T25" s="94"/>
+      <c r="U25" s="94"/>
+      <c r="V25" s="94"/>
+      <c r="W25" s="94"/>
+      <c r="X25" s="94"/>
+      <c r="Y25" s="94"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="67" t="s">
@@ -26762,18 +26762,18 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
-      <c r="N26" s="108"/>
-      <c r="O26" s="108"/>
-      <c r="P26" s="108"/>
-      <c r="Q26" s="108"/>
-      <c r="R26" s="108"/>
-      <c r="S26" s="108"/>
-      <c r="T26" s="108"/>
-      <c r="U26" s="108"/>
-      <c r="V26" s="108"/>
-      <c r="W26" s="108"/>
-      <c r="X26" s="108"/>
-      <c r="Y26" s="108"/>
+      <c r="N26" s="94"/>
+      <c r="O26" s="94"/>
+      <c r="P26" s="94"/>
+      <c r="Q26" s="94"/>
+      <c r="R26" s="94"/>
+      <c r="S26" s="94"/>
+      <c r="T26" s="94"/>
+      <c r="U26" s="94"/>
+      <c r="V26" s="94"/>
+      <c r="W26" s="94"/>
+      <c r="X26" s="94"/>
+      <c r="Y26" s="94"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="67" t="s">
@@ -26791,18 +26791,18 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
-      <c r="N27" s="108"/>
-      <c r="O27" s="108"/>
-      <c r="P27" s="108"/>
-      <c r="Q27" s="108"/>
-      <c r="R27" s="108"/>
-      <c r="S27" s="108"/>
-      <c r="T27" s="108"/>
-      <c r="U27" s="108"/>
-      <c r="V27" s="108"/>
-      <c r="W27" s="108"/>
-      <c r="X27" s="108"/>
-      <c r="Y27" s="108"/>
+      <c r="N27" s="94"/>
+      <c r="O27" s="94"/>
+      <c r="P27" s="94"/>
+      <c r="Q27" s="94"/>
+      <c r="R27" s="94"/>
+      <c r="S27" s="94"/>
+      <c r="T27" s="94"/>
+      <c r="U27" s="94"/>
+      <c r="V27" s="94"/>
+      <c r="W27" s="94"/>
+      <c r="X27" s="94"/>
+      <c r="Y27" s="94"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="67"/>
@@ -26818,18 +26818,18 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
-      <c r="N28" s="108"/>
-      <c r="O28" s="108"/>
-      <c r="P28" s="108"/>
-      <c r="Q28" s="108"/>
-      <c r="R28" s="108"/>
-      <c r="S28" s="108"/>
-      <c r="T28" s="108"/>
-      <c r="U28" s="108"/>
-      <c r="V28" s="108"/>
-      <c r="W28" s="108"/>
-      <c r="X28" s="108"/>
-      <c r="Y28" s="108"/>
+      <c r="N28" s="94"/>
+      <c r="O28" s="94"/>
+      <c r="P28" s="94"/>
+      <c r="Q28" s="94"/>
+      <c r="R28" s="94"/>
+      <c r="S28" s="94"/>
+      <c r="T28" s="94"/>
+      <c r="U28" s="94"/>
+      <c r="V28" s="94"/>
+      <c r="W28" s="94"/>
+      <c r="X28" s="94"/>
+      <c r="Y28" s="94"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="67" t="s">
@@ -26946,18 +26946,18 @@
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
-      <c r="N30" s="108"/>
-      <c r="O30" s="108"/>
-      <c r="P30" s="108"/>
-      <c r="Q30" s="108"/>
-      <c r="R30" s="108"/>
-      <c r="S30" s="108"/>
-      <c r="T30" s="108"/>
-      <c r="U30" s="108"/>
-      <c r="V30" s="108"/>
-      <c r="W30" s="108"/>
-      <c r="X30" s="108"/>
-      <c r="Y30" s="108"/>
+      <c r="N30" s="94"/>
+      <c r="O30" s="94"/>
+      <c r="P30" s="94"/>
+      <c r="Q30" s="94"/>
+      <c r="R30" s="94"/>
+      <c r="S30" s="94"/>
+      <c r="T30" s="94"/>
+      <c r="U30" s="94"/>
+      <c r="V30" s="94"/>
+      <c r="W30" s="94"/>
+      <c r="X30" s="94"/>
+      <c r="Y30" s="94"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="67" t="s">
@@ -27074,18 +27074,18 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
-      <c r="N32" s="108"/>
-      <c r="O32" s="108"/>
-      <c r="P32" s="108"/>
-      <c r="Q32" s="108"/>
-      <c r="R32" s="108"/>
-      <c r="S32" s="108"/>
-      <c r="T32" s="108"/>
-      <c r="U32" s="108"/>
-      <c r="V32" s="108"/>
-      <c r="W32" s="108"/>
-      <c r="X32" s="108"/>
-      <c r="Y32" s="108"/>
+      <c r="N32" s="94"/>
+      <c r="O32" s="94"/>
+      <c r="P32" s="94"/>
+      <c r="Q32" s="94"/>
+      <c r="R32" s="94"/>
+      <c r="S32" s="94"/>
+      <c r="T32" s="94"/>
+      <c r="U32" s="94"/>
+      <c r="V32" s="94"/>
+      <c r="W32" s="94"/>
+      <c r="X32" s="94"/>
+      <c r="Y32" s="94"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="67" t="s">
@@ -27204,18 +27204,18 @@
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
-      <c r="N34" s="108"/>
-      <c r="O34" s="108"/>
-      <c r="P34" s="108"/>
-      <c r="Q34" s="108"/>
-      <c r="R34" s="108"/>
-      <c r="S34" s="108"/>
-      <c r="T34" s="108"/>
-      <c r="U34" s="108"/>
-      <c r="V34" s="108"/>
-      <c r="W34" s="108"/>
-      <c r="X34" s="108"/>
-      <c r="Y34" s="108"/>
+      <c r="N34" s="94"/>
+      <c r="O34" s="94"/>
+      <c r="P34" s="94"/>
+      <c r="Q34" s="94"/>
+      <c r="R34" s="94"/>
+      <c r="S34" s="94"/>
+      <c r="T34" s="94"/>
+      <c r="U34" s="94"/>
+      <c r="V34" s="94"/>
+      <c r="W34" s="94"/>
+      <c r="X34" s="94"/>
+      <c r="Y34" s="94"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="67" t="s">
@@ -27233,18 +27233,18 @@
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
-      <c r="N35" s="108"/>
-      <c r="O35" s="108"/>
-      <c r="P35" s="108"/>
-      <c r="Q35" s="108"/>
-      <c r="R35" s="108"/>
-      <c r="S35" s="108"/>
-      <c r="T35" s="108"/>
-      <c r="U35" s="108"/>
-      <c r="V35" s="108"/>
-      <c r="W35" s="108"/>
-      <c r="X35" s="108"/>
-      <c r="Y35" s="108"/>
+      <c r="N35" s="94"/>
+      <c r="O35" s="94"/>
+      <c r="P35" s="94"/>
+      <c r="Q35" s="94"/>
+      <c r="R35" s="94"/>
+      <c r="S35" s="94"/>
+      <c r="T35" s="94"/>
+      <c r="U35" s="94"/>
+      <c r="V35" s="94"/>
+      <c r="W35" s="94"/>
+      <c r="X35" s="94"/>
+      <c r="Y35" s="94"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="67"/>
@@ -27260,18 +27260,18 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
-      <c r="N36" s="108"/>
-      <c r="O36" s="108"/>
-      <c r="P36" s="108"/>
-      <c r="Q36" s="108"/>
-      <c r="R36" s="108"/>
-      <c r="S36" s="108"/>
-      <c r="T36" s="108"/>
-      <c r="U36" s="108"/>
-      <c r="V36" s="108"/>
-      <c r="W36" s="108"/>
-      <c r="X36" s="108"/>
-      <c r="Y36" s="108"/>
+      <c r="N36" s="94"/>
+      <c r="O36" s="94"/>
+      <c r="P36" s="94"/>
+      <c r="Q36" s="94"/>
+      <c r="R36" s="94"/>
+      <c r="S36" s="94"/>
+      <c r="T36" s="94"/>
+      <c r="U36" s="94"/>
+      <c r="V36" s="94"/>
+      <c r="W36" s="94"/>
+      <c r="X36" s="94"/>
+      <c r="Y36" s="94"/>
     </row>
     <row r="37" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="69" t="s">
@@ -27289,18 +27289,18 @@
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
-      <c r="N37" s="108"/>
-      <c r="O37" s="108"/>
-      <c r="P37" s="108"/>
-      <c r="Q37" s="108"/>
-      <c r="R37" s="108"/>
-      <c r="S37" s="108"/>
-      <c r="T37" s="108"/>
-      <c r="U37" s="108"/>
-      <c r="V37" s="108"/>
-      <c r="W37" s="108"/>
-      <c r="X37" s="108"/>
-      <c r="Y37" s="108"/>
+      <c r="N37" s="94"/>
+      <c r="O37" s="94"/>
+      <c r="P37" s="94"/>
+      <c r="Q37" s="94"/>
+      <c r="R37" s="94"/>
+      <c r="S37" s="94"/>
+      <c r="T37" s="94"/>
+      <c r="U37" s="94"/>
+      <c r="V37" s="94"/>
+      <c r="W37" s="94"/>
+      <c r="X37" s="94"/>
+      <c r="Y37" s="94"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="67" t="s">
@@ -27318,18 +27318,18 @@
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
-      <c r="N38" s="108"/>
-      <c r="O38" s="108"/>
-      <c r="P38" s="108"/>
-      <c r="Q38" s="108"/>
-      <c r="R38" s="108"/>
-      <c r="S38" s="108"/>
-      <c r="T38" s="108"/>
-      <c r="U38" s="108"/>
-      <c r="V38" s="108"/>
-      <c r="W38" s="108"/>
-      <c r="X38" s="108"/>
-      <c r="Y38" s="108"/>
+      <c r="N38" s="94"/>
+      <c r="O38" s="94"/>
+      <c r="P38" s="94"/>
+      <c r="Q38" s="94"/>
+      <c r="R38" s="94"/>
+      <c r="S38" s="94"/>
+      <c r="T38" s="94"/>
+      <c r="U38" s="94"/>
+      <c r="V38" s="94"/>
+      <c r="W38" s="94"/>
+      <c r="X38" s="94"/>
+      <c r="Y38" s="94"/>
     </row>
     <row r="39" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="67" t="s">
@@ -27347,18 +27347,18 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-      <c r="N39" s="108"/>
-      <c r="O39" s="108"/>
-      <c r="P39" s="108"/>
-      <c r="Q39" s="108"/>
-      <c r="R39" s="108"/>
-      <c r="S39" s="108"/>
-      <c r="T39" s="108"/>
-      <c r="U39" s="108"/>
-      <c r="V39" s="108"/>
-      <c r="W39" s="108"/>
-      <c r="X39" s="108"/>
-      <c r="Y39" s="108"/>
+      <c r="N39" s="94"/>
+      <c r="O39" s="94"/>
+      <c r="P39" s="94"/>
+      <c r="Q39" s="94"/>
+      <c r="R39" s="94"/>
+      <c r="S39" s="94"/>
+      <c r="T39" s="94"/>
+      <c r="U39" s="94"/>
+      <c r="V39" s="94"/>
+      <c r="W39" s="94"/>
+      <c r="X39" s="94"/>
+      <c r="Y39" s="94"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="67"/>
@@ -27374,18 +27374,18 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-      <c r="N40" s="108"/>
-      <c r="O40" s="108"/>
-      <c r="P40" s="108"/>
-      <c r="Q40" s="108"/>
-      <c r="R40" s="108"/>
-      <c r="S40" s="108"/>
-      <c r="T40" s="108"/>
-      <c r="U40" s="108"/>
-      <c r="V40" s="108"/>
-      <c r="W40" s="108"/>
-      <c r="X40" s="108"/>
-      <c r="Y40" s="108"/>
+      <c r="N40" s="94"/>
+      <c r="O40" s="94"/>
+      <c r="P40" s="94"/>
+      <c r="Q40" s="94"/>
+      <c r="R40" s="94"/>
+      <c r="S40" s="94"/>
+      <c r="T40" s="94"/>
+      <c r="U40" s="94"/>
+      <c r="V40" s="94"/>
+      <c r="W40" s="94"/>
+      <c r="X40" s="94"/>
+      <c r="Y40" s="94"/>
     </row>
     <row r="41" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="69" t="s">
@@ -27403,18 +27403,18 @@
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
-      <c r="N41" s="108"/>
-      <c r="O41" s="108"/>
-      <c r="P41" s="108"/>
-      <c r="Q41" s="108"/>
-      <c r="R41" s="108"/>
-      <c r="S41" s="108"/>
-      <c r="T41" s="108"/>
-      <c r="U41" s="108"/>
-      <c r="V41" s="108"/>
-      <c r="W41" s="108"/>
-      <c r="X41" s="108"/>
-      <c r="Y41" s="108"/>
+      <c r="N41" s="94"/>
+      <c r="O41" s="94"/>
+      <c r="P41" s="94"/>
+      <c r="Q41" s="94"/>
+      <c r="R41" s="94"/>
+      <c r="S41" s="94"/>
+      <c r="T41" s="94"/>
+      <c r="U41" s="94"/>
+      <c r="V41" s="94"/>
+      <c r="W41" s="94"/>
+      <c r="X41" s="94"/>
+      <c r="Y41" s="94"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="71"/>
@@ -27430,18 +27430,18 @@
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
-      <c r="N42" s="108"/>
-      <c r="O42" s="108"/>
-      <c r="P42" s="108"/>
-      <c r="Q42" s="108"/>
-      <c r="R42" s="108"/>
-      <c r="S42" s="108"/>
-      <c r="T42" s="108"/>
-      <c r="U42" s="108"/>
-      <c r="V42" s="108"/>
-      <c r="W42" s="108"/>
-      <c r="X42" s="108"/>
-      <c r="Y42" s="108"/>
+      <c r="N42" s="94"/>
+      <c r="O42" s="94"/>
+      <c r="P42" s="94"/>
+      <c r="Q42" s="94"/>
+      <c r="R42" s="94"/>
+      <c r="S42" s="94"/>
+      <c r="T42" s="94"/>
+      <c r="U42" s="94"/>
+      <c r="V42" s="94"/>
+      <c r="W42" s="94"/>
+      <c r="X42" s="94"/>
+      <c r="Y42" s="94"/>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="67" t="s">
@@ -27558,18 +27558,18 @@
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
-      <c r="N44" s="108"/>
-      <c r="O44" s="108"/>
-      <c r="P44" s="108"/>
-      <c r="Q44" s="108"/>
-      <c r="R44" s="108"/>
-      <c r="S44" s="108"/>
-      <c r="T44" s="108"/>
-      <c r="U44" s="108"/>
-      <c r="V44" s="108"/>
-      <c r="W44" s="108"/>
-      <c r="X44" s="108"/>
-      <c r="Y44" s="108"/>
+      <c r="N44" s="94"/>
+      <c r="O44" s="94"/>
+      <c r="P44" s="94"/>
+      <c r="Q44" s="94"/>
+      <c r="R44" s="94"/>
+      <c r="S44" s="94"/>
+      <c r="T44" s="94"/>
+      <c r="U44" s="94"/>
+      <c r="V44" s="94"/>
+      <c r="W44" s="94"/>
+      <c r="X44" s="94"/>
+      <c r="Y44" s="94"/>
     </row>
     <row r="45" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="69" t="s">
@@ -27688,18 +27688,18 @@
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
-      <c r="N46" s="108"/>
-      <c r="O46" s="108"/>
-      <c r="P46" s="108"/>
-      <c r="Q46" s="108"/>
-      <c r="R46" s="108"/>
-      <c r="S46" s="108"/>
-      <c r="T46" s="108"/>
-      <c r="U46" s="108"/>
-      <c r="V46" s="108"/>
-      <c r="W46" s="108"/>
-      <c r="X46" s="108"/>
-      <c r="Y46" s="108"/>
+      <c r="N46" s="94"/>
+      <c r="O46" s="94"/>
+      <c r="P46" s="94"/>
+      <c r="Q46" s="94"/>
+      <c r="R46" s="94"/>
+      <c r="S46" s="94"/>
+      <c r="T46" s="94"/>
+      <c r="U46" s="94"/>
+      <c r="V46" s="94"/>
+      <c r="W46" s="94"/>
+      <c r="X46" s="94"/>
+      <c r="Y46" s="94"/>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="72" t="s">
@@ -27717,18 +27717,18 @@
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
-      <c r="N47" s="108"/>
-      <c r="O47" s="108"/>
-      <c r="P47" s="108"/>
-      <c r="Q47" s="108"/>
-      <c r="R47" s="108"/>
-      <c r="S47" s="108"/>
-      <c r="T47" s="108"/>
-      <c r="U47" s="108"/>
-      <c r="V47" s="108"/>
-      <c r="W47" s="108"/>
-      <c r="X47" s="108"/>
-      <c r="Y47" s="108"/>
+      <c r="N47" s="94"/>
+      <c r="O47" s="94"/>
+      <c r="P47" s="94"/>
+      <c r="Q47" s="94"/>
+      <c r="R47" s="94"/>
+      <c r="S47" s="94"/>
+      <c r="T47" s="94"/>
+      <c r="U47" s="94"/>
+      <c r="V47" s="94"/>
+      <c r="W47" s="94"/>
+      <c r="X47" s="94"/>
+      <c r="Y47" s="94"/>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="72"/>
@@ -27744,18 +27744,18 @@
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
-      <c r="N48" s="108"/>
-      <c r="O48" s="108"/>
-      <c r="P48" s="108"/>
-      <c r="Q48" s="108"/>
-      <c r="R48" s="108"/>
-      <c r="S48" s="108"/>
-      <c r="T48" s="108"/>
-      <c r="U48" s="108"/>
-      <c r="V48" s="108"/>
-      <c r="W48" s="108"/>
-      <c r="X48" s="108"/>
-      <c r="Y48" s="108"/>
+      <c r="N48" s="94"/>
+      <c r="O48" s="94"/>
+      <c r="P48" s="94"/>
+      <c r="Q48" s="94"/>
+      <c r="R48" s="94"/>
+      <c r="S48" s="94"/>
+      <c r="T48" s="94"/>
+      <c r="U48" s="94"/>
+      <c r="V48" s="94"/>
+      <c r="W48" s="94"/>
+      <c r="X48" s="94"/>
+      <c r="Y48" s="94"/>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="72"/>
@@ -27771,18 +27771,18 @@
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
-      <c r="N49" s="108"/>
-      <c r="O49" s="108"/>
-      <c r="P49" s="108"/>
-      <c r="Q49" s="108"/>
-      <c r="R49" s="108"/>
-      <c r="S49" s="108"/>
-      <c r="T49" s="108"/>
-      <c r="U49" s="108"/>
-      <c r="V49" s="108"/>
-      <c r="W49" s="108"/>
-      <c r="X49" s="108"/>
-      <c r="Y49" s="108"/>
+      <c r="N49" s="94"/>
+      <c r="O49" s="94"/>
+      <c r="P49" s="94"/>
+      <c r="Q49" s="94"/>
+      <c r="R49" s="94"/>
+      <c r="S49" s="94"/>
+      <c r="T49" s="94"/>
+      <c r="U49" s="94"/>
+      <c r="V49" s="94"/>
+      <c r="W49" s="94"/>
+      <c r="X49" s="94"/>
+      <c r="Y49" s="94"/>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="72"/>
@@ -27798,18 +27798,18 @@
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
-      <c r="N50" s="108"/>
-      <c r="O50" s="108"/>
-      <c r="P50" s="108"/>
-      <c r="Q50" s="108"/>
-      <c r="R50" s="108"/>
-      <c r="S50" s="108"/>
-      <c r="T50" s="108"/>
-      <c r="U50" s="108"/>
-      <c r="V50" s="108"/>
-      <c r="W50" s="108"/>
-      <c r="X50" s="108"/>
-      <c r="Y50" s="108"/>
+      <c r="N50" s="94"/>
+      <c r="O50" s="94"/>
+      <c r="P50" s="94"/>
+      <c r="Q50" s="94"/>
+      <c r="R50" s="94"/>
+      <c r="S50" s="94"/>
+      <c r="T50" s="94"/>
+      <c r="U50" s="94"/>
+      <c r="V50" s="94"/>
+      <c r="W50" s="94"/>
+      <c r="X50" s="94"/>
+      <c r="Y50" s="94"/>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="67" t="s">
@@ -27827,18 +27827,18 @@
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
-      <c r="N51" s="108"/>
-      <c r="O51" s="108"/>
-      <c r="P51" s="108"/>
-      <c r="Q51" s="108"/>
-      <c r="R51" s="108"/>
-      <c r="S51" s="108"/>
-      <c r="T51" s="108"/>
-      <c r="U51" s="108"/>
-      <c r="V51" s="108"/>
-      <c r="W51" s="108"/>
-      <c r="X51" s="108"/>
-      <c r="Y51" s="108"/>
+      <c r="N51" s="94"/>
+      <c r="O51" s="94"/>
+      <c r="P51" s="94"/>
+      <c r="Q51" s="94"/>
+      <c r="R51" s="94"/>
+      <c r="S51" s="94"/>
+      <c r="T51" s="94"/>
+      <c r="U51" s="94"/>
+      <c r="V51" s="94"/>
+      <c r="W51" s="94"/>
+      <c r="X51" s="94"/>
+      <c r="Y51" s="94"/>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="67" t="s">
@@ -27856,18 +27856,18 @@
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
-      <c r="N52" s="108"/>
-      <c r="O52" s="108"/>
-      <c r="P52" s="108"/>
-      <c r="Q52" s="108"/>
-      <c r="R52" s="108"/>
-      <c r="S52" s="108"/>
-      <c r="T52" s="108"/>
-      <c r="U52" s="108"/>
-      <c r="V52" s="108"/>
-      <c r="W52" s="108"/>
-      <c r="X52" s="108"/>
-      <c r="Y52" s="108"/>
+      <c r="N52" s="94"/>
+      <c r="O52" s="94"/>
+      <c r="P52" s="94"/>
+      <c r="Q52" s="94"/>
+      <c r="R52" s="94"/>
+      <c r="S52" s="94"/>
+      <c r="T52" s="94"/>
+      <c r="U52" s="94"/>
+      <c r="V52" s="94"/>
+      <c r="W52" s="94"/>
+      <c r="X52" s="94"/>
+      <c r="Y52" s="94"/>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="67"/>
@@ -27883,18 +27883,18 @@
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
-      <c r="N53" s="108"/>
-      <c r="O53" s="108"/>
-      <c r="P53" s="108"/>
-      <c r="Q53" s="108"/>
-      <c r="R53" s="108"/>
-      <c r="S53" s="108"/>
-      <c r="T53" s="108"/>
-      <c r="U53" s="108"/>
-      <c r="V53" s="108"/>
-      <c r="W53" s="108"/>
-      <c r="X53" s="108"/>
-      <c r="Y53" s="108"/>
+      <c r="N53" s="94"/>
+      <c r="O53" s="94"/>
+      <c r="P53" s="94"/>
+      <c r="Q53" s="94"/>
+      <c r="R53" s="94"/>
+      <c r="S53" s="94"/>
+      <c r="T53" s="94"/>
+      <c r="U53" s="94"/>
+      <c r="V53" s="94"/>
+      <c r="W53" s="94"/>
+      <c r="X53" s="94"/>
+      <c r="Y53" s="94"/>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="67" t="s">
@@ -27912,18 +27912,18 @@
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
-      <c r="N54" s="108"/>
-      <c r="O54" s="108"/>
-      <c r="P54" s="108"/>
-      <c r="Q54" s="108"/>
-      <c r="R54" s="108"/>
-      <c r="S54" s="108"/>
-      <c r="T54" s="108"/>
-      <c r="U54" s="108"/>
-      <c r="V54" s="108"/>
-      <c r="W54" s="108"/>
-      <c r="X54" s="108"/>
-      <c r="Y54" s="108"/>
+      <c r="N54" s="94"/>
+      <c r="O54" s="94"/>
+      <c r="P54" s="94"/>
+      <c r="Q54" s="94"/>
+      <c r="R54" s="94"/>
+      <c r="S54" s="94"/>
+      <c r="T54" s="94"/>
+      <c r="U54" s="94"/>
+      <c r="V54" s="94"/>
+      <c r="W54" s="94"/>
+      <c r="X54" s="94"/>
+      <c r="Y54" s="94"/>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="67"/>
@@ -27939,18 +27939,18 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-      <c r="N55" s="108"/>
-      <c r="O55" s="108"/>
-      <c r="P55" s="108"/>
-      <c r="Q55" s="108"/>
-      <c r="R55" s="108"/>
-      <c r="S55" s="108"/>
-      <c r="T55" s="108"/>
-      <c r="U55" s="108"/>
-      <c r="V55" s="108"/>
-      <c r="W55" s="108"/>
-      <c r="X55" s="108"/>
-      <c r="Y55" s="108"/>
+      <c r="N55" s="94"/>
+      <c r="O55" s="94"/>
+      <c r="P55" s="94"/>
+      <c r="Q55" s="94"/>
+      <c r="R55" s="94"/>
+      <c r="S55" s="94"/>
+      <c r="T55" s="94"/>
+      <c r="U55" s="94"/>
+      <c r="V55" s="94"/>
+      <c r="W55" s="94"/>
+      <c r="X55" s="94"/>
+      <c r="Y55" s="94"/>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="67" t="s">
@@ -28067,18 +28067,18 @@
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
-      <c r="N57" s="108"/>
-      <c r="O57" s="108"/>
-      <c r="P57" s="108"/>
-      <c r="Q57" s="108"/>
-      <c r="R57" s="108"/>
-      <c r="S57" s="108"/>
-      <c r="T57" s="108"/>
-      <c r="U57" s="108"/>
-      <c r="V57" s="108"/>
-      <c r="W57" s="108"/>
-      <c r="X57" s="108"/>
-      <c r="Y57" s="108"/>
+      <c r="N57" s="94"/>
+      <c r="O57" s="94"/>
+      <c r="P57" s="94"/>
+      <c r="Q57" s="94"/>
+      <c r="R57" s="94"/>
+      <c r="S57" s="94"/>
+      <c r="T57" s="94"/>
+      <c r="U57" s="94"/>
+      <c r="V57" s="94"/>
+      <c r="W57" s="94"/>
+      <c r="X57" s="94"/>
+      <c r="Y57" s="94"/>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="66" t="s">
@@ -28096,18 +28096,18 @@
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
-      <c r="N58" s="108"/>
-      <c r="O58" s="108"/>
-      <c r="P58" s="108"/>
-      <c r="Q58" s="108"/>
-      <c r="R58" s="108"/>
-      <c r="S58" s="108"/>
-      <c r="T58" s="108"/>
-      <c r="U58" s="108"/>
-      <c r="V58" s="108"/>
-      <c r="W58" s="108"/>
-      <c r="X58" s="108"/>
-      <c r="Y58" s="108"/>
+      <c r="N58" s="94"/>
+      <c r="O58" s="94"/>
+      <c r="P58" s="94"/>
+      <c r="Q58" s="94"/>
+      <c r="R58" s="94"/>
+      <c r="S58" s="94"/>
+      <c r="T58" s="94"/>
+      <c r="U58" s="94"/>
+      <c r="V58" s="94"/>
+      <c r="W58" s="94"/>
+      <c r="X58" s="94"/>
+      <c r="Y58" s="94"/>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="67"/>
@@ -28123,18 +28123,18 @@
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
-      <c r="N59" s="108"/>
-      <c r="O59" s="108"/>
-      <c r="P59" s="108"/>
-      <c r="Q59" s="108"/>
-      <c r="R59" s="108"/>
-      <c r="S59" s="108"/>
-      <c r="T59" s="108"/>
-      <c r="U59" s="108"/>
-      <c r="V59" s="108"/>
-      <c r="W59" s="108"/>
-      <c r="X59" s="108"/>
-      <c r="Y59" s="108"/>
+      <c r="N59" s="94"/>
+      <c r="O59" s="94"/>
+      <c r="P59" s="94"/>
+      <c r="Q59" s="94"/>
+      <c r="R59" s="94"/>
+      <c r="S59" s="94"/>
+      <c r="T59" s="94"/>
+      <c r="U59" s="94"/>
+      <c r="V59" s="94"/>
+      <c r="W59" s="94"/>
+      <c r="X59" s="94"/>
+      <c r="Y59" s="94"/>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="67" t="s">
@@ -28152,18 +28152,18 @@
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
-      <c r="N60" s="108"/>
-      <c r="O60" s="108"/>
-      <c r="P60" s="108"/>
-      <c r="Q60" s="108"/>
-      <c r="R60" s="108"/>
-      <c r="S60" s="108"/>
-      <c r="T60" s="108"/>
-      <c r="U60" s="108"/>
-      <c r="V60" s="108"/>
-      <c r="W60" s="108"/>
-      <c r="X60" s="108"/>
-      <c r="Y60" s="108"/>
+      <c r="N60" s="94"/>
+      <c r="O60" s="94"/>
+      <c r="P60" s="94"/>
+      <c r="Q60" s="94"/>
+      <c r="R60" s="94"/>
+      <c r="S60" s="94"/>
+      <c r="T60" s="94"/>
+      <c r="U60" s="94"/>
+      <c r="V60" s="94"/>
+      <c r="W60" s="94"/>
+      <c r="X60" s="94"/>
+      <c r="Y60" s="94"/>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="67"/>
@@ -28179,18 +28179,18 @@
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
-      <c r="N61" s="108"/>
-      <c r="O61" s="108"/>
-      <c r="P61" s="108"/>
-      <c r="Q61" s="108"/>
-      <c r="R61" s="108"/>
-      <c r="S61" s="108"/>
-      <c r="T61" s="108"/>
-      <c r="U61" s="108"/>
-      <c r="V61" s="108"/>
-      <c r="W61" s="108"/>
-      <c r="X61" s="108"/>
-      <c r="Y61" s="108"/>
+      <c r="N61" s="94"/>
+      <c r="O61" s="94"/>
+      <c r="P61" s="94"/>
+      <c r="Q61" s="94"/>
+      <c r="R61" s="94"/>
+      <c r="S61" s="94"/>
+      <c r="T61" s="94"/>
+      <c r="U61" s="94"/>
+      <c r="V61" s="94"/>
+      <c r="W61" s="94"/>
+      <c r="X61" s="94"/>
+      <c r="Y61" s="94"/>
     </row>
     <row r="62" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="69" t="s">
@@ -28309,18 +28309,18 @@
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
-      <c r="N63" s="108"/>
-      <c r="O63" s="108"/>
-      <c r="P63" s="108"/>
-      <c r="Q63" s="108"/>
-      <c r="R63" s="108"/>
-      <c r="S63" s="108"/>
-      <c r="T63" s="108"/>
-      <c r="U63" s="108"/>
-      <c r="V63" s="108"/>
-      <c r="W63" s="108"/>
-      <c r="X63" s="108"/>
-      <c r="Y63" s="108"/>
+      <c r="N63" s="94"/>
+      <c r="O63" s="94"/>
+      <c r="P63" s="94"/>
+      <c r="Q63" s="94"/>
+      <c r="R63" s="94"/>
+      <c r="S63" s="94"/>
+      <c r="T63" s="94"/>
+      <c r="U63" s="94"/>
+      <c r="V63" s="94"/>
+      <c r="W63" s="94"/>
+      <c r="X63" s="94"/>
+      <c r="Y63" s="94"/>
     </row>
     <row r="64" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="69" t="s">
@@ -28338,18 +28338,18 @@
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
-      <c r="N64" s="108"/>
-      <c r="O64" s="108"/>
-      <c r="P64" s="108"/>
-      <c r="Q64" s="108"/>
-      <c r="R64" s="108"/>
-      <c r="S64" s="108"/>
-      <c r="T64" s="108"/>
-      <c r="U64" s="108"/>
-      <c r="V64" s="108"/>
-      <c r="W64" s="108"/>
-      <c r="X64" s="108"/>
-      <c r="Y64" s="108"/>
+      <c r="N64" s="94"/>
+      <c r="O64" s="94"/>
+      <c r="P64" s="94"/>
+      <c r="Q64" s="94"/>
+      <c r="R64" s="94"/>
+      <c r="S64" s="94"/>
+      <c r="T64" s="94"/>
+      <c r="U64" s="94"/>
+      <c r="V64" s="94"/>
+      <c r="W64" s="94"/>
+      <c r="X64" s="94"/>
+      <c r="Y64" s="94"/>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="67" t="s">
@@ -28367,18 +28367,18 @@
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
-      <c r="N65" s="108"/>
-      <c r="O65" s="108"/>
-      <c r="P65" s="108"/>
-      <c r="Q65" s="108"/>
-      <c r="R65" s="108"/>
-      <c r="S65" s="108"/>
-      <c r="T65" s="108"/>
-      <c r="U65" s="108"/>
-      <c r="V65" s="108"/>
-      <c r="W65" s="108"/>
-      <c r="X65" s="108"/>
-      <c r="Y65" s="108"/>
+      <c r="N65" s="94"/>
+      <c r="O65" s="94"/>
+      <c r="P65" s="94"/>
+      <c r="Q65" s="94"/>
+      <c r="R65" s="94"/>
+      <c r="S65" s="94"/>
+      <c r="T65" s="94"/>
+      <c r="U65" s="94"/>
+      <c r="V65" s="94"/>
+      <c r="W65" s="94"/>
+      <c r="X65" s="94"/>
+      <c r="Y65" s="94"/>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" s="67"/>
@@ -28394,18 +28394,18 @@
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
-      <c r="N66" s="108"/>
-      <c r="O66" s="108"/>
-      <c r="P66" s="108"/>
-      <c r="Q66" s="108"/>
-      <c r="R66" s="108"/>
-      <c r="S66" s="108"/>
-      <c r="T66" s="108"/>
-      <c r="U66" s="108"/>
-      <c r="V66" s="108"/>
-      <c r="W66" s="108"/>
-      <c r="X66" s="108"/>
-      <c r="Y66" s="108"/>
+      <c r="N66" s="94"/>
+      <c r="O66" s="94"/>
+      <c r="P66" s="94"/>
+      <c r="Q66" s="94"/>
+      <c r="R66" s="94"/>
+      <c r="S66" s="94"/>
+      <c r="T66" s="94"/>
+      <c r="U66" s="94"/>
+      <c r="V66" s="94"/>
+      <c r="W66" s="94"/>
+      <c r="X66" s="94"/>
+      <c r="Y66" s="94"/>
     </row>
     <row r="67" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="69" t="s">
@@ -28423,18 +28423,18 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-      <c r="N67" s="108"/>
-      <c r="O67" s="108"/>
-      <c r="P67" s="108"/>
-      <c r="Q67" s="108"/>
-      <c r="R67" s="108"/>
-      <c r="S67" s="108"/>
-      <c r="T67" s="108"/>
-      <c r="U67" s="108"/>
-      <c r="V67" s="108"/>
-      <c r="W67" s="108"/>
-      <c r="X67" s="108"/>
-      <c r="Y67" s="108"/>
+      <c r="N67" s="94"/>
+      <c r="O67" s="94"/>
+      <c r="P67" s="94"/>
+      <c r="Q67" s="94"/>
+      <c r="R67" s="94"/>
+      <c r="S67" s="94"/>
+      <c r="T67" s="94"/>
+      <c r="U67" s="94"/>
+      <c r="V67" s="94"/>
+      <c r="W67" s="94"/>
+      <c r="X67" s="94"/>
+      <c r="Y67" s="94"/>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" s="67" t="s">
@@ -28452,18 +28452,18 @@
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
-      <c r="N68" s="108"/>
-      <c r="O68" s="108"/>
-      <c r="P68" s="108"/>
-      <c r="Q68" s="108"/>
-      <c r="R68" s="108"/>
-      <c r="S68" s="108"/>
-      <c r="T68" s="108"/>
-      <c r="U68" s="108"/>
-      <c r="V68" s="108"/>
-      <c r="W68" s="108"/>
-      <c r="X68" s="108"/>
-      <c r="Y68" s="108"/>
+      <c r="N68" s="94"/>
+      <c r="O68" s="94"/>
+      <c r="P68" s="94"/>
+      <c r="Q68" s="94"/>
+      <c r="R68" s="94"/>
+      <c r="S68" s="94"/>
+      <c r="T68" s="94"/>
+      <c r="U68" s="94"/>
+      <c r="V68" s="94"/>
+      <c r="W68" s="94"/>
+      <c r="X68" s="94"/>
+      <c r="Y68" s="94"/>
     </row>
     <row r="69" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="69" t="s">
@@ -28481,18 +28481,18 @@
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
-      <c r="N69" s="108"/>
-      <c r="O69" s="108"/>
-      <c r="P69" s="108"/>
-      <c r="Q69" s="108"/>
-      <c r="R69" s="108"/>
-      <c r="S69" s="108"/>
-      <c r="T69" s="108"/>
-      <c r="U69" s="108"/>
-      <c r="V69" s="108"/>
-      <c r="W69" s="108"/>
-      <c r="X69" s="108"/>
-      <c r="Y69" s="108"/>
+      <c r="N69" s="94"/>
+      <c r="O69" s="94"/>
+      <c r="P69" s="94"/>
+      <c r="Q69" s="94"/>
+      <c r="R69" s="94"/>
+      <c r="S69" s="94"/>
+      <c r="T69" s="94"/>
+      <c r="U69" s="94"/>
+      <c r="V69" s="94"/>
+      <c r="W69" s="94"/>
+      <c r="X69" s="94"/>
+      <c r="Y69" s="94"/>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" s="67" t="s">
@@ -28510,18 +28510,18 @@
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
-      <c r="N70" s="108"/>
-      <c r="O70" s="108"/>
-      <c r="P70" s="108"/>
-      <c r="Q70" s="108"/>
-      <c r="R70" s="108"/>
-      <c r="S70" s="108"/>
-      <c r="T70" s="108"/>
-      <c r="U70" s="108"/>
-      <c r="V70" s="108"/>
-      <c r="W70" s="108"/>
-      <c r="X70" s="108"/>
-      <c r="Y70" s="108"/>
+      <c r="N70" s="94"/>
+      <c r="O70" s="94"/>
+      <c r="P70" s="94"/>
+      <c r="Q70" s="94"/>
+      <c r="R70" s="94"/>
+      <c r="S70" s="94"/>
+      <c r="T70" s="94"/>
+      <c r="U70" s="94"/>
+      <c r="V70" s="94"/>
+      <c r="W70" s="94"/>
+      <c r="X70" s="94"/>
+      <c r="Y70" s="94"/>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" s="67" t="s">
@@ -28640,18 +28640,18 @@
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
-      <c r="N72" s="108"/>
-      <c r="O72" s="108"/>
-      <c r="P72" s="108"/>
-      <c r="Q72" s="108"/>
-      <c r="R72" s="108"/>
-      <c r="S72" s="108"/>
-      <c r="T72" s="108"/>
-      <c r="U72" s="108"/>
-      <c r="V72" s="108"/>
-      <c r="W72" s="108"/>
-      <c r="X72" s="108"/>
-      <c r="Y72" s="108"/>
+      <c r="N72" s="94"/>
+      <c r="O72" s="94"/>
+      <c r="P72" s="94"/>
+      <c r="Q72" s="94"/>
+      <c r="R72" s="94"/>
+      <c r="S72" s="94"/>
+      <c r="T72" s="94"/>
+      <c r="U72" s="94"/>
+      <c r="V72" s="94"/>
+      <c r="W72" s="94"/>
+      <c r="X72" s="94"/>
+      <c r="Y72" s="94"/>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" s="73" t="s">
@@ -28669,18 +28669,18 @@
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
-      <c r="N73" s="108"/>
-      <c r="O73" s="108"/>
-      <c r="P73" s="108"/>
-      <c r="Q73" s="108"/>
-      <c r="R73" s="108"/>
-      <c r="S73" s="108"/>
-      <c r="T73" s="108"/>
-      <c r="U73" s="108"/>
-      <c r="V73" s="108"/>
-      <c r="W73" s="108"/>
-      <c r="X73" s="108"/>
-      <c r="Y73" s="108"/>
+      <c r="N73" s="94"/>
+      <c r="O73" s="94"/>
+      <c r="P73" s="94"/>
+      <c r="Q73" s="94"/>
+      <c r="R73" s="94"/>
+      <c r="S73" s="94"/>
+      <c r="T73" s="94"/>
+      <c r="U73" s="94"/>
+      <c r="V73" s="94"/>
+      <c r="W73" s="94"/>
+      <c r="X73" s="94"/>
+      <c r="Y73" s="94"/>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" s="73" t="s">
@@ -28698,18 +28698,18 @@
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
       <c r="M74" s="3"/>
-      <c r="N74" s="108"/>
-      <c r="O74" s="108"/>
-      <c r="P74" s="108"/>
-      <c r="Q74" s="108"/>
-      <c r="R74" s="108"/>
-      <c r="S74" s="108"/>
-      <c r="T74" s="108"/>
-      <c r="U74" s="108"/>
-      <c r="V74" s="108"/>
-      <c r="W74" s="108"/>
-      <c r="X74" s="108"/>
-      <c r="Y74" s="108"/>
+      <c r="N74" s="94"/>
+      <c r="O74" s="94"/>
+      <c r="P74" s="94"/>
+      <c r="Q74" s="94"/>
+      <c r="R74" s="94"/>
+      <c r="S74" s="94"/>
+      <c r="T74" s="94"/>
+      <c r="U74" s="94"/>
+      <c r="V74" s="94"/>
+      <c r="W74" s="94"/>
+      <c r="X74" s="94"/>
+      <c r="Y74" s="94"/>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" s="67"/>
@@ -28725,18 +28725,18 @@
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
-      <c r="N75" s="108"/>
-      <c r="O75" s="108"/>
-      <c r="P75" s="108"/>
-      <c r="Q75" s="108"/>
-      <c r="R75" s="108"/>
-      <c r="S75" s="108"/>
-      <c r="T75" s="108"/>
-      <c r="U75" s="108"/>
-      <c r="V75" s="108"/>
-      <c r="W75" s="108"/>
-      <c r="X75" s="108"/>
-      <c r="Y75" s="108"/>
+      <c r="N75" s="94"/>
+      <c r="O75" s="94"/>
+      <c r="P75" s="94"/>
+      <c r="Q75" s="94"/>
+      <c r="R75" s="94"/>
+      <c r="S75" s="94"/>
+      <c r="T75" s="94"/>
+      <c r="U75" s="94"/>
+      <c r="V75" s="94"/>
+      <c r="W75" s="94"/>
+      <c r="X75" s="94"/>
+      <c r="Y75" s="94"/>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" s="67" t="s">
@@ -28754,18 +28754,18 @@
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
-      <c r="N76" s="108"/>
-      <c r="O76" s="108"/>
-      <c r="P76" s="108"/>
-      <c r="Q76" s="108"/>
-      <c r="R76" s="108"/>
-      <c r="S76" s="108"/>
-      <c r="T76" s="108"/>
-      <c r="U76" s="108"/>
-      <c r="V76" s="108"/>
-      <c r="W76" s="108"/>
-      <c r="X76" s="108"/>
-      <c r="Y76" s="108"/>
+      <c r="N76" s="94"/>
+      <c r="O76" s="94"/>
+      <c r="P76" s="94"/>
+      <c r="Q76" s="94"/>
+      <c r="R76" s="94"/>
+      <c r="S76" s="94"/>
+      <c r="T76" s="94"/>
+      <c r="U76" s="94"/>
+      <c r="V76" s="94"/>
+      <c r="W76" s="94"/>
+      <c r="X76" s="94"/>
+      <c r="Y76" s="94"/>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" s="67" t="s">
@@ -28783,18 +28783,18 @@
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
-      <c r="N77" s="108"/>
-      <c r="O77" s="108"/>
-      <c r="P77" s="108"/>
-      <c r="Q77" s="108"/>
-      <c r="R77" s="108"/>
-      <c r="S77" s="108"/>
-      <c r="T77" s="108"/>
-      <c r="U77" s="108"/>
-      <c r="V77" s="108"/>
-      <c r="W77" s="108"/>
-      <c r="X77" s="108"/>
-      <c r="Y77" s="108"/>
+      <c r="N77" s="94"/>
+      <c r="O77" s="94"/>
+      <c r="P77" s="94"/>
+      <c r="Q77" s="94"/>
+      <c r="R77" s="94"/>
+      <c r="S77" s="94"/>
+      <c r="T77" s="94"/>
+      <c r="U77" s="94"/>
+      <c r="V77" s="94"/>
+      <c r="W77" s="94"/>
+      <c r="X77" s="94"/>
+      <c r="Y77" s="94"/>
     </row>
     <row r="78" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="69" t="s">
@@ -28812,18 +28812,18 @@
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
       <c r="M78" s="3"/>
-      <c r="N78" s="108"/>
-      <c r="O78" s="108"/>
-      <c r="P78" s="108"/>
-      <c r="Q78" s="108"/>
-      <c r="R78" s="108"/>
-      <c r="S78" s="108"/>
-      <c r="T78" s="108"/>
-      <c r="U78" s="108"/>
-      <c r="V78" s="108"/>
-      <c r="W78" s="108"/>
-      <c r="X78" s="108"/>
-      <c r="Y78" s="108"/>
+      <c r="N78" s="94"/>
+      <c r="O78" s="94"/>
+      <c r="P78" s="94"/>
+      <c r="Q78" s="94"/>
+      <c r="R78" s="94"/>
+      <c r="S78" s="94"/>
+      <c r="T78" s="94"/>
+      <c r="U78" s="94"/>
+      <c r="V78" s="94"/>
+      <c r="W78" s="94"/>
+      <c r="X78" s="94"/>
+      <c r="Y78" s="94"/>
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" s="67"/>
@@ -28839,18 +28839,18 @@
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
       <c r="M79" s="3"/>
-      <c r="N79" s="108"/>
-      <c r="O79" s="108"/>
-      <c r="P79" s="108"/>
-      <c r="Q79" s="108"/>
-      <c r="R79" s="108"/>
-      <c r="S79" s="108"/>
-      <c r="T79" s="108"/>
-      <c r="U79" s="108"/>
-      <c r="V79" s="108"/>
-      <c r="W79" s="108"/>
-      <c r="X79" s="108"/>
-      <c r="Y79" s="108"/>
+      <c r="N79" s="94"/>
+      <c r="O79" s="94"/>
+      <c r="P79" s="94"/>
+      <c r="Q79" s="94"/>
+      <c r="R79" s="94"/>
+      <c r="S79" s="94"/>
+      <c r="T79" s="94"/>
+      <c r="U79" s="94"/>
+      <c r="V79" s="94"/>
+      <c r="W79" s="94"/>
+      <c r="X79" s="94"/>
+      <c r="Y79" s="94"/>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" s="74" t="s">
@@ -28967,18 +28967,18 @@
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
       <c r="M81" s="3"/>
-      <c r="N81" s="108"/>
-      <c r="O81" s="108"/>
-      <c r="P81" s="108"/>
-      <c r="Q81" s="108"/>
-      <c r="R81" s="108"/>
-      <c r="S81" s="108"/>
-      <c r="T81" s="108"/>
-      <c r="U81" s="108"/>
-      <c r="V81" s="108"/>
-      <c r="W81" s="108"/>
-      <c r="X81" s="108"/>
-      <c r="Y81" s="108"/>
+      <c r="N81" s="94"/>
+      <c r="O81" s="94"/>
+      <c r="P81" s="94"/>
+      <c r="Q81" s="94"/>
+      <c r="R81" s="94"/>
+      <c r="S81" s="94"/>
+      <c r="T81" s="94"/>
+      <c r="U81" s="94"/>
+      <c r="V81" s="94"/>
+      <c r="W81" s="94"/>
+      <c r="X81" s="94"/>
+      <c r="Y81" s="94"/>
     </row>
     <row r="82" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="69" t="s">
@@ -29097,18 +29097,18 @@
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
       <c r="M83" s="3"/>
-      <c r="N83" s="108"/>
-      <c r="O83" s="108"/>
-      <c r="P83" s="108"/>
-      <c r="Q83" s="108"/>
-      <c r="R83" s="108"/>
-      <c r="S83" s="108"/>
-      <c r="T83" s="108"/>
-      <c r="U83" s="108"/>
-      <c r="V83" s="108"/>
-      <c r="W83" s="108"/>
-      <c r="X83" s="108"/>
-      <c r="Y83" s="108"/>
+      <c r="N83" s="94"/>
+      <c r="O83" s="94"/>
+      <c r="P83" s="94"/>
+      <c r="Q83" s="94"/>
+      <c r="R83" s="94"/>
+      <c r="S83" s="94"/>
+      <c r="T83" s="94"/>
+      <c r="U83" s="94"/>
+      <c r="V83" s="94"/>
+      <c r="W83" s="94"/>
+      <c r="X83" s="94"/>
+      <c r="Y83" s="94"/>
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" s="75" t="s">
@@ -29126,18 +29126,18 @@
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
       <c r="M84" s="3"/>
-      <c r="N84" s="108"/>
-      <c r="O84" s="108"/>
-      <c r="P84" s="108"/>
-      <c r="Q84" s="108"/>
-      <c r="R84" s="108"/>
-      <c r="S84" s="108"/>
-      <c r="T84" s="108"/>
-      <c r="U84" s="108"/>
-      <c r="V84" s="108"/>
-      <c r="W84" s="108"/>
-      <c r="X84" s="108"/>
-      <c r="Y84" s="108"/>
+      <c r="N84" s="94"/>
+      <c r="O84" s="94"/>
+      <c r="P84" s="94"/>
+      <c r="Q84" s="94"/>
+      <c r="R84" s="94"/>
+      <c r="S84" s="94"/>
+      <c r="T84" s="94"/>
+      <c r="U84" s="94"/>
+      <c r="V84" s="94"/>
+      <c r="W84" s="94"/>
+      <c r="X84" s="94"/>
+      <c r="Y84" s="94"/>
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85" s="75" t="s">
@@ -29155,18 +29155,18 @@
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
       <c r="M85" s="3"/>
-      <c r="N85" s="108"/>
-      <c r="O85" s="108"/>
-      <c r="P85" s="108"/>
-      <c r="Q85" s="108"/>
-      <c r="R85" s="108"/>
-      <c r="S85" s="108"/>
-      <c r="T85" s="108"/>
-      <c r="U85" s="108"/>
-      <c r="V85" s="108"/>
-      <c r="W85" s="108"/>
-      <c r="X85" s="108"/>
-      <c r="Y85" s="108"/>
+      <c r="N85" s="94"/>
+      <c r="O85" s="94"/>
+      <c r="P85" s="94"/>
+      <c r="Q85" s="94"/>
+      <c r="R85" s="94"/>
+      <c r="S85" s="94"/>
+      <c r="T85" s="94"/>
+      <c r="U85" s="94"/>
+      <c r="V85" s="94"/>
+      <c r="W85" s="94"/>
+      <c r="X85" s="94"/>
+      <c r="Y85" s="94"/>
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86" s="75" t="s">
@@ -29184,18 +29184,18 @@
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
       <c r="M86" s="3"/>
-      <c r="N86" s="108"/>
-      <c r="O86" s="108"/>
-      <c r="P86" s="108"/>
-      <c r="Q86" s="108"/>
-      <c r="R86" s="108"/>
-      <c r="S86" s="108"/>
-      <c r="T86" s="108"/>
-      <c r="U86" s="108"/>
-      <c r="V86" s="108"/>
-      <c r="W86" s="108"/>
-      <c r="X86" s="108"/>
-      <c r="Y86" s="108"/>
+      <c r="N86" s="94"/>
+      <c r="O86" s="94"/>
+      <c r="P86" s="94"/>
+      <c r="Q86" s="94"/>
+      <c r="R86" s="94"/>
+      <c r="S86" s="94"/>
+      <c r="T86" s="94"/>
+      <c r="U86" s="94"/>
+      <c r="V86" s="94"/>
+      <c r="W86" s="94"/>
+      <c r="X86" s="94"/>
+      <c r="Y86" s="94"/>
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87" s="75" t="s">
@@ -29213,18 +29213,18 @@
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
       <c r="M87" s="3"/>
-      <c r="N87" s="108"/>
-      <c r="O87" s="108"/>
-      <c r="P87" s="108"/>
-      <c r="Q87" s="108"/>
-      <c r="R87" s="108"/>
-      <c r="S87" s="108"/>
-      <c r="T87" s="108"/>
-      <c r="U87" s="108"/>
-      <c r="V87" s="108"/>
-      <c r="W87" s="108"/>
-      <c r="X87" s="108"/>
-      <c r="Y87" s="108"/>
+      <c r="N87" s="94"/>
+      <c r="O87" s="94"/>
+      <c r="P87" s="94"/>
+      <c r="Q87" s="94"/>
+      <c r="R87" s="94"/>
+      <c r="S87" s="94"/>
+      <c r="T87" s="94"/>
+      <c r="U87" s="94"/>
+      <c r="V87" s="94"/>
+      <c r="W87" s="94"/>
+      <c r="X87" s="94"/>
+      <c r="Y87" s="94"/>
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88" s="76"/>
@@ -29240,18 +29240,18 @@
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
       <c r="M88" s="3"/>
-      <c r="N88" s="108"/>
-      <c r="O88" s="108"/>
-      <c r="P88" s="108"/>
-      <c r="Q88" s="108"/>
-      <c r="R88" s="108"/>
-      <c r="S88" s="108"/>
-      <c r="T88" s="108"/>
-      <c r="U88" s="108"/>
-      <c r="V88" s="108"/>
-      <c r="W88" s="108"/>
-      <c r="X88" s="108"/>
-      <c r="Y88" s="108"/>
+      <c r="N88" s="94"/>
+      <c r="O88" s="94"/>
+      <c r="P88" s="94"/>
+      <c r="Q88" s="94"/>
+      <c r="R88" s="94"/>
+      <c r="S88" s="94"/>
+      <c r="T88" s="94"/>
+      <c r="U88" s="94"/>
+      <c r="V88" s="94"/>
+      <c r="W88" s="94"/>
+      <c r="X88" s="94"/>
+      <c r="Y88" s="94"/>
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89" s="67" t="s">
@@ -29368,18 +29368,18 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-      <c r="N90" s="108"/>
-      <c r="O90" s="108"/>
-      <c r="P90" s="108"/>
-      <c r="Q90" s="108"/>
-      <c r="R90" s="108"/>
-      <c r="S90" s="108"/>
-      <c r="T90" s="108"/>
-      <c r="U90" s="108"/>
-      <c r="V90" s="108"/>
-      <c r="W90" s="108"/>
-      <c r="X90" s="108"/>
-      <c r="Y90" s="108"/>
+      <c r="N90" s="94"/>
+      <c r="O90" s="94"/>
+      <c r="P90" s="94"/>
+      <c r="Q90" s="94"/>
+      <c r="R90" s="94"/>
+      <c r="S90" s="94"/>
+      <c r="T90" s="94"/>
+      <c r="U90" s="94"/>
+      <c r="V90" s="94"/>
+      <c r="W90" s="94"/>
+      <c r="X90" s="94"/>
+      <c r="Y90" s="94"/>
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91" s="74" t="s">
@@ -29496,18 +29496,18 @@
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
       <c r="M92" s="3"/>
-      <c r="N92" s="108"/>
-      <c r="O92" s="108"/>
-      <c r="P92" s="108"/>
-      <c r="Q92" s="108"/>
-      <c r="R92" s="108"/>
-      <c r="S92" s="108"/>
-      <c r="T92" s="108"/>
-      <c r="U92" s="108"/>
-      <c r="V92" s="108"/>
-      <c r="W92" s="108"/>
-      <c r="X92" s="108"/>
-      <c r="Y92" s="108"/>
+      <c r="N92" s="94"/>
+      <c r="O92" s="94"/>
+      <c r="P92" s="94"/>
+      <c r="Q92" s="94"/>
+      <c r="R92" s="94"/>
+      <c r="S92" s="94"/>
+      <c r="T92" s="94"/>
+      <c r="U92" s="94"/>
+      <c r="V92" s="94"/>
+      <c r="W92" s="94"/>
+      <c r="X92" s="94"/>
+      <c r="Y92" s="94"/>
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93" s="67" t="s">
@@ -29624,18 +29624,18 @@
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
       <c r="M94" s="3"/>
-      <c r="N94" s="108"/>
-      <c r="O94" s="108"/>
-      <c r="P94" s="108"/>
-      <c r="Q94" s="108"/>
-      <c r="R94" s="108"/>
-      <c r="S94" s="108"/>
-      <c r="T94" s="108"/>
-      <c r="U94" s="108"/>
-      <c r="V94" s="108"/>
-      <c r="W94" s="108"/>
-      <c r="X94" s="108"/>
-      <c r="Y94" s="108"/>
+      <c r="N94" s="94"/>
+      <c r="O94" s="94"/>
+      <c r="P94" s="94"/>
+      <c r="Q94" s="94"/>
+      <c r="R94" s="94"/>
+      <c r="S94" s="94"/>
+      <c r="T94" s="94"/>
+      <c r="U94" s="94"/>
+      <c r="V94" s="94"/>
+      <c r="W94" s="94"/>
+      <c r="X94" s="94"/>
+      <c r="Y94" s="94"/>
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95" s="67" t="s">
@@ -29752,18 +29752,18 @@
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
       <c r="M96" s="3"/>
-      <c r="N96" s="108"/>
-      <c r="O96" s="108"/>
-      <c r="P96" s="108"/>
-      <c r="Q96" s="108"/>
-      <c r="R96" s="108"/>
-      <c r="S96" s="108"/>
-      <c r="T96" s="108"/>
-      <c r="U96" s="108"/>
-      <c r="V96" s="108"/>
-      <c r="W96" s="108"/>
-      <c r="X96" s="108"/>
-      <c r="Y96" s="108"/>
+      <c r="N96" s="94"/>
+      <c r="O96" s="94"/>
+      <c r="P96" s="94"/>
+      <c r="Q96" s="94"/>
+      <c r="R96" s="94"/>
+      <c r="S96" s="94"/>
+      <c r="T96" s="94"/>
+      <c r="U96" s="94"/>
+      <c r="V96" s="94"/>
+      <c r="W96" s="94"/>
+      <c r="X96" s="94"/>
+      <c r="Y96" s="94"/>
     </row>
     <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97" s="67" t="s">
@@ -29880,18 +29880,18 @@
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
       <c r="M98" s="3"/>
-      <c r="N98" s="108"/>
-      <c r="O98" s="108"/>
-      <c r="P98" s="108"/>
-      <c r="Q98" s="108"/>
-      <c r="R98" s="108"/>
-      <c r="S98" s="108"/>
-      <c r="T98" s="108"/>
-      <c r="U98" s="108"/>
-      <c r="V98" s="108"/>
-      <c r="W98" s="108"/>
-      <c r="X98" s="108"/>
-      <c r="Y98" s="108"/>
+      <c r="N98" s="94"/>
+      <c r="O98" s="94"/>
+      <c r="P98" s="94"/>
+      <c r="Q98" s="94"/>
+      <c r="R98" s="94"/>
+      <c r="S98" s="94"/>
+      <c r="T98" s="94"/>
+      <c r="U98" s="94"/>
+      <c r="V98" s="94"/>
+      <c r="W98" s="94"/>
+      <c r="X98" s="94"/>
+      <c r="Y98" s="94"/>
     </row>
     <row r="99" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="77" t="s">
@@ -29995,8 +29995,9 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="kvIR2ZoGrz0BfkEU/uE/lmcfmSjtMOwZwQeU+49nJU2yl8AFnLLGg5t5MIUe9zGg1GhUI9AK7V51zmnUx1xZUQ==" saltValue="oIB4+zjS2KVjVb3tjOF6Ig==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="aa+KYSKyJIarCrRo3vKZ4lDMXv9vRWVu7ng6YGb2pNHjwrjzF2zbm8eYVSSJynXfdF/QqeGU5T5XKD9cwoxztw==" saltValue="5gi69gOEhF2b/ksIzIRi2Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="29">
+    <mergeCell ref="R6:R7"/>
     <mergeCell ref="X6:X7"/>
     <mergeCell ref="Y6:Y7"/>
     <mergeCell ref="S6:S7"/>
@@ -30004,11 +30005,15 @@
     <mergeCell ref="U6:U7"/>
     <mergeCell ref="V6:V7"/>
     <mergeCell ref="W6:W7"/>
+    <mergeCell ref="L6:L7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="O6:O7"/>
     <mergeCell ref="P6:P7"/>
     <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:C4"/>
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B6:B7"/>
@@ -30021,20 +30026,7 @@
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:C4"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4">
-      <formula1>$I$1:$M$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4">
-      <formula1>$N$2</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/service-loans/template/Template_CW_CMA_TL_WCTL.xlsx
+++ b/service-loans/template/Template_CW_CMA_TL_WCTL.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="nMIDBcyH02QIBA4bXtkulhW+BkwLjO6uUdnHuLe/vey9rIzKWc8NDkCsYZON8UKSky/yikEzYHsiuF6pBe7KDg==" workbookSaltValue="OCFZwCBGKUImSpaXHpKcuQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="4020" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Operating Stmt." sheetId="2" r:id="rId1"/>
     <sheet name="Liabilities" sheetId="3" r:id="rId2"/>
     <sheet name="Asset" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="172">
   <si>
     <t xml:space="preserve">     [b] Dividend Rate [in %]</t>
   </si>
@@ -548,16 +548,25 @@
   <si>
     <t>31. Investments [other than long-term investments]</t>
   </si>
+  <si>
+    <t>Other Income: Need to check at the time of Due Diligence</t>
+  </si>
+  <si>
+    <t>Other Liabilities (Need to check at the time of Due Diligence)</t>
+  </si>
+  <si>
+    <t>Other Assets (Need to check at the time of Due Diligence)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -643,6 +652,13 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1119,9 +1135,9 @@
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1296,10 +1312,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1327,10 +1342,10 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="3" fillId="6" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="3" fillId="6" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1366,6 +1381,25 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1386,16 +1420,16 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="3" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="3" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="3" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1410,10 +1444,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="3" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1436,7 +1470,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="3" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1445,16 +1479,16 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="3" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="3" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1464,24 +1498,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1548,7 +1564,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1583,7 +1599,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1794,30 +1810,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="6" topLeftCell="B67" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B67" sqref="B67"/>
       <selection pane="topRight" activeCell="B67" sqref="B67"/>
       <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.85546875" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="59" style="14" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="25" width="17.7109375" style="14" customWidth="1" collapsed="1"/>
     <col min="26" max="33" width="9.140625" style="14" hidden="1" customWidth="1"/>
     <col min="34" max="16384" width="9.140625" style="14" hidden="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16384" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="104" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
@@ -1825,7 +1841,7 @@
       <c r="J1" s="13"/>
       <c r="K1" s="13"/>
       <c r="L1" s="13"/>
-      <c r="M1" s="79"/>
+      <c r="M1" s="78"/>
       <c r="N1" s="37" t="s">
         <v>46</v>
       </c>
@@ -1844,13 +1860,13 @@
       <c r="S1" s="38"/>
     </row>
     <row r="2" spans="1:16384" x14ac:dyDescent="0.25">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
@@ -1858,7 +1874,7 @@
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
       <c r="L2" s="15"/>
-      <c r="M2" s="80"/>
+      <c r="M2" s="79"/>
       <c r="N2" s="38" t="s">
         <v>41</v>
       </c>
@@ -1869,13 +1885,13 @@
       <c r="S2" s="38"/>
     </row>
     <row r="3" spans="1:16384" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
@@ -1883,7 +1899,7 @@
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
       <c r="L3" s="16"/>
-      <c r="M3" s="81"/>
+      <c r="M3" s="80"/>
       <c r="N3" s="38"/>
       <c r="O3" s="38"/>
       <c r="P3" s="38"/>
@@ -1892,15 +1908,15 @@
       <c r="S3" s="38"/>
     </row>
     <row r="4" spans="1:16384" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="102"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="129" t="s">
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="128" t="s">
+      <c r="E4" s="97" t="s">
         <v>40</v>
       </c>
       <c r="F4" s="17"/>
@@ -18285,7 +18301,7 @@
     </row>
     <row r="5" spans="1:16384" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
-      <c r="B5" s="85">
+      <c r="B5" s="84">
         <v>2015</v>
       </c>
       <c r="C5" s="24">
@@ -18376,83 +18392,83 @@
         <f t="shared" si="1"/>
         <v>2037</v>
       </c>
-      <c r="Y5" s="77">
+      <c r="Y5" s="76">
         <f t="shared" si="1"/>
         <v>2038</v>
       </c>
     </row>
     <row r="6" spans="1:16384" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="87" t="s">
+      <c r="C6" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="87" t="s">
+      <c r="D6" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="88" t="s">
+      <c r="E6" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="88" t="s">
+      <c r="F6" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="88" t="s">
+      <c r="G6" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="88" t="s">
+      <c r="H6" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="88" t="s">
+      <c r="I6" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="88" t="s">
+      <c r="J6" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="88" t="s">
+      <c r="K6" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="L6" s="88" t="s">
+      <c r="L6" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="M6" s="88" t="s">
+      <c r="M6" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="N6" s="88" t="s">
+      <c r="N6" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="O6" s="88" t="s">
+      <c r="O6" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="88" t="s">
+      <c r="P6" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="Q6" s="88" t="s">
+      <c r="Q6" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="R6" s="88" t="s">
+      <c r="R6" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="S6" s="88" t="s">
+      <c r="S6" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="T6" s="88" t="s">
+      <c r="T6" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="U6" s="88" t="s">
+      <c r="U6" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="V6" s="88" t="s">
+      <c r="V6" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="W6" s="88" t="s">
+      <c r="W6" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="X6" s="88" t="s">
+      <c r="X6" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="Y6" s="89" t="s">
+      <c r="Y6" s="88" t="s">
         <v>37</v>
       </c>
     </row>
@@ -18460,30 +18476,30 @@
       <c r="A7" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="82"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="83"/>
-      <c r="M7" s="83"/>
-      <c r="N7" s="84"/>
-      <c r="O7" s="84"/>
-      <c r="P7" s="84"/>
-      <c r="Q7" s="84"/>
-      <c r="R7" s="84"/>
-      <c r="S7" s="84"/>
-      <c r="T7" s="84"/>
-      <c r="U7" s="84"/>
-      <c r="V7" s="84"/>
-      <c r="W7" s="84"/>
-      <c r="X7" s="84"/>
-      <c r="Y7" s="84"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="83"/>
+      <c r="O7" s="83"/>
+      <c r="P7" s="83"/>
+      <c r="Q7" s="83"/>
+      <c r="R7" s="83"/>
+      <c r="S7" s="83"/>
+      <c r="T7" s="83"/>
+      <c r="U7" s="83"/>
+      <c r="V7" s="83"/>
+      <c r="W7" s="83"/>
+      <c r="X7" s="83"/>
+      <c r="Y7" s="83"/>
     </row>
     <row r="8" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
@@ -18501,18 +18517,18 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="N8" s="78"/>
-      <c r="O8" s="78"/>
-      <c r="P8" s="78"/>
-      <c r="Q8" s="78"/>
-      <c r="R8" s="78"/>
-      <c r="S8" s="78"/>
-      <c r="T8" s="78"/>
-      <c r="U8" s="78"/>
-      <c r="V8" s="78"/>
-      <c r="W8" s="78"/>
-      <c r="X8" s="78"/>
-      <c r="Y8" s="78"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="77"/>
+      <c r="P8" s="77"/>
+      <c r="Q8" s="77"/>
+      <c r="R8" s="77"/>
+      <c r="S8" s="77"/>
+      <c r="T8" s="77"/>
+      <c r="U8" s="77"/>
+      <c r="V8" s="77"/>
+      <c r="W8" s="77"/>
+      <c r="X8" s="77"/>
+      <c r="Y8" s="77"/>
     </row>
     <row r="9" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
@@ -18530,18 +18546,18 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
-      <c r="N9" s="78"/>
-      <c r="O9" s="78"/>
-      <c r="P9" s="78"/>
-      <c r="Q9" s="78"/>
-      <c r="R9" s="78"/>
-      <c r="S9" s="78"/>
-      <c r="T9" s="78"/>
-      <c r="U9" s="78"/>
-      <c r="V9" s="78"/>
-      <c r="W9" s="78"/>
-      <c r="X9" s="78"/>
-      <c r="Y9" s="78"/>
+      <c r="N9" s="77"/>
+      <c r="O9" s="77"/>
+      <c r="P9" s="77"/>
+      <c r="Q9" s="77"/>
+      <c r="R9" s="77"/>
+      <c r="S9" s="77"/>
+      <c r="T9" s="77"/>
+      <c r="U9" s="77"/>
+      <c r="V9" s="77"/>
+      <c r="W9" s="77"/>
+      <c r="X9" s="77"/>
+      <c r="Y9" s="77"/>
     </row>
     <row r="10" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
@@ -18559,18 +18575,18 @@
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
-      <c r="N10" s="78"/>
-      <c r="O10" s="78"/>
-      <c r="P10" s="78"/>
-      <c r="Q10" s="78"/>
-      <c r="R10" s="78"/>
-      <c r="S10" s="78"/>
-      <c r="T10" s="78"/>
-      <c r="U10" s="78"/>
-      <c r="V10" s="78"/>
-      <c r="W10" s="78"/>
-      <c r="X10" s="78"/>
-      <c r="Y10" s="78"/>
+      <c r="N10" s="77"/>
+      <c r="O10" s="77"/>
+      <c r="P10" s="77"/>
+      <c r="Q10" s="77"/>
+      <c r="R10" s="77"/>
+      <c r="S10" s="77"/>
+      <c r="T10" s="77"/>
+      <c r="U10" s="77"/>
+      <c r="V10" s="77"/>
+      <c r="W10" s="77"/>
+      <c r="X10" s="77"/>
+      <c r="Y10" s="77"/>
     </row>
     <row r="11" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
@@ -18687,18 +18703,18 @@
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
-      <c r="N12" s="78"/>
-      <c r="O12" s="78"/>
-      <c r="P12" s="78"/>
-      <c r="Q12" s="78"/>
-      <c r="R12" s="78"/>
-      <c r="S12" s="78"/>
-      <c r="T12" s="78"/>
-      <c r="U12" s="78"/>
-      <c r="V12" s="78"/>
-      <c r="W12" s="78"/>
-      <c r="X12" s="78"/>
-      <c r="Y12" s="78"/>
+      <c r="N12" s="77"/>
+      <c r="O12" s="77"/>
+      <c r="P12" s="77"/>
+      <c r="Q12" s="77"/>
+      <c r="R12" s="77"/>
+      <c r="S12" s="77"/>
+      <c r="T12" s="77"/>
+      <c r="U12" s="77"/>
+      <c r="V12" s="77"/>
+      <c r="W12" s="77"/>
+      <c r="X12" s="77"/>
+      <c r="Y12" s="77"/>
     </row>
     <row r="13" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
@@ -18716,18 +18732,18 @@
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
-      <c r="N13" s="78"/>
-      <c r="O13" s="78"/>
-      <c r="P13" s="78"/>
-      <c r="Q13" s="78"/>
-      <c r="R13" s="78"/>
-      <c r="S13" s="78"/>
-      <c r="T13" s="78"/>
-      <c r="U13" s="78"/>
-      <c r="V13" s="78"/>
-      <c r="W13" s="78"/>
-      <c r="X13" s="78"/>
-      <c r="Y13" s="78"/>
+      <c r="N13" s="77"/>
+      <c r="O13" s="77"/>
+      <c r="P13" s="77"/>
+      <c r="Q13" s="77"/>
+      <c r="R13" s="77"/>
+      <c r="S13" s="77"/>
+      <c r="T13" s="77"/>
+      <c r="U13" s="77"/>
+      <c r="V13" s="77"/>
+      <c r="W13" s="77"/>
+      <c r="X13" s="77"/>
+      <c r="Y13" s="77"/>
     </row>
     <row r="14" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
@@ -18745,18 +18761,18 @@
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
-      <c r="N14" s="78"/>
-      <c r="O14" s="78"/>
-      <c r="P14" s="78"/>
-      <c r="Q14" s="78"/>
-      <c r="R14" s="78"/>
-      <c r="S14" s="78"/>
-      <c r="T14" s="78"/>
-      <c r="U14" s="78"/>
-      <c r="V14" s="78"/>
-      <c r="W14" s="78"/>
-      <c r="X14" s="78"/>
-      <c r="Y14" s="78"/>
+      <c r="N14" s="77"/>
+      <c r="O14" s="77"/>
+      <c r="P14" s="77"/>
+      <c r="Q14" s="77"/>
+      <c r="R14" s="77"/>
+      <c r="S14" s="77"/>
+      <c r="T14" s="77"/>
+      <c r="U14" s="77"/>
+      <c r="V14" s="77"/>
+      <c r="W14" s="77"/>
+      <c r="X14" s="77"/>
+      <c r="Y14" s="77"/>
     </row>
     <row r="15" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
@@ -18873,18 +18889,18 @@
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
-      <c r="N16" s="78"/>
-      <c r="O16" s="78"/>
-      <c r="P16" s="78"/>
-      <c r="Q16" s="78"/>
-      <c r="R16" s="78"/>
-      <c r="S16" s="78"/>
-      <c r="T16" s="78"/>
-      <c r="U16" s="78"/>
-      <c r="V16" s="78"/>
-      <c r="W16" s="78"/>
-      <c r="X16" s="78"/>
-      <c r="Y16" s="78"/>
+      <c r="N16" s="77"/>
+      <c r="O16" s="77"/>
+      <c r="P16" s="77"/>
+      <c r="Q16" s="77"/>
+      <c r="R16" s="77"/>
+      <c r="S16" s="77"/>
+      <c r="T16" s="77"/>
+      <c r="U16" s="77"/>
+      <c r="V16" s="77"/>
+      <c r="W16" s="77"/>
+      <c r="X16" s="77"/>
+      <c r="Y16" s="77"/>
     </row>
     <row r="17" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
@@ -18998,18 +19014,18 @@
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
-      <c r="N18" s="78"/>
-      <c r="O18" s="78"/>
-      <c r="P18" s="78"/>
-      <c r="Q18" s="78"/>
-      <c r="R18" s="78"/>
-      <c r="S18" s="78"/>
-      <c r="T18" s="78"/>
-      <c r="U18" s="78"/>
-      <c r="V18" s="78"/>
-      <c r="W18" s="78"/>
-      <c r="X18" s="78"/>
-      <c r="Y18" s="78"/>
+      <c r="N18" s="77"/>
+      <c r="O18" s="77"/>
+      <c r="P18" s="77"/>
+      <c r="Q18" s="77"/>
+      <c r="R18" s="77"/>
+      <c r="S18" s="77"/>
+      <c r="T18" s="77"/>
+      <c r="U18" s="77"/>
+      <c r="V18" s="77"/>
+      <c r="W18" s="77"/>
+      <c r="X18" s="77"/>
+      <c r="Y18" s="77"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
@@ -19027,18 +19043,18 @@
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
-      <c r="N19" s="78"/>
-      <c r="O19" s="78"/>
-      <c r="P19" s="78"/>
-      <c r="Q19" s="78"/>
-      <c r="R19" s="78"/>
-      <c r="S19" s="78"/>
-      <c r="T19" s="78"/>
-      <c r="U19" s="78"/>
-      <c r="V19" s="78"/>
-      <c r="W19" s="78"/>
-      <c r="X19" s="78"/>
-      <c r="Y19" s="78"/>
+      <c r="N19" s="77"/>
+      <c r="O19" s="77"/>
+      <c r="P19" s="77"/>
+      <c r="Q19" s="77"/>
+      <c r="R19" s="77"/>
+      <c r="S19" s="77"/>
+      <c r="T19" s="77"/>
+      <c r="U19" s="77"/>
+      <c r="V19" s="77"/>
+      <c r="W19" s="77"/>
+      <c r="X19" s="77"/>
+      <c r="Y19" s="77"/>
     </row>
     <row r="20" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
@@ -19157,18 +19173,18 @@
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
-      <c r="N21" s="78"/>
-      <c r="O21" s="78"/>
-      <c r="P21" s="78"/>
-      <c r="Q21" s="78"/>
-      <c r="R21" s="78"/>
-      <c r="S21" s="78"/>
-      <c r="T21" s="78"/>
-      <c r="U21" s="78"/>
-      <c r="V21" s="78"/>
-      <c r="W21" s="78"/>
-      <c r="X21" s="78"/>
-      <c r="Y21" s="78"/>
+      <c r="N21" s="77"/>
+      <c r="O21" s="77"/>
+      <c r="P21" s="77"/>
+      <c r="Q21" s="77"/>
+      <c r="R21" s="77"/>
+      <c r="S21" s="77"/>
+      <c r="T21" s="77"/>
+      <c r="U21" s="77"/>
+      <c r="V21" s="77"/>
+      <c r="W21" s="77"/>
+      <c r="X21" s="77"/>
+      <c r="Y21" s="77"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
@@ -19186,18 +19202,18 @@
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
-      <c r="N22" s="78"/>
-      <c r="O22" s="78"/>
-      <c r="P22" s="78"/>
-      <c r="Q22" s="78"/>
-      <c r="R22" s="78"/>
-      <c r="S22" s="78"/>
-      <c r="T22" s="78"/>
-      <c r="U22" s="78"/>
-      <c r="V22" s="78"/>
-      <c r="W22" s="78"/>
-      <c r="X22" s="78"/>
-      <c r="Y22" s="78"/>
+      <c r="N22" s="77"/>
+      <c r="O22" s="77"/>
+      <c r="P22" s="77"/>
+      <c r="Q22" s="77"/>
+      <c r="R22" s="77"/>
+      <c r="S22" s="77"/>
+      <c r="T22" s="77"/>
+      <c r="U22" s="77"/>
+      <c r="V22" s="77"/>
+      <c r="W22" s="77"/>
+      <c r="X22" s="77"/>
+      <c r="Y22" s="77"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="20"/>
@@ -19213,18 +19229,18 @@
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
-      <c r="N23" s="78"/>
-      <c r="O23" s="78"/>
-      <c r="P23" s="78"/>
-      <c r="Q23" s="78"/>
-      <c r="R23" s="78"/>
-      <c r="S23" s="78"/>
-      <c r="T23" s="78"/>
-      <c r="U23" s="78"/>
-      <c r="V23" s="78"/>
-      <c r="W23" s="78"/>
-      <c r="X23" s="78"/>
-      <c r="Y23" s="78"/>
+      <c r="N23" s="77"/>
+      <c r="O23" s="77"/>
+      <c r="P23" s="77"/>
+      <c r="Q23" s="77"/>
+      <c r="R23" s="77"/>
+      <c r="S23" s="77"/>
+      <c r="T23" s="77"/>
+      <c r="U23" s="77"/>
+      <c r="V23" s="77"/>
+      <c r="W23" s="77"/>
+      <c r="X23" s="77"/>
+      <c r="Y23" s="77"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
@@ -19343,18 +19359,18 @@
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
-      <c r="N25" s="78"/>
-      <c r="O25" s="78"/>
-      <c r="P25" s="78"/>
-      <c r="Q25" s="78"/>
-      <c r="R25" s="78"/>
-      <c r="S25" s="78"/>
-      <c r="T25" s="78"/>
-      <c r="U25" s="78"/>
-      <c r="V25" s="78"/>
-      <c r="W25" s="78"/>
-      <c r="X25" s="78"/>
-      <c r="Y25" s="78"/>
+      <c r="N25" s="77"/>
+      <c r="O25" s="77"/>
+      <c r="P25" s="77"/>
+      <c r="Q25" s="77"/>
+      <c r="R25" s="77"/>
+      <c r="S25" s="77"/>
+      <c r="T25" s="77"/>
+      <c r="U25" s="77"/>
+      <c r="V25" s="77"/>
+      <c r="W25" s="77"/>
+      <c r="X25" s="77"/>
+      <c r="Y25" s="77"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
@@ -19372,18 +19388,18 @@
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
-      <c r="N26" s="78"/>
-      <c r="O26" s="78"/>
-      <c r="P26" s="78"/>
-      <c r="Q26" s="78"/>
-      <c r="R26" s="78"/>
-      <c r="S26" s="78"/>
-      <c r="T26" s="78"/>
-      <c r="U26" s="78"/>
-      <c r="V26" s="78"/>
-      <c r="W26" s="78"/>
-      <c r="X26" s="78"/>
-      <c r="Y26" s="78"/>
+      <c r="N26" s="77"/>
+      <c r="O26" s="77"/>
+      <c r="P26" s="77"/>
+      <c r="Q26" s="77"/>
+      <c r="R26" s="77"/>
+      <c r="S26" s="77"/>
+      <c r="T26" s="77"/>
+      <c r="U26" s="77"/>
+      <c r="V26" s="77"/>
+      <c r="W26" s="77"/>
+      <c r="X26" s="77"/>
+      <c r="Y26" s="77"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="20"/>
@@ -19399,18 +19415,18 @@
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
-      <c r="N27" s="78"/>
-      <c r="O27" s="78"/>
-      <c r="P27" s="78"/>
-      <c r="Q27" s="78"/>
-      <c r="R27" s="78"/>
-      <c r="S27" s="78"/>
-      <c r="T27" s="78"/>
-      <c r="U27" s="78"/>
-      <c r="V27" s="78"/>
-      <c r="W27" s="78"/>
-      <c r="X27" s="78"/>
-      <c r="Y27" s="78"/>
+      <c r="N27" s="77"/>
+      <c r="O27" s="77"/>
+      <c r="P27" s="77"/>
+      <c r="Q27" s="77"/>
+      <c r="R27" s="77"/>
+      <c r="S27" s="77"/>
+      <c r="T27" s="77"/>
+      <c r="U27" s="77"/>
+      <c r="V27" s="77"/>
+      <c r="W27" s="77"/>
+      <c r="X27" s="77"/>
+      <c r="Y27" s="77"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
@@ -19428,18 +19444,18 @@
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
-      <c r="N28" s="78"/>
-      <c r="O28" s="78"/>
-      <c r="P28" s="78"/>
-      <c r="Q28" s="78"/>
-      <c r="R28" s="78"/>
-      <c r="S28" s="78"/>
-      <c r="T28" s="78"/>
-      <c r="U28" s="78"/>
-      <c r="V28" s="78"/>
-      <c r="W28" s="78"/>
-      <c r="X28" s="78"/>
-      <c r="Y28" s="78"/>
+      <c r="N28" s="77"/>
+      <c r="O28" s="77"/>
+      <c r="P28" s="77"/>
+      <c r="Q28" s="77"/>
+      <c r="R28" s="77"/>
+      <c r="S28" s="77"/>
+      <c r="T28" s="77"/>
+      <c r="U28" s="77"/>
+      <c r="V28" s="77"/>
+      <c r="W28" s="77"/>
+      <c r="X28" s="77"/>
+      <c r="Y28" s="77"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="20"/>
@@ -19455,18 +19471,18 @@
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
-      <c r="N29" s="78"/>
-      <c r="O29" s="78"/>
-      <c r="P29" s="78"/>
-      <c r="Q29" s="78"/>
-      <c r="R29" s="78"/>
-      <c r="S29" s="78"/>
-      <c r="T29" s="78"/>
-      <c r="U29" s="78"/>
-      <c r="V29" s="78"/>
-      <c r="W29" s="78"/>
-      <c r="X29" s="78"/>
-      <c r="Y29" s="78"/>
+      <c r="N29" s="77"/>
+      <c r="O29" s="77"/>
+      <c r="P29" s="77"/>
+      <c r="Q29" s="77"/>
+      <c r="R29" s="77"/>
+      <c r="S29" s="77"/>
+      <c r="T29" s="77"/>
+      <c r="U29" s="77"/>
+      <c r="V29" s="77"/>
+      <c r="W29" s="77"/>
+      <c r="X29" s="77"/>
+      <c r="Y29" s="77"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
@@ -19484,18 +19500,18 @@
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
-      <c r="N30" s="78"/>
-      <c r="O30" s="78"/>
-      <c r="P30" s="78"/>
-      <c r="Q30" s="78"/>
-      <c r="R30" s="78"/>
-      <c r="S30" s="78"/>
-      <c r="T30" s="78"/>
-      <c r="U30" s="78"/>
-      <c r="V30" s="78"/>
-      <c r="W30" s="78"/>
-      <c r="X30" s="78"/>
-      <c r="Y30" s="78"/>
+      <c r="N30" s="77"/>
+      <c r="O30" s="77"/>
+      <c r="P30" s="77"/>
+      <c r="Q30" s="77"/>
+      <c r="R30" s="77"/>
+      <c r="S30" s="77"/>
+      <c r="T30" s="77"/>
+      <c r="U30" s="77"/>
+      <c r="V30" s="77"/>
+      <c r="W30" s="77"/>
+      <c r="X30" s="77"/>
+      <c r="Y30" s="77"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="20"/>
@@ -19511,18 +19527,18 @@
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
-      <c r="N31" s="78"/>
-      <c r="O31" s="78"/>
-      <c r="P31" s="78"/>
-      <c r="Q31" s="78"/>
-      <c r="R31" s="78"/>
-      <c r="S31" s="78"/>
-      <c r="T31" s="78"/>
-      <c r="U31" s="78"/>
-      <c r="V31" s="78"/>
-      <c r="W31" s="78"/>
-      <c r="X31" s="78"/>
-      <c r="Y31" s="78"/>
+      <c r="N31" s="77"/>
+      <c r="O31" s="77"/>
+      <c r="P31" s="77"/>
+      <c r="Q31" s="77"/>
+      <c r="R31" s="77"/>
+      <c r="S31" s="77"/>
+      <c r="T31" s="77"/>
+      <c r="U31" s="77"/>
+      <c r="V31" s="77"/>
+      <c r="W31" s="77"/>
+      <c r="X31" s="77"/>
+      <c r="Y31" s="77"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
@@ -19540,18 +19556,18 @@
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
-      <c r="N32" s="78"/>
-      <c r="O32" s="78"/>
-      <c r="P32" s="78"/>
-      <c r="Q32" s="78"/>
-      <c r="R32" s="78"/>
-      <c r="S32" s="78"/>
-      <c r="T32" s="78"/>
-      <c r="U32" s="78"/>
-      <c r="V32" s="78"/>
-      <c r="W32" s="78"/>
-      <c r="X32" s="78"/>
-      <c r="Y32" s="78"/>
+      <c r="N32" s="77"/>
+      <c r="O32" s="77"/>
+      <c r="P32" s="77"/>
+      <c r="Q32" s="77"/>
+      <c r="R32" s="77"/>
+      <c r="S32" s="77"/>
+      <c r="T32" s="77"/>
+      <c r="U32" s="77"/>
+      <c r="V32" s="77"/>
+      <c r="W32" s="77"/>
+      <c r="X32" s="77"/>
+      <c r="Y32" s="77"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="20"/>
@@ -19567,18 +19583,18 @@
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
-      <c r="N33" s="78"/>
-      <c r="O33" s="78"/>
-      <c r="P33" s="78"/>
-      <c r="Q33" s="78"/>
-      <c r="R33" s="78"/>
-      <c r="S33" s="78"/>
-      <c r="T33" s="78"/>
-      <c r="U33" s="78"/>
-      <c r="V33" s="78"/>
-      <c r="W33" s="78"/>
-      <c r="X33" s="78"/>
-      <c r="Y33" s="78"/>
+      <c r="N33" s="77"/>
+      <c r="O33" s="77"/>
+      <c r="P33" s="77"/>
+      <c r="Q33" s="77"/>
+      <c r="R33" s="77"/>
+      <c r="S33" s="77"/>
+      <c r="T33" s="77"/>
+      <c r="U33" s="77"/>
+      <c r="V33" s="77"/>
+      <c r="W33" s="77"/>
+      <c r="X33" s="77"/>
+      <c r="Y33" s="77"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
@@ -19596,18 +19612,18 @@
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
-      <c r="N34" s="78"/>
-      <c r="O34" s="78"/>
-      <c r="P34" s="78"/>
-      <c r="Q34" s="78"/>
-      <c r="R34" s="78"/>
-      <c r="S34" s="78"/>
-      <c r="T34" s="78"/>
-      <c r="U34" s="78"/>
-      <c r="V34" s="78"/>
-      <c r="W34" s="78"/>
-      <c r="X34" s="78"/>
-      <c r="Y34" s="78"/>
+      <c r="N34" s="77"/>
+      <c r="O34" s="77"/>
+      <c r="P34" s="77"/>
+      <c r="Q34" s="77"/>
+      <c r="R34" s="77"/>
+      <c r="S34" s="77"/>
+      <c r="T34" s="77"/>
+      <c r="U34" s="77"/>
+      <c r="V34" s="77"/>
+      <c r="W34" s="77"/>
+      <c r="X34" s="77"/>
+      <c r="Y34" s="77"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="20"/>
@@ -19623,18 +19639,18 @@
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
-      <c r="N35" s="78"/>
-      <c r="O35" s="78"/>
-      <c r="P35" s="78"/>
-      <c r="Q35" s="78"/>
-      <c r="R35" s="78"/>
-      <c r="S35" s="78"/>
-      <c r="T35" s="78"/>
-      <c r="U35" s="78"/>
-      <c r="V35" s="78"/>
-      <c r="W35" s="78"/>
-      <c r="X35" s="78"/>
-      <c r="Y35" s="78"/>
+      <c r="N35" s="77"/>
+      <c r="O35" s="77"/>
+      <c r="P35" s="77"/>
+      <c r="Q35" s="77"/>
+      <c r="R35" s="77"/>
+      <c r="S35" s="77"/>
+      <c r="T35" s="77"/>
+      <c r="U35" s="77"/>
+      <c r="V35" s="77"/>
+      <c r="W35" s="77"/>
+      <c r="X35" s="77"/>
+      <c r="Y35" s="77"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
@@ -19751,18 +19767,18 @@
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
       <c r="M37" s="9"/>
-      <c r="N37" s="78"/>
-      <c r="O37" s="78"/>
-      <c r="P37" s="78"/>
-      <c r="Q37" s="78"/>
-      <c r="R37" s="78"/>
-      <c r="S37" s="78"/>
-      <c r="T37" s="78"/>
-      <c r="U37" s="78"/>
-      <c r="V37" s="78"/>
-      <c r="W37" s="78"/>
-      <c r="X37" s="78"/>
-      <c r="Y37" s="78"/>
+      <c r="N37" s="77"/>
+      <c r="O37" s="77"/>
+      <c r="P37" s="77"/>
+      <c r="Q37" s="77"/>
+      <c r="R37" s="77"/>
+      <c r="S37" s="77"/>
+      <c r="T37" s="77"/>
+      <c r="U37" s="77"/>
+      <c r="V37" s="77"/>
+      <c r="W37" s="77"/>
+      <c r="X37" s="77"/>
+      <c r="Y37" s="77"/>
     </row>
     <row r="38" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
@@ -19780,18 +19796,18 @@
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
-      <c r="N38" s="78"/>
-      <c r="O38" s="78"/>
-      <c r="P38" s="78"/>
-      <c r="Q38" s="78"/>
-      <c r="R38" s="78"/>
-      <c r="S38" s="78"/>
-      <c r="T38" s="78"/>
-      <c r="U38" s="78"/>
-      <c r="V38" s="78"/>
-      <c r="W38" s="78"/>
-      <c r="X38" s="78"/>
-      <c r="Y38" s="78"/>
+      <c r="N38" s="77"/>
+      <c r="O38" s="77"/>
+      <c r="P38" s="77"/>
+      <c r="Q38" s="77"/>
+      <c r="R38" s="77"/>
+      <c r="S38" s="77"/>
+      <c r="T38" s="77"/>
+      <c r="U38" s="77"/>
+      <c r="V38" s="77"/>
+      <c r="W38" s="77"/>
+      <c r="X38" s="77"/>
+      <c r="Y38" s="77"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="20"/>
@@ -19807,18 +19823,18 @@
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
-      <c r="N39" s="78"/>
-      <c r="O39" s="78"/>
-      <c r="P39" s="78"/>
-      <c r="Q39" s="78"/>
-      <c r="R39" s="78"/>
-      <c r="S39" s="78"/>
-      <c r="T39" s="78"/>
-      <c r="U39" s="78"/>
-      <c r="V39" s="78"/>
-      <c r="W39" s="78"/>
-      <c r="X39" s="78"/>
-      <c r="Y39" s="78"/>
+      <c r="N39" s="77"/>
+      <c r="O39" s="77"/>
+      <c r="P39" s="77"/>
+      <c r="Q39" s="77"/>
+      <c r="R39" s="77"/>
+      <c r="S39" s="77"/>
+      <c r="T39" s="77"/>
+      <c r="U39" s="77"/>
+      <c r="V39" s="77"/>
+      <c r="W39" s="77"/>
+      <c r="X39" s="77"/>
+      <c r="Y39" s="77"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="s">
@@ -19935,18 +19951,18 @@
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
-      <c r="N41" s="78"/>
-      <c r="O41" s="78"/>
-      <c r="P41" s="78"/>
-      <c r="Q41" s="78"/>
-      <c r="R41" s="78"/>
-      <c r="S41" s="78"/>
-      <c r="T41" s="78"/>
-      <c r="U41" s="78"/>
-      <c r="V41" s="78"/>
-      <c r="W41" s="78"/>
-      <c r="X41" s="78"/>
-      <c r="Y41" s="78"/>
+      <c r="N41" s="77"/>
+      <c r="O41" s="77"/>
+      <c r="P41" s="77"/>
+      <c r="Q41" s="77"/>
+      <c r="R41" s="77"/>
+      <c r="S41" s="77"/>
+      <c r="T41" s="77"/>
+      <c r="U41" s="77"/>
+      <c r="V41" s="77"/>
+      <c r="W41" s="77"/>
+      <c r="X41" s="77"/>
+      <c r="Y41" s="77"/>
     </row>
     <row r="42" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
@@ -19964,18 +19980,18 @@
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
       <c r="M42" s="7"/>
-      <c r="N42" s="78"/>
-      <c r="O42" s="78"/>
-      <c r="P42" s="78"/>
-      <c r="Q42" s="78"/>
-      <c r="R42" s="78"/>
-      <c r="S42" s="78"/>
-      <c r="T42" s="78"/>
-      <c r="U42" s="78"/>
-      <c r="V42" s="78"/>
-      <c r="W42" s="78"/>
-      <c r="X42" s="78"/>
-      <c r="Y42" s="78"/>
+      <c r="N42" s="77"/>
+      <c r="O42" s="77"/>
+      <c r="P42" s="77"/>
+      <c r="Q42" s="77"/>
+      <c r="R42" s="77"/>
+      <c r="S42" s="77"/>
+      <c r="T42" s="77"/>
+      <c r="U42" s="77"/>
+      <c r="V42" s="77"/>
+      <c r="W42" s="77"/>
+      <c r="X42" s="77"/>
+      <c r="Y42" s="77"/>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="20"/>
@@ -19991,18 +20007,18 @@
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
       <c r="M43" s="9"/>
-      <c r="N43" s="78"/>
-      <c r="O43" s="78"/>
-      <c r="P43" s="78"/>
-      <c r="Q43" s="78"/>
-      <c r="R43" s="78"/>
-      <c r="S43" s="78"/>
-      <c r="T43" s="78"/>
-      <c r="U43" s="78"/>
-      <c r="V43" s="78"/>
-      <c r="W43" s="78"/>
-      <c r="X43" s="78"/>
-      <c r="Y43" s="78"/>
+      <c r="N43" s="77"/>
+      <c r="O43" s="77"/>
+      <c r="P43" s="77"/>
+      <c r="Q43" s="77"/>
+      <c r="R43" s="77"/>
+      <c r="S43" s="77"/>
+      <c r="T43" s="77"/>
+      <c r="U43" s="77"/>
+      <c r="V43" s="77"/>
+      <c r="W43" s="77"/>
+      <c r="X43" s="77"/>
+      <c r="Y43" s="77"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
@@ -20119,18 +20135,18 @@
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
       <c r="M45" s="7"/>
-      <c r="N45" s="78"/>
-      <c r="O45" s="78"/>
-      <c r="P45" s="78"/>
-      <c r="Q45" s="78"/>
-      <c r="R45" s="78"/>
-      <c r="S45" s="78"/>
-      <c r="T45" s="78"/>
-      <c r="U45" s="78"/>
-      <c r="V45" s="78"/>
-      <c r="W45" s="78"/>
-      <c r="X45" s="78"/>
-      <c r="Y45" s="78"/>
+      <c r="N45" s="77"/>
+      <c r="O45" s="77"/>
+      <c r="P45" s="77"/>
+      <c r="Q45" s="77"/>
+      <c r="R45" s="77"/>
+      <c r="S45" s="77"/>
+      <c r="T45" s="77"/>
+      <c r="U45" s="77"/>
+      <c r="V45" s="77"/>
+      <c r="W45" s="77"/>
+      <c r="X45" s="77"/>
+      <c r="Y45" s="77"/>
     </row>
     <row r="46" spans="1:25" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
@@ -20148,18 +20164,18 @@
       <c r="K46" s="7"/>
       <c r="L46" s="7"/>
       <c r="M46" s="7"/>
-      <c r="N46" s="78"/>
-      <c r="O46" s="78"/>
-      <c r="P46" s="78"/>
-      <c r="Q46" s="78"/>
-      <c r="R46" s="78"/>
-      <c r="S46" s="78"/>
-      <c r="T46" s="78"/>
-      <c r="U46" s="78"/>
-      <c r="V46" s="78"/>
-      <c r="W46" s="78"/>
-      <c r="X46" s="78"/>
-      <c r="Y46" s="78"/>
+      <c r="N46" s="77"/>
+      <c r="O46" s="77"/>
+      <c r="P46" s="77"/>
+      <c r="Q46" s="77"/>
+      <c r="R46" s="77"/>
+      <c r="S46" s="77"/>
+      <c r="T46" s="77"/>
+      <c r="U46" s="77"/>
+      <c r="V46" s="77"/>
+      <c r="W46" s="77"/>
+      <c r="X46" s="77"/>
+      <c r="Y46" s="77"/>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="20"/>
@@ -20175,18 +20191,18 @@
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
       <c r="M47" s="7"/>
-      <c r="N47" s="78"/>
-      <c r="O47" s="78"/>
-      <c r="P47" s="78"/>
-      <c r="Q47" s="78"/>
-      <c r="R47" s="78"/>
-      <c r="S47" s="78"/>
-      <c r="T47" s="78"/>
-      <c r="U47" s="78"/>
-      <c r="V47" s="78"/>
-      <c r="W47" s="78"/>
-      <c r="X47" s="78"/>
-      <c r="Y47" s="78"/>
+      <c r="N47" s="77"/>
+      <c r="O47" s="77"/>
+      <c r="P47" s="77"/>
+      <c r="Q47" s="77"/>
+      <c r="R47" s="77"/>
+      <c r="S47" s="77"/>
+      <c r="T47" s="77"/>
+      <c r="U47" s="77"/>
+      <c r="V47" s="77"/>
+      <c r="W47" s="77"/>
+      <c r="X47" s="77"/>
+      <c r="Y47" s="77"/>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
@@ -20303,18 +20319,18 @@
       <c r="K49" s="7"/>
       <c r="L49" s="7"/>
       <c r="M49" s="7"/>
-      <c r="N49" s="78"/>
-      <c r="O49" s="78"/>
-      <c r="P49" s="78"/>
-      <c r="Q49" s="78"/>
-      <c r="R49" s="78"/>
-      <c r="S49" s="78"/>
-      <c r="T49" s="78"/>
-      <c r="U49" s="78"/>
-      <c r="V49" s="78"/>
-      <c r="W49" s="78"/>
-      <c r="X49" s="78"/>
-      <c r="Y49" s="78"/>
+      <c r="N49" s="77"/>
+      <c r="O49" s="77"/>
+      <c r="P49" s="77"/>
+      <c r="Q49" s="77"/>
+      <c r="R49" s="77"/>
+      <c r="S49" s="77"/>
+      <c r="T49" s="77"/>
+      <c r="U49" s="77"/>
+      <c r="V49" s="77"/>
+      <c r="W49" s="77"/>
+      <c r="X49" s="77"/>
+      <c r="Y49" s="77"/>
     </row>
     <row r="50" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
@@ -20332,18 +20348,18 @@
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
       <c r="M50" s="7"/>
-      <c r="N50" s="78"/>
-      <c r="O50" s="78"/>
-      <c r="P50" s="78"/>
-      <c r="Q50" s="78"/>
-      <c r="R50" s="78"/>
-      <c r="S50" s="78"/>
-      <c r="T50" s="78"/>
-      <c r="U50" s="78"/>
-      <c r="V50" s="78"/>
-      <c r="W50" s="78"/>
-      <c r="X50" s="78"/>
-      <c r="Y50" s="78"/>
+      <c r="N50" s="77"/>
+      <c r="O50" s="77"/>
+      <c r="P50" s="77"/>
+      <c r="Q50" s="77"/>
+      <c r="R50" s="77"/>
+      <c r="S50" s="77"/>
+      <c r="T50" s="77"/>
+      <c r="U50" s="77"/>
+      <c r="V50" s="77"/>
+      <c r="W50" s="77"/>
+      <c r="X50" s="77"/>
+      <c r="Y50" s="77"/>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="20"/>
@@ -20359,18 +20375,18 @@
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
       <c r="M51" s="9"/>
-      <c r="N51" s="78"/>
-      <c r="O51" s="78"/>
-      <c r="P51" s="78"/>
-      <c r="Q51" s="78"/>
-      <c r="R51" s="78"/>
-      <c r="S51" s="78"/>
-      <c r="T51" s="78"/>
-      <c r="U51" s="78"/>
-      <c r="V51" s="78"/>
-      <c r="W51" s="78"/>
-      <c r="X51" s="78"/>
-      <c r="Y51" s="78"/>
+      <c r="N51" s="77"/>
+      <c r="O51" s="77"/>
+      <c r="P51" s="77"/>
+      <c r="Q51" s="77"/>
+      <c r="R51" s="77"/>
+      <c r="S51" s="77"/>
+      <c r="T51" s="77"/>
+      <c r="U51" s="77"/>
+      <c r="V51" s="77"/>
+      <c r="W51" s="77"/>
+      <c r="X51" s="77"/>
+      <c r="Y51" s="77"/>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
@@ -20487,18 +20503,18 @@
       <c r="K53" s="9"/>
       <c r="L53" s="9"/>
       <c r="M53" s="9"/>
-      <c r="N53" s="78"/>
-      <c r="O53" s="78"/>
-      <c r="P53" s="78"/>
-      <c r="Q53" s="78"/>
-      <c r="R53" s="78"/>
-      <c r="S53" s="78"/>
-      <c r="T53" s="78"/>
-      <c r="U53" s="78"/>
-      <c r="V53" s="78"/>
-      <c r="W53" s="78"/>
-      <c r="X53" s="78"/>
-      <c r="Y53" s="78"/>
+      <c r="N53" s="77"/>
+      <c r="O53" s="77"/>
+      <c r="P53" s="77"/>
+      <c r="Q53" s="77"/>
+      <c r="R53" s="77"/>
+      <c r="S53" s="77"/>
+      <c r="T53" s="77"/>
+      <c r="U53" s="77"/>
+      <c r="V53" s="77"/>
+      <c r="W53" s="77"/>
+      <c r="X53" s="77"/>
+      <c r="Y53" s="77"/>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
@@ -20516,18 +20532,18 @@
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
       <c r="M54" s="9"/>
-      <c r="N54" s="78"/>
-      <c r="O54" s="78"/>
-      <c r="P54" s="78"/>
-      <c r="Q54" s="78"/>
-      <c r="R54" s="78"/>
-      <c r="S54" s="78"/>
-      <c r="T54" s="78"/>
-      <c r="U54" s="78"/>
-      <c r="V54" s="78"/>
-      <c r="W54" s="78"/>
-      <c r="X54" s="78"/>
-      <c r="Y54" s="78"/>
+      <c r="N54" s="77"/>
+      <c r="O54" s="77"/>
+      <c r="P54" s="77"/>
+      <c r="Q54" s="77"/>
+      <c r="R54" s="77"/>
+      <c r="S54" s="77"/>
+      <c r="T54" s="77"/>
+      <c r="U54" s="77"/>
+      <c r="V54" s="77"/>
+      <c r="W54" s="77"/>
+      <c r="X54" s="77"/>
+      <c r="Y54" s="77"/>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="20"/>
@@ -20543,18 +20559,18 @@
       <c r="K55" s="9"/>
       <c r="L55" s="9"/>
       <c r="M55" s="9"/>
-      <c r="N55" s="78"/>
-      <c r="O55" s="78"/>
-      <c r="P55" s="78"/>
-      <c r="Q55" s="78"/>
-      <c r="R55" s="78"/>
-      <c r="S55" s="78"/>
-      <c r="T55" s="78"/>
-      <c r="U55" s="78"/>
-      <c r="V55" s="78"/>
-      <c r="W55" s="78"/>
-      <c r="X55" s="78"/>
-      <c r="Y55" s="78"/>
+      <c r="N55" s="77"/>
+      <c r="O55" s="77"/>
+      <c r="P55" s="77"/>
+      <c r="Q55" s="77"/>
+      <c r="R55" s="77"/>
+      <c r="S55" s="77"/>
+      <c r="T55" s="77"/>
+      <c r="U55" s="77"/>
+      <c r="V55" s="77"/>
+      <c r="W55" s="77"/>
+      <c r="X55" s="77"/>
+      <c r="Y55" s="77"/>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="20" t="s">
@@ -20572,18 +20588,18 @@
       <c r="K56" s="7"/>
       <c r="L56" s="7"/>
       <c r="M56" s="7"/>
-      <c r="N56" s="78"/>
-      <c r="O56" s="78"/>
-      <c r="P56" s="78"/>
-      <c r="Q56" s="78"/>
-      <c r="R56" s="78"/>
-      <c r="S56" s="78"/>
-      <c r="T56" s="78"/>
-      <c r="U56" s="78"/>
-      <c r="V56" s="78"/>
-      <c r="W56" s="78"/>
-      <c r="X56" s="78"/>
-      <c r="Y56" s="78"/>
+      <c r="N56" s="77"/>
+      <c r="O56" s="77"/>
+      <c r="P56" s="77"/>
+      <c r="Q56" s="77"/>
+      <c r="R56" s="77"/>
+      <c r="S56" s="77"/>
+      <c r="T56" s="77"/>
+      <c r="U56" s="77"/>
+      <c r="V56" s="77"/>
+      <c r="W56" s="77"/>
+      <c r="X56" s="77"/>
+      <c r="Y56" s="77"/>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="20"/>
@@ -20599,18 +20615,18 @@
       <c r="K57" s="9"/>
       <c r="L57" s="9"/>
       <c r="M57" s="9"/>
-      <c r="N57" s="78"/>
-      <c r="O57" s="78"/>
-      <c r="P57" s="78"/>
-      <c r="Q57" s="78"/>
-      <c r="R57" s="78"/>
-      <c r="S57" s="78"/>
-      <c r="T57" s="78"/>
-      <c r="U57" s="78"/>
-      <c r="V57" s="78"/>
-      <c r="W57" s="78"/>
-      <c r="X57" s="78"/>
-      <c r="Y57" s="78"/>
+      <c r="N57" s="77"/>
+      <c r="O57" s="77"/>
+      <c r="P57" s="77"/>
+      <c r="Q57" s="77"/>
+      <c r="R57" s="77"/>
+      <c r="S57" s="77"/>
+      <c r="T57" s="77"/>
+      <c r="U57" s="77"/>
+      <c r="V57" s="77"/>
+      <c r="W57" s="77"/>
+      <c r="X57" s="77"/>
+      <c r="Y57" s="77"/>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="20" t="s">
@@ -20727,18 +20743,18 @@
       <c r="K59" s="9"/>
       <c r="L59" s="9"/>
       <c r="M59" s="9"/>
-      <c r="N59" s="78"/>
-      <c r="O59" s="78"/>
-      <c r="P59" s="78"/>
-      <c r="Q59" s="78"/>
-      <c r="R59" s="78"/>
-      <c r="S59" s="78"/>
-      <c r="T59" s="78"/>
-      <c r="U59" s="78"/>
-      <c r="V59" s="78"/>
-      <c r="W59" s="78"/>
-      <c r="X59" s="78"/>
-      <c r="Y59" s="78"/>
+      <c r="N59" s="77"/>
+      <c r="O59" s="77"/>
+      <c r="P59" s="77"/>
+      <c r="Q59" s="77"/>
+      <c r="R59" s="77"/>
+      <c r="S59" s="77"/>
+      <c r="T59" s="77"/>
+      <c r="U59" s="77"/>
+      <c r="V59" s="77"/>
+      <c r="W59" s="77"/>
+      <c r="X59" s="77"/>
+      <c r="Y59" s="77"/>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="20" t="s">
@@ -20855,18 +20871,18 @@
       <c r="K61" s="9"/>
       <c r="L61" s="9"/>
       <c r="M61" s="9"/>
-      <c r="N61" s="78"/>
-      <c r="O61" s="78"/>
-      <c r="P61" s="78"/>
-      <c r="Q61" s="78"/>
-      <c r="R61" s="78"/>
-      <c r="S61" s="78"/>
-      <c r="T61" s="78"/>
-      <c r="U61" s="78"/>
-      <c r="V61" s="78"/>
-      <c r="W61" s="78"/>
-      <c r="X61" s="78"/>
-      <c r="Y61" s="78"/>
+      <c r="N61" s="77"/>
+      <c r="O61" s="77"/>
+      <c r="P61" s="77"/>
+      <c r="Q61" s="77"/>
+      <c r="R61" s="77"/>
+      <c r="S61" s="77"/>
+      <c r="T61" s="77"/>
+      <c r="U61" s="77"/>
+      <c r="V61" s="77"/>
+      <c r="W61" s="77"/>
+      <c r="X61" s="77"/>
+      <c r="Y61" s="77"/>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="20" t="s">
@@ -20884,18 +20900,18 @@
       <c r="K62" s="7"/>
       <c r="L62" s="7"/>
       <c r="M62" s="7"/>
-      <c r="N62" s="78"/>
-      <c r="O62" s="78"/>
-      <c r="P62" s="78"/>
-      <c r="Q62" s="78"/>
-      <c r="R62" s="78"/>
-      <c r="S62" s="78"/>
-      <c r="T62" s="78"/>
-      <c r="U62" s="78"/>
-      <c r="V62" s="78"/>
-      <c r="W62" s="78"/>
-      <c r="X62" s="78"/>
-      <c r="Y62" s="78"/>
+      <c r="N62" s="77"/>
+      <c r="O62" s="77"/>
+      <c r="P62" s="77"/>
+      <c r="Q62" s="77"/>
+      <c r="R62" s="77"/>
+      <c r="S62" s="77"/>
+      <c r="T62" s="77"/>
+      <c r="U62" s="77"/>
+      <c r="V62" s="77"/>
+      <c r="W62" s="77"/>
+      <c r="X62" s="77"/>
+      <c r="Y62" s="77"/>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="20"/>
@@ -20911,18 +20927,18 @@
       <c r="K63" s="9"/>
       <c r="L63" s="9"/>
       <c r="M63" s="9"/>
-      <c r="N63" s="78"/>
-      <c r="O63" s="78"/>
-      <c r="P63" s="78"/>
-      <c r="Q63" s="78"/>
-      <c r="R63" s="78"/>
-      <c r="S63" s="78"/>
-      <c r="T63" s="78"/>
-      <c r="U63" s="78"/>
-      <c r="V63" s="78"/>
-      <c r="W63" s="78"/>
-      <c r="X63" s="78"/>
-      <c r="Y63" s="78"/>
+      <c r="N63" s="77"/>
+      <c r="O63" s="77"/>
+      <c r="P63" s="77"/>
+      <c r="Q63" s="77"/>
+      <c r="R63" s="77"/>
+      <c r="S63" s="77"/>
+      <c r="T63" s="77"/>
+      <c r="U63" s="77"/>
+      <c r="V63" s="77"/>
+      <c r="W63" s="77"/>
+      <c r="X63" s="77"/>
+      <c r="Y63" s="77"/>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="20" t="s">
@@ -21039,18 +21055,18 @@
       <c r="K65" s="7"/>
       <c r="L65" s="7"/>
       <c r="M65" s="7"/>
-      <c r="N65" s="78"/>
-      <c r="O65" s="78"/>
-      <c r="P65" s="78"/>
-      <c r="Q65" s="78"/>
-      <c r="R65" s="78"/>
-      <c r="S65" s="78"/>
-      <c r="T65" s="78"/>
-      <c r="U65" s="78"/>
-      <c r="V65" s="78"/>
-      <c r="W65" s="78"/>
-      <c r="X65" s="78"/>
-      <c r="Y65" s="78"/>
+      <c r="N65" s="77"/>
+      <c r="O65" s="77"/>
+      <c r="P65" s="77"/>
+      <c r="Q65" s="77"/>
+      <c r="R65" s="77"/>
+      <c r="S65" s="77"/>
+      <c r="T65" s="77"/>
+      <c r="U65" s="77"/>
+      <c r="V65" s="77"/>
+      <c r="W65" s="77"/>
+      <c r="X65" s="77"/>
+      <c r="Y65" s="77"/>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" s="20" t="s">
@@ -21068,18 +21084,18 @@
       <c r="K66" s="7"/>
       <c r="L66" s="7"/>
       <c r="M66" s="7"/>
-      <c r="N66" s="78"/>
-      <c r="O66" s="78"/>
-      <c r="P66" s="78"/>
-      <c r="Q66" s="78"/>
-      <c r="R66" s="78"/>
-      <c r="S66" s="78"/>
-      <c r="T66" s="78"/>
-      <c r="U66" s="78"/>
-      <c r="V66" s="78"/>
-      <c r="W66" s="78"/>
-      <c r="X66" s="78"/>
-      <c r="Y66" s="78"/>
+      <c r="N66" s="77"/>
+      <c r="O66" s="77"/>
+      <c r="P66" s="77"/>
+      <c r="Q66" s="77"/>
+      <c r="R66" s="77"/>
+      <c r="S66" s="77"/>
+      <c r="T66" s="77"/>
+      <c r="U66" s="77"/>
+      <c r="V66" s="77"/>
+      <c r="W66" s="77"/>
+      <c r="X66" s="77"/>
+      <c r="Y66" s="77"/>
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" s="20" t="s">
@@ -21198,18 +21214,18 @@
       <c r="K68" s="7"/>
       <c r="L68" s="7"/>
       <c r="M68" s="7"/>
-      <c r="N68" s="78"/>
-      <c r="O68" s="78"/>
-      <c r="P68" s="78"/>
-      <c r="Q68" s="78"/>
-      <c r="R68" s="78"/>
-      <c r="S68" s="78"/>
-      <c r="T68" s="78"/>
-      <c r="U68" s="78"/>
-      <c r="V68" s="78"/>
-      <c r="W68" s="78"/>
-      <c r="X68" s="78"/>
-      <c r="Y68" s="78"/>
+      <c r="N68" s="77"/>
+      <c r="O68" s="77"/>
+      <c r="P68" s="77"/>
+      <c r="Q68" s="77"/>
+      <c r="R68" s="77"/>
+      <c r="S68" s="77"/>
+      <c r="T68" s="77"/>
+      <c r="U68" s="77"/>
+      <c r="V68" s="77"/>
+      <c r="W68" s="77"/>
+      <c r="X68" s="77"/>
+      <c r="Y68" s="77"/>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" s="20" t="s">
@@ -21429,18 +21445,18 @@
       <c r="K71" s="7"/>
       <c r="L71" s="7"/>
       <c r="M71" s="7"/>
-      <c r="N71" s="78"/>
-      <c r="O71" s="78"/>
-      <c r="P71" s="78"/>
-      <c r="Q71" s="78"/>
-      <c r="R71" s="78"/>
-      <c r="S71" s="78"/>
-      <c r="T71" s="78"/>
-      <c r="U71" s="78"/>
-      <c r="V71" s="78"/>
-      <c r="W71" s="78"/>
-      <c r="X71" s="78"/>
-      <c r="Y71" s="78"/>
+      <c r="N71" s="77"/>
+      <c r="O71" s="77"/>
+      <c r="P71" s="77"/>
+      <c r="Q71" s="77"/>
+      <c r="R71" s="77"/>
+      <c r="S71" s="77"/>
+      <c r="T71" s="77"/>
+      <c r="U71" s="77"/>
+      <c r="V71" s="77"/>
+      <c r="W71" s="77"/>
+      <c r="X71" s="77"/>
+      <c r="Y71" s="77"/>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" s="20"/>
@@ -21456,18 +21472,18 @@
       <c r="K72" s="7"/>
       <c r="L72" s="7"/>
       <c r="M72" s="7"/>
-      <c r="N72" s="78"/>
-      <c r="O72" s="78"/>
-      <c r="P72" s="78"/>
-      <c r="Q72" s="78"/>
-      <c r="R72" s="78"/>
-      <c r="S72" s="78"/>
-      <c r="T72" s="78"/>
-      <c r="U72" s="78"/>
-      <c r="V72" s="78"/>
-      <c r="W72" s="78"/>
-      <c r="X72" s="78"/>
-      <c r="Y72" s="78"/>
+      <c r="N72" s="77"/>
+      <c r="O72" s="77"/>
+      <c r="P72" s="77"/>
+      <c r="Q72" s="77"/>
+      <c r="R72" s="77"/>
+      <c r="S72" s="77"/>
+      <c r="T72" s="77"/>
+      <c r="U72" s="77"/>
+      <c r="V72" s="77"/>
+      <c r="W72" s="77"/>
+      <c r="X72" s="77"/>
+      <c r="Y72" s="77"/>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" s="20" t="s">
@@ -21584,18 +21600,18 @@
       <c r="K74" s="7"/>
       <c r="L74" s="7"/>
       <c r="M74" s="7"/>
-      <c r="N74" s="78"/>
-      <c r="O74" s="78"/>
-      <c r="P74" s="78"/>
-      <c r="Q74" s="78"/>
-      <c r="R74" s="78"/>
-      <c r="S74" s="78"/>
-      <c r="T74" s="78"/>
-      <c r="U74" s="78"/>
-      <c r="V74" s="78"/>
-      <c r="W74" s="78"/>
-      <c r="X74" s="78"/>
-      <c r="Y74" s="78"/>
+      <c r="N74" s="77"/>
+      <c r="O74" s="77"/>
+      <c r="P74" s="77"/>
+      <c r="Q74" s="77"/>
+      <c r="R74" s="77"/>
+      <c r="S74" s="77"/>
+      <c r="T74" s="77"/>
+      <c r="U74" s="77"/>
+      <c r="V74" s="77"/>
+      <c r="W74" s="77"/>
+      <c r="X74" s="77"/>
+      <c r="Y74" s="77"/>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" s="20" t="s">
@@ -21613,22 +21629,22 @@
       <c r="K75" s="7"/>
       <c r="L75" s="7"/>
       <c r="M75" s="7"/>
-      <c r="N75" s="78"/>
-      <c r="O75" s="78"/>
-      <c r="P75" s="78"/>
-      <c r="Q75" s="78"/>
-      <c r="R75" s="78"/>
-      <c r="S75" s="78"/>
-      <c r="T75" s="78"/>
-      <c r="U75" s="78"/>
-      <c r="V75" s="78"/>
-      <c r="W75" s="78"/>
-      <c r="X75" s="78"/>
-      <c r="Y75" s="78"/>
+      <c r="N75" s="77"/>
+      <c r="O75" s="77"/>
+      <c r="P75" s="77"/>
+      <c r="Q75" s="77"/>
+      <c r="R75" s="77"/>
+      <c r="S75" s="77"/>
+      <c r="T75" s="77"/>
+      <c r="U75" s="77"/>
+      <c r="V75" s="77"/>
+      <c r="W75" s="77"/>
+      <c r="X75" s="77"/>
+      <c r="Y75" s="77"/>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A76" s="20" t="s">
-        <v>2</v>
+      <c r="A76" s="103" t="s">
+        <v>169</v>
       </c>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
@@ -21642,18 +21658,18 @@
       <c r="K76" s="7"/>
       <c r="L76" s="7"/>
       <c r="M76" s="7"/>
-      <c r="N76" s="78"/>
-      <c r="O76" s="78"/>
-      <c r="P76" s="78"/>
-      <c r="Q76" s="78"/>
-      <c r="R76" s="78"/>
-      <c r="S76" s="78"/>
-      <c r="T76" s="78"/>
-      <c r="U76" s="78"/>
-      <c r="V76" s="78"/>
-      <c r="W76" s="78"/>
-      <c r="X76" s="78"/>
-      <c r="Y76" s="78"/>
+      <c r="N76" s="77"/>
+      <c r="O76" s="77"/>
+      <c r="P76" s="77"/>
+      <c r="Q76" s="77"/>
+      <c r="R76" s="77"/>
+      <c r="S76" s="77"/>
+      <c r="T76" s="77"/>
+      <c r="U76" s="77"/>
+      <c r="V76" s="77"/>
+      <c r="W76" s="77"/>
+      <c r="X76" s="77"/>
+      <c r="Y76" s="77"/>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" s="20" t="s">
@@ -21671,18 +21687,18 @@
       <c r="K77" s="7"/>
       <c r="L77" s="7"/>
       <c r="M77" s="7"/>
-      <c r="N77" s="78"/>
-      <c r="O77" s="78"/>
-      <c r="P77" s="78"/>
-      <c r="Q77" s="78"/>
-      <c r="R77" s="78"/>
-      <c r="S77" s="78"/>
-      <c r="T77" s="78"/>
-      <c r="U77" s="78"/>
-      <c r="V77" s="78"/>
-      <c r="W77" s="78"/>
-      <c r="X77" s="78"/>
-      <c r="Y77" s="78"/>
+      <c r="N77" s="77"/>
+      <c r="O77" s="77"/>
+      <c r="P77" s="77"/>
+      <c r="Q77" s="77"/>
+      <c r="R77" s="77"/>
+      <c r="S77" s="77"/>
+      <c r="T77" s="77"/>
+      <c r="U77" s="77"/>
+      <c r="V77" s="77"/>
+      <c r="W77" s="77"/>
+      <c r="X77" s="77"/>
+      <c r="Y77" s="77"/>
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" s="20" t="str">
@@ -21690,55 +21706,55 @@
         <v>15. Net Profit/loss [13-14]</v>
       </c>
       <c r="B78" s="33">
-        <f>B73-B75-B77</f>
+        <f>B73-B75+B76-B77</f>
         <v>0</v>
       </c>
       <c r="C78" s="33">
-        <f>IF(B78="","",SUM((ROUND(C73-(C77+C75),2))))</f>
+        <f>IF(B78="","",SUM((ROUND((C73+C76)-(C77+C75),2))))</f>
         <v>0</v>
       </c>
       <c r="D78" s="33">
-        <f>IF(A78="","",SUM((ROUND(D73-(D77+D75),2))))</f>
+        <f t="shared" ref="D78:Y78" si="31">IF(C78="","",SUM((ROUND((D73+D76)-(D77+D75),2))))</f>
         <v>0</v>
       </c>
       <c r="E78" s="33">
-        <f>IF(A78="","",SUM((ROUND(E73-(E77+E75),2))))</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="F78" s="33">
-        <f>IF(C78="","",SUM((ROUND(F73-(F77+F75),2))))</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="G78" s="33">
-        <f>IF(D78="","",SUM((ROUND(G73-(G77+G75),2))))</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="H78" s="33">
-        <f>IF(E78="","",SUM((ROUND(H73-(H77+H75),2))))</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="I78" s="33">
-        <f>IF(F78="","",SUM((ROUND(I73-(I77+I75),2))))</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="J78" s="33">
-        <f>IF(F78="","",SUM((ROUND(J73-(J77+J75),2))))</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="K78" s="33">
-        <f>IF(G78="","",SUM((ROUND(K73-(K77+K75),2))))</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="L78" s="33">
-        <f>IF(H78="","",SUM((ROUND(L73-(L77+L75),2))))</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="M78" s="33">
-        <f>IF(I78="","",SUM((ROUND(M73-(M77+M75),2))))</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N78" s="33">
-        <f t="shared" ref="N78:Y78" si="31">IF(J78="","",SUM((ROUND(N73-(N77+N75),2))))</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="O78" s="33">
@@ -21803,18 +21819,18 @@
       <c r="K79" s="7"/>
       <c r="L79" s="7"/>
       <c r="M79" s="7"/>
-      <c r="N79" s="78"/>
-      <c r="O79" s="78"/>
-      <c r="P79" s="78"/>
-      <c r="Q79" s="78"/>
-      <c r="R79" s="78"/>
-      <c r="S79" s="78"/>
-      <c r="T79" s="78"/>
-      <c r="U79" s="78"/>
-      <c r="V79" s="78"/>
-      <c r="W79" s="78"/>
-      <c r="X79" s="78"/>
-      <c r="Y79" s="78"/>
+      <c r="N79" s="77"/>
+      <c r="O79" s="77"/>
+      <c r="P79" s="77"/>
+      <c r="Q79" s="77"/>
+      <c r="R79" s="77"/>
+      <c r="S79" s="77"/>
+      <c r="T79" s="77"/>
+      <c r="U79" s="77"/>
+      <c r="V79" s="77"/>
+      <c r="W79" s="77"/>
+      <c r="X79" s="77"/>
+      <c r="Y79" s="77"/>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" s="20" t="s">
@@ -21832,18 +21848,18 @@
       <c r="K80" s="7"/>
       <c r="L80" s="7"/>
       <c r="M80" s="7"/>
-      <c r="N80" s="78"/>
-      <c r="O80" s="78"/>
-      <c r="P80" s="78"/>
-      <c r="Q80" s="78"/>
-      <c r="R80" s="78"/>
-      <c r="S80" s="78"/>
-      <c r="T80" s="78"/>
-      <c r="U80" s="78"/>
-      <c r="V80" s="78"/>
-      <c r="W80" s="78"/>
-      <c r="X80" s="78"/>
-      <c r="Y80" s="78"/>
+      <c r="N80" s="77"/>
+      <c r="O80" s="77"/>
+      <c r="P80" s="77"/>
+      <c r="Q80" s="77"/>
+      <c r="R80" s="77"/>
+      <c r="S80" s="77"/>
+      <c r="T80" s="77"/>
+      <c r="U80" s="77"/>
+      <c r="V80" s="77"/>
+      <c r="W80" s="77"/>
+      <c r="X80" s="77"/>
+      <c r="Y80" s="77"/>
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" s="20"/>
@@ -21859,18 +21875,18 @@
       <c r="K81" s="7"/>
       <c r="L81" s="7"/>
       <c r="M81" s="7"/>
-      <c r="N81" s="78"/>
-      <c r="O81" s="78"/>
-      <c r="P81" s="78"/>
-      <c r="Q81" s="78"/>
-      <c r="R81" s="78"/>
-      <c r="S81" s="78"/>
-      <c r="T81" s="78"/>
-      <c r="U81" s="78"/>
-      <c r="V81" s="78"/>
-      <c r="W81" s="78"/>
-      <c r="X81" s="78"/>
-      <c r="Y81" s="78"/>
+      <c r="N81" s="77"/>
+      <c r="O81" s="77"/>
+      <c r="P81" s="77"/>
+      <c r="Q81" s="77"/>
+      <c r="R81" s="77"/>
+      <c r="S81" s="77"/>
+      <c r="T81" s="77"/>
+      <c r="U81" s="77"/>
+      <c r="V81" s="77"/>
+      <c r="W81" s="77"/>
+      <c r="X81" s="77"/>
+      <c r="Y81" s="77"/>
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82" s="20" t="s">
@@ -21987,18 +22003,18 @@
       <c r="K83" s="7"/>
       <c r="L83" s="7"/>
       <c r="M83" s="7"/>
-      <c r="N83" s="78"/>
-      <c r="O83" s="78"/>
-      <c r="P83" s="78"/>
-      <c r="Q83" s="78"/>
-      <c r="R83" s="78"/>
-      <c r="S83" s="78"/>
-      <c r="T83" s="78"/>
-      <c r="U83" s="78"/>
-      <c r="V83" s="78"/>
-      <c r="W83" s="78"/>
-      <c r="X83" s="78"/>
-      <c r="Y83" s="78"/>
+      <c r="N83" s="77"/>
+      <c r="O83" s="77"/>
+      <c r="P83" s="77"/>
+      <c r="Q83" s="77"/>
+      <c r="R83" s="77"/>
+      <c r="S83" s="77"/>
+      <c r="T83" s="77"/>
+      <c r="U83" s="77"/>
+      <c r="V83" s="77"/>
+      <c r="W83" s="77"/>
+      <c r="X83" s="77"/>
+      <c r="Y83" s="77"/>
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" s="20" t="s">
@@ -22115,18 +22131,18 @@
       <c r="K85" s="7"/>
       <c r="L85" s="7"/>
       <c r="M85" s="7"/>
-      <c r="N85" s="78"/>
-      <c r="O85" s="78"/>
-      <c r="P85" s="78"/>
-      <c r="Q85" s="78"/>
-      <c r="R85" s="78"/>
-      <c r="S85" s="78"/>
-      <c r="T85" s="78"/>
-      <c r="U85" s="78"/>
-      <c r="V85" s="78"/>
-      <c r="W85" s="78"/>
-      <c r="X85" s="78"/>
-      <c r="Y85" s="78"/>
+      <c r="N85" s="77"/>
+      <c r="O85" s="77"/>
+      <c r="P85" s="77"/>
+      <c r="Q85" s="77"/>
+      <c r="R85" s="77"/>
+      <c r="S85" s="77"/>
+      <c r="T85" s="77"/>
+      <c r="U85" s="77"/>
+      <c r="V85" s="77"/>
+      <c r="W85" s="77"/>
+      <c r="X85" s="77"/>
+      <c r="Y85" s="77"/>
     </row>
     <row r="86" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="23" t="s">
@@ -22230,7 +22246,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="CF53" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
@@ -22238,7 +22253,7 @@
     <mergeCell ref="A4:C4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:M16 B18:M81 N11:Y11 N15:Y15 N20:Y20 N24:Y24 N36:Y36 N40:Y40 N44:Y44 N48:Y48 N52:Y52 N58:Y58 N60:Y60 N64:Y64 N67:Y67 N69:Y70 N73:Y73 N78:Y78">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:M16 D79:M81 N11:Y11 N15:Y15 N20:Y20 N24:Y24 N36:Y36 N40:Y40 N44:Y44 N48:Y48 N52:Y52 N58:Y58 N60:Y60 N64:Y64 N67:Y67 N69:Y70 N73:Y73 B18:C81 D18:M77 D78:Y78">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B82:M86 B17:Y17 N82:Y82 N84:Y84 N86:Y86"/>
@@ -22257,24 +22272,24 @@
       <selection activeCell="B67" sqref="B67"/>
       <selection pane="topRight" activeCell="B67" sqref="B67"/>
       <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.7109375" style="40" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="59" style="40" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="25" width="17.7109375" style="40" customWidth="1" collapsed="1"/>
     <col min="26" max="16384" width="9.140625" style="40" hidden="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="119" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
       <c r="F1" s="35"/>
       <c r="G1" s="36"/>
       <c r="H1" s="36"/>
@@ -22295,13 +22310,13 @@
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="120" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
       <c r="F2" s="39"/>
       <c r="G2" s="39"/>
       <c r="H2" s="39"/>
@@ -22312,13 +22327,13 @@
       <c r="M2" s="39"/>
     </row>
     <row r="3" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="123" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
       <c r="F3" s="41"/>
       <c r="G3" s="41"/>
       <c r="H3" s="41"/>
@@ -22329,15 +22344,15 @@
       <c r="M3" s="41"/>
     </row>
     <row r="4" spans="1:25" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="121" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="131" t="s">
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="130" t="s">
+      <c r="E4" s="99" t="s">
         <v>40</v>
       </c>
       <c r="F4" s="42"/>
@@ -22362,10 +22377,10 @@
       <c r="Y4" s="42"/>
     </row>
     <row r="5" spans="1:25" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="115" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="85">
+      <c r="B5" s="84">
         <f>'Operating Stmt.'!B5</f>
         <v>2015</v>
       </c>
@@ -22457,167 +22472,167 @@
         <f>'Operating Stmt.'!X5</f>
         <v>2037</v>
       </c>
-      <c r="Y5" s="77">
+      <c r="Y5" s="76">
         <f>'Operating Stmt.'!Y5</f>
         <v>2038</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="110"/>
-      <c r="B6" s="118" t="str">
+      <c r="A6" s="116"/>
+      <c r="B6" s="124" t="str">
         <f>+'Operating Stmt.'!B6:B6</f>
         <v>Audited</v>
       </c>
-      <c r="C6" s="111" t="str">
+      <c r="C6" s="117" t="str">
         <f>+'Operating Stmt.'!C6:C6</f>
         <v>Audited</v>
       </c>
-      <c r="D6" s="111" t="str">
+      <c r="D6" s="117" t="str">
         <f>+'Operating Stmt.'!D6:D6</f>
         <v>Audited</v>
       </c>
-      <c r="E6" s="111" t="str">
+      <c r="E6" s="117" t="str">
         <f>+'Operating Stmt.'!E6:E6</f>
         <v>Estimated</v>
       </c>
-      <c r="F6" s="111" t="str">
+      <c r="F6" s="117" t="str">
         <f>+'Operating Stmt.'!F6:F6</f>
         <v>Projected</v>
       </c>
-      <c r="G6" s="111" t="str">
+      <c r="G6" s="117" t="str">
         <f>+'Operating Stmt.'!G6:G6</f>
         <v>Projected</v>
       </c>
-      <c r="H6" s="111" t="str">
+      <c r="H6" s="117" t="str">
         <f>+'Operating Stmt.'!H6:H6</f>
         <v>Projected</v>
       </c>
-      <c r="I6" s="111" t="str">
+      <c r="I6" s="117" t="str">
         <f>+'Operating Stmt.'!I6:I6</f>
         <v>Projected</v>
       </c>
-      <c r="J6" s="111" t="str">
+      <c r="J6" s="117" t="str">
         <f>+'Operating Stmt.'!J6:J6</f>
         <v>Projected</v>
       </c>
-      <c r="K6" s="111" t="str">
+      <c r="K6" s="117" t="str">
         <f>+'Operating Stmt.'!K6:K6</f>
         <v>Projected</v>
       </c>
-      <c r="L6" s="111" t="str">
+      <c r="L6" s="117" t="str">
         <f>+'Operating Stmt.'!L6:L6</f>
         <v>Projected</v>
       </c>
-      <c r="M6" s="121" t="str">
+      <c r="M6" s="127" t="str">
         <f>+'Operating Stmt.'!M6:M6</f>
         <v>Projected</v>
       </c>
-      <c r="N6" s="103" t="str">
+      <c r="N6" s="109" t="str">
         <f>+'Operating Stmt.'!N6:N6</f>
         <v>Projected</v>
       </c>
-      <c r="O6" s="103" t="str">
+      <c r="O6" s="109" t="str">
         <f>+'Operating Stmt.'!O6:O6</f>
         <v>Projected</v>
       </c>
-      <c r="P6" s="103" t="str">
+      <c r="P6" s="109" t="str">
         <f>+'Operating Stmt.'!P6:P6</f>
         <v>Projected</v>
       </c>
-      <c r="Q6" s="103" t="str">
+      <c r="Q6" s="109" t="str">
         <f>+'Operating Stmt.'!Q6:Q6</f>
         <v>Projected</v>
       </c>
-      <c r="R6" s="103" t="str">
+      <c r="R6" s="109" t="str">
         <f>+'Operating Stmt.'!R6:R6</f>
         <v>Projected</v>
       </c>
-      <c r="S6" s="103" t="str">
+      <c r="S6" s="109" t="str">
         <f>+'Operating Stmt.'!S6:S6</f>
         <v>Projected</v>
       </c>
-      <c r="T6" s="103" t="str">
+      <c r="T6" s="109" t="str">
         <f>+'Operating Stmt.'!T6:T6</f>
         <v>Projected</v>
       </c>
-      <c r="U6" s="103" t="str">
+      <c r="U6" s="109" t="str">
         <f>+'Operating Stmt.'!U6:U6</f>
         <v>Projected</v>
       </c>
-      <c r="V6" s="103" t="str">
+      <c r="V6" s="109" t="str">
         <f>+'Operating Stmt.'!V6:V6</f>
         <v>Projected</v>
       </c>
-      <c r="W6" s="103" t="str">
+      <c r="W6" s="109" t="str">
         <f>+'Operating Stmt.'!W6:W6</f>
         <v>Projected</v>
       </c>
-      <c r="X6" s="103" t="str">
+      <c r="X6" s="109" t="str">
         <f>+'Operating Stmt.'!X6:X6</f>
         <v>Projected</v>
       </c>
-      <c r="Y6" s="105" t="str">
+      <c r="Y6" s="111" t="str">
         <f>+'Operating Stmt.'!Y6:Y6</f>
         <v>Projected</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="110"/>
-      <c r="B7" s="119"/>
-      <c r="C7" s="120"/>
-      <c r="D7" s="120"/>
-      <c r="E7" s="120"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
-      <c r="H7" s="112"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="112"/>
-      <c r="K7" s="112"/>
-      <c r="L7" s="112"/>
-      <c r="M7" s="122"/>
-      <c r="N7" s="104"/>
-      <c r="O7" s="104"/>
-      <c r="P7" s="104"/>
-      <c r="Q7" s="104"/>
-      <c r="R7" s="104"/>
-      <c r="S7" s="104"/>
-      <c r="T7" s="104"/>
-      <c r="U7" s="104"/>
-      <c r="V7" s="104"/>
-      <c r="W7" s="104"/>
-      <c r="X7" s="104"/>
-      <c r="Y7" s="106"/>
+      <c r="A7" s="116"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="118"/>
+      <c r="K7" s="118"/>
+      <c r="L7" s="118"/>
+      <c r="M7" s="128"/>
+      <c r="N7" s="110"/>
+      <c r="O7" s="110"/>
+      <c r="P7" s="110"/>
+      <c r="Q7" s="110"/>
+      <c r="R7" s="110"/>
+      <c r="S7" s="110"/>
+      <c r="T7" s="110"/>
+      <c r="U7" s="110"/>
+      <c r="V7" s="110"/>
+      <c r="W7" s="110"/>
+      <c r="X7" s="110"/>
+      <c r="Y7" s="112"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="91"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="92"/>
-      <c r="J8" s="92"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="92"/>
-      <c r="N8" s="93"/>
-      <c r="O8" s="93"/>
-      <c r="P8" s="93"/>
-      <c r="Q8" s="93"/>
-      <c r="R8" s="93"/>
-      <c r="S8" s="93"/>
-      <c r="T8" s="93"/>
-      <c r="U8" s="93"/>
-      <c r="V8" s="93"/>
-      <c r="W8" s="93"/>
-      <c r="X8" s="93"/>
-      <c r="Y8" s="93"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="91"/>
+      <c r="J8" s="91"/>
+      <c r="K8" s="91"/>
+      <c r="L8" s="91"/>
+      <c r="M8" s="91"/>
+      <c r="N8" s="92"/>
+      <c r="O8" s="92"/>
+      <c r="P8" s="92"/>
+      <c r="Q8" s="92"/>
+      <c r="R8" s="92"/>
+      <c r="S8" s="92"/>
+      <c r="T8" s="92"/>
+      <c r="U8" s="92"/>
+      <c r="V8" s="92"/>
+      <c r="W8" s="92"/>
+      <c r="X8" s="92"/>
+      <c r="Y8" s="92"/>
     </row>
-    <row r="9" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>70</v>
       </c>
@@ -22633,18 +22648,18 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="90"/>
-      <c r="O9" s="90"/>
-      <c r="P9" s="90"/>
-      <c r="Q9" s="90"/>
-      <c r="R9" s="90"/>
-      <c r="S9" s="90"/>
-      <c r="T9" s="90"/>
-      <c r="U9" s="90"/>
-      <c r="V9" s="90"/>
-      <c r="W9" s="90"/>
-      <c r="X9" s="90"/>
-      <c r="Y9" s="90"/>
+      <c r="N9" s="89"/>
+      <c r="O9" s="89"/>
+      <c r="P9" s="89"/>
+      <c r="Q9" s="89"/>
+      <c r="R9" s="89"/>
+      <c r="S9" s="89"/>
+      <c r="T9" s="89"/>
+      <c r="U9" s="89"/>
+      <c r="V9" s="89"/>
+      <c r="W9" s="89"/>
+      <c r="X9" s="89"/>
+      <c r="Y9" s="89"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
@@ -22662,18 +22677,18 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="90"/>
-      <c r="O10" s="90"/>
-      <c r="P10" s="90"/>
-      <c r="Q10" s="90"/>
-      <c r="R10" s="90"/>
-      <c r="S10" s="90"/>
-      <c r="T10" s="90"/>
-      <c r="U10" s="90"/>
-      <c r="V10" s="90"/>
-      <c r="W10" s="90"/>
-      <c r="X10" s="90"/>
-      <c r="Y10" s="90"/>
+      <c r="N10" s="89"/>
+      <c r="O10" s="89"/>
+      <c r="P10" s="89"/>
+      <c r="Q10" s="89"/>
+      <c r="R10" s="89"/>
+      <c r="S10" s="89"/>
+      <c r="T10" s="89"/>
+      <c r="U10" s="89"/>
+      <c r="V10" s="89"/>
+      <c r="W10" s="89"/>
+      <c r="X10" s="89"/>
+      <c r="Y10" s="89"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
@@ -22691,18 +22706,18 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="90"/>
-      <c r="O11" s="90"/>
-      <c r="P11" s="90"/>
-      <c r="Q11" s="90"/>
-      <c r="R11" s="90"/>
-      <c r="S11" s="90"/>
-      <c r="T11" s="90"/>
-      <c r="U11" s="90"/>
-      <c r="V11" s="90"/>
-      <c r="W11" s="90"/>
-      <c r="X11" s="90"/>
-      <c r="Y11" s="90"/>
+      <c r="N11" s="89"/>
+      <c r="O11" s="89"/>
+      <c r="P11" s="89"/>
+      <c r="Q11" s="89"/>
+      <c r="R11" s="89"/>
+      <c r="S11" s="89"/>
+      <c r="T11" s="89"/>
+      <c r="U11" s="89"/>
+      <c r="V11" s="89"/>
+      <c r="W11" s="89"/>
+      <c r="X11" s="89"/>
+      <c r="Y11" s="89"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
@@ -22720,18 +22735,18 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="90"/>
-      <c r="O12" s="90"/>
-      <c r="P12" s="90"/>
-      <c r="Q12" s="90"/>
-      <c r="R12" s="90"/>
-      <c r="S12" s="90"/>
-      <c r="T12" s="90"/>
-      <c r="U12" s="90"/>
-      <c r="V12" s="90"/>
-      <c r="W12" s="90"/>
-      <c r="X12" s="90"/>
-      <c r="Y12" s="90"/>
+      <c r="N12" s="89"/>
+      <c r="O12" s="89"/>
+      <c r="P12" s="89"/>
+      <c r="Q12" s="89"/>
+      <c r="R12" s="89"/>
+      <c r="S12" s="89"/>
+      <c r="T12" s="89"/>
+      <c r="U12" s="89"/>
+      <c r="V12" s="89"/>
+      <c r="W12" s="89"/>
+      <c r="X12" s="89"/>
+      <c r="Y12" s="89"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
@@ -22749,18 +22764,18 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="90"/>
-      <c r="O13" s="90"/>
-      <c r="P13" s="90"/>
-      <c r="Q13" s="90"/>
-      <c r="R13" s="90"/>
-      <c r="S13" s="90"/>
-      <c r="T13" s="90"/>
-      <c r="U13" s="90"/>
-      <c r="V13" s="90"/>
-      <c r="W13" s="90"/>
-      <c r="X13" s="90"/>
-      <c r="Y13" s="90"/>
+      <c r="N13" s="89"/>
+      <c r="O13" s="89"/>
+      <c r="P13" s="89"/>
+      <c r="Q13" s="89"/>
+      <c r="R13" s="89"/>
+      <c r="S13" s="89"/>
+      <c r="T13" s="89"/>
+      <c r="U13" s="89"/>
+      <c r="V13" s="89"/>
+      <c r="W13" s="89"/>
+      <c r="X13" s="89"/>
+      <c r="Y13" s="89"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
@@ -22778,18 +22793,18 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="90"/>
-      <c r="O14" s="90"/>
-      <c r="P14" s="90"/>
-      <c r="Q14" s="90"/>
-      <c r="R14" s="90"/>
-      <c r="S14" s="90"/>
-      <c r="T14" s="90"/>
-      <c r="U14" s="90"/>
-      <c r="V14" s="90"/>
-      <c r="W14" s="90"/>
-      <c r="X14" s="90"/>
-      <c r="Y14" s="90"/>
+      <c r="N14" s="89"/>
+      <c r="O14" s="89"/>
+      <c r="P14" s="89"/>
+      <c r="Q14" s="89"/>
+      <c r="R14" s="89"/>
+      <c r="S14" s="89"/>
+      <c r="T14" s="89"/>
+      <c r="U14" s="89"/>
+      <c r="V14" s="89"/>
+      <c r="W14" s="89"/>
+      <c r="X14" s="89"/>
+      <c r="Y14" s="89"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
@@ -22906,18 +22921,18 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="90"/>
-      <c r="O16" s="90"/>
-      <c r="P16" s="90"/>
-      <c r="Q16" s="90"/>
-      <c r="R16" s="90"/>
-      <c r="S16" s="90"/>
-      <c r="T16" s="90"/>
-      <c r="U16" s="90"/>
-      <c r="V16" s="90"/>
-      <c r="W16" s="90"/>
-      <c r="X16" s="90"/>
-      <c r="Y16" s="90"/>
+      <c r="N16" s="89"/>
+      <c r="O16" s="89"/>
+      <c r="P16" s="89"/>
+      <c r="Q16" s="89"/>
+      <c r="R16" s="89"/>
+      <c r="S16" s="89"/>
+      <c r="T16" s="89"/>
+      <c r="U16" s="89"/>
+      <c r="V16" s="89"/>
+      <c r="W16" s="89"/>
+      <c r="X16" s="89"/>
+      <c r="Y16" s="89"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
@@ -22935,18 +22950,18 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
-      <c r="N17" s="90"/>
-      <c r="O17" s="90"/>
-      <c r="P17" s="90"/>
-      <c r="Q17" s="90"/>
-      <c r="R17" s="90"/>
-      <c r="S17" s="90"/>
-      <c r="T17" s="90"/>
-      <c r="U17" s="90"/>
-      <c r="V17" s="90"/>
-      <c r="W17" s="90"/>
-      <c r="X17" s="90"/>
-      <c r="Y17" s="90"/>
+      <c r="N17" s="89"/>
+      <c r="O17" s="89"/>
+      <c r="P17" s="89"/>
+      <c r="Q17" s="89"/>
+      <c r="R17" s="89"/>
+      <c r="S17" s="89"/>
+      <c r="T17" s="89"/>
+      <c r="U17" s="89"/>
+      <c r="V17" s="89"/>
+      <c r="W17" s="89"/>
+      <c r="X17" s="89"/>
+      <c r="Y17" s="89"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
@@ -22962,18 +22977,18 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
-      <c r="N18" s="90"/>
-      <c r="O18" s="90"/>
-      <c r="P18" s="90"/>
-      <c r="Q18" s="90"/>
-      <c r="R18" s="90"/>
-      <c r="S18" s="90"/>
-      <c r="T18" s="90"/>
-      <c r="U18" s="90"/>
-      <c r="V18" s="90"/>
-      <c r="W18" s="90"/>
-      <c r="X18" s="90"/>
-      <c r="Y18" s="90"/>
+      <c r="N18" s="89"/>
+      <c r="O18" s="89"/>
+      <c r="P18" s="89"/>
+      <c r="Q18" s="89"/>
+      <c r="R18" s="89"/>
+      <c r="S18" s="89"/>
+      <c r="T18" s="89"/>
+      <c r="U18" s="89"/>
+      <c r="V18" s="89"/>
+      <c r="W18" s="89"/>
+      <c r="X18" s="89"/>
+      <c r="Y18" s="89"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
@@ -22991,18 +23006,18 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="90"/>
-      <c r="O19" s="90"/>
-      <c r="P19" s="90"/>
-      <c r="Q19" s="90"/>
-      <c r="R19" s="90"/>
-      <c r="S19" s="90"/>
-      <c r="T19" s="90"/>
-      <c r="U19" s="90"/>
-      <c r="V19" s="90"/>
-      <c r="W19" s="90"/>
-      <c r="X19" s="90"/>
-      <c r="Y19" s="90"/>
+      <c r="N19" s="89"/>
+      <c r="O19" s="89"/>
+      <c r="P19" s="89"/>
+      <c r="Q19" s="89"/>
+      <c r="R19" s="89"/>
+      <c r="S19" s="89"/>
+      <c r="T19" s="89"/>
+      <c r="U19" s="89"/>
+      <c r="V19" s="89"/>
+      <c r="W19" s="89"/>
+      <c r="X19" s="89"/>
+      <c r="Y19" s="89"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
@@ -23018,20 +23033,20 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
-      <c r="N20" s="90"/>
-      <c r="O20" s="90"/>
-      <c r="P20" s="90"/>
-      <c r="Q20" s="90"/>
-      <c r="R20" s="90"/>
-      <c r="S20" s="90"/>
-      <c r="T20" s="90"/>
-      <c r="U20" s="90"/>
-      <c r="V20" s="90"/>
-      <c r="W20" s="90"/>
-      <c r="X20" s="90"/>
-      <c r="Y20" s="90"/>
+      <c r="N20" s="89"/>
+      <c r="O20" s="89"/>
+      <c r="P20" s="89"/>
+      <c r="Q20" s="89"/>
+      <c r="R20" s="89"/>
+      <c r="S20" s="89"/>
+      <c r="T20" s="89"/>
+      <c r="U20" s="89"/>
+      <c r="V20" s="89"/>
+      <c r="W20" s="89"/>
+      <c r="X20" s="89"/>
+      <c r="Y20" s="89"/>
     </row>
-    <row r="21" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>63</v>
       </c>
@@ -23047,18 +23062,18 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
-      <c r="N21" s="90"/>
-      <c r="O21" s="90"/>
-      <c r="P21" s="90"/>
-      <c r="Q21" s="90"/>
-      <c r="R21" s="90"/>
-      <c r="S21" s="90"/>
-      <c r="T21" s="90"/>
-      <c r="U21" s="90"/>
-      <c r="V21" s="90"/>
-      <c r="W21" s="90"/>
-      <c r="X21" s="90"/>
-      <c r="Y21" s="90"/>
+      <c r="N21" s="89"/>
+      <c r="O21" s="89"/>
+      <c r="P21" s="89"/>
+      <c r="Q21" s="89"/>
+      <c r="R21" s="89"/>
+      <c r="S21" s="89"/>
+      <c r="T21" s="89"/>
+      <c r="U21" s="89"/>
+      <c r="V21" s="89"/>
+      <c r="W21" s="89"/>
+      <c r="X21" s="89"/>
+      <c r="Y21" s="89"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
@@ -23074,18 +23089,18 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
-      <c r="N22" s="90"/>
-      <c r="O22" s="90"/>
-      <c r="P22" s="90"/>
-      <c r="Q22" s="90"/>
-      <c r="R22" s="90"/>
-      <c r="S22" s="90"/>
-      <c r="T22" s="90"/>
-      <c r="U22" s="90"/>
-      <c r="V22" s="90"/>
-      <c r="W22" s="90"/>
-      <c r="X22" s="90"/>
-      <c r="Y22" s="90"/>
+      <c r="N22" s="89"/>
+      <c r="O22" s="89"/>
+      <c r="P22" s="89"/>
+      <c r="Q22" s="89"/>
+      <c r="R22" s="89"/>
+      <c r="S22" s="89"/>
+      <c r="T22" s="89"/>
+      <c r="U22" s="89"/>
+      <c r="V22" s="89"/>
+      <c r="W22" s="89"/>
+      <c r="X22" s="89"/>
+      <c r="Y22" s="89"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
@@ -23103,18 +23118,18 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
-      <c r="N23" s="90"/>
-      <c r="O23" s="90"/>
-      <c r="P23" s="90"/>
-      <c r="Q23" s="90"/>
-      <c r="R23" s="90"/>
-      <c r="S23" s="90"/>
-      <c r="T23" s="90"/>
-      <c r="U23" s="90"/>
-      <c r="V23" s="90"/>
-      <c r="W23" s="90"/>
-      <c r="X23" s="90"/>
-      <c r="Y23" s="90"/>
+      <c r="N23" s="89"/>
+      <c r="O23" s="89"/>
+      <c r="P23" s="89"/>
+      <c r="Q23" s="89"/>
+      <c r="R23" s="89"/>
+      <c r="S23" s="89"/>
+      <c r="T23" s="89"/>
+      <c r="U23" s="89"/>
+      <c r="V23" s="89"/>
+      <c r="W23" s="89"/>
+      <c r="X23" s="89"/>
+      <c r="Y23" s="89"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="20"/>
@@ -23130,18 +23145,18 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
-      <c r="N24" s="90"/>
-      <c r="O24" s="90"/>
-      <c r="P24" s="90"/>
-      <c r="Q24" s="90"/>
-      <c r="R24" s="90"/>
-      <c r="S24" s="90"/>
-      <c r="T24" s="90"/>
-      <c r="U24" s="90"/>
-      <c r="V24" s="90"/>
-      <c r="W24" s="90"/>
-      <c r="X24" s="90"/>
-      <c r="Y24" s="90"/>
+      <c r="N24" s="89"/>
+      <c r="O24" s="89"/>
+      <c r="P24" s="89"/>
+      <c r="Q24" s="89"/>
+      <c r="R24" s="89"/>
+      <c r="S24" s="89"/>
+      <c r="T24" s="89"/>
+      <c r="U24" s="89"/>
+      <c r="V24" s="89"/>
+      <c r="W24" s="89"/>
+      <c r="X24" s="89"/>
+      <c r="Y24" s="89"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
@@ -23159,18 +23174,18 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
-      <c r="N25" s="90"/>
-      <c r="O25" s="90"/>
-      <c r="P25" s="90"/>
-      <c r="Q25" s="90"/>
-      <c r="R25" s="90"/>
-      <c r="S25" s="90"/>
-      <c r="T25" s="90"/>
-      <c r="U25" s="90"/>
-      <c r="V25" s="90"/>
-      <c r="W25" s="90"/>
-      <c r="X25" s="90"/>
-      <c r="Y25" s="90"/>
+      <c r="N25" s="89"/>
+      <c r="O25" s="89"/>
+      <c r="P25" s="89"/>
+      <c r="Q25" s="89"/>
+      <c r="R25" s="89"/>
+      <c r="S25" s="89"/>
+      <c r="T25" s="89"/>
+      <c r="U25" s="89"/>
+      <c r="V25" s="89"/>
+      <c r="W25" s="89"/>
+      <c r="X25" s="89"/>
+      <c r="Y25" s="89"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="20"/>
@@ -23186,20 +23201,20 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
-      <c r="N26" s="90"/>
-      <c r="O26" s="90"/>
-      <c r="P26" s="90"/>
-      <c r="Q26" s="90"/>
-      <c r="R26" s="90"/>
-      <c r="S26" s="90"/>
-      <c r="T26" s="90"/>
-      <c r="U26" s="90"/>
-      <c r="V26" s="90"/>
-      <c r="W26" s="90"/>
-      <c r="X26" s="90"/>
-      <c r="Y26" s="90"/>
+      <c r="N26" s="89"/>
+      <c r="O26" s="89"/>
+      <c r="P26" s="89"/>
+      <c r="Q26" s="89"/>
+      <c r="R26" s="89"/>
+      <c r="S26" s="89"/>
+      <c r="T26" s="89"/>
+      <c r="U26" s="89"/>
+      <c r="V26" s="89"/>
+      <c r="W26" s="89"/>
+      <c r="X26" s="89"/>
+      <c r="Y26" s="89"/>
     </row>
-    <row r="27" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
         <v>60</v>
       </c>
@@ -23215,18 +23230,18 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
-      <c r="N27" s="90"/>
-      <c r="O27" s="90"/>
-      <c r="P27" s="90"/>
-      <c r="Q27" s="90"/>
-      <c r="R27" s="90"/>
-      <c r="S27" s="90"/>
-      <c r="T27" s="90"/>
-      <c r="U27" s="90"/>
-      <c r="V27" s="90"/>
-      <c r="W27" s="90"/>
-      <c r="X27" s="90"/>
-      <c r="Y27" s="90"/>
+      <c r="N27" s="89"/>
+      <c r="O27" s="89"/>
+      <c r="P27" s="89"/>
+      <c r="Q27" s="89"/>
+      <c r="R27" s="89"/>
+      <c r="S27" s="89"/>
+      <c r="T27" s="89"/>
+      <c r="U27" s="89"/>
+      <c r="V27" s="89"/>
+      <c r="W27" s="89"/>
+      <c r="X27" s="89"/>
+      <c r="Y27" s="89"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="20"/>
@@ -23242,20 +23257,20 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
-      <c r="N28" s="90"/>
-      <c r="O28" s="90"/>
-      <c r="P28" s="90"/>
-      <c r="Q28" s="90"/>
-      <c r="R28" s="90"/>
-      <c r="S28" s="90"/>
-      <c r="T28" s="90"/>
-      <c r="U28" s="90"/>
-      <c r="V28" s="90"/>
-      <c r="W28" s="90"/>
-      <c r="X28" s="90"/>
-      <c r="Y28" s="90"/>
+      <c r="N28" s="89"/>
+      <c r="O28" s="89"/>
+      <c r="P28" s="89"/>
+      <c r="Q28" s="89"/>
+      <c r="R28" s="89"/>
+      <c r="S28" s="89"/>
+      <c r="T28" s="89"/>
+      <c r="U28" s="89"/>
+      <c r="V28" s="89"/>
+      <c r="W28" s="89"/>
+      <c r="X28" s="89"/>
+      <c r="Y28" s="89"/>
     </row>
-    <row r="29" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="48" t="s">
         <v>59</v>
       </c>
@@ -23271,18 +23286,18 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
-      <c r="N29" s="90"/>
-      <c r="O29" s="90"/>
-      <c r="P29" s="90"/>
-      <c r="Q29" s="90"/>
-      <c r="R29" s="90"/>
-      <c r="S29" s="90"/>
-      <c r="T29" s="90"/>
-      <c r="U29" s="90"/>
-      <c r="V29" s="90"/>
-      <c r="W29" s="90"/>
-      <c r="X29" s="90"/>
-      <c r="Y29" s="90"/>
+      <c r="N29" s="89"/>
+      <c r="O29" s="89"/>
+      <c r="P29" s="89"/>
+      <c r="Q29" s="89"/>
+      <c r="R29" s="89"/>
+      <c r="S29" s="89"/>
+      <c r="T29" s="89"/>
+      <c r="U29" s="89"/>
+      <c r="V29" s="89"/>
+      <c r="W29" s="89"/>
+      <c r="X29" s="89"/>
+      <c r="Y29" s="89"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="48"/>
@@ -23298,18 +23313,18 @@
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
-      <c r="N30" s="90"/>
-      <c r="O30" s="90"/>
-      <c r="P30" s="90"/>
-      <c r="Q30" s="90"/>
-      <c r="R30" s="90"/>
-      <c r="S30" s="90"/>
-      <c r="T30" s="90"/>
-      <c r="U30" s="90"/>
-      <c r="V30" s="90"/>
-      <c r="W30" s="90"/>
-      <c r="X30" s="90"/>
-      <c r="Y30" s="90"/>
+      <c r="N30" s="89"/>
+      <c r="O30" s="89"/>
+      <c r="P30" s="89"/>
+      <c r="Q30" s="89"/>
+      <c r="R30" s="89"/>
+      <c r="S30" s="89"/>
+      <c r="T30" s="89"/>
+      <c r="U30" s="89"/>
+      <c r="V30" s="89"/>
+      <c r="W30" s="89"/>
+      <c r="X30" s="89"/>
+      <c r="Y30" s="89"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="20"/>
@@ -23325,20 +23340,20 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
-      <c r="N31" s="90"/>
-      <c r="O31" s="90"/>
-      <c r="P31" s="90"/>
-      <c r="Q31" s="90"/>
-      <c r="R31" s="90"/>
-      <c r="S31" s="90"/>
-      <c r="T31" s="90"/>
-      <c r="U31" s="90"/>
-      <c r="V31" s="90"/>
-      <c r="W31" s="90"/>
-      <c r="X31" s="90"/>
-      <c r="Y31" s="90"/>
+      <c r="N31" s="89"/>
+      <c r="O31" s="89"/>
+      <c r="P31" s="89"/>
+      <c r="Q31" s="89"/>
+      <c r="R31" s="89"/>
+      <c r="S31" s="89"/>
+      <c r="T31" s="89"/>
+      <c r="U31" s="89"/>
+      <c r="V31" s="89"/>
+      <c r="W31" s="89"/>
+      <c r="X31" s="89"/>
+      <c r="Y31" s="89"/>
     </row>
-    <row r="32" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="49" t="s">
         <v>58</v>
       </c>
@@ -23354,21 +23369,21 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
-      <c r="N32" s="90"/>
-      <c r="O32" s="90"/>
-      <c r="P32" s="90"/>
-      <c r="Q32" s="90"/>
-      <c r="R32" s="90"/>
-      <c r="S32" s="90"/>
-      <c r="T32" s="90"/>
-      <c r="U32" s="90"/>
-      <c r="V32" s="90"/>
-      <c r="W32" s="90"/>
-      <c r="X32" s="90"/>
-      <c r="Y32" s="90"/>
+      <c r="N32" s="89"/>
+      <c r="O32" s="89"/>
+      <c r="P32" s="89"/>
+      <c r="Q32" s="89"/>
+      <c r="R32" s="89"/>
+      <c r="S32" s="89"/>
+      <c r="T32" s="89"/>
+      <c r="U32" s="89"/>
+      <c r="V32" s="89"/>
+      <c r="W32" s="89"/>
+      <c r="X32" s="89"/>
+      <c r="Y32" s="89"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A33" s="107"/>
+      <c r="A33" s="113"/>
       <c r="B33" s="45"/>
       <c r="C33" s="45"/>
       <c r="D33" s="45"/>
@@ -23381,21 +23396,21 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
-      <c r="N33" s="90"/>
-      <c r="O33" s="90"/>
-      <c r="P33" s="90"/>
-      <c r="Q33" s="90"/>
-      <c r="R33" s="90"/>
-      <c r="S33" s="90"/>
-      <c r="T33" s="90"/>
-      <c r="U33" s="90"/>
-      <c r="V33" s="90"/>
-      <c r="W33" s="90"/>
-      <c r="X33" s="90"/>
-      <c r="Y33" s="90"/>
+      <c r="N33" s="89"/>
+      <c r="O33" s="89"/>
+      <c r="P33" s="89"/>
+      <c r="Q33" s="89"/>
+      <c r="R33" s="89"/>
+      <c r="S33" s="89"/>
+      <c r="T33" s="89"/>
+      <c r="U33" s="89"/>
+      <c r="V33" s="89"/>
+      <c r="W33" s="89"/>
+      <c r="X33" s="89"/>
+      <c r="Y33" s="89"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A34" s="108"/>
+      <c r="A34" s="114"/>
       <c r="B34" s="45"/>
       <c r="C34" s="45"/>
       <c r="D34" s="45"/>
@@ -23408,18 +23423,18 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
-      <c r="N34" s="90"/>
-      <c r="O34" s="90"/>
-      <c r="P34" s="90"/>
-      <c r="Q34" s="90"/>
-      <c r="R34" s="90"/>
-      <c r="S34" s="90"/>
-      <c r="T34" s="90"/>
-      <c r="U34" s="90"/>
-      <c r="V34" s="90"/>
-      <c r="W34" s="90"/>
-      <c r="X34" s="90"/>
-      <c r="Y34" s="90"/>
+      <c r="N34" s="89"/>
+      <c r="O34" s="89"/>
+      <c r="P34" s="89"/>
+      <c r="Q34" s="89"/>
+      <c r="R34" s="89"/>
+      <c r="S34" s="89"/>
+      <c r="T34" s="89"/>
+      <c r="U34" s="89"/>
+      <c r="V34" s="89"/>
+      <c r="W34" s="89"/>
+      <c r="X34" s="89"/>
+      <c r="Y34" s="89"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="51" t="s">
@@ -23536,20 +23551,20 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
-      <c r="N36" s="90"/>
-      <c r="O36" s="90"/>
-      <c r="P36" s="90"/>
-      <c r="Q36" s="90"/>
-      <c r="R36" s="90"/>
-      <c r="S36" s="90"/>
-      <c r="T36" s="90"/>
-      <c r="U36" s="90"/>
-      <c r="V36" s="90"/>
-      <c r="W36" s="90"/>
-      <c r="X36" s="90"/>
-      <c r="Y36" s="90"/>
+      <c r="N36" s="89"/>
+      <c r="O36" s="89"/>
+      <c r="P36" s="89"/>
+      <c r="Q36" s="89"/>
+      <c r="R36" s="89"/>
+      <c r="S36" s="89"/>
+      <c r="T36" s="89"/>
+      <c r="U36" s="89"/>
+      <c r="V36" s="89"/>
+      <c r="W36" s="89"/>
+      <c r="X36" s="89"/>
+      <c r="Y36" s="89"/>
     </row>
-    <row r="37" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="52" t="s">
         <v>56</v>
       </c>
@@ -23664,18 +23679,18 @@
       <c r="K38" s="43"/>
       <c r="L38" s="43"/>
       <c r="M38" s="43"/>
-      <c r="N38" s="90"/>
-      <c r="O38" s="90"/>
-      <c r="P38" s="90"/>
-      <c r="Q38" s="90"/>
-      <c r="R38" s="90"/>
-      <c r="S38" s="90"/>
-      <c r="T38" s="90"/>
-      <c r="U38" s="90"/>
-      <c r="V38" s="90"/>
-      <c r="W38" s="90"/>
-      <c r="X38" s="90"/>
-      <c r="Y38" s="90"/>
+      <c r="N38" s="89"/>
+      <c r="O38" s="89"/>
+      <c r="P38" s="89"/>
+      <c r="Q38" s="89"/>
+      <c r="R38" s="89"/>
+      <c r="S38" s="89"/>
+      <c r="T38" s="89"/>
+      <c r="U38" s="89"/>
+      <c r="V38" s="89"/>
+      <c r="W38" s="89"/>
+      <c r="X38" s="89"/>
+      <c r="Y38" s="89"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="55" t="s">
@@ -23693,18 +23708,18 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
-      <c r="N39" s="90"/>
-      <c r="O39" s="90"/>
-      <c r="P39" s="90"/>
-      <c r="Q39" s="90"/>
-      <c r="R39" s="90"/>
-      <c r="S39" s="90"/>
-      <c r="T39" s="90"/>
-      <c r="U39" s="90"/>
-      <c r="V39" s="90"/>
-      <c r="W39" s="90"/>
-      <c r="X39" s="90"/>
-      <c r="Y39" s="90"/>
+      <c r="N39" s="89"/>
+      <c r="O39" s="89"/>
+      <c r="P39" s="89"/>
+      <c r="Q39" s="89"/>
+      <c r="R39" s="89"/>
+      <c r="S39" s="89"/>
+      <c r="T39" s="89"/>
+      <c r="U39" s="89"/>
+      <c r="V39" s="89"/>
+      <c r="W39" s="89"/>
+      <c r="X39" s="89"/>
+      <c r="Y39" s="89"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="20"/>
@@ -23720,18 +23735,18 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
-      <c r="N40" s="90"/>
-      <c r="O40" s="90"/>
-      <c r="P40" s="90"/>
-      <c r="Q40" s="90"/>
-      <c r="R40" s="90"/>
-      <c r="S40" s="90"/>
-      <c r="T40" s="90"/>
-      <c r="U40" s="90"/>
-      <c r="V40" s="90"/>
-      <c r="W40" s="90"/>
-      <c r="X40" s="90"/>
-      <c r="Y40" s="90"/>
+      <c r="N40" s="89"/>
+      <c r="O40" s="89"/>
+      <c r="P40" s="89"/>
+      <c r="Q40" s="89"/>
+      <c r="R40" s="89"/>
+      <c r="S40" s="89"/>
+      <c r="T40" s="89"/>
+      <c r="U40" s="89"/>
+      <c r="V40" s="89"/>
+      <c r="W40" s="89"/>
+      <c r="X40" s="89"/>
+      <c r="Y40" s="89"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
@@ -23749,18 +23764,18 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
-      <c r="N41" s="90"/>
-      <c r="O41" s="90"/>
-      <c r="P41" s="90"/>
-      <c r="Q41" s="90"/>
-      <c r="R41" s="90"/>
-      <c r="S41" s="90"/>
-      <c r="T41" s="90"/>
-      <c r="U41" s="90"/>
-      <c r="V41" s="90"/>
-      <c r="W41" s="90"/>
-      <c r="X41" s="90"/>
-      <c r="Y41" s="90"/>
+      <c r="N41" s="89"/>
+      <c r="O41" s="89"/>
+      <c r="P41" s="89"/>
+      <c r="Q41" s="89"/>
+      <c r="R41" s="89"/>
+      <c r="S41" s="89"/>
+      <c r="T41" s="89"/>
+      <c r="U41" s="89"/>
+      <c r="V41" s="89"/>
+      <c r="W41" s="89"/>
+      <c r="X41" s="89"/>
+      <c r="Y41" s="89"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="20"/>
@@ -23776,18 +23791,18 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
-      <c r="N42" s="90"/>
-      <c r="O42" s="90"/>
-      <c r="P42" s="90"/>
-      <c r="Q42" s="90"/>
-      <c r="R42" s="90"/>
-      <c r="S42" s="90"/>
-      <c r="T42" s="90"/>
-      <c r="U42" s="90"/>
-      <c r="V42" s="90"/>
-      <c r="W42" s="90"/>
-      <c r="X42" s="90"/>
-      <c r="Y42" s="90"/>
+      <c r="N42" s="89"/>
+      <c r="O42" s="89"/>
+      <c r="P42" s="89"/>
+      <c r="Q42" s="89"/>
+      <c r="R42" s="89"/>
+      <c r="S42" s="89"/>
+      <c r="T42" s="89"/>
+      <c r="U42" s="89"/>
+      <c r="V42" s="89"/>
+      <c r="W42" s="89"/>
+      <c r="X42" s="89"/>
+      <c r="Y42" s="89"/>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
@@ -23805,18 +23820,18 @@
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
-      <c r="N43" s="90"/>
-      <c r="O43" s="90"/>
-      <c r="P43" s="90"/>
-      <c r="Q43" s="90"/>
-      <c r="R43" s="90"/>
-      <c r="S43" s="90"/>
-      <c r="T43" s="90"/>
-      <c r="U43" s="90"/>
-      <c r="V43" s="90"/>
-      <c r="W43" s="90"/>
-      <c r="X43" s="90"/>
-      <c r="Y43" s="90"/>
+      <c r="N43" s="89"/>
+      <c r="O43" s="89"/>
+      <c r="P43" s="89"/>
+      <c r="Q43" s="89"/>
+      <c r="R43" s="89"/>
+      <c r="S43" s="89"/>
+      <c r="T43" s="89"/>
+      <c r="U43" s="89"/>
+      <c r="V43" s="89"/>
+      <c r="W43" s="89"/>
+      <c r="X43" s="89"/>
+      <c r="Y43" s="89"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="20"/>
@@ -23832,20 +23847,20 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
-      <c r="N44" s="90"/>
-      <c r="O44" s="90"/>
-      <c r="P44" s="90"/>
-      <c r="Q44" s="90"/>
-      <c r="R44" s="90"/>
-      <c r="S44" s="90"/>
-      <c r="T44" s="90"/>
-      <c r="U44" s="90"/>
-      <c r="V44" s="90"/>
-      <c r="W44" s="90"/>
-      <c r="X44" s="90"/>
-      <c r="Y44" s="90"/>
+      <c r="N44" s="89"/>
+      <c r="O44" s="89"/>
+      <c r="P44" s="89"/>
+      <c r="Q44" s="89"/>
+      <c r="R44" s="89"/>
+      <c r="S44" s="89"/>
+      <c r="T44" s="89"/>
+      <c r="U44" s="89"/>
+      <c r="V44" s="89"/>
+      <c r="W44" s="89"/>
+      <c r="X44" s="89"/>
+      <c r="Y44" s="89"/>
     </row>
-    <row r="45" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
         <v>53</v>
       </c>
@@ -23962,18 +23977,18 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
-      <c r="N46" s="90"/>
-      <c r="O46" s="90"/>
-      <c r="P46" s="90"/>
-      <c r="Q46" s="90"/>
-      <c r="R46" s="90"/>
-      <c r="S46" s="90"/>
-      <c r="T46" s="90"/>
-      <c r="U46" s="90"/>
-      <c r="V46" s="90"/>
-      <c r="W46" s="90"/>
-      <c r="X46" s="90"/>
-      <c r="Y46" s="90"/>
+      <c r="N46" s="89"/>
+      <c r="O46" s="89"/>
+      <c r="P46" s="89"/>
+      <c r="Q46" s="89"/>
+      <c r="R46" s="89"/>
+      <c r="S46" s="89"/>
+      <c r="T46" s="89"/>
+      <c r="U46" s="89"/>
+      <c r="V46" s="89"/>
+      <c r="W46" s="89"/>
+      <c r="X46" s="89"/>
+      <c r="Y46" s="89"/>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="56" t="s">
@@ -23991,18 +24006,18 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
-      <c r="N47" s="90"/>
-      <c r="O47" s="90"/>
-      <c r="P47" s="90"/>
-      <c r="Q47" s="90"/>
-      <c r="R47" s="90"/>
-      <c r="S47" s="90"/>
-      <c r="T47" s="90"/>
-      <c r="U47" s="90"/>
-      <c r="V47" s="90"/>
-      <c r="W47" s="90"/>
-      <c r="X47" s="90"/>
-      <c r="Y47" s="90"/>
+      <c r="N47" s="89"/>
+      <c r="O47" s="89"/>
+      <c r="P47" s="89"/>
+      <c r="Q47" s="89"/>
+      <c r="R47" s="89"/>
+      <c r="S47" s="89"/>
+      <c r="T47" s="89"/>
+      <c r="U47" s="89"/>
+      <c r="V47" s="89"/>
+      <c r="W47" s="89"/>
+      <c r="X47" s="89"/>
+      <c r="Y47" s="89"/>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="20"/>
@@ -24018,18 +24033,18 @@
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
-      <c r="N48" s="90"/>
-      <c r="O48" s="90"/>
-      <c r="P48" s="90"/>
-      <c r="Q48" s="90"/>
-      <c r="R48" s="90"/>
-      <c r="S48" s="90"/>
-      <c r="T48" s="90"/>
-      <c r="U48" s="90"/>
-      <c r="V48" s="90"/>
-      <c r="W48" s="90"/>
-      <c r="X48" s="90"/>
-      <c r="Y48" s="90"/>
+      <c r="N48" s="89"/>
+      <c r="O48" s="89"/>
+      <c r="P48" s="89"/>
+      <c r="Q48" s="89"/>
+      <c r="R48" s="89"/>
+      <c r="S48" s="89"/>
+      <c r="T48" s="89"/>
+      <c r="U48" s="89"/>
+      <c r="V48" s="89"/>
+      <c r="W48" s="89"/>
+      <c r="X48" s="89"/>
+      <c r="Y48" s="89"/>
     </row>
     <row r="49" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
@@ -24047,18 +24062,18 @@
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
-      <c r="N49" s="90"/>
-      <c r="O49" s="90"/>
-      <c r="P49" s="90"/>
-      <c r="Q49" s="90"/>
-      <c r="R49" s="90"/>
-      <c r="S49" s="90"/>
-      <c r="T49" s="90"/>
-      <c r="U49" s="90"/>
-      <c r="V49" s="90"/>
-      <c r="W49" s="90"/>
-      <c r="X49" s="90"/>
-      <c r="Y49" s="90"/>
+      <c r="N49" s="89"/>
+      <c r="O49" s="89"/>
+      <c r="P49" s="89"/>
+      <c r="Q49" s="89"/>
+      <c r="R49" s="89"/>
+      <c r="S49" s="89"/>
+      <c r="T49" s="89"/>
+      <c r="U49" s="89"/>
+      <c r="V49" s="89"/>
+      <c r="W49" s="89"/>
+      <c r="X49" s="89"/>
+      <c r="Y49" s="89"/>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
@@ -24076,18 +24091,18 @@
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
-      <c r="N50" s="90"/>
-      <c r="O50" s="90"/>
-      <c r="P50" s="90"/>
-      <c r="Q50" s="90"/>
-      <c r="R50" s="90"/>
-      <c r="S50" s="90"/>
-      <c r="T50" s="90"/>
-      <c r="U50" s="90"/>
-      <c r="V50" s="90"/>
-      <c r="W50" s="90"/>
-      <c r="X50" s="90"/>
-      <c r="Y50" s="90"/>
+      <c r="N50" s="89"/>
+      <c r="O50" s="89"/>
+      <c r="P50" s="89"/>
+      <c r="Q50" s="89"/>
+      <c r="R50" s="89"/>
+      <c r="S50" s="89"/>
+      <c r="T50" s="89"/>
+      <c r="U50" s="89"/>
+      <c r="V50" s="89"/>
+      <c r="W50" s="89"/>
+      <c r="X50" s="89"/>
+      <c r="Y50" s="89"/>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
@@ -24105,18 +24120,18 @@
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
-      <c r="N51" s="90"/>
-      <c r="O51" s="90"/>
-      <c r="P51" s="90"/>
-      <c r="Q51" s="90"/>
-      <c r="R51" s="90"/>
-      <c r="S51" s="90"/>
-      <c r="T51" s="90"/>
-      <c r="U51" s="90"/>
-      <c r="V51" s="90"/>
-      <c r="W51" s="90"/>
-      <c r="X51" s="90"/>
-      <c r="Y51" s="90"/>
+      <c r="N51" s="89"/>
+      <c r="O51" s="89"/>
+      <c r="P51" s="89"/>
+      <c r="Q51" s="89"/>
+      <c r="R51" s="89"/>
+      <c r="S51" s="89"/>
+      <c r="T51" s="89"/>
+      <c r="U51" s="89"/>
+      <c r="V51" s="89"/>
+      <c r="W51" s="89"/>
+      <c r="X51" s="89"/>
+      <c r="Y51" s="89"/>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="20"/>
@@ -24132,18 +24147,18 @@
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
-      <c r="N52" s="90"/>
-      <c r="O52" s="90"/>
-      <c r="P52" s="90"/>
-      <c r="Q52" s="90"/>
-      <c r="R52" s="90"/>
-      <c r="S52" s="90"/>
-      <c r="T52" s="90"/>
-      <c r="U52" s="90"/>
-      <c r="V52" s="90"/>
-      <c r="W52" s="90"/>
-      <c r="X52" s="90"/>
-      <c r="Y52" s="90"/>
+      <c r="N52" s="89"/>
+      <c r="O52" s="89"/>
+      <c r="P52" s="89"/>
+      <c r="Q52" s="89"/>
+      <c r="R52" s="89"/>
+      <c r="S52" s="89"/>
+      <c r="T52" s="89"/>
+      <c r="U52" s="89"/>
+      <c r="V52" s="89"/>
+      <c r="W52" s="89"/>
+      <c r="X52" s="89"/>
+      <c r="Y52" s="89"/>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">
@@ -24161,18 +24176,18 @@
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
-      <c r="N53" s="90"/>
-      <c r="O53" s="90"/>
-      <c r="P53" s="90"/>
-      <c r="Q53" s="90"/>
-      <c r="R53" s="90"/>
-      <c r="S53" s="90"/>
-      <c r="T53" s="90"/>
-      <c r="U53" s="90"/>
-      <c r="V53" s="90"/>
-      <c r="W53" s="90"/>
-      <c r="X53" s="90"/>
-      <c r="Y53" s="90"/>
+      <c r="N53" s="89"/>
+      <c r="O53" s="89"/>
+      <c r="P53" s="89"/>
+      <c r="Q53" s="89"/>
+      <c r="R53" s="89"/>
+      <c r="S53" s="89"/>
+      <c r="T53" s="89"/>
+      <c r="U53" s="89"/>
+      <c r="V53" s="89"/>
+      <c r="W53" s="89"/>
+      <c r="X53" s="89"/>
+      <c r="Y53" s="89"/>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="20"/>
@@ -24188,18 +24203,18 @@
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
-      <c r="N54" s="90"/>
-      <c r="O54" s="90"/>
-      <c r="P54" s="90"/>
-      <c r="Q54" s="90"/>
-      <c r="R54" s="90"/>
-      <c r="S54" s="90"/>
-      <c r="T54" s="90"/>
-      <c r="U54" s="90"/>
-      <c r="V54" s="90"/>
-      <c r="W54" s="90"/>
-      <c r="X54" s="90"/>
-      <c r="Y54" s="90"/>
+      <c r="N54" s="89"/>
+      <c r="O54" s="89"/>
+      <c r="P54" s="89"/>
+      <c r="Q54" s="89"/>
+      <c r="R54" s="89"/>
+      <c r="S54" s="89"/>
+      <c r="T54" s="89"/>
+      <c r="U54" s="89"/>
+      <c r="V54" s="89"/>
+      <c r="W54" s="89"/>
+      <c r="X54" s="89"/>
+      <c r="Y54" s="89"/>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="57" t="s">
@@ -24316,18 +24331,18 @@
       <c r="K56" s="12"/>
       <c r="L56" s="12"/>
       <c r="M56" s="12"/>
-      <c r="N56" s="90"/>
-      <c r="O56" s="90"/>
-      <c r="P56" s="90"/>
-      <c r="Q56" s="90"/>
-      <c r="R56" s="90"/>
-      <c r="S56" s="90"/>
-      <c r="T56" s="90"/>
-      <c r="U56" s="90"/>
-      <c r="V56" s="90"/>
-      <c r="W56" s="90"/>
-      <c r="X56" s="90"/>
-      <c r="Y56" s="90"/>
+      <c r="N56" s="89"/>
+      <c r="O56" s="89"/>
+      <c r="P56" s="89"/>
+      <c r="Q56" s="89"/>
+      <c r="R56" s="89"/>
+      <c r="S56" s="89"/>
+      <c r="T56" s="89"/>
+      <c r="U56" s="89"/>
+      <c r="V56" s="89"/>
+      <c r="W56" s="89"/>
+      <c r="X56" s="89"/>
+      <c r="Y56" s="89"/>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="57" t="s">
@@ -24446,18 +24461,18 @@
       <c r="K58" s="12"/>
       <c r="L58" s="12"/>
       <c r="M58" s="12"/>
-      <c r="N58" s="90"/>
-      <c r="O58" s="90"/>
-      <c r="P58" s="90"/>
-      <c r="Q58" s="90"/>
-      <c r="R58" s="90"/>
-      <c r="S58" s="90"/>
-      <c r="T58" s="90"/>
-      <c r="U58" s="90"/>
-      <c r="V58" s="90"/>
-      <c r="W58" s="90"/>
-      <c r="X58" s="90"/>
-      <c r="Y58" s="90"/>
+      <c r="N58" s="89"/>
+      <c r="O58" s="89"/>
+      <c r="P58" s="89"/>
+      <c r="Q58" s="89"/>
+      <c r="R58" s="89"/>
+      <c r="S58" s="89"/>
+      <c r="T58" s="89"/>
+      <c r="U58" s="89"/>
+      <c r="V58" s="89"/>
+      <c r="W58" s="89"/>
+      <c r="X58" s="89"/>
+      <c r="Y58" s="89"/>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="58" t="s">
@@ -24475,18 +24490,18 @@
       <c r="K59" s="12"/>
       <c r="L59" s="12"/>
       <c r="M59" s="12"/>
-      <c r="N59" s="90"/>
-      <c r="O59" s="90"/>
-      <c r="P59" s="90"/>
-      <c r="Q59" s="90"/>
-      <c r="R59" s="90"/>
-      <c r="S59" s="90"/>
-      <c r="T59" s="90"/>
-      <c r="U59" s="90"/>
-      <c r="V59" s="90"/>
-      <c r="W59" s="90"/>
-      <c r="X59" s="90"/>
-      <c r="Y59" s="90"/>
+      <c r="N59" s="89"/>
+      <c r="O59" s="89"/>
+      <c r="P59" s="89"/>
+      <c r="Q59" s="89"/>
+      <c r="R59" s="89"/>
+      <c r="S59" s="89"/>
+      <c r="T59" s="89"/>
+      <c r="U59" s="89"/>
+      <c r="V59" s="89"/>
+      <c r="W59" s="89"/>
+      <c r="X59" s="89"/>
+      <c r="Y59" s="89"/>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="58" t="s">
@@ -24504,18 +24519,18 @@
       <c r="K60" s="12"/>
       <c r="L60" s="12"/>
       <c r="M60" s="12"/>
-      <c r="N60" s="90"/>
-      <c r="O60" s="90"/>
-      <c r="P60" s="90"/>
-      <c r="Q60" s="90"/>
-      <c r="R60" s="90"/>
-      <c r="S60" s="90"/>
-      <c r="T60" s="90"/>
-      <c r="U60" s="90"/>
-      <c r="V60" s="90"/>
-      <c r="W60" s="90"/>
-      <c r="X60" s="90"/>
-      <c r="Y60" s="90"/>
+      <c r="N60" s="89"/>
+      <c r="O60" s="89"/>
+      <c r="P60" s="89"/>
+      <c r="Q60" s="89"/>
+      <c r="R60" s="89"/>
+      <c r="S60" s="89"/>
+      <c r="T60" s="89"/>
+      <c r="U60" s="89"/>
+      <c r="V60" s="89"/>
+      <c r="W60" s="89"/>
+      <c r="X60" s="89"/>
+      <c r="Y60" s="89"/>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="58" t="s">
@@ -24533,18 +24548,18 @@
       <c r="K61" s="12"/>
       <c r="L61" s="12"/>
       <c r="M61" s="12"/>
-      <c r="N61" s="90"/>
-      <c r="O61" s="90"/>
-      <c r="P61" s="90"/>
-      <c r="Q61" s="90"/>
-      <c r="R61" s="90"/>
-      <c r="S61" s="90"/>
-      <c r="T61" s="90"/>
-      <c r="U61" s="90"/>
-      <c r="V61" s="90"/>
-      <c r="W61" s="90"/>
-      <c r="X61" s="90"/>
-      <c r="Y61" s="90"/>
+      <c r="N61" s="89"/>
+      <c r="O61" s="89"/>
+      <c r="P61" s="89"/>
+      <c r="Q61" s="89"/>
+      <c r="R61" s="89"/>
+      <c r="S61" s="89"/>
+      <c r="T61" s="89"/>
+      <c r="U61" s="89"/>
+      <c r="V61" s="89"/>
+      <c r="W61" s="89"/>
+      <c r="X61" s="89"/>
+      <c r="Y61" s="89"/>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="20"/>
@@ -24560,20 +24575,20 @@
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
-      <c r="N62" s="90"/>
-      <c r="O62" s="90"/>
-      <c r="P62" s="90"/>
-      <c r="Q62" s="90"/>
-      <c r="R62" s="90"/>
-      <c r="S62" s="90"/>
-      <c r="T62" s="90"/>
-      <c r="U62" s="90"/>
-      <c r="V62" s="90"/>
-      <c r="W62" s="90"/>
-      <c r="X62" s="90"/>
-      <c r="Y62" s="90"/>
+      <c r="N62" s="89"/>
+      <c r="O62" s="89"/>
+      <c r="P62" s="89"/>
+      <c r="Q62" s="89"/>
+      <c r="R62" s="89"/>
+      <c r="S62" s="89"/>
+      <c r="T62" s="89"/>
+      <c r="U62" s="89"/>
+      <c r="V62" s="89"/>
+      <c r="W62" s="89"/>
+      <c r="X62" s="89"/>
+      <c r="Y62" s="89"/>
     </row>
-    <row r="63" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="59" t="s">
         <v>115</v>
       </c>
@@ -24688,18 +24703,18 @@
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
-      <c r="N64" s="90"/>
-      <c r="O64" s="90"/>
-      <c r="P64" s="90"/>
-      <c r="Q64" s="90"/>
-      <c r="R64" s="90"/>
-      <c r="S64" s="90"/>
-      <c r="T64" s="90"/>
-      <c r="U64" s="90"/>
-      <c r="V64" s="90"/>
-      <c r="W64" s="90"/>
-      <c r="X64" s="90"/>
-      <c r="Y64" s="90"/>
+      <c r="N64" s="89"/>
+      <c r="O64" s="89"/>
+      <c r="P64" s="89"/>
+      <c r="Q64" s="89"/>
+      <c r="R64" s="89"/>
+      <c r="S64" s="89"/>
+      <c r="T64" s="89"/>
+      <c r="U64" s="89"/>
+      <c r="V64" s="89"/>
+      <c r="W64" s="89"/>
+      <c r="X64" s="89"/>
+      <c r="Y64" s="89"/>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="44" t="s">
@@ -24717,18 +24732,18 @@
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
-      <c r="N65" s="90"/>
-      <c r="O65" s="90"/>
-      <c r="P65" s="90"/>
-      <c r="Q65" s="90"/>
-      <c r="R65" s="90"/>
-      <c r="S65" s="90"/>
-      <c r="T65" s="90"/>
-      <c r="U65" s="90"/>
-      <c r="V65" s="90"/>
-      <c r="W65" s="90"/>
-      <c r="X65" s="90"/>
-      <c r="Y65" s="90"/>
+      <c r="N65" s="89"/>
+      <c r="O65" s="89"/>
+      <c r="P65" s="89"/>
+      <c r="Q65" s="89"/>
+      <c r="R65" s="89"/>
+      <c r="S65" s="89"/>
+      <c r="T65" s="89"/>
+      <c r="U65" s="89"/>
+      <c r="V65" s="89"/>
+      <c r="W65" s="89"/>
+      <c r="X65" s="89"/>
+      <c r="Y65" s="89"/>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" s="20"/>
@@ -24744,18 +24759,18 @@
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
-      <c r="N66" s="90"/>
-      <c r="O66" s="90"/>
-      <c r="P66" s="90"/>
-      <c r="Q66" s="90"/>
-      <c r="R66" s="90"/>
-      <c r="S66" s="90"/>
-      <c r="T66" s="90"/>
-      <c r="U66" s="90"/>
-      <c r="V66" s="90"/>
-      <c r="W66" s="90"/>
-      <c r="X66" s="90"/>
-      <c r="Y66" s="90"/>
+      <c r="N66" s="89"/>
+      <c r="O66" s="89"/>
+      <c r="P66" s="89"/>
+      <c r="Q66" s="89"/>
+      <c r="R66" s="89"/>
+      <c r="S66" s="89"/>
+      <c r="T66" s="89"/>
+      <c r="U66" s="89"/>
+      <c r="V66" s="89"/>
+      <c r="W66" s="89"/>
+      <c r="X66" s="89"/>
+      <c r="Y66" s="89"/>
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" s="20" t="s">
@@ -24773,18 +24788,18 @@
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
-      <c r="N67" s="90"/>
-      <c r="O67" s="90"/>
-      <c r="P67" s="90"/>
-      <c r="Q67" s="90"/>
-      <c r="R67" s="90"/>
-      <c r="S67" s="90"/>
-      <c r="T67" s="90"/>
-      <c r="U67" s="90"/>
-      <c r="V67" s="90"/>
-      <c r="W67" s="90"/>
-      <c r="X67" s="90"/>
-      <c r="Y67" s="90"/>
+      <c r="N67" s="89"/>
+      <c r="O67" s="89"/>
+      <c r="P67" s="89"/>
+      <c r="Q67" s="89"/>
+      <c r="R67" s="89"/>
+      <c r="S67" s="89"/>
+      <c r="T67" s="89"/>
+      <c r="U67" s="89"/>
+      <c r="V67" s="89"/>
+      <c r="W67" s="89"/>
+      <c r="X67" s="89"/>
+      <c r="Y67" s="89"/>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" s="20"/>
@@ -24800,18 +24815,18 @@
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
-      <c r="N68" s="90"/>
-      <c r="O68" s="90"/>
-      <c r="P68" s="90"/>
-      <c r="Q68" s="90"/>
-      <c r="R68" s="90"/>
-      <c r="S68" s="90"/>
-      <c r="T68" s="90"/>
-      <c r="U68" s="90"/>
-      <c r="V68" s="90"/>
-      <c r="W68" s="90"/>
-      <c r="X68" s="90"/>
-      <c r="Y68" s="90"/>
+      <c r="N68" s="89"/>
+      <c r="O68" s="89"/>
+      <c r="P68" s="89"/>
+      <c r="Q68" s="89"/>
+      <c r="R68" s="89"/>
+      <c r="S68" s="89"/>
+      <c r="T68" s="89"/>
+      <c r="U68" s="89"/>
+      <c r="V68" s="89"/>
+      <c r="W68" s="89"/>
+      <c r="X68" s="89"/>
+      <c r="Y68" s="89"/>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" s="20" t="s">
@@ -24829,18 +24844,18 @@
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
       <c r="M69" s="2"/>
-      <c r="N69" s="90"/>
-      <c r="O69" s="90"/>
-      <c r="P69" s="90"/>
-      <c r="Q69" s="90"/>
-      <c r="R69" s="90"/>
-      <c r="S69" s="90"/>
-      <c r="T69" s="90"/>
-      <c r="U69" s="90"/>
-      <c r="V69" s="90"/>
-      <c r="W69" s="90"/>
-      <c r="X69" s="90"/>
-      <c r="Y69" s="90"/>
+      <c r="N69" s="89"/>
+      <c r="O69" s="89"/>
+      <c r="P69" s="89"/>
+      <c r="Q69" s="89"/>
+      <c r="R69" s="89"/>
+      <c r="S69" s="89"/>
+      <c r="T69" s="89"/>
+      <c r="U69" s="89"/>
+      <c r="V69" s="89"/>
+      <c r="W69" s="89"/>
+      <c r="X69" s="89"/>
+      <c r="Y69" s="89"/>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" s="20"/>
@@ -24856,18 +24871,18 @@
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
-      <c r="N70" s="90"/>
-      <c r="O70" s="90"/>
-      <c r="P70" s="90"/>
-      <c r="Q70" s="90"/>
-      <c r="R70" s="90"/>
-      <c r="S70" s="90"/>
-      <c r="T70" s="90"/>
-      <c r="U70" s="90"/>
-      <c r="V70" s="90"/>
-      <c r="W70" s="90"/>
-      <c r="X70" s="90"/>
-      <c r="Y70" s="90"/>
+      <c r="N70" s="89"/>
+      <c r="O70" s="89"/>
+      <c r="P70" s="89"/>
+      <c r="Q70" s="89"/>
+      <c r="R70" s="89"/>
+      <c r="S70" s="89"/>
+      <c r="T70" s="89"/>
+      <c r="U70" s="89"/>
+      <c r="V70" s="89"/>
+      <c r="W70" s="89"/>
+      <c r="X70" s="89"/>
+      <c r="Y70" s="89"/>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" s="20" t="s">
@@ -24885,18 +24900,18 @@
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
-      <c r="N71" s="90"/>
-      <c r="O71" s="90"/>
-      <c r="P71" s="90"/>
-      <c r="Q71" s="90"/>
-      <c r="R71" s="90"/>
-      <c r="S71" s="90"/>
-      <c r="T71" s="90"/>
-      <c r="U71" s="90"/>
-      <c r="V71" s="90"/>
-      <c r="W71" s="90"/>
-      <c r="X71" s="90"/>
-      <c r="Y71" s="90"/>
+      <c r="N71" s="89"/>
+      <c r="O71" s="89"/>
+      <c r="P71" s="89"/>
+      <c r="Q71" s="89"/>
+      <c r="R71" s="89"/>
+      <c r="S71" s="89"/>
+      <c r="T71" s="89"/>
+      <c r="U71" s="89"/>
+      <c r="V71" s="89"/>
+      <c r="W71" s="89"/>
+      <c r="X71" s="89"/>
+      <c r="Y71" s="89"/>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" s="20"/>
@@ -24912,18 +24927,18 @@
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
-      <c r="N72" s="90"/>
-      <c r="O72" s="90"/>
-      <c r="P72" s="90"/>
-      <c r="Q72" s="90"/>
-      <c r="R72" s="90"/>
-      <c r="S72" s="90"/>
-      <c r="T72" s="90"/>
-      <c r="U72" s="90"/>
-      <c r="V72" s="90"/>
-      <c r="W72" s="90"/>
-      <c r="X72" s="90"/>
-      <c r="Y72" s="90"/>
+      <c r="N72" s="89"/>
+      <c r="O72" s="89"/>
+      <c r="P72" s="89"/>
+      <c r="Q72" s="89"/>
+      <c r="R72" s="89"/>
+      <c r="S72" s="89"/>
+      <c r="T72" s="89"/>
+      <c r="U72" s="89"/>
+      <c r="V72" s="89"/>
+      <c r="W72" s="89"/>
+      <c r="X72" s="89"/>
+      <c r="Y72" s="89"/>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" s="20" t="s">
@@ -24941,18 +24956,18 @@
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
-      <c r="N73" s="90"/>
-      <c r="O73" s="90"/>
-      <c r="P73" s="90"/>
-      <c r="Q73" s="90"/>
-      <c r="R73" s="90"/>
-      <c r="S73" s="90"/>
-      <c r="T73" s="90"/>
-      <c r="U73" s="90"/>
-      <c r="V73" s="90"/>
-      <c r="W73" s="90"/>
-      <c r="X73" s="90"/>
-      <c r="Y73" s="90"/>
+      <c r="N73" s="89"/>
+      <c r="O73" s="89"/>
+      <c r="P73" s="89"/>
+      <c r="Q73" s="89"/>
+      <c r="R73" s="89"/>
+      <c r="S73" s="89"/>
+      <c r="T73" s="89"/>
+      <c r="U73" s="89"/>
+      <c r="V73" s="89"/>
+      <c r="W73" s="89"/>
+      <c r="X73" s="89"/>
+      <c r="Y73" s="89"/>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" s="20"/>
@@ -24968,18 +24983,18 @@
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
-      <c r="N74" s="90"/>
-      <c r="O74" s="90"/>
-      <c r="P74" s="90"/>
-      <c r="Q74" s="90"/>
-      <c r="R74" s="90"/>
-      <c r="S74" s="90"/>
-      <c r="T74" s="90"/>
-      <c r="U74" s="90"/>
-      <c r="V74" s="90"/>
-      <c r="W74" s="90"/>
-      <c r="X74" s="90"/>
-      <c r="Y74" s="90"/>
+      <c r="N74" s="89"/>
+      <c r="O74" s="89"/>
+      <c r="P74" s="89"/>
+      <c r="Q74" s="89"/>
+      <c r="R74" s="89"/>
+      <c r="S74" s="89"/>
+      <c r="T74" s="89"/>
+      <c r="U74" s="89"/>
+      <c r="V74" s="89"/>
+      <c r="W74" s="89"/>
+      <c r="X74" s="89"/>
+      <c r="Y74" s="89"/>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" s="20" t="s">
@@ -24997,18 +25012,18 @@
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
-      <c r="N75" s="90"/>
-      <c r="O75" s="90"/>
-      <c r="P75" s="90"/>
-      <c r="Q75" s="90"/>
-      <c r="R75" s="90"/>
-      <c r="S75" s="90"/>
-      <c r="T75" s="90"/>
-      <c r="U75" s="90"/>
-      <c r="V75" s="90"/>
-      <c r="W75" s="90"/>
-      <c r="X75" s="90"/>
-      <c r="Y75" s="90"/>
+      <c r="N75" s="89"/>
+      <c r="O75" s="89"/>
+      <c r="P75" s="89"/>
+      <c r="Q75" s="89"/>
+      <c r="R75" s="89"/>
+      <c r="S75" s="89"/>
+      <c r="T75" s="89"/>
+      <c r="U75" s="89"/>
+      <c r="V75" s="89"/>
+      <c r="W75" s="89"/>
+      <c r="X75" s="89"/>
+      <c r="Y75" s="89"/>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" s="20"/>
@@ -25024,18 +25039,18 @@
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
-      <c r="N76" s="90"/>
-      <c r="O76" s="90"/>
-      <c r="P76" s="90"/>
-      <c r="Q76" s="90"/>
-      <c r="R76" s="90"/>
-      <c r="S76" s="90"/>
-      <c r="T76" s="90"/>
-      <c r="U76" s="90"/>
-      <c r="V76" s="90"/>
-      <c r="W76" s="90"/>
-      <c r="X76" s="90"/>
-      <c r="Y76" s="90"/>
+      <c r="N76" s="89"/>
+      <c r="O76" s="89"/>
+      <c r="P76" s="89"/>
+      <c r="Q76" s="89"/>
+      <c r="R76" s="89"/>
+      <c r="S76" s="89"/>
+      <c r="T76" s="89"/>
+      <c r="U76" s="89"/>
+      <c r="V76" s="89"/>
+      <c r="W76" s="89"/>
+      <c r="X76" s="89"/>
+      <c r="Y76" s="89"/>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" s="20" t="s">
@@ -25053,18 +25068,18 @@
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
-      <c r="N77" s="90"/>
-      <c r="O77" s="90"/>
-      <c r="P77" s="90"/>
-      <c r="Q77" s="90"/>
-      <c r="R77" s="90"/>
-      <c r="S77" s="90"/>
-      <c r="T77" s="90"/>
-      <c r="U77" s="90"/>
-      <c r="V77" s="90"/>
-      <c r="W77" s="90"/>
-      <c r="X77" s="90"/>
-      <c r="Y77" s="90"/>
+      <c r="N77" s="89"/>
+      <c r="O77" s="89"/>
+      <c r="P77" s="89"/>
+      <c r="Q77" s="89"/>
+      <c r="R77" s="89"/>
+      <c r="S77" s="89"/>
+      <c r="T77" s="89"/>
+      <c r="U77" s="89"/>
+      <c r="V77" s="89"/>
+      <c r="W77" s="89"/>
+      <c r="X77" s="89"/>
+      <c r="Y77" s="89"/>
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" s="20"/>
@@ -25080,18 +25095,18 @@
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
-      <c r="N78" s="90"/>
-      <c r="O78" s="90"/>
-      <c r="P78" s="90"/>
-      <c r="Q78" s="90"/>
-      <c r="R78" s="90"/>
-      <c r="S78" s="90"/>
-      <c r="T78" s="90"/>
-      <c r="U78" s="90"/>
-      <c r="V78" s="90"/>
-      <c r="W78" s="90"/>
-      <c r="X78" s="90"/>
-      <c r="Y78" s="90"/>
+      <c r="N78" s="89"/>
+      <c r="O78" s="89"/>
+      <c r="P78" s="89"/>
+      <c r="Q78" s="89"/>
+      <c r="R78" s="89"/>
+      <c r="S78" s="89"/>
+      <c r="T78" s="89"/>
+      <c r="U78" s="89"/>
+      <c r="V78" s="89"/>
+      <c r="W78" s="89"/>
+      <c r="X78" s="89"/>
+      <c r="Y78" s="89"/>
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" s="22" t="s">
@@ -25109,18 +25124,18 @@
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
       <c r="M79" s="2"/>
-      <c r="N79" s="90"/>
-      <c r="O79" s="90"/>
-      <c r="P79" s="90"/>
-      <c r="Q79" s="90"/>
-      <c r="R79" s="90"/>
-      <c r="S79" s="90"/>
-      <c r="T79" s="90"/>
-      <c r="U79" s="90"/>
-      <c r="V79" s="90"/>
-      <c r="W79" s="90"/>
-      <c r="X79" s="90"/>
-      <c r="Y79" s="90"/>
+      <c r="N79" s="89"/>
+      <c r="O79" s="89"/>
+      <c r="P79" s="89"/>
+      <c r="Q79" s="89"/>
+      <c r="R79" s="89"/>
+      <c r="S79" s="89"/>
+      <c r="T79" s="89"/>
+      <c r="U79" s="89"/>
+      <c r="V79" s="89"/>
+      <c r="W79" s="89"/>
+      <c r="X79" s="89"/>
+      <c r="Y79" s="89"/>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" s="20"/>
@@ -25136,18 +25151,18 @@
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
-      <c r="N80" s="90"/>
-      <c r="O80" s="90"/>
-      <c r="P80" s="90"/>
-      <c r="Q80" s="90"/>
-      <c r="R80" s="90"/>
-      <c r="S80" s="90"/>
-      <c r="T80" s="90"/>
-      <c r="U80" s="90"/>
-      <c r="V80" s="90"/>
-      <c r="W80" s="90"/>
-      <c r="X80" s="90"/>
-      <c r="Y80" s="90"/>
+      <c r="N80" s="89"/>
+      <c r="O80" s="89"/>
+      <c r="P80" s="89"/>
+      <c r="Q80" s="89"/>
+      <c r="R80" s="89"/>
+      <c r="S80" s="89"/>
+      <c r="T80" s="89"/>
+      <c r="U80" s="89"/>
+      <c r="V80" s="89"/>
+      <c r="W80" s="89"/>
+      <c r="X80" s="89"/>
+      <c r="Y80" s="89"/>
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" s="20" t="s">
@@ -25165,18 +25180,18 @@
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
       <c r="M81" s="2"/>
-      <c r="N81" s="90"/>
-      <c r="O81" s="90"/>
-      <c r="P81" s="90"/>
-      <c r="Q81" s="90"/>
-      <c r="R81" s="90"/>
-      <c r="S81" s="90"/>
-      <c r="T81" s="90"/>
-      <c r="U81" s="90"/>
-      <c r="V81" s="90"/>
-      <c r="W81" s="90"/>
-      <c r="X81" s="90"/>
-      <c r="Y81" s="90"/>
+      <c r="N81" s="89"/>
+      <c r="O81" s="89"/>
+      <c r="P81" s="89"/>
+      <c r="Q81" s="89"/>
+      <c r="R81" s="89"/>
+      <c r="S81" s="89"/>
+      <c r="T81" s="89"/>
+      <c r="U81" s="89"/>
+      <c r="V81" s="89"/>
+      <c r="W81" s="89"/>
+      <c r="X81" s="89"/>
+      <c r="Y81" s="89"/>
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82" s="20"/>
@@ -25192,18 +25207,18 @@
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
       <c r="M82" s="2"/>
-      <c r="N82" s="90"/>
-      <c r="O82" s="90"/>
-      <c r="P82" s="90"/>
-      <c r="Q82" s="90"/>
-      <c r="R82" s="90"/>
-      <c r="S82" s="90"/>
-      <c r="T82" s="90"/>
-      <c r="U82" s="90"/>
-      <c r="V82" s="90"/>
-      <c r="W82" s="90"/>
-      <c r="X82" s="90"/>
-      <c r="Y82" s="90"/>
+      <c r="N82" s="89"/>
+      <c r="O82" s="89"/>
+      <c r="P82" s="89"/>
+      <c r="Q82" s="89"/>
+      <c r="R82" s="89"/>
+      <c r="S82" s="89"/>
+      <c r="T82" s="89"/>
+      <c r="U82" s="89"/>
+      <c r="V82" s="89"/>
+      <c r="W82" s="89"/>
+      <c r="X82" s="89"/>
+      <c r="Y82" s="89"/>
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" s="20" t="s">
@@ -25221,18 +25236,18 @@
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
-      <c r="N83" s="90"/>
-      <c r="O83" s="90"/>
-      <c r="P83" s="90"/>
-      <c r="Q83" s="90"/>
-      <c r="R83" s="90"/>
-      <c r="S83" s="90"/>
-      <c r="T83" s="90"/>
-      <c r="U83" s="90"/>
-      <c r="V83" s="90"/>
-      <c r="W83" s="90"/>
-      <c r="X83" s="90"/>
-      <c r="Y83" s="90"/>
+      <c r="N83" s="89"/>
+      <c r="O83" s="89"/>
+      <c r="P83" s="89"/>
+      <c r="Q83" s="89"/>
+      <c r="R83" s="89"/>
+      <c r="S83" s="89"/>
+      <c r="T83" s="89"/>
+      <c r="U83" s="89"/>
+      <c r="V83" s="89"/>
+      <c r="W83" s="89"/>
+      <c r="X83" s="89"/>
+      <c r="Y83" s="89"/>
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" s="20"/>
@@ -25248,18 +25263,18 @@
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
-      <c r="N84" s="90"/>
-      <c r="O84" s="90"/>
-      <c r="P84" s="90"/>
-      <c r="Q84" s="90"/>
-      <c r="R84" s="90"/>
-      <c r="S84" s="90"/>
-      <c r="T84" s="90"/>
-      <c r="U84" s="90"/>
-      <c r="V84" s="90"/>
-      <c r="W84" s="90"/>
-      <c r="X84" s="90"/>
-      <c r="Y84" s="90"/>
+      <c r="N84" s="89"/>
+      <c r="O84" s="89"/>
+      <c r="P84" s="89"/>
+      <c r="Q84" s="89"/>
+      <c r="R84" s="89"/>
+      <c r="S84" s="89"/>
+      <c r="T84" s="89"/>
+      <c r="U84" s="89"/>
+      <c r="V84" s="89"/>
+      <c r="W84" s="89"/>
+      <c r="X84" s="89"/>
+      <c r="Y84" s="89"/>
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85" s="20" t="s">
@@ -25363,7 +25378,9 @@
       </c>
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A86" s="20"/>
+      <c r="A86" s="103" t="s">
+        <v>170</v>
+      </c>
       <c r="B86" s="45"/>
       <c r="C86" s="45"/>
       <c r="D86" s="45"/>
@@ -25376,29 +25393,29 @@
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
       <c r="M86" s="2"/>
-      <c r="N86" s="90"/>
-      <c r="O86" s="90"/>
-      <c r="P86" s="90"/>
-      <c r="Q86" s="90"/>
-      <c r="R86" s="90"/>
-      <c r="S86" s="90"/>
-      <c r="T86" s="90"/>
-      <c r="U86" s="90"/>
-      <c r="V86" s="90"/>
-      <c r="W86" s="90"/>
-      <c r="X86" s="90"/>
-      <c r="Y86" s="90"/>
+      <c r="N86" s="89"/>
+      <c r="O86" s="89"/>
+      <c r="P86" s="89"/>
+      <c r="Q86" s="89"/>
+      <c r="R86" s="89"/>
+      <c r="S86" s="89"/>
+      <c r="T86" s="89"/>
+      <c r="U86" s="89"/>
+      <c r="V86" s="89"/>
+      <c r="W86" s="89"/>
+      <c r="X86" s="89"/>
+      <c r="Y86" s="89"/>
     </row>
     <row r="87" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="60" t="s">
         <v>125</v>
       </c>
       <c r="B87" s="61">
-        <f>SUM(ROUND(B63+B85,2))</f>
+        <f t="shared" ref="B87:Y87" si="8">SUM(ROUND(B63+B85+B86,2))</f>
         <v>0</v>
       </c>
       <c r="C87" s="61">
-        <f t="shared" ref="C87:Y87" si="8">SUM(ROUND(C63+C85,2))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D87" s="61">
@@ -25541,17 +25558,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD99"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="7" topLeftCell="B73" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B67" sqref="B67"/>
       <selection pane="topRight" activeCell="B67" sqref="B67"/>
       <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.140625" style="62" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="59" style="62" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="25" width="17.7109375" style="40" customWidth="1" collapsed="1"/>
     <col min="26" max="16382" width="9.140625" style="40" customWidth="1" collapsed="1"/>
     <col min="16383" max="16383" width="9.140625" style="40"/>
@@ -25559,13 +25576,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="119" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
       <c r="F1" s="36"/>
       <c r="G1" s="36"/>
       <c r="H1" s="36"/>
@@ -25586,13 +25603,13 @@
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="120" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
       <c r="F2" s="39"/>
       <c r="G2" s="39"/>
       <c r="H2" s="39"/>
@@ -25603,13 +25620,13 @@
       <c r="M2" s="39"/>
     </row>
     <row r="3" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="123" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
       <c r="F3" s="41"/>
       <c r="G3" s="41"/>
       <c r="H3" s="41"/>
@@ -25620,15 +25637,15 @@
       <c r="M3" s="41"/>
     </row>
     <row r="4" spans="1:25" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="121" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="132" t="s">
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="133" t="s">
+      <c r="E4" s="102" t="s">
         <v>40</v>
       </c>
       <c r="F4" s="42"/>
@@ -25653,10 +25670,10 @@
       <c r="Y4" s="42"/>
     </row>
     <row r="5" spans="1:25" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="126" t="s">
+      <c r="A5" s="132" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="85">
+      <c r="B5" s="84">
         <f>'Operating Stmt.'!B5</f>
         <v>2015</v>
       </c>
@@ -25748,165 +25765,165 @@
         <f>'Operating Stmt.'!X5</f>
         <v>2037</v>
       </c>
-      <c r="Y5" s="77">
+      <c r="Y5" s="76">
         <f>'Operating Stmt.'!Y5</f>
         <v>2038</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="127"/>
-      <c r="B6" s="118" t="str">
+      <c r="A6" s="133"/>
+      <c r="B6" s="124" t="str">
         <f>Liabilities!B6</f>
         <v>Audited</v>
       </c>
-      <c r="C6" s="111" t="str">
+      <c r="C6" s="117" t="str">
         <f>Liabilities!C6</f>
         <v>Audited</v>
       </c>
-      <c r="D6" s="111" t="str">
+      <c r="D6" s="117" t="str">
         <f>Liabilities!D6</f>
         <v>Audited</v>
       </c>
-      <c r="E6" s="111" t="str">
+      <c r="E6" s="117" t="str">
         <f>Liabilities!E6</f>
         <v>Estimated</v>
       </c>
-      <c r="F6" s="111" t="str">
+      <c r="F6" s="117" t="str">
         <f>Liabilities!F6</f>
         <v>Projected</v>
       </c>
-      <c r="G6" s="111" t="str">
+      <c r="G6" s="117" t="str">
         <f>Liabilities!G6</f>
         <v>Projected</v>
       </c>
-      <c r="H6" s="111" t="str">
+      <c r="H6" s="117" t="str">
         <f>Liabilities!H6</f>
         <v>Projected</v>
       </c>
-      <c r="I6" s="111" t="str">
+      <c r="I6" s="117" t="str">
         <f>Liabilities!I6</f>
         <v>Projected</v>
       </c>
-      <c r="J6" s="111" t="str">
+      <c r="J6" s="117" t="str">
         <f>Liabilities!J6</f>
         <v>Projected</v>
       </c>
-      <c r="K6" s="111" t="str">
+      <c r="K6" s="117" t="str">
         <f>Liabilities!K6</f>
         <v>Projected</v>
       </c>
-      <c r="L6" s="111" t="str">
+      <c r="L6" s="117" t="str">
         <f>Liabilities!L6</f>
         <v>Projected</v>
       </c>
-      <c r="M6" s="121" t="str">
+      <c r="M6" s="127" t="str">
         <f>Liabilities!M6</f>
         <v>Projected</v>
       </c>
-      <c r="N6" s="121" t="str">
+      <c r="N6" s="127" t="str">
         <f>Liabilities!N6</f>
         <v>Projected</v>
       </c>
-      <c r="O6" s="121" t="str">
+      <c r="O6" s="127" t="str">
         <f>Liabilities!O6</f>
         <v>Projected</v>
       </c>
-      <c r="P6" s="121" t="str">
+      <c r="P6" s="127" t="str">
         <f>Liabilities!P6</f>
         <v>Projected</v>
       </c>
-      <c r="Q6" s="121" t="str">
+      <c r="Q6" s="127" t="str">
         <f>Liabilities!Q6</f>
         <v>Projected</v>
       </c>
-      <c r="R6" s="121" t="str">
+      <c r="R6" s="127" t="str">
         <f>Liabilities!R6</f>
         <v>Projected</v>
       </c>
-      <c r="S6" s="121" t="str">
+      <c r="S6" s="127" t="str">
         <f>Liabilities!S6</f>
         <v>Projected</v>
       </c>
-      <c r="T6" s="121" t="str">
+      <c r="T6" s="127" t="str">
         <f>Liabilities!T6</f>
         <v>Projected</v>
       </c>
-      <c r="U6" s="121" t="str">
+      <c r="U6" s="127" t="str">
         <f>Liabilities!U6</f>
         <v>Projected</v>
       </c>
-      <c r="V6" s="121" t="str">
+      <c r="V6" s="127" t="str">
         <f>Liabilities!V6</f>
         <v>Projected</v>
       </c>
-      <c r="W6" s="121" t="str">
+      <c r="W6" s="127" t="str">
         <f>Liabilities!W6</f>
         <v>Projected</v>
       </c>
-      <c r="X6" s="121" t="str">
+      <c r="X6" s="127" t="str">
         <f>Liabilities!X6</f>
         <v>Projected</v>
       </c>
-      <c r="Y6" s="124" t="str">
+      <c r="Y6" s="130" t="str">
         <f>Liabilities!Y6</f>
         <v>Projected</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="127"/>
-      <c r="B7" s="119"/>
-      <c r="C7" s="120"/>
-      <c r="D7" s="120"/>
-      <c r="E7" s="120"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="120"/>
-      <c r="H7" s="120"/>
-      <c r="I7" s="120"/>
-      <c r="J7" s="120"/>
-      <c r="K7" s="120"/>
-      <c r="L7" s="120"/>
-      <c r="M7" s="123"/>
-      <c r="N7" s="123"/>
-      <c r="O7" s="123"/>
-      <c r="P7" s="123"/>
-      <c r="Q7" s="123"/>
-      <c r="R7" s="123"/>
-      <c r="S7" s="123"/>
-      <c r="T7" s="123"/>
-      <c r="U7" s="123"/>
-      <c r="V7" s="123"/>
-      <c r="W7" s="123"/>
-      <c r="X7" s="123"/>
-      <c r="Y7" s="125"/>
+      <c r="A7" s="133"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
+      <c r="H7" s="126"/>
+      <c r="I7" s="126"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="126"/>
+      <c r="L7" s="126"/>
+      <c r="M7" s="129"/>
+      <c r="N7" s="129"/>
+      <c r="O7" s="129"/>
+      <c r="P7" s="129"/>
+      <c r="Q7" s="129"/>
+      <c r="R7" s="129"/>
+      <c r="S7" s="129"/>
+      <c r="T7" s="129"/>
+      <c r="U7" s="129"/>
+      <c r="V7" s="129"/>
+      <c r="W7" s="129"/>
+      <c r="X7" s="129"/>
+      <c r="Y7" s="131"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="B8" s="94"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="96"/>
-      <c r="J8" s="96"/>
-      <c r="K8" s="96"/>
-      <c r="L8" s="96"/>
-      <c r="M8" s="97"/>
-      <c r="N8" s="93"/>
-      <c r="O8" s="93"/>
-      <c r="P8" s="93"/>
-      <c r="Q8" s="93"/>
-      <c r="R8" s="93"/>
-      <c r="S8" s="93"/>
-      <c r="T8" s="93"/>
-      <c r="U8" s="93"/>
-      <c r="V8" s="93"/>
-      <c r="W8" s="93"/>
-      <c r="X8" s="93"/>
-      <c r="Y8" s="93"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="96"/>
+      <c r="N8" s="92"/>
+      <c r="O8" s="92"/>
+      <c r="P8" s="92"/>
+      <c r="Q8" s="92"/>
+      <c r="R8" s="92"/>
+      <c r="S8" s="92"/>
+      <c r="T8" s="92"/>
+      <c r="U8" s="92"/>
+      <c r="V8" s="92"/>
+      <c r="W8" s="92"/>
+      <c r="X8" s="92"/>
+      <c r="Y8" s="92"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="65" t="s">
@@ -25924,18 +25941,18 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="90"/>
-      <c r="O9" s="90"/>
-      <c r="P9" s="90"/>
-      <c r="Q9" s="90"/>
-      <c r="R9" s="90"/>
-      <c r="S9" s="90"/>
-      <c r="T9" s="90"/>
-      <c r="U9" s="90"/>
-      <c r="V9" s="90"/>
-      <c r="W9" s="90"/>
-      <c r="X9" s="90"/>
-      <c r="Y9" s="90"/>
+      <c r="N9" s="89"/>
+      <c r="O9" s="89"/>
+      <c r="P9" s="89"/>
+      <c r="Q9" s="89"/>
+      <c r="R9" s="89"/>
+      <c r="S9" s="89"/>
+      <c r="T9" s="89"/>
+      <c r="U9" s="89"/>
+      <c r="V9" s="89"/>
+      <c r="W9" s="89"/>
+      <c r="X9" s="89"/>
+      <c r="Y9" s="89"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="65"/>
@@ -25951,20 +25968,20 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="90"/>
-      <c r="O10" s="90"/>
-      <c r="P10" s="90"/>
-      <c r="Q10" s="90"/>
-      <c r="R10" s="90"/>
-      <c r="S10" s="90"/>
-      <c r="T10" s="90"/>
-      <c r="U10" s="90"/>
-      <c r="V10" s="90"/>
-      <c r="W10" s="90"/>
-      <c r="X10" s="90"/>
-      <c r="Y10" s="90"/>
+      <c r="N10" s="89"/>
+      <c r="O10" s="89"/>
+      <c r="P10" s="89"/>
+      <c r="Q10" s="89"/>
+      <c r="R10" s="89"/>
+      <c r="S10" s="89"/>
+      <c r="T10" s="89"/>
+      <c r="U10" s="89"/>
+      <c r="V10" s="89"/>
+      <c r="W10" s="89"/>
+      <c r="X10" s="89"/>
+      <c r="Y10" s="89"/>
     </row>
-    <row r="11" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="67" t="s">
         <v>168</v>
       </c>
@@ -26081,18 +26098,18 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="90"/>
-      <c r="O12" s="90"/>
-      <c r="P12" s="90"/>
-      <c r="Q12" s="90"/>
-      <c r="R12" s="90"/>
-      <c r="S12" s="90"/>
-      <c r="T12" s="90"/>
-      <c r="U12" s="90"/>
-      <c r="V12" s="90"/>
-      <c r="W12" s="90"/>
-      <c r="X12" s="90"/>
-      <c r="Y12" s="90"/>
+      <c r="N12" s="89"/>
+      <c r="O12" s="89"/>
+      <c r="P12" s="89"/>
+      <c r="Q12" s="89"/>
+      <c r="R12" s="89"/>
+      <c r="S12" s="89"/>
+      <c r="T12" s="89"/>
+      <c r="U12" s="89"/>
+      <c r="V12" s="89"/>
+      <c r="W12" s="89"/>
+      <c r="X12" s="89"/>
+      <c r="Y12" s="89"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="65" t="s">
@@ -26110,18 +26127,18 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="90"/>
-      <c r="O13" s="90"/>
-      <c r="P13" s="90"/>
-      <c r="Q13" s="90"/>
-      <c r="R13" s="90"/>
-      <c r="S13" s="90"/>
-      <c r="T13" s="90"/>
-      <c r="U13" s="90"/>
-      <c r="V13" s="90"/>
-      <c r="W13" s="90"/>
-      <c r="X13" s="90"/>
-      <c r="Y13" s="90"/>
+      <c r="N13" s="89"/>
+      <c r="O13" s="89"/>
+      <c r="P13" s="89"/>
+      <c r="Q13" s="89"/>
+      <c r="R13" s="89"/>
+      <c r="S13" s="89"/>
+      <c r="T13" s="89"/>
+      <c r="U13" s="89"/>
+      <c r="V13" s="89"/>
+      <c r="W13" s="89"/>
+      <c r="X13" s="89"/>
+      <c r="Y13" s="89"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="65" t="s">
@@ -26139,18 +26156,18 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="90"/>
-      <c r="O14" s="90"/>
-      <c r="P14" s="90"/>
-      <c r="Q14" s="90"/>
-      <c r="R14" s="90"/>
-      <c r="S14" s="90"/>
-      <c r="T14" s="90"/>
-      <c r="U14" s="90"/>
-      <c r="V14" s="90"/>
-      <c r="W14" s="90"/>
-      <c r="X14" s="90"/>
-      <c r="Y14" s="90"/>
+      <c r="N14" s="89"/>
+      <c r="O14" s="89"/>
+      <c r="P14" s="89"/>
+      <c r="Q14" s="89"/>
+      <c r="R14" s="89"/>
+      <c r="S14" s="89"/>
+      <c r="T14" s="89"/>
+      <c r="U14" s="89"/>
+      <c r="V14" s="89"/>
+      <c r="W14" s="89"/>
+      <c r="X14" s="89"/>
+      <c r="Y14" s="89"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="65" t="s">
@@ -26168,20 +26185,20 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="90"/>
-      <c r="O15" s="90"/>
-      <c r="P15" s="90"/>
-      <c r="Q15" s="90"/>
-      <c r="R15" s="90"/>
-      <c r="S15" s="90"/>
-      <c r="T15" s="90"/>
-      <c r="U15" s="90"/>
-      <c r="V15" s="90"/>
-      <c r="W15" s="90"/>
-      <c r="X15" s="90"/>
-      <c r="Y15" s="90"/>
+      <c r="N15" s="89"/>
+      <c r="O15" s="89"/>
+      <c r="P15" s="89"/>
+      <c r="Q15" s="89"/>
+      <c r="R15" s="89"/>
+      <c r="S15" s="89"/>
+      <c r="T15" s="89"/>
+      <c r="U15" s="89"/>
+      <c r="V15" s="89"/>
+      <c r="W15" s="89"/>
+      <c r="X15" s="89"/>
+      <c r="Y15" s="89"/>
     </row>
-    <row r="16" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="67" t="s">
         <v>130</v>
       </c>
@@ -26197,18 +26214,18 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="90"/>
-      <c r="O16" s="90"/>
-      <c r="P16" s="90"/>
-      <c r="Q16" s="90"/>
-      <c r="R16" s="90"/>
-      <c r="S16" s="90"/>
-      <c r="T16" s="90"/>
-      <c r="U16" s="90"/>
-      <c r="V16" s="90"/>
-      <c r="W16" s="90"/>
-      <c r="X16" s="90"/>
-      <c r="Y16" s="90"/>
+      <c r="N16" s="89"/>
+      <c r="O16" s="89"/>
+      <c r="P16" s="89"/>
+      <c r="Q16" s="89"/>
+      <c r="R16" s="89"/>
+      <c r="S16" s="89"/>
+      <c r="T16" s="89"/>
+      <c r="U16" s="89"/>
+      <c r="V16" s="89"/>
+      <c r="W16" s="89"/>
+      <c r="X16" s="89"/>
+      <c r="Y16" s="89"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="65" t="s">
@@ -26226,18 +26243,18 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
-      <c r="N17" s="90"/>
-      <c r="O17" s="90"/>
-      <c r="P17" s="90"/>
-      <c r="Q17" s="90"/>
-      <c r="R17" s="90"/>
-      <c r="S17" s="90"/>
-      <c r="T17" s="90"/>
-      <c r="U17" s="90"/>
-      <c r="V17" s="90"/>
-      <c r="W17" s="90"/>
-      <c r="X17" s="90"/>
-      <c r="Y17" s="90"/>
+      <c r="N17" s="89"/>
+      <c r="O17" s="89"/>
+      <c r="P17" s="89"/>
+      <c r="Q17" s="89"/>
+      <c r="R17" s="89"/>
+      <c r="S17" s="89"/>
+      <c r="T17" s="89"/>
+      <c r="U17" s="89"/>
+      <c r="V17" s="89"/>
+      <c r="W17" s="89"/>
+      <c r="X17" s="89"/>
+      <c r="Y17" s="89"/>
     </row>
     <row r="18" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="67" t="s">
@@ -26255,18 +26272,18 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
-      <c r="N18" s="90"/>
-      <c r="O18" s="90"/>
-      <c r="P18" s="90"/>
-      <c r="Q18" s="90"/>
-      <c r="R18" s="90"/>
-      <c r="S18" s="90"/>
-      <c r="T18" s="90"/>
-      <c r="U18" s="90"/>
-      <c r="V18" s="90"/>
-      <c r="W18" s="90"/>
-      <c r="X18" s="90"/>
-      <c r="Y18" s="90"/>
+      <c r="N18" s="89"/>
+      <c r="O18" s="89"/>
+      <c r="P18" s="89"/>
+      <c r="Q18" s="89"/>
+      <c r="R18" s="89"/>
+      <c r="S18" s="89"/>
+      <c r="T18" s="89"/>
+      <c r="U18" s="89"/>
+      <c r="V18" s="89"/>
+      <c r="W18" s="89"/>
+      <c r="X18" s="89"/>
+      <c r="Y18" s="89"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="65" t="s">
@@ -26284,20 +26301,20 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="90"/>
-      <c r="O19" s="90"/>
-      <c r="P19" s="90"/>
-      <c r="Q19" s="90"/>
-      <c r="R19" s="90"/>
-      <c r="S19" s="90"/>
-      <c r="T19" s="90"/>
-      <c r="U19" s="90"/>
-      <c r="V19" s="90"/>
-      <c r="W19" s="90"/>
-      <c r="X19" s="90"/>
-      <c r="Y19" s="90"/>
+      <c r="N19" s="89"/>
+      <c r="O19" s="89"/>
+      <c r="P19" s="89"/>
+      <c r="Q19" s="89"/>
+      <c r="R19" s="89"/>
+      <c r="S19" s="89"/>
+      <c r="T19" s="89"/>
+      <c r="U19" s="89"/>
+      <c r="V19" s="89"/>
+      <c r="W19" s="89"/>
+      <c r="X19" s="89"/>
+      <c r="Y19" s="89"/>
     </row>
-    <row r="20" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="67" t="s">
         <v>131</v>
       </c>
@@ -26313,18 +26330,18 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
-      <c r="N20" s="90"/>
-      <c r="O20" s="90"/>
-      <c r="P20" s="90"/>
-      <c r="Q20" s="90"/>
-      <c r="R20" s="90"/>
-      <c r="S20" s="90"/>
-      <c r="T20" s="90"/>
-      <c r="U20" s="90"/>
-      <c r="V20" s="90"/>
-      <c r="W20" s="90"/>
-      <c r="X20" s="90"/>
-      <c r="Y20" s="90"/>
+      <c r="N20" s="89"/>
+      <c r="O20" s="89"/>
+      <c r="P20" s="89"/>
+      <c r="Q20" s="89"/>
+      <c r="R20" s="89"/>
+      <c r="S20" s="89"/>
+      <c r="T20" s="89"/>
+      <c r="U20" s="89"/>
+      <c r="V20" s="89"/>
+      <c r="W20" s="89"/>
+      <c r="X20" s="89"/>
+      <c r="Y20" s="89"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="65"/>
@@ -26340,18 +26357,18 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
-      <c r="N21" s="90"/>
-      <c r="O21" s="90"/>
-      <c r="P21" s="90"/>
-      <c r="Q21" s="90"/>
-      <c r="R21" s="90"/>
-      <c r="S21" s="90"/>
-      <c r="T21" s="90"/>
-      <c r="U21" s="90"/>
-      <c r="V21" s="90"/>
-      <c r="W21" s="90"/>
-      <c r="X21" s="90"/>
-      <c r="Y21" s="90"/>
+      <c r="N21" s="89"/>
+      <c r="O21" s="89"/>
+      <c r="P21" s="89"/>
+      <c r="Q21" s="89"/>
+      <c r="R21" s="89"/>
+      <c r="S21" s="89"/>
+      <c r="T21" s="89"/>
+      <c r="U21" s="89"/>
+      <c r="V21" s="89"/>
+      <c r="W21" s="89"/>
+      <c r="X21" s="89"/>
+      <c r="Y21" s="89"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="65" t="s">
@@ -26468,18 +26485,18 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
-      <c r="N23" s="90"/>
-      <c r="O23" s="90"/>
-      <c r="P23" s="90"/>
-      <c r="Q23" s="90"/>
-      <c r="R23" s="90"/>
-      <c r="S23" s="90"/>
-      <c r="T23" s="90"/>
-      <c r="U23" s="90"/>
-      <c r="V23" s="90"/>
-      <c r="W23" s="90"/>
-      <c r="X23" s="90"/>
-      <c r="Y23" s="90"/>
+      <c r="N23" s="89"/>
+      <c r="O23" s="89"/>
+      <c r="P23" s="89"/>
+      <c r="Q23" s="89"/>
+      <c r="R23" s="89"/>
+      <c r="S23" s="89"/>
+      <c r="T23" s="89"/>
+      <c r="U23" s="89"/>
+      <c r="V23" s="89"/>
+      <c r="W23" s="89"/>
+      <c r="X23" s="89"/>
+      <c r="Y23" s="89"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="65" t="s">
@@ -26598,18 +26615,18 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
-      <c r="N25" s="90"/>
-      <c r="O25" s="90"/>
-      <c r="P25" s="90"/>
-      <c r="Q25" s="90"/>
-      <c r="R25" s="90"/>
-      <c r="S25" s="90"/>
-      <c r="T25" s="90"/>
-      <c r="U25" s="90"/>
-      <c r="V25" s="90"/>
-      <c r="W25" s="90"/>
-      <c r="X25" s="90"/>
-      <c r="Y25" s="90"/>
+      <c r="N25" s="89"/>
+      <c r="O25" s="89"/>
+      <c r="P25" s="89"/>
+      <c r="Q25" s="89"/>
+      <c r="R25" s="89"/>
+      <c r="S25" s="89"/>
+      <c r="T25" s="89"/>
+      <c r="U25" s="89"/>
+      <c r="V25" s="89"/>
+      <c r="W25" s="89"/>
+      <c r="X25" s="89"/>
+      <c r="Y25" s="89"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="65" t="s">
@@ -26627,18 +26644,18 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
-      <c r="N26" s="90"/>
-      <c r="O26" s="90"/>
-      <c r="P26" s="90"/>
-      <c r="Q26" s="90"/>
-      <c r="R26" s="90"/>
-      <c r="S26" s="90"/>
-      <c r="T26" s="90"/>
-      <c r="U26" s="90"/>
-      <c r="V26" s="90"/>
-      <c r="W26" s="90"/>
-      <c r="X26" s="90"/>
-      <c r="Y26" s="90"/>
+      <c r="N26" s="89"/>
+      <c r="O26" s="89"/>
+      <c r="P26" s="89"/>
+      <c r="Q26" s="89"/>
+      <c r="R26" s="89"/>
+      <c r="S26" s="89"/>
+      <c r="T26" s="89"/>
+      <c r="U26" s="89"/>
+      <c r="V26" s="89"/>
+      <c r="W26" s="89"/>
+      <c r="X26" s="89"/>
+      <c r="Y26" s="89"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="65" t="s">
@@ -26656,18 +26673,18 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
-      <c r="N27" s="90"/>
-      <c r="O27" s="90"/>
-      <c r="P27" s="90"/>
-      <c r="Q27" s="90"/>
-      <c r="R27" s="90"/>
-      <c r="S27" s="90"/>
-      <c r="T27" s="90"/>
-      <c r="U27" s="90"/>
-      <c r="V27" s="90"/>
-      <c r="W27" s="90"/>
-      <c r="X27" s="90"/>
-      <c r="Y27" s="90"/>
+      <c r="N27" s="89"/>
+      <c r="O27" s="89"/>
+      <c r="P27" s="89"/>
+      <c r="Q27" s="89"/>
+      <c r="R27" s="89"/>
+      <c r="S27" s="89"/>
+      <c r="T27" s="89"/>
+      <c r="U27" s="89"/>
+      <c r="V27" s="89"/>
+      <c r="W27" s="89"/>
+      <c r="X27" s="89"/>
+      <c r="Y27" s="89"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="65"/>
@@ -26683,119 +26700,47 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
-      <c r="N28" s="90"/>
-      <c r="O28" s="90"/>
-      <c r="P28" s="90"/>
-      <c r="Q28" s="90"/>
-      <c r="R28" s="90"/>
-      <c r="S28" s="90"/>
-      <c r="T28" s="90"/>
-      <c r="U28" s="90"/>
-      <c r="V28" s="90"/>
-      <c r="W28" s="90"/>
-      <c r="X28" s="90"/>
-      <c r="Y28" s="90"/>
+      <c r="N28" s="89"/>
+      <c r="O28" s="89"/>
+      <c r="P28" s="89"/>
+      <c r="Q28" s="89"/>
+      <c r="R28" s="89"/>
+      <c r="S28" s="89"/>
+      <c r="T28" s="89"/>
+      <c r="U28" s="89"/>
+      <c r="V28" s="89"/>
+      <c r="W28" s="89"/>
+      <c r="X28" s="89"/>
+      <c r="Y28" s="89"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="B29" s="68">
-        <f>'Operating Stmt.'!B42</f>
-        <v>0</v>
-      </c>
-      <c r="C29" s="68">
-        <f>'Operating Stmt.'!C42</f>
-        <v>0</v>
-      </c>
-      <c r="D29" s="68">
-        <f>'Operating Stmt.'!D42</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="68">
-        <f>'Operating Stmt.'!E42</f>
-        <v>0</v>
-      </c>
-      <c r="F29" s="68">
-        <f>'Operating Stmt.'!F42</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="68">
-        <f>'Operating Stmt.'!G42</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="68">
-        <f>'Operating Stmt.'!H42</f>
-        <v>0</v>
-      </c>
-      <c r="I29" s="68">
-        <f>'Operating Stmt.'!I42</f>
-        <v>0</v>
-      </c>
-      <c r="J29" s="68">
-        <f>'Operating Stmt.'!J42</f>
-        <v>0</v>
-      </c>
-      <c r="K29" s="68">
-        <f>'Operating Stmt.'!K42</f>
-        <v>0</v>
-      </c>
-      <c r="L29" s="68">
-        <f>'Operating Stmt.'!L42</f>
-        <v>0</v>
-      </c>
-      <c r="M29" s="47">
-        <f>'Operating Stmt.'!M42</f>
-        <v>0</v>
-      </c>
-      <c r="N29" s="47">
-        <f>'Operating Stmt.'!N42</f>
-        <v>0</v>
-      </c>
-      <c r="O29" s="47">
-        <f>'Operating Stmt.'!O42</f>
-        <v>0</v>
-      </c>
-      <c r="P29" s="47">
-        <f>'Operating Stmt.'!P42</f>
-        <v>0</v>
-      </c>
-      <c r="Q29" s="47">
-        <f>'Operating Stmt.'!Q42</f>
-        <v>0</v>
-      </c>
-      <c r="R29" s="47">
-        <f>'Operating Stmt.'!R42</f>
-        <v>0</v>
-      </c>
-      <c r="S29" s="47">
-        <f>'Operating Stmt.'!S42</f>
-        <v>0</v>
-      </c>
-      <c r="T29" s="47">
-        <f>'Operating Stmt.'!T42</f>
-        <v>0</v>
-      </c>
-      <c r="U29" s="47">
-        <f>'Operating Stmt.'!U42</f>
-        <v>0</v>
-      </c>
-      <c r="V29" s="47">
-        <f>'Operating Stmt.'!V42</f>
-        <v>0</v>
-      </c>
-      <c r="W29" s="47">
-        <f>'Operating Stmt.'!W42</f>
-        <v>0</v>
-      </c>
-      <c r="X29" s="47">
-        <f>'Operating Stmt.'!X42</f>
-        <v>0</v>
-      </c>
-      <c r="Y29" s="47">
-        <f>'Operating Stmt.'!Y42</f>
-        <v>0</v>
-      </c>
+      <c r="B29" s="68"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="68"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="68"/>
+      <c r="L29" s="68"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="47"/>
+      <c r="Q29" s="47"/>
+      <c r="R29" s="47"/>
+      <c r="S29" s="47"/>
+      <c r="T29" s="47"/>
+      <c r="U29" s="47"/>
+      <c r="V29" s="47"/>
+      <c r="W29" s="47"/>
+      <c r="X29" s="47"/>
+      <c r="Y29" s="47"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="65"/>
@@ -26811,119 +26756,47 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
-      <c r="N30" s="90"/>
-      <c r="O30" s="90"/>
-      <c r="P30" s="90"/>
-      <c r="Q30" s="90"/>
-      <c r="R30" s="90"/>
-      <c r="S30" s="90"/>
-      <c r="T30" s="90"/>
-      <c r="U30" s="90"/>
-      <c r="V30" s="90"/>
-      <c r="W30" s="90"/>
-      <c r="X30" s="90"/>
-      <c r="Y30" s="90"/>
+      <c r="N30" s="89"/>
+      <c r="O30" s="89"/>
+      <c r="P30" s="89"/>
+      <c r="Q30" s="89"/>
+      <c r="R30" s="89"/>
+      <c r="S30" s="89"/>
+      <c r="T30" s="89"/>
+      <c r="U30" s="89"/>
+      <c r="V30" s="89"/>
+      <c r="W30" s="89"/>
+      <c r="X30" s="89"/>
+      <c r="Y30" s="89"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="B31" s="68">
-        <f>'Operating Stmt.'!B50</f>
-        <v>0</v>
-      </c>
-      <c r="C31" s="68">
-        <f>'Operating Stmt.'!C50</f>
-        <v>0</v>
-      </c>
-      <c r="D31" s="68">
-        <f>'Operating Stmt.'!D50</f>
-        <v>0</v>
-      </c>
-      <c r="E31" s="68">
-        <f>'Operating Stmt.'!E50</f>
-        <v>0</v>
-      </c>
-      <c r="F31" s="68">
-        <f>'Operating Stmt.'!F50</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="68">
-        <f>'Operating Stmt.'!G50</f>
-        <v>0</v>
-      </c>
-      <c r="H31" s="68">
-        <f>'Operating Stmt.'!H50</f>
-        <v>0</v>
-      </c>
-      <c r="I31" s="68">
-        <f>'Operating Stmt.'!I50</f>
-        <v>0</v>
-      </c>
-      <c r="J31" s="68">
-        <f>'Operating Stmt.'!J50</f>
-        <v>0</v>
-      </c>
-      <c r="K31" s="68">
-        <f>'Operating Stmt.'!K50</f>
-        <v>0</v>
-      </c>
-      <c r="L31" s="68">
-        <f>'Operating Stmt.'!L50</f>
-        <v>0</v>
-      </c>
-      <c r="M31" s="47">
-        <f>'Operating Stmt.'!M50</f>
-        <v>0</v>
-      </c>
-      <c r="N31" s="47">
-        <f>'Operating Stmt.'!N50</f>
-        <v>0</v>
-      </c>
-      <c r="O31" s="47">
-        <f>'Operating Stmt.'!O50</f>
-        <v>0</v>
-      </c>
-      <c r="P31" s="47">
-        <f>'Operating Stmt.'!P50</f>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="47">
-        <f>'Operating Stmt.'!Q50</f>
-        <v>0</v>
-      </c>
-      <c r="R31" s="47">
-        <f>'Operating Stmt.'!R50</f>
-        <v>0</v>
-      </c>
-      <c r="S31" s="47">
-        <f>'Operating Stmt.'!S50</f>
-        <v>0</v>
-      </c>
-      <c r="T31" s="47">
-        <f>'Operating Stmt.'!T50</f>
-        <v>0</v>
-      </c>
-      <c r="U31" s="47">
-        <f>'Operating Stmt.'!U50</f>
-        <v>0</v>
-      </c>
-      <c r="V31" s="47">
-        <f>'Operating Stmt.'!V50</f>
-        <v>0</v>
-      </c>
-      <c r="W31" s="47">
-        <f>'Operating Stmt.'!W50</f>
-        <v>0</v>
-      </c>
-      <c r="X31" s="47">
-        <f>'Operating Stmt.'!X50</f>
-        <v>0</v>
-      </c>
-      <c r="Y31" s="47">
-        <f>'Operating Stmt.'!Y50</f>
-        <v>0</v>
-      </c>
+      <c r="B31" s="68"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="68"/>
+      <c r="H31" s="68"/>
+      <c r="I31" s="68"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="68"/>
+      <c r="L31" s="68"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="47"/>
+      <c r="R31" s="47"/>
+      <c r="S31" s="47"/>
+      <c r="T31" s="47"/>
+      <c r="U31" s="47"/>
+      <c r="V31" s="47"/>
+      <c r="W31" s="47"/>
+      <c r="X31" s="47"/>
+      <c r="Y31" s="47"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="65"/>
@@ -26939,18 +26812,18 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
-      <c r="N32" s="90"/>
-      <c r="O32" s="90"/>
-      <c r="P32" s="90"/>
-      <c r="Q32" s="90"/>
-      <c r="R32" s="90"/>
-      <c r="S32" s="90"/>
-      <c r="T32" s="90"/>
-      <c r="U32" s="90"/>
-      <c r="V32" s="90"/>
-      <c r="W32" s="90"/>
-      <c r="X32" s="90"/>
-      <c r="Y32" s="90"/>
+      <c r="N32" s="89"/>
+      <c r="O32" s="89"/>
+      <c r="P32" s="89"/>
+      <c r="Q32" s="89"/>
+      <c r="R32" s="89"/>
+      <c r="S32" s="89"/>
+      <c r="T32" s="89"/>
+      <c r="U32" s="89"/>
+      <c r="V32" s="89"/>
+      <c r="W32" s="89"/>
+      <c r="X32" s="89"/>
+      <c r="Y32" s="89"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="65" t="s">
@@ -27069,18 +26942,18 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
-      <c r="N34" s="90"/>
-      <c r="O34" s="90"/>
-      <c r="P34" s="90"/>
-      <c r="Q34" s="90"/>
-      <c r="R34" s="90"/>
-      <c r="S34" s="90"/>
-      <c r="T34" s="90"/>
-      <c r="U34" s="90"/>
-      <c r="V34" s="90"/>
-      <c r="W34" s="90"/>
-      <c r="X34" s="90"/>
-      <c r="Y34" s="90"/>
+      <c r="N34" s="89"/>
+      <c r="O34" s="89"/>
+      <c r="P34" s="89"/>
+      <c r="Q34" s="89"/>
+      <c r="R34" s="89"/>
+      <c r="S34" s="89"/>
+      <c r="T34" s="89"/>
+      <c r="U34" s="89"/>
+      <c r="V34" s="89"/>
+      <c r="W34" s="89"/>
+      <c r="X34" s="89"/>
+      <c r="Y34" s="89"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="65" t="s">
@@ -27098,18 +26971,18 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
-      <c r="N35" s="90"/>
-      <c r="O35" s="90"/>
-      <c r="P35" s="90"/>
-      <c r="Q35" s="90"/>
-      <c r="R35" s="90"/>
-      <c r="S35" s="90"/>
-      <c r="T35" s="90"/>
-      <c r="U35" s="90"/>
-      <c r="V35" s="90"/>
-      <c r="W35" s="90"/>
-      <c r="X35" s="90"/>
-      <c r="Y35" s="90"/>
+      <c r="N35" s="89"/>
+      <c r="O35" s="89"/>
+      <c r="P35" s="89"/>
+      <c r="Q35" s="89"/>
+      <c r="R35" s="89"/>
+      <c r="S35" s="89"/>
+      <c r="T35" s="89"/>
+      <c r="U35" s="89"/>
+      <c r="V35" s="89"/>
+      <c r="W35" s="89"/>
+      <c r="X35" s="89"/>
+      <c r="Y35" s="89"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="65"/>
@@ -27125,20 +26998,20 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
-      <c r="N36" s="90"/>
-      <c r="O36" s="90"/>
-      <c r="P36" s="90"/>
-      <c r="Q36" s="90"/>
-      <c r="R36" s="90"/>
-      <c r="S36" s="90"/>
-      <c r="T36" s="90"/>
-      <c r="U36" s="90"/>
-      <c r="V36" s="90"/>
-      <c r="W36" s="90"/>
-      <c r="X36" s="90"/>
-      <c r="Y36" s="90"/>
+      <c r="N36" s="89"/>
+      <c r="O36" s="89"/>
+      <c r="P36" s="89"/>
+      <c r="Q36" s="89"/>
+      <c r="R36" s="89"/>
+      <c r="S36" s="89"/>
+      <c r="T36" s="89"/>
+      <c r="U36" s="89"/>
+      <c r="V36" s="89"/>
+      <c r="W36" s="89"/>
+      <c r="X36" s="89"/>
+      <c r="Y36" s="89"/>
     </row>
-    <row r="37" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="67" t="s">
         <v>133</v>
       </c>
@@ -27154,18 +27027,18 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
-      <c r="N37" s="90"/>
-      <c r="O37" s="90"/>
-      <c r="P37" s="90"/>
-      <c r="Q37" s="90"/>
-      <c r="R37" s="90"/>
-      <c r="S37" s="90"/>
-      <c r="T37" s="90"/>
-      <c r="U37" s="90"/>
-      <c r="V37" s="90"/>
-      <c r="W37" s="90"/>
-      <c r="X37" s="90"/>
-      <c r="Y37" s="90"/>
+      <c r="N37" s="89"/>
+      <c r="O37" s="89"/>
+      <c r="P37" s="89"/>
+      <c r="Q37" s="89"/>
+      <c r="R37" s="89"/>
+      <c r="S37" s="89"/>
+      <c r="T37" s="89"/>
+      <c r="U37" s="89"/>
+      <c r="V37" s="89"/>
+      <c r="W37" s="89"/>
+      <c r="X37" s="89"/>
+      <c r="Y37" s="89"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="65" t="s">
@@ -27183,18 +27056,18 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
-      <c r="N38" s="90"/>
-      <c r="O38" s="90"/>
-      <c r="P38" s="90"/>
-      <c r="Q38" s="90"/>
-      <c r="R38" s="90"/>
-      <c r="S38" s="90"/>
-      <c r="T38" s="90"/>
-      <c r="U38" s="90"/>
-      <c r="V38" s="90"/>
-      <c r="W38" s="90"/>
-      <c r="X38" s="90"/>
-      <c r="Y38" s="90"/>
+      <c r="N38" s="89"/>
+      <c r="O38" s="89"/>
+      <c r="P38" s="89"/>
+      <c r="Q38" s="89"/>
+      <c r="R38" s="89"/>
+      <c r="S38" s="89"/>
+      <c r="T38" s="89"/>
+      <c r="U38" s="89"/>
+      <c r="V38" s="89"/>
+      <c r="W38" s="89"/>
+      <c r="X38" s="89"/>
+      <c r="Y38" s="89"/>
     </row>
     <row r="39" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="65" t="s">
@@ -27212,18 +27085,18 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
-      <c r="N39" s="90"/>
-      <c r="O39" s="90"/>
-      <c r="P39" s="90"/>
-      <c r="Q39" s="90"/>
-      <c r="R39" s="90"/>
-      <c r="S39" s="90"/>
-      <c r="T39" s="90"/>
-      <c r="U39" s="90"/>
-      <c r="V39" s="90"/>
-      <c r="W39" s="90"/>
-      <c r="X39" s="90"/>
-      <c r="Y39" s="90"/>
+      <c r="N39" s="89"/>
+      <c r="O39" s="89"/>
+      <c r="P39" s="89"/>
+      <c r="Q39" s="89"/>
+      <c r="R39" s="89"/>
+      <c r="S39" s="89"/>
+      <c r="T39" s="89"/>
+      <c r="U39" s="89"/>
+      <c r="V39" s="89"/>
+      <c r="W39" s="89"/>
+      <c r="X39" s="89"/>
+      <c r="Y39" s="89"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="65"/>
@@ -27239,20 +27112,20 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
-      <c r="N40" s="90"/>
-      <c r="O40" s="90"/>
-      <c r="P40" s="90"/>
-      <c r="Q40" s="90"/>
-      <c r="R40" s="90"/>
-      <c r="S40" s="90"/>
-      <c r="T40" s="90"/>
-      <c r="U40" s="90"/>
-      <c r="V40" s="90"/>
-      <c r="W40" s="90"/>
-      <c r="X40" s="90"/>
-      <c r="Y40" s="90"/>
+      <c r="N40" s="89"/>
+      <c r="O40" s="89"/>
+      <c r="P40" s="89"/>
+      <c r="Q40" s="89"/>
+      <c r="R40" s="89"/>
+      <c r="S40" s="89"/>
+      <c r="T40" s="89"/>
+      <c r="U40" s="89"/>
+      <c r="V40" s="89"/>
+      <c r="W40" s="89"/>
+      <c r="X40" s="89"/>
+      <c r="Y40" s="89"/>
     </row>
-    <row r="41" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="67" t="s">
         <v>135</v>
       </c>
@@ -27268,18 +27141,18 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
-      <c r="N41" s="90"/>
-      <c r="O41" s="90"/>
-      <c r="P41" s="90"/>
-      <c r="Q41" s="90"/>
-      <c r="R41" s="90"/>
-      <c r="S41" s="90"/>
-      <c r="T41" s="90"/>
-      <c r="U41" s="90"/>
-      <c r="V41" s="90"/>
-      <c r="W41" s="90"/>
-      <c r="X41" s="90"/>
-      <c r="Y41" s="90"/>
+      <c r="N41" s="89"/>
+      <c r="O41" s="89"/>
+      <c r="P41" s="89"/>
+      <c r="Q41" s="89"/>
+      <c r="R41" s="89"/>
+      <c r="S41" s="89"/>
+      <c r="T41" s="89"/>
+      <c r="U41" s="89"/>
+      <c r="V41" s="89"/>
+      <c r="W41" s="89"/>
+      <c r="X41" s="89"/>
+      <c r="Y41" s="89"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="69"/>
@@ -27295,18 +27168,18 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
-      <c r="N42" s="90"/>
-      <c r="O42" s="90"/>
-      <c r="P42" s="90"/>
-      <c r="Q42" s="90"/>
-      <c r="R42" s="90"/>
-      <c r="S42" s="90"/>
-      <c r="T42" s="90"/>
-      <c r="U42" s="90"/>
-      <c r="V42" s="90"/>
-      <c r="W42" s="90"/>
-      <c r="X42" s="90"/>
-      <c r="Y42" s="90"/>
+      <c r="N42" s="89"/>
+      <c r="O42" s="89"/>
+      <c r="P42" s="89"/>
+      <c r="Q42" s="89"/>
+      <c r="R42" s="89"/>
+      <c r="S42" s="89"/>
+      <c r="T42" s="89"/>
+      <c r="U42" s="89"/>
+      <c r="V42" s="89"/>
+      <c r="W42" s="89"/>
+      <c r="X42" s="89"/>
+      <c r="Y42" s="89"/>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="65" t="s">
@@ -27423,20 +27296,20 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
-      <c r="N44" s="90"/>
-      <c r="O44" s="90"/>
-      <c r="P44" s="90"/>
-      <c r="Q44" s="90"/>
-      <c r="R44" s="90"/>
-      <c r="S44" s="90"/>
-      <c r="T44" s="90"/>
-      <c r="U44" s="90"/>
-      <c r="V44" s="90"/>
-      <c r="W44" s="90"/>
-      <c r="X44" s="90"/>
-      <c r="Y44" s="90"/>
+      <c r="N44" s="89"/>
+      <c r="O44" s="89"/>
+      <c r="P44" s="89"/>
+      <c r="Q44" s="89"/>
+      <c r="R44" s="89"/>
+      <c r="S44" s="89"/>
+      <c r="T44" s="89"/>
+      <c r="U44" s="89"/>
+      <c r="V44" s="89"/>
+      <c r="W44" s="89"/>
+      <c r="X44" s="89"/>
+      <c r="Y44" s="89"/>
     </row>
-    <row r="45" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="67" t="s">
         <v>137</v>
       </c>
@@ -27553,18 +27426,18 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
-      <c r="N46" s="90"/>
-      <c r="O46" s="90"/>
-      <c r="P46" s="90"/>
-      <c r="Q46" s="90"/>
-      <c r="R46" s="90"/>
-      <c r="S46" s="90"/>
-      <c r="T46" s="90"/>
-      <c r="U46" s="90"/>
-      <c r="V46" s="90"/>
-      <c r="W46" s="90"/>
-      <c r="X46" s="90"/>
-      <c r="Y46" s="90"/>
+      <c r="N46" s="89"/>
+      <c r="O46" s="89"/>
+      <c r="P46" s="89"/>
+      <c r="Q46" s="89"/>
+      <c r="R46" s="89"/>
+      <c r="S46" s="89"/>
+      <c r="T46" s="89"/>
+      <c r="U46" s="89"/>
+      <c r="V46" s="89"/>
+      <c r="W46" s="89"/>
+      <c r="X46" s="89"/>
+      <c r="Y46" s="89"/>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="70" t="s">
@@ -27582,18 +27455,18 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
-      <c r="N47" s="90"/>
-      <c r="O47" s="90"/>
-      <c r="P47" s="90"/>
-      <c r="Q47" s="90"/>
-      <c r="R47" s="90"/>
-      <c r="S47" s="90"/>
-      <c r="T47" s="90"/>
-      <c r="U47" s="90"/>
-      <c r="V47" s="90"/>
-      <c r="W47" s="90"/>
-      <c r="X47" s="90"/>
-      <c r="Y47" s="90"/>
+      <c r="N47" s="89"/>
+      <c r="O47" s="89"/>
+      <c r="P47" s="89"/>
+      <c r="Q47" s="89"/>
+      <c r="R47" s="89"/>
+      <c r="S47" s="89"/>
+      <c r="T47" s="89"/>
+      <c r="U47" s="89"/>
+      <c r="V47" s="89"/>
+      <c r="W47" s="89"/>
+      <c r="X47" s="89"/>
+      <c r="Y47" s="89"/>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="70"/>
@@ -27609,18 +27482,18 @@
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
-      <c r="N48" s="90"/>
-      <c r="O48" s="90"/>
-      <c r="P48" s="90"/>
-      <c r="Q48" s="90"/>
-      <c r="R48" s="90"/>
-      <c r="S48" s="90"/>
-      <c r="T48" s="90"/>
-      <c r="U48" s="90"/>
-      <c r="V48" s="90"/>
-      <c r="W48" s="90"/>
-      <c r="X48" s="90"/>
-      <c r="Y48" s="90"/>
+      <c r="N48" s="89"/>
+      <c r="O48" s="89"/>
+      <c r="P48" s="89"/>
+      <c r="Q48" s="89"/>
+      <c r="R48" s="89"/>
+      <c r="S48" s="89"/>
+      <c r="T48" s="89"/>
+      <c r="U48" s="89"/>
+      <c r="V48" s="89"/>
+      <c r="W48" s="89"/>
+      <c r="X48" s="89"/>
+      <c r="Y48" s="89"/>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="70"/>
@@ -27636,18 +27509,18 @@
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
-      <c r="N49" s="90"/>
-      <c r="O49" s="90"/>
-      <c r="P49" s="90"/>
-      <c r="Q49" s="90"/>
-      <c r="R49" s="90"/>
-      <c r="S49" s="90"/>
-      <c r="T49" s="90"/>
-      <c r="U49" s="90"/>
-      <c r="V49" s="90"/>
-      <c r="W49" s="90"/>
-      <c r="X49" s="90"/>
-      <c r="Y49" s="90"/>
+      <c r="N49" s="89"/>
+      <c r="O49" s="89"/>
+      <c r="P49" s="89"/>
+      <c r="Q49" s="89"/>
+      <c r="R49" s="89"/>
+      <c r="S49" s="89"/>
+      <c r="T49" s="89"/>
+      <c r="U49" s="89"/>
+      <c r="V49" s="89"/>
+      <c r="W49" s="89"/>
+      <c r="X49" s="89"/>
+      <c r="Y49" s="89"/>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="70"/>
@@ -27663,18 +27536,18 @@
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
-      <c r="N50" s="90"/>
-      <c r="O50" s="90"/>
-      <c r="P50" s="90"/>
-      <c r="Q50" s="90"/>
-      <c r="R50" s="90"/>
-      <c r="S50" s="90"/>
-      <c r="T50" s="90"/>
-      <c r="U50" s="90"/>
-      <c r="V50" s="90"/>
-      <c r="W50" s="90"/>
-      <c r="X50" s="90"/>
-      <c r="Y50" s="90"/>
+      <c r="N50" s="89"/>
+      <c r="O50" s="89"/>
+      <c r="P50" s="89"/>
+      <c r="Q50" s="89"/>
+      <c r="R50" s="89"/>
+      <c r="S50" s="89"/>
+      <c r="T50" s="89"/>
+      <c r="U50" s="89"/>
+      <c r="V50" s="89"/>
+      <c r="W50" s="89"/>
+      <c r="X50" s="89"/>
+      <c r="Y50" s="89"/>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="65" t="s">
@@ -27692,18 +27565,18 @@
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
-      <c r="N51" s="90"/>
-      <c r="O51" s="90"/>
-      <c r="P51" s="90"/>
-      <c r="Q51" s="90"/>
-      <c r="R51" s="90"/>
-      <c r="S51" s="90"/>
-      <c r="T51" s="90"/>
-      <c r="U51" s="90"/>
-      <c r="V51" s="90"/>
-      <c r="W51" s="90"/>
-      <c r="X51" s="90"/>
-      <c r="Y51" s="90"/>
+      <c r="N51" s="89"/>
+      <c r="O51" s="89"/>
+      <c r="P51" s="89"/>
+      <c r="Q51" s="89"/>
+      <c r="R51" s="89"/>
+      <c r="S51" s="89"/>
+      <c r="T51" s="89"/>
+      <c r="U51" s="89"/>
+      <c r="V51" s="89"/>
+      <c r="W51" s="89"/>
+      <c r="X51" s="89"/>
+      <c r="Y51" s="89"/>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="65" t="s">
@@ -27721,18 +27594,18 @@
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
-      <c r="N52" s="90"/>
-      <c r="O52" s="90"/>
-      <c r="P52" s="90"/>
-      <c r="Q52" s="90"/>
-      <c r="R52" s="90"/>
-      <c r="S52" s="90"/>
-      <c r="T52" s="90"/>
-      <c r="U52" s="90"/>
-      <c r="V52" s="90"/>
-      <c r="W52" s="90"/>
-      <c r="X52" s="90"/>
-      <c r="Y52" s="90"/>
+      <c r="N52" s="89"/>
+      <c r="O52" s="89"/>
+      <c r="P52" s="89"/>
+      <c r="Q52" s="89"/>
+      <c r="R52" s="89"/>
+      <c r="S52" s="89"/>
+      <c r="T52" s="89"/>
+      <c r="U52" s="89"/>
+      <c r="V52" s="89"/>
+      <c r="W52" s="89"/>
+      <c r="X52" s="89"/>
+      <c r="Y52" s="89"/>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="65"/>
@@ -27748,18 +27621,18 @@
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
-      <c r="N53" s="90"/>
-      <c r="O53" s="90"/>
-      <c r="P53" s="90"/>
-      <c r="Q53" s="90"/>
-      <c r="R53" s="90"/>
-      <c r="S53" s="90"/>
-      <c r="T53" s="90"/>
-      <c r="U53" s="90"/>
-      <c r="V53" s="90"/>
-      <c r="W53" s="90"/>
-      <c r="X53" s="90"/>
-      <c r="Y53" s="90"/>
+      <c r="N53" s="89"/>
+      <c r="O53" s="89"/>
+      <c r="P53" s="89"/>
+      <c r="Q53" s="89"/>
+      <c r="R53" s="89"/>
+      <c r="S53" s="89"/>
+      <c r="T53" s="89"/>
+      <c r="U53" s="89"/>
+      <c r="V53" s="89"/>
+      <c r="W53" s="89"/>
+      <c r="X53" s="89"/>
+      <c r="Y53" s="89"/>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="65" t="s">
@@ -27777,18 +27650,18 @@
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
-      <c r="N54" s="90"/>
-      <c r="O54" s="90"/>
-      <c r="P54" s="90"/>
-      <c r="Q54" s="90"/>
-      <c r="R54" s="90"/>
-      <c r="S54" s="90"/>
-      <c r="T54" s="90"/>
-      <c r="U54" s="90"/>
-      <c r="V54" s="90"/>
-      <c r="W54" s="90"/>
-      <c r="X54" s="90"/>
-      <c r="Y54" s="90"/>
+      <c r="N54" s="89"/>
+      <c r="O54" s="89"/>
+      <c r="P54" s="89"/>
+      <c r="Q54" s="89"/>
+      <c r="R54" s="89"/>
+      <c r="S54" s="89"/>
+      <c r="T54" s="89"/>
+      <c r="U54" s="89"/>
+      <c r="V54" s="89"/>
+      <c r="W54" s="89"/>
+      <c r="X54" s="89"/>
+      <c r="Y54" s="89"/>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="65"/>
@@ -27804,18 +27677,18 @@
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
-      <c r="N55" s="90"/>
-      <c r="O55" s="90"/>
-      <c r="P55" s="90"/>
-      <c r="Q55" s="90"/>
-      <c r="R55" s="90"/>
-      <c r="S55" s="90"/>
-      <c r="T55" s="90"/>
-      <c r="U55" s="90"/>
-      <c r="V55" s="90"/>
-      <c r="W55" s="90"/>
-      <c r="X55" s="90"/>
-      <c r="Y55" s="90"/>
+      <c r="N55" s="89"/>
+      <c r="O55" s="89"/>
+      <c r="P55" s="89"/>
+      <c r="Q55" s="89"/>
+      <c r="R55" s="89"/>
+      <c r="S55" s="89"/>
+      <c r="T55" s="89"/>
+      <c r="U55" s="89"/>
+      <c r="V55" s="89"/>
+      <c r="W55" s="89"/>
+      <c r="X55" s="89"/>
+      <c r="Y55" s="89"/>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="65" t="s">
@@ -27932,18 +27805,18 @@
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
-      <c r="N57" s="90"/>
-      <c r="O57" s="90"/>
-      <c r="P57" s="90"/>
-      <c r="Q57" s="90"/>
-      <c r="R57" s="90"/>
-      <c r="S57" s="90"/>
-      <c r="T57" s="90"/>
-      <c r="U57" s="90"/>
-      <c r="V57" s="90"/>
-      <c r="W57" s="90"/>
-      <c r="X57" s="90"/>
-      <c r="Y57" s="90"/>
+      <c r="N57" s="89"/>
+      <c r="O57" s="89"/>
+      <c r="P57" s="89"/>
+      <c r="Q57" s="89"/>
+      <c r="R57" s="89"/>
+      <c r="S57" s="89"/>
+      <c r="T57" s="89"/>
+      <c r="U57" s="89"/>
+      <c r="V57" s="89"/>
+      <c r="W57" s="89"/>
+      <c r="X57" s="89"/>
+      <c r="Y57" s="89"/>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="64" t="s">
@@ -27961,18 +27834,18 @@
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
-      <c r="N58" s="90"/>
-      <c r="O58" s="90"/>
-      <c r="P58" s="90"/>
-      <c r="Q58" s="90"/>
-      <c r="R58" s="90"/>
-      <c r="S58" s="90"/>
-      <c r="T58" s="90"/>
-      <c r="U58" s="90"/>
-      <c r="V58" s="90"/>
-      <c r="W58" s="90"/>
-      <c r="X58" s="90"/>
-      <c r="Y58" s="90"/>
+      <c r="N58" s="89"/>
+      <c r="O58" s="89"/>
+      <c r="P58" s="89"/>
+      <c r="Q58" s="89"/>
+      <c r="R58" s="89"/>
+      <c r="S58" s="89"/>
+      <c r="T58" s="89"/>
+      <c r="U58" s="89"/>
+      <c r="V58" s="89"/>
+      <c r="W58" s="89"/>
+      <c r="X58" s="89"/>
+      <c r="Y58" s="89"/>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="65"/>
@@ -27988,18 +27861,18 @@
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
-      <c r="N59" s="90"/>
-      <c r="O59" s="90"/>
-      <c r="P59" s="90"/>
-      <c r="Q59" s="90"/>
-      <c r="R59" s="90"/>
-      <c r="S59" s="90"/>
-      <c r="T59" s="90"/>
-      <c r="U59" s="90"/>
-      <c r="V59" s="90"/>
-      <c r="W59" s="90"/>
-      <c r="X59" s="90"/>
-      <c r="Y59" s="90"/>
+      <c r="N59" s="89"/>
+      <c r="O59" s="89"/>
+      <c r="P59" s="89"/>
+      <c r="Q59" s="89"/>
+      <c r="R59" s="89"/>
+      <c r="S59" s="89"/>
+      <c r="T59" s="89"/>
+      <c r="U59" s="89"/>
+      <c r="V59" s="89"/>
+      <c r="W59" s="89"/>
+      <c r="X59" s="89"/>
+      <c r="Y59" s="89"/>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="65" t="s">
@@ -28017,18 +27890,18 @@
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
-      <c r="N60" s="90"/>
-      <c r="O60" s="90"/>
-      <c r="P60" s="90"/>
-      <c r="Q60" s="90"/>
-      <c r="R60" s="90"/>
-      <c r="S60" s="90"/>
-      <c r="T60" s="90"/>
-      <c r="U60" s="90"/>
-      <c r="V60" s="90"/>
-      <c r="W60" s="90"/>
-      <c r="X60" s="90"/>
-      <c r="Y60" s="90"/>
+      <c r="N60" s="89"/>
+      <c r="O60" s="89"/>
+      <c r="P60" s="89"/>
+      <c r="Q60" s="89"/>
+      <c r="R60" s="89"/>
+      <c r="S60" s="89"/>
+      <c r="T60" s="89"/>
+      <c r="U60" s="89"/>
+      <c r="V60" s="89"/>
+      <c r="W60" s="89"/>
+      <c r="X60" s="89"/>
+      <c r="Y60" s="89"/>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="65"/>
@@ -28044,18 +27917,18 @@
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
-      <c r="N61" s="90"/>
-      <c r="O61" s="90"/>
-      <c r="P61" s="90"/>
-      <c r="Q61" s="90"/>
-      <c r="R61" s="90"/>
-      <c r="S61" s="90"/>
-      <c r="T61" s="90"/>
-      <c r="U61" s="90"/>
-      <c r="V61" s="90"/>
-      <c r="W61" s="90"/>
-      <c r="X61" s="90"/>
-      <c r="Y61" s="90"/>
+      <c r="N61" s="89"/>
+      <c r="O61" s="89"/>
+      <c r="P61" s="89"/>
+      <c r="Q61" s="89"/>
+      <c r="R61" s="89"/>
+      <c r="S61" s="89"/>
+      <c r="T61" s="89"/>
+      <c r="U61" s="89"/>
+      <c r="V61" s="89"/>
+      <c r="W61" s="89"/>
+      <c r="X61" s="89"/>
+      <c r="Y61" s="89"/>
     </row>
     <row r="62" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="67" t="s">
@@ -28174,18 +28047,18 @@
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
-      <c r="N63" s="90"/>
-      <c r="O63" s="90"/>
-      <c r="P63" s="90"/>
-      <c r="Q63" s="90"/>
-      <c r="R63" s="90"/>
-      <c r="S63" s="90"/>
-      <c r="T63" s="90"/>
-      <c r="U63" s="90"/>
-      <c r="V63" s="90"/>
-      <c r="W63" s="90"/>
-      <c r="X63" s="90"/>
-      <c r="Y63" s="90"/>
+      <c r="N63" s="89"/>
+      <c r="O63" s="89"/>
+      <c r="P63" s="89"/>
+      <c r="Q63" s="89"/>
+      <c r="R63" s="89"/>
+      <c r="S63" s="89"/>
+      <c r="T63" s="89"/>
+      <c r="U63" s="89"/>
+      <c r="V63" s="89"/>
+      <c r="W63" s="89"/>
+      <c r="X63" s="89"/>
+      <c r="Y63" s="89"/>
     </row>
     <row r="64" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="67" t="s">
@@ -28203,18 +28076,18 @@
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
-      <c r="N64" s="90"/>
-      <c r="O64" s="90"/>
-      <c r="P64" s="90"/>
-      <c r="Q64" s="90"/>
-      <c r="R64" s="90"/>
-      <c r="S64" s="90"/>
-      <c r="T64" s="90"/>
-      <c r="U64" s="90"/>
-      <c r="V64" s="90"/>
-      <c r="W64" s="90"/>
-      <c r="X64" s="90"/>
-      <c r="Y64" s="90"/>
+      <c r="N64" s="89"/>
+      <c r="O64" s="89"/>
+      <c r="P64" s="89"/>
+      <c r="Q64" s="89"/>
+      <c r="R64" s="89"/>
+      <c r="S64" s="89"/>
+      <c r="T64" s="89"/>
+      <c r="U64" s="89"/>
+      <c r="V64" s="89"/>
+      <c r="W64" s="89"/>
+      <c r="X64" s="89"/>
+      <c r="Y64" s="89"/>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="65" t="s">
@@ -28232,18 +28105,18 @@
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
-      <c r="N65" s="90"/>
-      <c r="O65" s="90"/>
-      <c r="P65" s="90"/>
-      <c r="Q65" s="90"/>
-      <c r="R65" s="90"/>
-      <c r="S65" s="90"/>
-      <c r="T65" s="90"/>
-      <c r="U65" s="90"/>
-      <c r="V65" s="90"/>
-      <c r="W65" s="90"/>
-      <c r="X65" s="90"/>
-      <c r="Y65" s="90"/>
+      <c r="N65" s="89"/>
+      <c r="O65" s="89"/>
+      <c r="P65" s="89"/>
+      <c r="Q65" s="89"/>
+      <c r="R65" s="89"/>
+      <c r="S65" s="89"/>
+      <c r="T65" s="89"/>
+      <c r="U65" s="89"/>
+      <c r="V65" s="89"/>
+      <c r="W65" s="89"/>
+      <c r="X65" s="89"/>
+      <c r="Y65" s="89"/>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" s="65"/>
@@ -28259,20 +28132,20 @@
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
-      <c r="N66" s="90"/>
-      <c r="O66" s="90"/>
-      <c r="P66" s="90"/>
-      <c r="Q66" s="90"/>
-      <c r="R66" s="90"/>
-      <c r="S66" s="90"/>
-      <c r="T66" s="90"/>
-      <c r="U66" s="90"/>
-      <c r="V66" s="90"/>
-      <c r="W66" s="90"/>
-      <c r="X66" s="90"/>
-      <c r="Y66" s="90"/>
+      <c r="N66" s="89"/>
+      <c r="O66" s="89"/>
+      <c r="P66" s="89"/>
+      <c r="Q66" s="89"/>
+      <c r="R66" s="89"/>
+      <c r="S66" s="89"/>
+      <c r="T66" s="89"/>
+      <c r="U66" s="89"/>
+      <c r="V66" s="89"/>
+      <c r="W66" s="89"/>
+      <c r="X66" s="89"/>
+      <c r="Y66" s="89"/>
     </row>
-    <row r="67" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" s="67" t="s">
         <v>80</v>
       </c>
@@ -28288,18 +28161,18 @@
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
-      <c r="N67" s="90"/>
-      <c r="O67" s="90"/>
-      <c r="P67" s="90"/>
-      <c r="Q67" s="90"/>
-      <c r="R67" s="90"/>
-      <c r="S67" s="90"/>
-      <c r="T67" s="90"/>
-      <c r="U67" s="90"/>
-      <c r="V67" s="90"/>
-      <c r="W67" s="90"/>
-      <c r="X67" s="90"/>
-      <c r="Y67" s="90"/>
+      <c r="N67" s="89"/>
+      <c r="O67" s="89"/>
+      <c r="P67" s="89"/>
+      <c r="Q67" s="89"/>
+      <c r="R67" s="89"/>
+      <c r="S67" s="89"/>
+      <c r="T67" s="89"/>
+      <c r="U67" s="89"/>
+      <c r="V67" s="89"/>
+      <c r="W67" s="89"/>
+      <c r="X67" s="89"/>
+      <c r="Y67" s="89"/>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" s="65" t="s">
@@ -28317,20 +28190,20 @@
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
-      <c r="N68" s="90"/>
-      <c r="O68" s="90"/>
-      <c r="P68" s="90"/>
-      <c r="Q68" s="90"/>
-      <c r="R68" s="90"/>
-      <c r="S68" s="90"/>
-      <c r="T68" s="90"/>
-      <c r="U68" s="90"/>
-      <c r="V68" s="90"/>
-      <c r="W68" s="90"/>
-      <c r="X68" s="90"/>
-      <c r="Y68" s="90"/>
+      <c r="N68" s="89"/>
+      <c r="O68" s="89"/>
+      <c r="P68" s="89"/>
+      <c r="Q68" s="89"/>
+      <c r="R68" s="89"/>
+      <c r="S68" s="89"/>
+      <c r="T68" s="89"/>
+      <c r="U68" s="89"/>
+      <c r="V68" s="89"/>
+      <c r="W68" s="89"/>
+      <c r="X68" s="89"/>
+      <c r="Y68" s="89"/>
     </row>
-    <row r="69" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" s="67" t="s">
         <v>78</v>
       </c>
@@ -28346,18 +28219,18 @@
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
       <c r="M69" s="2"/>
-      <c r="N69" s="90"/>
-      <c r="O69" s="90"/>
-      <c r="P69" s="90"/>
-      <c r="Q69" s="90"/>
-      <c r="R69" s="90"/>
-      <c r="S69" s="90"/>
-      <c r="T69" s="90"/>
-      <c r="U69" s="90"/>
-      <c r="V69" s="90"/>
-      <c r="W69" s="90"/>
-      <c r="X69" s="90"/>
-      <c r="Y69" s="90"/>
+      <c r="N69" s="89"/>
+      <c r="O69" s="89"/>
+      <c r="P69" s="89"/>
+      <c r="Q69" s="89"/>
+      <c r="R69" s="89"/>
+      <c r="S69" s="89"/>
+      <c r="T69" s="89"/>
+      <c r="U69" s="89"/>
+      <c r="V69" s="89"/>
+      <c r="W69" s="89"/>
+      <c r="X69" s="89"/>
+      <c r="Y69" s="89"/>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" s="65" t="s">
@@ -28375,18 +28248,18 @@
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
-      <c r="N70" s="90"/>
-      <c r="O70" s="90"/>
-      <c r="P70" s="90"/>
-      <c r="Q70" s="90"/>
-      <c r="R70" s="90"/>
-      <c r="S70" s="90"/>
-      <c r="T70" s="90"/>
-      <c r="U70" s="90"/>
-      <c r="V70" s="90"/>
-      <c r="W70" s="90"/>
-      <c r="X70" s="90"/>
-      <c r="Y70" s="90"/>
+      <c r="N70" s="89"/>
+      <c r="O70" s="89"/>
+      <c r="P70" s="89"/>
+      <c r="Q70" s="89"/>
+      <c r="R70" s="89"/>
+      <c r="S70" s="89"/>
+      <c r="T70" s="89"/>
+      <c r="U70" s="89"/>
+      <c r="V70" s="89"/>
+      <c r="W70" s="89"/>
+      <c r="X70" s="89"/>
+      <c r="Y70" s="89"/>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" s="65" t="s">
@@ -28505,18 +28378,18 @@
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
-      <c r="N72" s="90"/>
-      <c r="O72" s="90"/>
-      <c r="P72" s="90"/>
-      <c r="Q72" s="90"/>
-      <c r="R72" s="90"/>
-      <c r="S72" s="90"/>
-      <c r="T72" s="90"/>
-      <c r="U72" s="90"/>
-      <c r="V72" s="90"/>
-      <c r="W72" s="90"/>
-      <c r="X72" s="90"/>
-      <c r="Y72" s="90"/>
+      <c r="N72" s="89"/>
+      <c r="O72" s="89"/>
+      <c r="P72" s="89"/>
+      <c r="Q72" s="89"/>
+      <c r="R72" s="89"/>
+      <c r="S72" s="89"/>
+      <c r="T72" s="89"/>
+      <c r="U72" s="89"/>
+      <c r="V72" s="89"/>
+      <c r="W72" s="89"/>
+      <c r="X72" s="89"/>
+      <c r="Y72" s="89"/>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" s="71" t="s">
@@ -28534,18 +28407,18 @@
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
-      <c r="N73" s="90"/>
-      <c r="O73" s="90"/>
-      <c r="P73" s="90"/>
-      <c r="Q73" s="90"/>
-      <c r="R73" s="90"/>
-      <c r="S73" s="90"/>
-      <c r="T73" s="90"/>
-      <c r="U73" s="90"/>
-      <c r="V73" s="90"/>
-      <c r="W73" s="90"/>
-      <c r="X73" s="90"/>
-      <c r="Y73" s="90"/>
+      <c r="N73" s="89"/>
+      <c r="O73" s="89"/>
+      <c r="P73" s="89"/>
+      <c r="Q73" s="89"/>
+      <c r="R73" s="89"/>
+      <c r="S73" s="89"/>
+      <c r="T73" s="89"/>
+      <c r="U73" s="89"/>
+      <c r="V73" s="89"/>
+      <c r="W73" s="89"/>
+      <c r="X73" s="89"/>
+      <c r="Y73" s="89"/>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" s="71" t="s">
@@ -28563,18 +28436,18 @@
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
-      <c r="N74" s="90"/>
-      <c r="O74" s="90"/>
-      <c r="P74" s="90"/>
-      <c r="Q74" s="90"/>
-      <c r="R74" s="90"/>
-      <c r="S74" s="90"/>
-      <c r="T74" s="90"/>
-      <c r="U74" s="90"/>
-      <c r="V74" s="90"/>
-      <c r="W74" s="90"/>
-      <c r="X74" s="90"/>
-      <c r="Y74" s="90"/>
+      <c r="N74" s="89"/>
+      <c r="O74" s="89"/>
+      <c r="P74" s="89"/>
+      <c r="Q74" s="89"/>
+      <c r="R74" s="89"/>
+      <c r="S74" s="89"/>
+      <c r="T74" s="89"/>
+      <c r="U74" s="89"/>
+      <c r="V74" s="89"/>
+      <c r="W74" s="89"/>
+      <c r="X74" s="89"/>
+      <c r="Y74" s="89"/>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" s="65"/>
@@ -28590,18 +28463,18 @@
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
-      <c r="N75" s="90"/>
-      <c r="O75" s="90"/>
-      <c r="P75" s="90"/>
-      <c r="Q75" s="90"/>
-      <c r="R75" s="90"/>
-      <c r="S75" s="90"/>
-      <c r="T75" s="90"/>
-      <c r="U75" s="90"/>
-      <c r="V75" s="90"/>
-      <c r="W75" s="90"/>
-      <c r="X75" s="90"/>
-      <c r="Y75" s="90"/>
+      <c r="N75" s="89"/>
+      <c r="O75" s="89"/>
+      <c r="P75" s="89"/>
+      <c r="Q75" s="89"/>
+      <c r="R75" s="89"/>
+      <c r="S75" s="89"/>
+      <c r="T75" s="89"/>
+      <c r="U75" s="89"/>
+      <c r="V75" s="89"/>
+      <c r="W75" s="89"/>
+      <c r="X75" s="89"/>
+      <c r="Y75" s="89"/>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" s="65" t="s">
@@ -28619,18 +28492,18 @@
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
-      <c r="N76" s="90"/>
-      <c r="O76" s="90"/>
-      <c r="P76" s="90"/>
-      <c r="Q76" s="90"/>
-      <c r="R76" s="90"/>
-      <c r="S76" s="90"/>
-      <c r="T76" s="90"/>
-      <c r="U76" s="90"/>
-      <c r="V76" s="90"/>
-      <c r="W76" s="90"/>
-      <c r="X76" s="90"/>
-      <c r="Y76" s="90"/>
+      <c r="N76" s="89"/>
+      <c r="O76" s="89"/>
+      <c r="P76" s="89"/>
+      <c r="Q76" s="89"/>
+      <c r="R76" s="89"/>
+      <c r="S76" s="89"/>
+      <c r="T76" s="89"/>
+      <c r="U76" s="89"/>
+      <c r="V76" s="89"/>
+      <c r="W76" s="89"/>
+      <c r="X76" s="89"/>
+      <c r="Y76" s="89"/>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" s="65" t="s">
@@ -28648,20 +28521,20 @@
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
-      <c r="N77" s="90"/>
-      <c r="O77" s="90"/>
-      <c r="P77" s="90"/>
-      <c r="Q77" s="90"/>
-      <c r="R77" s="90"/>
-      <c r="S77" s="90"/>
-      <c r="T77" s="90"/>
-      <c r="U77" s="90"/>
-      <c r="V77" s="90"/>
-      <c r="W77" s="90"/>
-      <c r="X77" s="90"/>
-      <c r="Y77" s="90"/>
+      <c r="N77" s="89"/>
+      <c r="O77" s="89"/>
+      <c r="P77" s="89"/>
+      <c r="Q77" s="89"/>
+      <c r="R77" s="89"/>
+      <c r="S77" s="89"/>
+      <c r="T77" s="89"/>
+      <c r="U77" s="89"/>
+      <c r="V77" s="89"/>
+      <c r="W77" s="89"/>
+      <c r="X77" s="89"/>
+      <c r="Y77" s="89"/>
     </row>
-    <row r="78" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" s="67" t="s">
         <v>149</v>
       </c>
@@ -28677,18 +28550,18 @@
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
-      <c r="N78" s="90"/>
-      <c r="O78" s="90"/>
-      <c r="P78" s="90"/>
-      <c r="Q78" s="90"/>
-      <c r="R78" s="90"/>
-      <c r="S78" s="90"/>
-      <c r="T78" s="90"/>
-      <c r="U78" s="90"/>
-      <c r="V78" s="90"/>
-      <c r="W78" s="90"/>
-      <c r="X78" s="90"/>
-      <c r="Y78" s="90"/>
+      <c r="N78" s="89"/>
+      <c r="O78" s="89"/>
+      <c r="P78" s="89"/>
+      <c r="Q78" s="89"/>
+      <c r="R78" s="89"/>
+      <c r="S78" s="89"/>
+      <c r="T78" s="89"/>
+      <c r="U78" s="89"/>
+      <c r="V78" s="89"/>
+      <c r="W78" s="89"/>
+      <c r="X78" s="89"/>
+      <c r="Y78" s="89"/>
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" s="65"/>
@@ -28704,18 +28577,18 @@
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
       <c r="M79" s="2"/>
-      <c r="N79" s="90"/>
-      <c r="O79" s="90"/>
-      <c r="P79" s="90"/>
-      <c r="Q79" s="90"/>
-      <c r="R79" s="90"/>
-      <c r="S79" s="90"/>
-      <c r="T79" s="90"/>
-      <c r="U79" s="90"/>
-      <c r="V79" s="90"/>
-      <c r="W79" s="90"/>
-      <c r="X79" s="90"/>
-      <c r="Y79" s="90"/>
+      <c r="N79" s="89"/>
+      <c r="O79" s="89"/>
+      <c r="P79" s="89"/>
+      <c r="Q79" s="89"/>
+      <c r="R79" s="89"/>
+      <c r="S79" s="89"/>
+      <c r="T79" s="89"/>
+      <c r="U79" s="89"/>
+      <c r="V79" s="89"/>
+      <c r="W79" s="89"/>
+      <c r="X79" s="89"/>
+      <c r="Y79" s="89"/>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" s="72" t="s">
@@ -28832,20 +28705,20 @@
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
       <c r="M81" s="2"/>
-      <c r="N81" s="90"/>
-      <c r="O81" s="90"/>
-      <c r="P81" s="90"/>
-      <c r="Q81" s="90"/>
-      <c r="R81" s="90"/>
-      <c r="S81" s="90"/>
-      <c r="T81" s="90"/>
-      <c r="U81" s="90"/>
-      <c r="V81" s="90"/>
-      <c r="W81" s="90"/>
-      <c r="X81" s="90"/>
-      <c r="Y81" s="90"/>
+      <c r="N81" s="89"/>
+      <c r="O81" s="89"/>
+      <c r="P81" s="89"/>
+      <c r="Q81" s="89"/>
+      <c r="R81" s="89"/>
+      <c r="S81" s="89"/>
+      <c r="T81" s="89"/>
+      <c r="U81" s="89"/>
+      <c r="V81" s="89"/>
+      <c r="W81" s="89"/>
+      <c r="X81" s="89"/>
+      <c r="Y81" s="89"/>
     </row>
-    <row r="82" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="67" t="s">
         <v>151</v>
       </c>
@@ -28962,18 +28835,18 @@
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
-      <c r="N83" s="90"/>
-      <c r="O83" s="90"/>
-      <c r="P83" s="90"/>
-      <c r="Q83" s="90"/>
-      <c r="R83" s="90"/>
-      <c r="S83" s="90"/>
-      <c r="T83" s="90"/>
-      <c r="U83" s="90"/>
-      <c r="V83" s="90"/>
-      <c r="W83" s="90"/>
-      <c r="X83" s="90"/>
-      <c r="Y83" s="90"/>
+      <c r="N83" s="89"/>
+      <c r="O83" s="89"/>
+      <c r="P83" s="89"/>
+      <c r="Q83" s="89"/>
+      <c r="R83" s="89"/>
+      <c r="S83" s="89"/>
+      <c r="T83" s="89"/>
+      <c r="U83" s="89"/>
+      <c r="V83" s="89"/>
+      <c r="W83" s="89"/>
+      <c r="X83" s="89"/>
+      <c r="Y83" s="89"/>
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" s="73" t="s">
@@ -28991,18 +28864,18 @@
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
-      <c r="N84" s="90"/>
-      <c r="O84" s="90"/>
-      <c r="P84" s="90"/>
-      <c r="Q84" s="90"/>
-      <c r="R84" s="90"/>
-      <c r="S84" s="90"/>
-      <c r="T84" s="90"/>
-      <c r="U84" s="90"/>
-      <c r="V84" s="90"/>
-      <c r="W84" s="90"/>
-      <c r="X84" s="90"/>
-      <c r="Y84" s="90"/>
+      <c r="N84" s="89"/>
+      <c r="O84" s="89"/>
+      <c r="P84" s="89"/>
+      <c r="Q84" s="89"/>
+      <c r="R84" s="89"/>
+      <c r="S84" s="89"/>
+      <c r="T84" s="89"/>
+      <c r="U84" s="89"/>
+      <c r="V84" s="89"/>
+      <c r="W84" s="89"/>
+      <c r="X84" s="89"/>
+      <c r="Y84" s="89"/>
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85" s="73" t="s">
@@ -29020,18 +28893,18 @@
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
-      <c r="N85" s="90"/>
-      <c r="O85" s="90"/>
-      <c r="P85" s="90"/>
-      <c r="Q85" s="90"/>
-      <c r="R85" s="90"/>
-      <c r="S85" s="90"/>
-      <c r="T85" s="90"/>
-      <c r="U85" s="90"/>
-      <c r="V85" s="90"/>
-      <c r="W85" s="90"/>
-      <c r="X85" s="90"/>
-      <c r="Y85" s="90"/>
+      <c r="N85" s="89"/>
+      <c r="O85" s="89"/>
+      <c r="P85" s="89"/>
+      <c r="Q85" s="89"/>
+      <c r="R85" s="89"/>
+      <c r="S85" s="89"/>
+      <c r="T85" s="89"/>
+      <c r="U85" s="89"/>
+      <c r="V85" s="89"/>
+      <c r="W85" s="89"/>
+      <c r="X85" s="89"/>
+      <c r="Y85" s="89"/>
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86" s="73" t="s">
@@ -29049,18 +28922,18 @@
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
       <c r="M86" s="2"/>
-      <c r="N86" s="90"/>
-      <c r="O86" s="90"/>
-      <c r="P86" s="90"/>
-      <c r="Q86" s="90"/>
-      <c r="R86" s="90"/>
-      <c r="S86" s="90"/>
-      <c r="T86" s="90"/>
-      <c r="U86" s="90"/>
-      <c r="V86" s="90"/>
-      <c r="W86" s="90"/>
-      <c r="X86" s="90"/>
-      <c r="Y86" s="90"/>
+      <c r="N86" s="89"/>
+      <c r="O86" s="89"/>
+      <c r="P86" s="89"/>
+      <c r="Q86" s="89"/>
+      <c r="R86" s="89"/>
+      <c r="S86" s="89"/>
+      <c r="T86" s="89"/>
+      <c r="U86" s="89"/>
+      <c r="V86" s="89"/>
+      <c r="W86" s="89"/>
+      <c r="X86" s="89"/>
+      <c r="Y86" s="89"/>
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87" s="73" t="s">
@@ -29078,21 +28951,23 @@
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
       <c r="M87" s="2"/>
-      <c r="N87" s="90"/>
-      <c r="O87" s="90"/>
-      <c r="P87" s="90"/>
-      <c r="Q87" s="90"/>
-      <c r="R87" s="90"/>
-      <c r="S87" s="90"/>
-      <c r="T87" s="90"/>
-      <c r="U87" s="90"/>
-      <c r="V87" s="90"/>
-      <c r="W87" s="90"/>
-      <c r="X87" s="90"/>
-      <c r="Y87" s="90"/>
+      <c r="N87" s="89"/>
+      <c r="O87" s="89"/>
+      <c r="P87" s="89"/>
+      <c r="Q87" s="89"/>
+      <c r="R87" s="89"/>
+      <c r="S87" s="89"/>
+      <c r="T87" s="89"/>
+      <c r="U87" s="89"/>
+      <c r="V87" s="89"/>
+      <c r="W87" s="89"/>
+      <c r="X87" s="89"/>
+      <c r="Y87" s="89"/>
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A88" s="74"/>
+      <c r="A88" s="103" t="s">
+        <v>171</v>
+      </c>
       <c r="B88" s="66"/>
       <c r="C88" s="66"/>
       <c r="D88" s="66"/>
@@ -29105,29 +28980,29 @@
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
       <c r="M88" s="2"/>
-      <c r="N88" s="90"/>
-      <c r="O88" s="90"/>
-      <c r="P88" s="90"/>
-      <c r="Q88" s="90"/>
-      <c r="R88" s="90"/>
-      <c r="S88" s="90"/>
-      <c r="T88" s="90"/>
-      <c r="U88" s="90"/>
-      <c r="V88" s="90"/>
-      <c r="W88" s="90"/>
-      <c r="X88" s="90"/>
-      <c r="Y88" s="90"/>
+      <c r="N88" s="89"/>
+      <c r="O88" s="89"/>
+      <c r="P88" s="89"/>
+      <c r="Q88" s="89"/>
+      <c r="R88" s="89"/>
+      <c r="S88" s="89"/>
+      <c r="T88" s="89"/>
+      <c r="U88" s="89"/>
+      <c r="V88" s="89"/>
+      <c r="W88" s="89"/>
+      <c r="X88" s="89"/>
+      <c r="Y88" s="89"/>
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89" s="65" t="s">
         <v>155</v>
       </c>
       <c r="B89" s="68">
-        <f>SUM(ROUND(B43+B56+B80+B82,2))</f>
+        <f>SUM(ROUND(B43+B56+B80+B826+B88,2))</f>
         <v>0</v>
       </c>
       <c r="C89" s="68">
-        <f t="shared" ref="C89:Y89" si="11">SUM(ROUND(C43+C56+C80+C82,2))</f>
+        <f t="shared" ref="C89:Y89" si="11">SUM(ROUND(C43+C56+C80+C82+C88,2))</f>
         <v>0</v>
       </c>
       <c r="D89" s="68">
@@ -29233,18 +29108,18 @@
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
       <c r="M90" s="2"/>
-      <c r="N90" s="90"/>
-      <c r="O90" s="90"/>
-      <c r="P90" s="90"/>
-      <c r="Q90" s="90"/>
-      <c r="R90" s="90"/>
-      <c r="S90" s="90"/>
-      <c r="T90" s="90"/>
-      <c r="U90" s="90"/>
-      <c r="V90" s="90"/>
-      <c r="W90" s="90"/>
-      <c r="X90" s="90"/>
-      <c r="Y90" s="90"/>
+      <c r="N90" s="89"/>
+      <c r="O90" s="89"/>
+      <c r="P90" s="89"/>
+      <c r="Q90" s="89"/>
+      <c r="R90" s="89"/>
+      <c r="S90" s="89"/>
+      <c r="T90" s="89"/>
+      <c r="U90" s="89"/>
+      <c r="V90" s="89"/>
+      <c r="W90" s="89"/>
+      <c r="X90" s="89"/>
+      <c r="Y90" s="89"/>
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91" s="72" t="s">
@@ -29361,18 +29236,18 @@
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
       <c r="M92" s="2"/>
-      <c r="N92" s="90"/>
-      <c r="O92" s="90"/>
-      <c r="P92" s="90"/>
-      <c r="Q92" s="90"/>
-      <c r="R92" s="90"/>
-      <c r="S92" s="90"/>
-      <c r="T92" s="90"/>
-      <c r="U92" s="90"/>
-      <c r="V92" s="90"/>
-      <c r="W92" s="90"/>
-      <c r="X92" s="90"/>
-      <c r="Y92" s="90"/>
+      <c r="N92" s="89"/>
+      <c r="O92" s="89"/>
+      <c r="P92" s="89"/>
+      <c r="Q92" s="89"/>
+      <c r="R92" s="89"/>
+      <c r="S92" s="89"/>
+      <c r="T92" s="89"/>
+      <c r="U92" s="89"/>
+      <c r="V92" s="89"/>
+      <c r="W92" s="89"/>
+      <c r="X92" s="89"/>
+      <c r="Y92" s="89"/>
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93" s="65" t="s">
@@ -29489,18 +29364,18 @@
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
       <c r="M94" s="2"/>
-      <c r="N94" s="90"/>
-      <c r="O94" s="90"/>
-      <c r="P94" s="90"/>
-      <c r="Q94" s="90"/>
-      <c r="R94" s="90"/>
-      <c r="S94" s="90"/>
-      <c r="T94" s="90"/>
-      <c r="U94" s="90"/>
-      <c r="V94" s="90"/>
-      <c r="W94" s="90"/>
-      <c r="X94" s="90"/>
-      <c r="Y94" s="90"/>
+      <c r="N94" s="89"/>
+      <c r="O94" s="89"/>
+      <c r="P94" s="89"/>
+      <c r="Q94" s="89"/>
+      <c r="R94" s="89"/>
+      <c r="S94" s="89"/>
+      <c r="T94" s="89"/>
+      <c r="U94" s="89"/>
+      <c r="V94" s="89"/>
+      <c r="W94" s="89"/>
+      <c r="X94" s="89"/>
+      <c r="Y94" s="89"/>
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95" s="65" t="s">
@@ -29617,18 +29492,18 @@
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
       <c r="M96" s="2"/>
-      <c r="N96" s="90"/>
-      <c r="O96" s="90"/>
-      <c r="P96" s="90"/>
-      <c r="Q96" s="90"/>
-      <c r="R96" s="90"/>
-      <c r="S96" s="90"/>
-      <c r="T96" s="90"/>
-      <c r="U96" s="90"/>
-      <c r="V96" s="90"/>
-      <c r="W96" s="90"/>
-      <c r="X96" s="90"/>
-      <c r="Y96" s="90"/>
+      <c r="N96" s="89"/>
+      <c r="O96" s="89"/>
+      <c r="P96" s="89"/>
+      <c r="Q96" s="89"/>
+      <c r="R96" s="89"/>
+      <c r="S96" s="89"/>
+      <c r="T96" s="89"/>
+      <c r="U96" s="89"/>
+      <c r="V96" s="89"/>
+      <c r="W96" s="89"/>
+      <c r="X96" s="89"/>
+      <c r="Y96" s="89"/>
     </row>
     <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97" s="65" t="s">
@@ -29745,64 +29620,64 @@
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
       <c r="M98" s="2"/>
-      <c r="N98" s="90"/>
-      <c r="O98" s="90"/>
-      <c r="P98" s="90"/>
-      <c r="Q98" s="90"/>
-      <c r="R98" s="90"/>
-      <c r="S98" s="90"/>
-      <c r="T98" s="90"/>
-      <c r="U98" s="90"/>
-      <c r="V98" s="90"/>
-      <c r="W98" s="90"/>
-      <c r="X98" s="90"/>
-      <c r="Y98" s="90"/>
+      <c r="N98" s="89"/>
+      <c r="O98" s="89"/>
+      <c r="P98" s="89"/>
+      <c r="Q98" s="89"/>
+      <c r="R98" s="89"/>
+      <c r="S98" s="89"/>
+      <c r="T98" s="89"/>
+      <c r="U98" s="89"/>
+      <c r="V98" s="89"/>
+      <c r="W98" s="89"/>
+      <c r="X98" s="89"/>
+      <c r="Y98" s="89"/>
     </row>
     <row r="99" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="75" t="s">
+      <c r="A99" s="74" t="s">
         <v>154</v>
       </c>
-      <c r="B99" s="76">
+      <c r="B99" s="75">
         <f>IF(B91=0,0,(ROUND(Liabilities!B55/B91,2)))</f>
         <v>0</v>
       </c>
-      <c r="C99" s="76">
+      <c r="C99" s="75">
         <f>IF(C91=0,0,(ROUND(Liabilities!C55/C91,2)))</f>
         <v>0</v>
       </c>
-      <c r="D99" s="76">
+      <c r="D99" s="75">
         <f>IF(D91=0,0,(ROUND(Liabilities!D55/D91,2)))</f>
         <v>0</v>
       </c>
-      <c r="E99" s="76">
+      <c r="E99" s="75">
         <f>IF(E91=0,0,(ROUND(Liabilities!E55/E91,2)))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="76">
+      <c r="F99" s="75">
         <f>IF(F91=0,0,(ROUND(Liabilities!F55/F91,2)))</f>
         <v>0</v>
       </c>
-      <c r="G99" s="76">
+      <c r="G99" s="75">
         <f>IF(G91=0,0,(ROUND(Liabilities!G55/G91,2)))</f>
         <v>0</v>
       </c>
-      <c r="H99" s="76">
+      <c r="H99" s="75">
         <f>IF(H91=0,0,(ROUND(Liabilities!H55/H91,2)))</f>
         <v>0</v>
       </c>
-      <c r="I99" s="76">
+      <c r="I99" s="75">
         <f>IF(I91=0,0,(ROUND(Liabilities!I55/I91,2)))</f>
         <v>0</v>
       </c>
-      <c r="J99" s="76">
+      <c r="J99" s="75">
         <f>IF(J91=0,0,(ROUND(Liabilities!J55/J91,2)))</f>
         <v>0</v>
       </c>
-      <c r="K99" s="76">
+      <c r="K99" s="75">
         <f>IF(K91=0,0,(ROUND(Liabilities!K55/K91,2)))</f>
         <v>0</v>
       </c>
-      <c r="L99" s="76">
+      <c r="L99" s="75">
         <f>IF(L91=0,0,(ROUND(Liabilities!L55/L91,2)))</f>
         <v>0</v>
       </c>
@@ -29860,7 +29735,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="CF53" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="29">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>

--- a/service-loans/template/Template_CW_CMA_TL_WCTL.xlsx
+++ b/service-loans/template/Template_CW_CMA_TL_WCTL.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="nMIDBcyH02QIBA4bXtkulhW+BkwLjO6uUdnHuLe/vey9rIzKWc8NDkCsYZON8UKSky/yikEzYHsiuF6pBe7KDg==" workbookSaltValue="OCFZwCBGKUImSpaXHpKcuQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="4020" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="4020"/>
   </bookViews>
   <sheets>
     <sheet name="Operating Stmt." sheetId="2" r:id="rId1"/>
     <sheet name="Liabilities" sheetId="3" r:id="rId2"/>
     <sheet name="Asset" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -563,8 +563,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -1135,11 +1135,11 @@
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -1312,7 +1312,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -1342,10 +1342,10 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="6" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="6" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1420,17 +1420,17 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
@@ -1443,12 +1443,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1470,7 +1464,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1479,19 +1473,19 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1500,6 +1494,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="4" builtinId="3"/>
@@ -1564,7 +1566,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1599,7 +1601,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1810,12 +1812,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD86"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B67" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B67" sqref="B67"/>
       <selection pane="topRight" activeCell="B67" sqref="B67"/>
       <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
-      <selection pane="bottomRight" activeCell="F78" sqref="F78"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -21649,27 +21651,27 @@
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
       <c r="D76" s="10"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-      <c r="I76" s="7"/>
-      <c r="J76" s="7"/>
-      <c r="K76" s="7"/>
-      <c r="L76" s="7"/>
-      <c r="M76" s="7"/>
-      <c r="N76" s="77"/>
-      <c r="O76" s="77"/>
-      <c r="P76" s="77"/>
-      <c r="Q76" s="77"/>
-      <c r="R76" s="77"/>
-      <c r="S76" s="77"/>
-      <c r="T76" s="77"/>
-      <c r="U76" s="77"/>
-      <c r="V76" s="77"/>
-      <c r="W76" s="77"/>
-      <c r="X76" s="77"/>
-      <c r="Y76" s="77"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10"/>
+      <c r="J76" s="10"/>
+      <c r="K76" s="10"/>
+      <c r="L76" s="10"/>
+      <c r="M76" s="10"/>
+      <c r="N76" s="134"/>
+      <c r="O76" s="134"/>
+      <c r="P76" s="134"/>
+      <c r="Q76" s="134"/>
+      <c r="R76" s="134"/>
+      <c r="S76" s="134"/>
+      <c r="T76" s="134"/>
+      <c r="U76" s="134"/>
+      <c r="V76" s="134"/>
+      <c r="W76" s="134"/>
+      <c r="X76" s="134"/>
+      <c r="Y76" s="134"/>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" s="20" t="s">
@@ -22246,6 +22248,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection password="CF53" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
@@ -22283,13 +22286,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="117" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
       <c r="F1" s="35"/>
       <c r="G1" s="36"/>
       <c r="H1" s="36"/>
@@ -22310,13 +22313,13 @@
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="118" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
       <c r="F2" s="39"/>
       <c r="G2" s="39"/>
       <c r="H2" s="39"/>
@@ -22327,13 +22330,13 @@
       <c r="M2" s="39"/>
     </row>
     <row r="3" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="123" t="s">
+      <c r="A3" s="121" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="123"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
       <c r="F3" s="41"/>
       <c r="G3" s="41"/>
       <c r="H3" s="41"/>
@@ -22344,11 +22347,11 @@
       <c r="M3" s="41"/>
     </row>
     <row r="4" spans="1:25" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="121" t="s">
+      <c r="A4" s="119" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="122"/>
-      <c r="C4" s="122"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
       <c r="D4" s="100" t="s">
         <v>41</v>
       </c>
@@ -22479,129 +22482,129 @@
     </row>
     <row r="6" spans="1:25" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="116"/>
-      <c r="B6" s="124" t="str">
+      <c r="B6" s="122" t="str">
         <f>+'Operating Stmt.'!B6:B6</f>
         <v>Audited</v>
       </c>
-      <c r="C6" s="117" t="str">
+      <c r="C6" s="111" t="str">
         <f>+'Operating Stmt.'!C6:C6</f>
         <v>Audited</v>
       </c>
-      <c r="D6" s="117" t="str">
+      <c r="D6" s="111" t="str">
         <f>+'Operating Stmt.'!D6:D6</f>
         <v>Audited</v>
       </c>
-      <c r="E6" s="117" t="str">
+      <c r="E6" s="111" t="str">
         <f>+'Operating Stmt.'!E6:E6</f>
         <v>Estimated</v>
       </c>
-      <c r="F6" s="117" t="str">
+      <c r="F6" s="111" t="str">
         <f>+'Operating Stmt.'!F6:F6</f>
         <v>Projected</v>
       </c>
-      <c r="G6" s="117" t="str">
+      <c r="G6" s="111" t="str">
         <f>+'Operating Stmt.'!G6:G6</f>
         <v>Projected</v>
       </c>
-      <c r="H6" s="117" t="str">
+      <c r="H6" s="111" t="str">
         <f>+'Operating Stmt.'!H6:H6</f>
         <v>Projected</v>
       </c>
-      <c r="I6" s="117" t="str">
+      <c r="I6" s="111" t="str">
         <f>+'Operating Stmt.'!I6:I6</f>
         <v>Projected</v>
       </c>
-      <c r="J6" s="117" t="str">
+      <c r="J6" s="111" t="str">
         <f>+'Operating Stmt.'!J6:J6</f>
         <v>Projected</v>
       </c>
-      <c r="K6" s="117" t="str">
+      <c r="K6" s="111" t="str">
         <f>+'Operating Stmt.'!K6:K6</f>
         <v>Projected</v>
       </c>
-      <c r="L6" s="117" t="str">
+      <c r="L6" s="111" t="str">
         <f>+'Operating Stmt.'!L6:L6</f>
         <v>Projected</v>
       </c>
-      <c r="M6" s="127" t="str">
+      <c r="M6" s="109" t="str">
         <f>+'Operating Stmt.'!M6:M6</f>
         <v>Projected</v>
       </c>
-      <c r="N6" s="109" t="str">
+      <c r="N6" s="125" t="str">
         <f>+'Operating Stmt.'!N6:N6</f>
         <v>Projected</v>
       </c>
-      <c r="O6" s="109" t="str">
+      <c r="O6" s="125" t="str">
         <f>+'Operating Stmt.'!O6:O6</f>
         <v>Projected</v>
       </c>
-      <c r="P6" s="109" t="str">
+      <c r="P6" s="125" t="str">
         <f>+'Operating Stmt.'!P6:P6</f>
         <v>Projected</v>
       </c>
-      <c r="Q6" s="109" t="str">
+      <c r="Q6" s="125" t="str">
         <f>+'Operating Stmt.'!Q6:Q6</f>
         <v>Projected</v>
       </c>
-      <c r="R6" s="109" t="str">
+      <c r="R6" s="125" t="str">
         <f>+'Operating Stmt.'!R6:R6</f>
         <v>Projected</v>
       </c>
-      <c r="S6" s="109" t="str">
+      <c r="S6" s="125" t="str">
         <f>+'Operating Stmt.'!S6:S6</f>
         <v>Projected</v>
       </c>
-      <c r="T6" s="109" t="str">
+      <c r="T6" s="125" t="str">
         <f>+'Operating Stmt.'!T6:T6</f>
         <v>Projected</v>
       </c>
-      <c r="U6" s="109" t="str">
+      <c r="U6" s="125" t="str">
         <f>+'Operating Stmt.'!U6:U6</f>
         <v>Projected</v>
       </c>
-      <c r="V6" s="109" t="str">
+      <c r="V6" s="125" t="str">
         <f>+'Operating Stmt.'!V6:V6</f>
         <v>Projected</v>
       </c>
-      <c r="W6" s="109" t="str">
+      <c r="W6" s="125" t="str">
         <f>+'Operating Stmt.'!W6:W6</f>
         <v>Projected</v>
       </c>
-      <c r="X6" s="109" t="str">
+      <c r="X6" s="125" t="str">
         <f>+'Operating Stmt.'!X6:X6</f>
         <v>Projected</v>
       </c>
-      <c r="Y6" s="111" t="str">
+      <c r="Y6" s="127" t="str">
         <f>+'Operating Stmt.'!Y6:Y6</f>
         <v>Projected</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="116"/>
-      <c r="B7" s="125"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="118"/>
-      <c r="L7" s="118"/>
-      <c r="M7" s="128"/>
-      <c r="N7" s="110"/>
-      <c r="O7" s="110"/>
-      <c r="P7" s="110"/>
-      <c r="Q7" s="110"/>
-      <c r="R7" s="110"/>
-      <c r="S7" s="110"/>
-      <c r="T7" s="110"/>
-      <c r="U7" s="110"/>
-      <c r="V7" s="110"/>
-      <c r="W7" s="110"/>
-      <c r="X7" s="110"/>
-      <c r="Y7" s="112"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="124"/>
+      <c r="D7" s="124"/>
+      <c r="E7" s="124"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="112"/>
+      <c r="M7" s="110"/>
+      <c r="N7" s="126"/>
+      <c r="O7" s="126"/>
+      <c r="P7" s="126"/>
+      <c r="Q7" s="126"/>
+      <c r="R7" s="126"/>
+      <c r="S7" s="126"/>
+      <c r="T7" s="126"/>
+      <c r="U7" s="126"/>
+      <c r="V7" s="126"/>
+      <c r="W7" s="126"/>
+      <c r="X7" s="126"/>
+      <c r="Y7" s="128"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="44" t="s">
@@ -25384,27 +25387,27 @@
       <c r="B86" s="45"/>
       <c r="C86" s="45"/>
       <c r="D86" s="45"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
-      <c r="I86" s="2"/>
-      <c r="J86" s="2"/>
-      <c r="K86" s="2"/>
-      <c r="L86" s="2"/>
-      <c r="M86" s="2"/>
-      <c r="N86" s="89"/>
-      <c r="O86" s="89"/>
-      <c r="P86" s="89"/>
-      <c r="Q86" s="89"/>
-      <c r="R86" s="89"/>
-      <c r="S86" s="89"/>
-      <c r="T86" s="89"/>
-      <c r="U86" s="89"/>
-      <c r="V86" s="89"/>
-      <c r="W86" s="89"/>
-      <c r="X86" s="89"/>
-      <c r="Y86" s="89"/>
+      <c r="E86" s="45"/>
+      <c r="F86" s="45"/>
+      <c r="G86" s="45"/>
+      <c r="H86" s="45"/>
+      <c r="I86" s="45"/>
+      <c r="J86" s="45"/>
+      <c r="K86" s="45"/>
+      <c r="L86" s="45"/>
+      <c r="M86" s="45"/>
+      <c r="N86" s="135"/>
+      <c r="O86" s="135"/>
+      <c r="P86" s="135"/>
+      <c r="Q86" s="135"/>
+      <c r="R86" s="135"/>
+      <c r="S86" s="135"/>
+      <c r="T86" s="135"/>
+      <c r="U86" s="135"/>
+      <c r="V86" s="135"/>
+      <c r="W86" s="135"/>
+      <c r="X86" s="135"/>
+      <c r="Y86" s="135"/>
     </row>
     <row r="87" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="60" t="s">
@@ -25510,12 +25513,18 @@
   </sheetData>
   <sheetProtection password="CF53" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="30">
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R6:R7"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="L6:L7"/>
@@ -25528,18 +25537,12 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="X6:X7"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="I6:I7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11:M13 B17:M32 B82:M83 B41:M53 B67:M80 B57:Y57 N45:Y45">
@@ -25558,31 +25561,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="B73" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B67" sqref="B67"/>
       <selection pane="topRight" activeCell="B67" sqref="B67"/>
       <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
-      <selection pane="bottomRight" activeCell="A89" sqref="A89"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="59" style="62" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="25" width="17.7109375" style="40" customWidth="1" collapsed="1"/>
-    <col min="26" max="16382" width="9.140625" style="40" customWidth="1" collapsed="1"/>
-    <col min="16383" max="16383" width="9.140625" style="40"/>
-    <col min="16384" max="16384" width="9.140625" style="40" collapsed="1"/>
+    <col min="26" max="16382" width="9.140625" style="40" hidden="1" collapsed="1"/>
+    <col min="16383" max="16383" width="0" style="40" hidden="1"/>
+    <col min="16384" max="16384" width="0" style="40" hidden="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="117" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
       <c r="F1" s="36"/>
       <c r="G1" s="36"/>
       <c r="H1" s="36"/>
@@ -25603,13 +25606,13 @@
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="118" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
       <c r="F2" s="39"/>
       <c r="G2" s="39"/>
       <c r="H2" s="39"/>
@@ -25620,13 +25623,13 @@
       <c r="M2" s="39"/>
     </row>
     <row r="3" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="123" t="s">
+      <c r="A3" s="121" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="123"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
       <c r="F3" s="41"/>
       <c r="G3" s="41"/>
       <c r="H3" s="41"/>
@@ -25637,11 +25640,11 @@
       <c r="M3" s="41"/>
     </row>
     <row r="4" spans="1:25" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="121" t="s">
+      <c r="A4" s="119" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="122"/>
-      <c r="C4" s="122"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
       <c r="D4" s="101" t="s">
         <v>41</v>
       </c>
@@ -25670,7 +25673,7 @@
       <c r="Y4" s="42"/>
     </row>
     <row r="5" spans="1:25" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="132" t="s">
+      <c r="A5" s="130" t="s">
         <v>96</v>
       </c>
       <c r="B5" s="84">
@@ -25771,117 +25774,117 @@
       </c>
     </row>
     <row r="6" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="133"/>
-      <c r="B6" s="124" t="str">
+      <c r="A6" s="131"/>
+      <c r="B6" s="122" t="str">
         <f>Liabilities!B6</f>
         <v>Audited</v>
       </c>
-      <c r="C6" s="117" t="str">
+      <c r="C6" s="111" t="str">
         <f>Liabilities!C6</f>
         <v>Audited</v>
       </c>
-      <c r="D6" s="117" t="str">
+      <c r="D6" s="111" t="str">
         <f>Liabilities!D6</f>
         <v>Audited</v>
       </c>
-      <c r="E6" s="117" t="str">
+      <c r="E6" s="111" t="str">
         <f>Liabilities!E6</f>
         <v>Estimated</v>
       </c>
-      <c r="F6" s="117" t="str">
+      <c r="F6" s="111" t="str">
         <f>Liabilities!F6</f>
         <v>Projected</v>
       </c>
-      <c r="G6" s="117" t="str">
+      <c r="G6" s="111" t="str">
         <f>Liabilities!G6</f>
         <v>Projected</v>
       </c>
-      <c r="H6" s="117" t="str">
+      <c r="H6" s="111" t="str">
         <f>Liabilities!H6</f>
         <v>Projected</v>
       </c>
-      <c r="I6" s="117" t="str">
+      <c r="I6" s="111" t="str">
         <f>Liabilities!I6</f>
         <v>Projected</v>
       </c>
-      <c r="J6" s="117" t="str">
+      <c r="J6" s="111" t="str">
         <f>Liabilities!J6</f>
         <v>Projected</v>
       </c>
-      <c r="K6" s="117" t="str">
+      <c r="K6" s="111" t="str">
         <f>Liabilities!K6</f>
         <v>Projected</v>
       </c>
-      <c r="L6" s="117" t="str">
+      <c r="L6" s="111" t="str">
         <f>Liabilities!L6</f>
         <v>Projected</v>
       </c>
-      <c r="M6" s="127" t="str">
+      <c r="M6" s="109" t="str">
         <f>Liabilities!M6</f>
         <v>Projected</v>
       </c>
-      <c r="N6" s="127" t="str">
+      <c r="N6" s="109" t="str">
         <f>Liabilities!N6</f>
         <v>Projected</v>
       </c>
-      <c r="O6" s="127" t="str">
+      <c r="O6" s="109" t="str">
         <f>Liabilities!O6</f>
         <v>Projected</v>
       </c>
-      <c r="P6" s="127" t="str">
+      <c r="P6" s="109" t="str">
         <f>Liabilities!P6</f>
         <v>Projected</v>
       </c>
-      <c r="Q6" s="127" t="str">
+      <c r="Q6" s="109" t="str">
         <f>Liabilities!Q6</f>
         <v>Projected</v>
       </c>
-      <c r="R6" s="127" t="str">
+      <c r="R6" s="109" t="str">
         <f>Liabilities!R6</f>
         <v>Projected</v>
       </c>
-      <c r="S6" s="127" t="str">
+      <c r="S6" s="109" t="str">
         <f>Liabilities!S6</f>
         <v>Projected</v>
       </c>
-      <c r="T6" s="127" t="str">
+      <c r="T6" s="109" t="str">
         <f>Liabilities!T6</f>
         <v>Projected</v>
       </c>
-      <c r="U6" s="127" t="str">
+      <c r="U6" s="109" t="str">
         <f>Liabilities!U6</f>
         <v>Projected</v>
       </c>
-      <c r="V6" s="127" t="str">
+      <c r="V6" s="109" t="str">
         <f>Liabilities!V6</f>
         <v>Projected</v>
       </c>
-      <c r="W6" s="127" t="str">
+      <c r="W6" s="109" t="str">
         <f>Liabilities!W6</f>
         <v>Projected</v>
       </c>
-      <c r="X6" s="127" t="str">
+      <c r="X6" s="109" t="str">
         <f>Liabilities!X6</f>
         <v>Projected</v>
       </c>
-      <c r="Y6" s="130" t="str">
+      <c r="Y6" s="132" t="str">
         <f>Liabilities!Y6</f>
         <v>Projected</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="133"/>
-      <c r="B7" s="125"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
-      <c r="H7" s="126"/>
-      <c r="I7" s="126"/>
-      <c r="J7" s="126"/>
-      <c r="K7" s="126"/>
-      <c r="L7" s="126"/>
+      <c r="A7" s="131"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="124"/>
+      <c r="D7" s="124"/>
+      <c r="E7" s="124"/>
+      <c r="F7" s="124"/>
+      <c r="G7" s="124"/>
+      <c r="H7" s="124"/>
+      <c r="I7" s="124"/>
+      <c r="J7" s="124"/>
+      <c r="K7" s="124"/>
+      <c r="L7" s="124"/>
       <c r="M7" s="129"/>
       <c r="N7" s="129"/>
       <c r="O7" s="129"/>
@@ -25894,7 +25897,7 @@
       <c r="V7" s="129"/>
       <c r="W7" s="129"/>
       <c r="X7" s="129"/>
-      <c r="Y7" s="131"/>
+      <c r="Y7" s="133"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="64" t="s">
@@ -28971,27 +28974,27 @@
       <c r="B88" s="66"/>
       <c r="C88" s="66"/>
       <c r="D88" s="66"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="2"/>
-      <c r="J88" s="2"/>
-      <c r="K88" s="2"/>
-      <c r="L88" s="2"/>
-      <c r="M88" s="2"/>
-      <c r="N88" s="89"/>
-      <c r="O88" s="89"/>
-      <c r="P88" s="89"/>
-      <c r="Q88" s="89"/>
-      <c r="R88" s="89"/>
-      <c r="S88" s="89"/>
-      <c r="T88" s="89"/>
-      <c r="U88" s="89"/>
-      <c r="V88" s="89"/>
-      <c r="W88" s="89"/>
-      <c r="X88" s="89"/>
-      <c r="Y88" s="89"/>
+      <c r="E88" s="66"/>
+      <c r="F88" s="45"/>
+      <c r="G88" s="45"/>
+      <c r="H88" s="45"/>
+      <c r="I88" s="45"/>
+      <c r="J88" s="45"/>
+      <c r="K88" s="45"/>
+      <c r="L88" s="45"/>
+      <c r="M88" s="45"/>
+      <c r="N88" s="135"/>
+      <c r="O88" s="135"/>
+      <c r="P88" s="135"/>
+      <c r="Q88" s="135"/>
+      <c r="R88" s="135"/>
+      <c r="S88" s="135"/>
+      <c r="T88" s="135"/>
+      <c r="U88" s="135"/>
+      <c r="V88" s="135"/>
+      <c r="W88" s="135"/>
+      <c r="X88" s="135"/>
+      <c r="Y88" s="135"/>
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89" s="65" t="s">
@@ -29735,7 +29738,21 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection password="CF53" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="29">
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:E3"/>
@@ -29752,19 +29769,6 @@
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="X6:X7"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="W6:W7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" orientation="portrait" r:id="rId1"/>

--- a/service-loans/template/Template_CW_CMA_TL_WCTL.xlsx
+++ b/service-loans/template/Template_CW_CMA_TL_WCTL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="nMIDBcyH02QIBA4bXtkulhW+BkwLjO6uUdnHuLe/vey9rIzKWc8NDkCsYZON8UKSky/yikEzYHsiuF6pBe7KDg==" workbookSaltValue="OCFZwCBGKUImSpaXHpKcuQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="4020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="4020" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Operating Stmt." sheetId="2" r:id="rId1"/>
@@ -1400,6 +1400,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1421,16 +1423,16 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
@@ -1443,6 +1445,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1474,18 +1482,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1494,14 +1502,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="4" builtinId="3"/>
@@ -1812,8 +1812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="6" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B67" sqref="B67"/>
       <selection pane="topRight" activeCell="B67" sqref="B67"/>
       <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
@@ -1829,13 +1829,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16384" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="106" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
@@ -1862,13 +1862,13 @@
       <c r="S1" s="38"/>
     </row>
     <row r="2" spans="1:16384" x14ac:dyDescent="0.25">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
@@ -1887,13 +1887,13 @@
       <c r="S2" s="38"/>
     </row>
     <row r="3" spans="1:16384" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="108" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
@@ -1910,11 +1910,11 @@
       <c r="S3" s="38"/>
     </row>
     <row r="4" spans="1:16384" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="107" t="s">
+      <c r="A4" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
       <c r="D4" s="98" t="s">
         <v>41</v>
       </c>
@@ -21660,18 +21660,18 @@
       <c r="K76" s="10"/>
       <c r="L76" s="10"/>
       <c r="M76" s="10"/>
-      <c r="N76" s="134"/>
-      <c r="O76" s="134"/>
-      <c r="P76" s="134"/>
-      <c r="Q76" s="134"/>
-      <c r="R76" s="134"/>
-      <c r="S76" s="134"/>
-      <c r="T76" s="134"/>
-      <c r="U76" s="134"/>
-      <c r="V76" s="134"/>
-      <c r="W76" s="134"/>
-      <c r="X76" s="134"/>
-      <c r="Y76" s="134"/>
+      <c r="N76" s="104"/>
+      <c r="O76" s="104"/>
+      <c r="P76" s="104"/>
+      <c r="Q76" s="104"/>
+      <c r="R76" s="104"/>
+      <c r="S76" s="104"/>
+      <c r="T76" s="104"/>
+      <c r="U76" s="104"/>
+      <c r="V76" s="104"/>
+      <c r="W76" s="104"/>
+      <c r="X76" s="104"/>
+      <c r="Y76" s="104"/>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" s="20" t="s">
@@ -22271,11 +22271,11 @@
   <dimension ref="A1:Y87"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="7" topLeftCell="B68" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B67" sqref="B67"/>
       <selection pane="topRight" activeCell="B67" sqref="B67"/>
       <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -22286,13 +22286,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="121" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
       <c r="F1" s="35"/>
       <c r="G1" s="36"/>
       <c r="H1" s="36"/>
@@ -22313,13 +22313,13 @@
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="122" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
       <c r="F2" s="39"/>
       <c r="G2" s="39"/>
       <c r="H2" s="39"/>
@@ -22330,13 +22330,13 @@
       <c r="M2" s="39"/>
     </row>
     <row r="3" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="121" t="s">
+      <c r="A3" s="125" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="121"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
       <c r="F3" s="41"/>
       <c r="G3" s="41"/>
       <c r="H3" s="41"/>
@@ -22347,11 +22347,11 @@
       <c r="M3" s="41"/>
     </row>
     <row r="4" spans="1:25" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="123" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
+      <c r="B4" s="124"/>
+      <c r="C4" s="124"/>
       <c r="D4" s="100" t="s">
         <v>41</v>
       </c>
@@ -22380,7 +22380,7 @@
       <c r="Y4" s="42"/>
     </row>
     <row r="5" spans="1:25" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="115" t="s">
+      <c r="A5" s="117" t="s">
         <v>72</v>
       </c>
       <c r="B5" s="84">
@@ -22481,130 +22481,130 @@
       </c>
     </row>
     <row r="6" spans="1:25" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="116"/>
-      <c r="B6" s="122" t="str">
+      <c r="A6" s="118"/>
+      <c r="B6" s="126" t="str">
         <f>+'Operating Stmt.'!B6:B6</f>
         <v>Audited</v>
       </c>
-      <c r="C6" s="111" t="str">
+      <c r="C6" s="119" t="str">
         <f>+'Operating Stmt.'!C6:C6</f>
         <v>Audited</v>
       </c>
-      <c r="D6" s="111" t="str">
+      <c r="D6" s="119" t="str">
         <f>+'Operating Stmt.'!D6:D6</f>
         <v>Audited</v>
       </c>
-      <c r="E6" s="111" t="str">
+      <c r="E6" s="119" t="str">
         <f>+'Operating Stmt.'!E6:E6</f>
         <v>Estimated</v>
       </c>
-      <c r="F6" s="111" t="str">
+      <c r="F6" s="119" t="str">
         <f>+'Operating Stmt.'!F6:F6</f>
         <v>Projected</v>
       </c>
-      <c r="G6" s="111" t="str">
+      <c r="G6" s="119" t="str">
         <f>+'Operating Stmt.'!G6:G6</f>
         <v>Projected</v>
       </c>
-      <c r="H6" s="111" t="str">
+      <c r="H6" s="119" t="str">
         <f>+'Operating Stmt.'!H6:H6</f>
         <v>Projected</v>
       </c>
-      <c r="I6" s="111" t="str">
+      <c r="I6" s="119" t="str">
         <f>+'Operating Stmt.'!I6:I6</f>
         <v>Projected</v>
       </c>
-      <c r="J6" s="111" t="str">
+      <c r="J6" s="119" t="str">
         <f>+'Operating Stmt.'!J6:J6</f>
         <v>Projected</v>
       </c>
-      <c r="K6" s="111" t="str">
+      <c r="K6" s="119" t="str">
         <f>+'Operating Stmt.'!K6:K6</f>
         <v>Projected</v>
       </c>
-      <c r="L6" s="111" t="str">
+      <c r="L6" s="119" t="str">
         <f>+'Operating Stmt.'!L6:L6</f>
         <v>Projected</v>
       </c>
-      <c r="M6" s="109" t="str">
+      <c r="M6" s="129" t="str">
         <f>+'Operating Stmt.'!M6:M6</f>
         <v>Projected</v>
       </c>
-      <c r="N6" s="125" t="str">
+      <c r="N6" s="111" t="str">
         <f>+'Operating Stmt.'!N6:N6</f>
         <v>Projected</v>
       </c>
-      <c r="O6" s="125" t="str">
+      <c r="O6" s="111" t="str">
         <f>+'Operating Stmt.'!O6:O6</f>
         <v>Projected</v>
       </c>
-      <c r="P6" s="125" t="str">
+      <c r="P6" s="111" t="str">
         <f>+'Operating Stmt.'!P6:P6</f>
         <v>Projected</v>
       </c>
-      <c r="Q6" s="125" t="str">
+      <c r="Q6" s="111" t="str">
         <f>+'Operating Stmt.'!Q6:Q6</f>
         <v>Projected</v>
       </c>
-      <c r="R6" s="125" t="str">
+      <c r="R6" s="111" t="str">
         <f>+'Operating Stmt.'!R6:R6</f>
         <v>Projected</v>
       </c>
-      <c r="S6" s="125" t="str">
+      <c r="S6" s="111" t="str">
         <f>+'Operating Stmt.'!S6:S6</f>
         <v>Projected</v>
       </c>
-      <c r="T6" s="125" t="str">
+      <c r="T6" s="111" t="str">
         <f>+'Operating Stmt.'!T6:T6</f>
         <v>Projected</v>
       </c>
-      <c r="U6" s="125" t="str">
+      <c r="U6" s="111" t="str">
         <f>+'Operating Stmt.'!U6:U6</f>
         <v>Projected</v>
       </c>
-      <c r="V6" s="125" t="str">
+      <c r="V6" s="111" t="str">
         <f>+'Operating Stmt.'!V6:V6</f>
         <v>Projected</v>
       </c>
-      <c r="W6" s="125" t="str">
+      <c r="W6" s="111" t="str">
         <f>+'Operating Stmt.'!W6:W6</f>
         <v>Projected</v>
       </c>
-      <c r="X6" s="125" t="str">
+      <c r="X6" s="111" t="str">
         <f>+'Operating Stmt.'!X6:X6</f>
         <v>Projected</v>
       </c>
-      <c r="Y6" s="127" t="str">
+      <c r="Y6" s="113" t="str">
         <f>+'Operating Stmt.'!Y6:Y6</f>
         <v>Projected</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="116"/>
-      <c r="B7" s="123"/>
-      <c r="C7" s="124"/>
-      <c r="D7" s="124"/>
-      <c r="E7" s="124"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
-      <c r="H7" s="112"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="112"/>
-      <c r="K7" s="112"/>
-      <c r="L7" s="112"/>
-      <c r="M7" s="110"/>
-      <c r="N7" s="126"/>
-      <c r="O7" s="126"/>
-      <c r="P7" s="126"/>
-      <c r="Q7" s="126"/>
-      <c r="R7" s="126"/>
-      <c r="S7" s="126"/>
-      <c r="T7" s="126"/>
-      <c r="U7" s="126"/>
-      <c r="V7" s="126"/>
-      <c r="W7" s="126"/>
-      <c r="X7" s="126"/>
-      <c r="Y7" s="128"/>
+      <c r="A7" s="118"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="120"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="120"/>
+      <c r="M7" s="130"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="112"/>
+      <c r="R7" s="112"/>
+      <c r="S7" s="112"/>
+      <c r="T7" s="112"/>
+      <c r="U7" s="112"/>
+      <c r="V7" s="112"/>
+      <c r="W7" s="112"/>
+      <c r="X7" s="112"/>
+      <c r="Y7" s="114"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="44" t="s">
@@ -23386,7 +23386,7 @@
       <c r="Y32" s="89"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A33" s="113"/>
+      <c r="A33" s="115"/>
       <c r="B33" s="45"/>
       <c r="C33" s="45"/>
       <c r="D33" s="45"/>
@@ -23413,7 +23413,7 @@
       <c r="Y33" s="89"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A34" s="114"/>
+      <c r="A34" s="116"/>
       <c r="B34" s="45"/>
       <c r="C34" s="45"/>
       <c r="D34" s="45"/>
@@ -25396,18 +25396,18 @@
       <c r="K86" s="45"/>
       <c r="L86" s="45"/>
       <c r="M86" s="45"/>
-      <c r="N86" s="135"/>
-      <c r="O86" s="135"/>
-      <c r="P86" s="135"/>
-      <c r="Q86" s="135"/>
-      <c r="R86" s="135"/>
-      <c r="S86" s="135"/>
-      <c r="T86" s="135"/>
-      <c r="U86" s="135"/>
-      <c r="V86" s="135"/>
-      <c r="W86" s="135"/>
-      <c r="X86" s="135"/>
-      <c r="Y86" s="135"/>
+      <c r="N86" s="105"/>
+      <c r="O86" s="105"/>
+      <c r="P86" s="105"/>
+      <c r="Q86" s="105"/>
+      <c r="R86" s="105"/>
+      <c r="S86" s="105"/>
+      <c r="T86" s="105"/>
+      <c r="U86" s="105"/>
+      <c r="V86" s="105"/>
+      <c r="W86" s="105"/>
+      <c r="X86" s="105"/>
+      <c r="Y86" s="105"/>
     </row>
     <row r="87" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="60" t="s">
@@ -25513,18 +25513,12 @@
   </sheetData>
   <sheetProtection password="CF53" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="30">
-    <mergeCell ref="X6:X7"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="W6:W7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="I6:I7"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="L6:L7"/>
@@ -25537,12 +25531,18 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="W6:W7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11:M13 B17:M32 B82:M83 B41:M53 B67:M80 B57:Y57 N45:Y45">
@@ -25561,7 +25561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD99"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B67" sqref="B67"/>
       <selection pane="topRight" activeCell="B67" sqref="B67"/>
@@ -25579,13 +25579,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="121" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
       <c r="F1" s="36"/>
       <c r="G1" s="36"/>
       <c r="H1" s="36"/>
@@ -25606,13 +25606,13 @@
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="122" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
       <c r="F2" s="39"/>
       <c r="G2" s="39"/>
       <c r="H2" s="39"/>
@@ -25623,13 +25623,13 @@
       <c r="M2" s="39"/>
     </row>
     <row r="3" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="121" t="s">
+      <c r="A3" s="125" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="121"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
       <c r="F3" s="41"/>
       <c r="G3" s="41"/>
       <c r="H3" s="41"/>
@@ -25640,11 +25640,11 @@
       <c r="M3" s="41"/>
     </row>
     <row r="4" spans="1:25" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="123" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
+      <c r="B4" s="124"/>
+      <c r="C4" s="124"/>
       <c r="D4" s="101" t="s">
         <v>41</v>
       </c>
@@ -25673,7 +25673,7 @@
       <c r="Y4" s="42"/>
     </row>
     <row r="5" spans="1:25" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="130" t="s">
+      <c r="A5" s="134" t="s">
         <v>96</v>
       </c>
       <c r="B5" s="84">
@@ -25774,96 +25774,96 @@
       </c>
     </row>
     <row r="6" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="131"/>
-      <c r="B6" s="122" t="str">
+      <c r="A6" s="135"/>
+      <c r="B6" s="126" t="str">
         <f>Liabilities!B6</f>
         <v>Audited</v>
       </c>
-      <c r="C6" s="111" t="str">
+      <c r="C6" s="119" t="str">
         <f>Liabilities!C6</f>
         <v>Audited</v>
       </c>
-      <c r="D6" s="111" t="str">
+      <c r="D6" s="119" t="str">
         <f>Liabilities!D6</f>
         <v>Audited</v>
       </c>
-      <c r="E6" s="111" t="str">
+      <c r="E6" s="119" t="str">
         <f>Liabilities!E6</f>
         <v>Estimated</v>
       </c>
-      <c r="F6" s="111" t="str">
+      <c r="F6" s="119" t="str">
         <f>Liabilities!F6</f>
         <v>Projected</v>
       </c>
-      <c r="G6" s="111" t="str">
+      <c r="G6" s="119" t="str">
         <f>Liabilities!G6</f>
         <v>Projected</v>
       </c>
-      <c r="H6" s="111" t="str">
+      <c r="H6" s="119" t="str">
         <f>Liabilities!H6</f>
         <v>Projected</v>
       </c>
-      <c r="I6" s="111" t="str">
+      <c r="I6" s="119" t="str">
         <f>Liabilities!I6</f>
         <v>Projected</v>
       </c>
-      <c r="J6" s="111" t="str">
+      <c r="J6" s="119" t="str">
         <f>Liabilities!J6</f>
         <v>Projected</v>
       </c>
-      <c r="K6" s="111" t="str">
+      <c r="K6" s="119" t="str">
         <f>Liabilities!K6</f>
         <v>Projected</v>
       </c>
-      <c r="L6" s="111" t="str">
+      <c r="L6" s="119" t="str">
         <f>Liabilities!L6</f>
         <v>Projected</v>
       </c>
-      <c r="M6" s="109" t="str">
+      <c r="M6" s="129" t="str">
         <f>Liabilities!M6</f>
         <v>Projected</v>
       </c>
-      <c r="N6" s="109" t="str">
+      <c r="N6" s="129" t="str">
         <f>Liabilities!N6</f>
         <v>Projected</v>
       </c>
-      <c r="O6" s="109" t="str">
+      <c r="O6" s="129" t="str">
         <f>Liabilities!O6</f>
         <v>Projected</v>
       </c>
-      <c r="P6" s="109" t="str">
+      <c r="P6" s="129" t="str">
         <f>Liabilities!P6</f>
         <v>Projected</v>
       </c>
-      <c r="Q6" s="109" t="str">
+      <c r="Q6" s="129" t="str">
         <f>Liabilities!Q6</f>
         <v>Projected</v>
       </c>
-      <c r="R6" s="109" t="str">
+      <c r="R6" s="129" t="str">
         <f>Liabilities!R6</f>
         <v>Projected</v>
       </c>
-      <c r="S6" s="109" t="str">
+      <c r="S6" s="129" t="str">
         <f>Liabilities!S6</f>
         <v>Projected</v>
       </c>
-      <c r="T6" s="109" t="str">
+      <c r="T6" s="129" t="str">
         <f>Liabilities!T6</f>
         <v>Projected</v>
       </c>
-      <c r="U6" s="109" t="str">
+      <c r="U6" s="129" t="str">
         <f>Liabilities!U6</f>
         <v>Projected</v>
       </c>
-      <c r="V6" s="109" t="str">
+      <c r="V6" s="129" t="str">
         <f>Liabilities!V6</f>
         <v>Projected</v>
       </c>
-      <c r="W6" s="109" t="str">
+      <c r="W6" s="129" t="str">
         <f>Liabilities!W6</f>
         <v>Projected</v>
       </c>
-      <c r="X6" s="109" t="str">
+      <c r="X6" s="129" t="str">
         <f>Liabilities!X6</f>
         <v>Projected</v>
       </c>
@@ -25873,30 +25873,30 @@
       </c>
     </row>
     <row r="7" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="131"/>
-      <c r="B7" s="123"/>
-      <c r="C7" s="124"/>
-      <c r="D7" s="124"/>
-      <c r="E7" s="124"/>
-      <c r="F7" s="124"/>
-      <c r="G7" s="124"/>
-      <c r="H7" s="124"/>
-      <c r="I7" s="124"/>
-      <c r="J7" s="124"/>
-      <c r="K7" s="124"/>
-      <c r="L7" s="124"/>
-      <c r="M7" s="129"/>
-      <c r="N7" s="129"/>
-      <c r="O7" s="129"/>
-      <c r="P7" s="129"/>
-      <c r="Q7" s="129"/>
-      <c r="R7" s="129"/>
-      <c r="S7" s="129"/>
-      <c r="T7" s="129"/>
-      <c r="U7" s="129"/>
-      <c r="V7" s="129"/>
-      <c r="W7" s="129"/>
-      <c r="X7" s="129"/>
+      <c r="A7" s="135"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="128"/>
+      <c r="H7" s="128"/>
+      <c r="I7" s="128"/>
+      <c r="J7" s="128"/>
+      <c r="K7" s="128"/>
+      <c r="L7" s="128"/>
+      <c r="M7" s="131"/>
+      <c r="N7" s="131"/>
+      <c r="O7" s="131"/>
+      <c r="P7" s="131"/>
+      <c r="Q7" s="131"/>
+      <c r="R7" s="131"/>
+      <c r="S7" s="131"/>
+      <c r="T7" s="131"/>
+      <c r="U7" s="131"/>
+      <c r="V7" s="131"/>
+      <c r="W7" s="131"/>
+      <c r="X7" s="131"/>
       <c r="Y7" s="133"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -28983,25 +28983,25 @@
       <c r="K88" s="45"/>
       <c r="L88" s="45"/>
       <c r="M88" s="45"/>
-      <c r="N88" s="135"/>
-      <c r="O88" s="135"/>
-      <c r="P88" s="135"/>
-      <c r="Q88" s="135"/>
-      <c r="R88" s="135"/>
-      <c r="S88" s="135"/>
-      <c r="T88" s="135"/>
-      <c r="U88" s="135"/>
-      <c r="V88" s="135"/>
-      <c r="W88" s="135"/>
-      <c r="X88" s="135"/>
-      <c r="Y88" s="135"/>
+      <c r="N88" s="105"/>
+      <c r="O88" s="105"/>
+      <c r="P88" s="105"/>
+      <c r="Q88" s="105"/>
+      <c r="R88" s="105"/>
+      <c r="S88" s="105"/>
+      <c r="T88" s="105"/>
+      <c r="U88" s="105"/>
+      <c r="V88" s="105"/>
+      <c r="W88" s="105"/>
+      <c r="X88" s="105"/>
+      <c r="Y88" s="105"/>
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89" s="65" t="s">
         <v>155</v>
       </c>
       <c r="B89" s="68">
-        <f>SUM(ROUND(B43+B56+B80+B826+B88,2))</f>
+        <f>SUM(ROUND(B43+B56+B80+B82+B88,2))</f>
         <v>0</v>
       </c>
       <c r="C89" s="68">
@@ -29740,19 +29740,6 @@
   </sheetData>
   <sheetProtection password="CF53" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="29">
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="X6:X7"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="W6:W7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:E3"/>
@@ -29769,6 +29756,19 @@
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="W6:W7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" orientation="portrait" r:id="rId1"/>

--- a/service-loans/template/Template_CW_CMA_TL_WCTL.xlsx
+++ b/service-loans/template/Template_CW_CMA_TL_WCTL.xlsx
@@ -1423,16 +1423,16 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
@@ -1445,12 +1445,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1482,18 +1476,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1501,6 +1495,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1813,7 +1813,7 @@
   <dimension ref="A1:XFD86"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B67" sqref="B67"/>
       <selection pane="topRight" activeCell="B67" sqref="B67"/>
       <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
@@ -22271,11 +22271,11 @@
   <dimension ref="A1:Y87"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="B68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B67" sqref="B67"/>
       <selection pane="topRight" activeCell="B67" sqref="B67"/>
       <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
-      <selection pane="bottomRight" activeCell="E87" sqref="E87"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -22286,13 +22286,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="119" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
       <c r="F1" s="35"/>
       <c r="G1" s="36"/>
       <c r="H1" s="36"/>
@@ -22313,13 +22313,13 @@
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="120" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
       <c r="F2" s="39"/>
       <c r="G2" s="39"/>
       <c r="H2" s="39"/>
@@ -22330,13 +22330,13 @@
       <c r="M2" s="39"/>
     </row>
     <row r="3" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="125" t="s">
+      <c r="A3" s="123" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
       <c r="F3" s="41"/>
       <c r="G3" s="41"/>
       <c r="H3" s="41"/>
@@ -22347,11 +22347,11 @@
       <c r="M3" s="41"/>
     </row>
     <row r="4" spans="1:25" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="123" t="s">
+      <c r="A4" s="121" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="124"/>
-      <c r="C4" s="124"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
       <c r="D4" s="100" t="s">
         <v>41</v>
       </c>
@@ -22482,129 +22482,129 @@
     </row>
     <row r="6" spans="1:25" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="118"/>
-      <c r="B6" s="126" t="str">
+      <c r="B6" s="124" t="str">
         <f>+'Operating Stmt.'!B6:B6</f>
         <v>Audited</v>
       </c>
-      <c r="C6" s="119" t="str">
+      <c r="C6" s="113" t="str">
         <f>+'Operating Stmt.'!C6:C6</f>
         <v>Audited</v>
       </c>
-      <c r="D6" s="119" t="str">
+      <c r="D6" s="113" t="str">
         <f>+'Operating Stmt.'!D6:D6</f>
         <v>Audited</v>
       </c>
-      <c r="E6" s="119" t="str">
+      <c r="E6" s="113" t="str">
         <f>+'Operating Stmt.'!E6:E6</f>
         <v>Estimated</v>
       </c>
-      <c r="F6" s="119" t="str">
+      <c r="F6" s="113" t="str">
         <f>+'Operating Stmt.'!F6:F6</f>
         <v>Projected</v>
       </c>
-      <c r="G6" s="119" t="str">
+      <c r="G6" s="113" t="str">
         <f>+'Operating Stmt.'!G6:G6</f>
         <v>Projected</v>
       </c>
-      <c r="H6" s="119" t="str">
+      <c r="H6" s="113" t="str">
         <f>+'Operating Stmt.'!H6:H6</f>
         <v>Projected</v>
       </c>
-      <c r="I6" s="119" t="str">
+      <c r="I6" s="113" t="str">
         <f>+'Operating Stmt.'!I6:I6</f>
         <v>Projected</v>
       </c>
-      <c r="J6" s="119" t="str">
+      <c r="J6" s="113" t="str">
         <f>+'Operating Stmt.'!J6:J6</f>
         <v>Projected</v>
       </c>
-      <c r="K6" s="119" t="str">
+      <c r="K6" s="113" t="str">
         <f>+'Operating Stmt.'!K6:K6</f>
         <v>Projected</v>
       </c>
-      <c r="L6" s="119" t="str">
+      <c r="L6" s="113" t="str">
         <f>+'Operating Stmt.'!L6:L6</f>
         <v>Projected</v>
       </c>
-      <c r="M6" s="129" t="str">
+      <c r="M6" s="111" t="str">
         <f>+'Operating Stmt.'!M6:M6</f>
         <v>Projected</v>
       </c>
-      <c r="N6" s="111" t="str">
+      <c r="N6" s="127" t="str">
         <f>+'Operating Stmt.'!N6:N6</f>
         <v>Projected</v>
       </c>
-      <c r="O6" s="111" t="str">
+      <c r="O6" s="127" t="str">
         <f>+'Operating Stmt.'!O6:O6</f>
         <v>Projected</v>
       </c>
-      <c r="P6" s="111" t="str">
+      <c r="P6" s="127" t="str">
         <f>+'Operating Stmt.'!P6:P6</f>
         <v>Projected</v>
       </c>
-      <c r="Q6" s="111" t="str">
+      <c r="Q6" s="127" t="str">
         <f>+'Operating Stmt.'!Q6:Q6</f>
         <v>Projected</v>
       </c>
-      <c r="R6" s="111" t="str">
+      <c r="R6" s="127" t="str">
         <f>+'Operating Stmt.'!R6:R6</f>
         <v>Projected</v>
       </c>
-      <c r="S6" s="111" t="str">
+      <c r="S6" s="127" t="str">
         <f>+'Operating Stmt.'!S6:S6</f>
         <v>Projected</v>
       </c>
-      <c r="T6" s="111" t="str">
+      <c r="T6" s="127" t="str">
         <f>+'Operating Stmt.'!T6:T6</f>
         <v>Projected</v>
       </c>
-      <c r="U6" s="111" t="str">
+      <c r="U6" s="127" t="str">
         <f>+'Operating Stmt.'!U6:U6</f>
         <v>Projected</v>
       </c>
-      <c r="V6" s="111" t="str">
+      <c r="V6" s="127" t="str">
         <f>+'Operating Stmt.'!V6:V6</f>
         <v>Projected</v>
       </c>
-      <c r="W6" s="111" t="str">
+      <c r="W6" s="127" t="str">
         <f>+'Operating Stmt.'!W6:W6</f>
         <v>Projected</v>
       </c>
-      <c r="X6" s="111" t="str">
+      <c r="X6" s="127" t="str">
         <f>+'Operating Stmt.'!X6:X6</f>
         <v>Projected</v>
       </c>
-      <c r="Y6" s="113" t="str">
+      <c r="Y6" s="129" t="str">
         <f>+'Operating Stmt.'!Y6:Y6</f>
         <v>Projected</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="118"/>
-      <c r="B7" s="127"/>
-      <c r="C7" s="128"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="120"/>
-      <c r="H7" s="120"/>
-      <c r="I7" s="120"/>
-      <c r="J7" s="120"/>
-      <c r="K7" s="120"/>
-      <c r="L7" s="120"/>
-      <c r="M7" s="130"/>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="112"/>
-      <c r="S7" s="112"/>
-      <c r="T7" s="112"/>
-      <c r="U7" s="112"/>
-      <c r="V7" s="112"/>
-      <c r="W7" s="112"/>
-      <c r="X7" s="112"/>
-      <c r="Y7" s="114"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="114"/>
+      <c r="M7" s="112"/>
+      <c r="N7" s="128"/>
+      <c r="O7" s="128"/>
+      <c r="P7" s="128"/>
+      <c r="Q7" s="128"/>
+      <c r="R7" s="128"/>
+      <c r="S7" s="128"/>
+      <c r="T7" s="128"/>
+      <c r="U7" s="128"/>
+      <c r="V7" s="128"/>
+      <c r="W7" s="128"/>
+      <c r="X7" s="128"/>
+      <c r="Y7" s="130"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="44" t="s">
@@ -25513,12 +25513,18 @@
   </sheetData>
   <sheetProtection password="CF53" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="30">
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R6:R7"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="L6:L7"/>
@@ -25531,18 +25537,12 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="X6:X7"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="I6:I7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11:M13 B17:M32 B82:M83 B41:M53 B67:M80 B57:Y57 N45:Y45">
@@ -25579,13 +25579,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="119" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
       <c r="F1" s="36"/>
       <c r="G1" s="36"/>
       <c r="H1" s="36"/>
@@ -25606,13 +25606,13 @@
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="120" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
       <c r="F2" s="39"/>
       <c r="G2" s="39"/>
       <c r="H2" s="39"/>
@@ -25623,13 +25623,13 @@
       <c r="M2" s="39"/>
     </row>
     <row r="3" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="125" t="s">
+      <c r="A3" s="123" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
       <c r="F3" s="41"/>
       <c r="G3" s="41"/>
       <c r="H3" s="41"/>
@@ -25640,11 +25640,11 @@
       <c r="M3" s="41"/>
     </row>
     <row r="4" spans="1:25" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="123" t="s">
+      <c r="A4" s="121" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="124"/>
-      <c r="C4" s="124"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
       <c r="D4" s="101" t="s">
         <v>41</v>
       </c>
@@ -25673,7 +25673,7 @@
       <c r="Y4" s="42"/>
     </row>
     <row r="5" spans="1:25" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="134" t="s">
+      <c r="A5" s="132" t="s">
         <v>96</v>
       </c>
       <c r="B5" s="84">
@@ -25774,117 +25774,117 @@
       </c>
     </row>
     <row r="6" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="135"/>
-      <c r="B6" s="126" t="str">
+      <c r="A6" s="133"/>
+      <c r="B6" s="124" t="str">
         <f>Liabilities!B6</f>
         <v>Audited</v>
       </c>
-      <c r="C6" s="119" t="str">
+      <c r="C6" s="113" t="str">
         <f>Liabilities!C6</f>
         <v>Audited</v>
       </c>
-      <c r="D6" s="119" t="str">
+      <c r="D6" s="113" t="str">
         <f>Liabilities!D6</f>
         <v>Audited</v>
       </c>
-      <c r="E6" s="119" t="str">
+      <c r="E6" s="113" t="str">
         <f>Liabilities!E6</f>
         <v>Estimated</v>
       </c>
-      <c r="F6" s="119" t="str">
+      <c r="F6" s="113" t="str">
         <f>Liabilities!F6</f>
         <v>Projected</v>
       </c>
-      <c r="G6" s="119" t="str">
+      <c r="G6" s="113" t="str">
         <f>Liabilities!G6</f>
         <v>Projected</v>
       </c>
-      <c r="H6" s="119" t="str">
+      <c r="H6" s="113" t="str">
         <f>Liabilities!H6</f>
         <v>Projected</v>
       </c>
-      <c r="I6" s="119" t="str">
+      <c r="I6" s="113" t="str">
         <f>Liabilities!I6</f>
         <v>Projected</v>
       </c>
-      <c r="J6" s="119" t="str">
+      <c r="J6" s="113" t="str">
         <f>Liabilities!J6</f>
         <v>Projected</v>
       </c>
-      <c r="K6" s="119" t="str">
+      <c r="K6" s="113" t="str">
         <f>Liabilities!K6</f>
         <v>Projected</v>
       </c>
-      <c r="L6" s="119" t="str">
+      <c r="L6" s="113" t="str">
         <f>Liabilities!L6</f>
         <v>Projected</v>
       </c>
-      <c r="M6" s="129" t="str">
+      <c r="M6" s="111" t="str">
         <f>Liabilities!M6</f>
         <v>Projected</v>
       </c>
-      <c r="N6" s="129" t="str">
+      <c r="N6" s="111" t="str">
         <f>Liabilities!N6</f>
         <v>Projected</v>
       </c>
-      <c r="O6" s="129" t="str">
+      <c r="O6" s="111" t="str">
         <f>Liabilities!O6</f>
         <v>Projected</v>
       </c>
-      <c r="P6" s="129" t="str">
+      <c r="P6" s="111" t="str">
         <f>Liabilities!P6</f>
         <v>Projected</v>
       </c>
-      <c r="Q6" s="129" t="str">
+      <c r="Q6" s="111" t="str">
         <f>Liabilities!Q6</f>
         <v>Projected</v>
       </c>
-      <c r="R6" s="129" t="str">
+      <c r="R6" s="111" t="str">
         <f>Liabilities!R6</f>
         <v>Projected</v>
       </c>
-      <c r="S6" s="129" t="str">
+      <c r="S6" s="111" t="str">
         <f>Liabilities!S6</f>
         <v>Projected</v>
       </c>
-      <c r="T6" s="129" t="str">
+      <c r="T6" s="111" t="str">
         <f>Liabilities!T6</f>
         <v>Projected</v>
       </c>
-      <c r="U6" s="129" t="str">
+      <c r="U6" s="111" t="str">
         <f>Liabilities!U6</f>
         <v>Projected</v>
       </c>
-      <c r="V6" s="129" t="str">
+      <c r="V6" s="111" t="str">
         <f>Liabilities!V6</f>
         <v>Projected</v>
       </c>
-      <c r="W6" s="129" t="str">
+      <c r="W6" s="111" t="str">
         <f>Liabilities!W6</f>
         <v>Projected</v>
       </c>
-      <c r="X6" s="129" t="str">
+      <c r="X6" s="111" t="str">
         <f>Liabilities!X6</f>
         <v>Projected</v>
       </c>
-      <c r="Y6" s="132" t="str">
+      <c r="Y6" s="134" t="str">
         <f>Liabilities!Y6</f>
         <v>Projected</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="135"/>
-      <c r="B7" s="127"/>
-      <c r="C7" s="128"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="128"/>
-      <c r="G7" s="128"/>
-      <c r="H7" s="128"/>
-      <c r="I7" s="128"/>
-      <c r="J7" s="128"/>
-      <c r="K7" s="128"/>
-      <c r="L7" s="128"/>
+      <c r="A7" s="133"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
+      <c r="H7" s="126"/>
+      <c r="I7" s="126"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="126"/>
+      <c r="L7" s="126"/>
       <c r="M7" s="131"/>
       <c r="N7" s="131"/>
       <c r="O7" s="131"/>
@@ -25897,7 +25897,7 @@
       <c r="V7" s="131"/>
       <c r="W7" s="131"/>
       <c r="X7" s="131"/>
-      <c r="Y7" s="133"/>
+      <c r="Y7" s="135"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="64" t="s">
@@ -26723,27 +26723,27 @@
       <c r="B29" s="68"/>
       <c r="C29" s="68"/>
       <c r="D29" s="68"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="68"/>
-      <c r="I29" s="68"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="68"/>
-      <c r="L29" s="68"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="47"/>
-      <c r="P29" s="47"/>
-      <c r="Q29" s="47"/>
-      <c r="R29" s="47"/>
-      <c r="S29" s="47"/>
-      <c r="T29" s="47"/>
-      <c r="U29" s="47"/>
-      <c r="V29" s="47"/>
-      <c r="W29" s="47"/>
-      <c r="X29" s="47"/>
-      <c r="Y29" s="47"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="65"/>
@@ -26779,27 +26779,27 @@
       <c r="B31" s="68"/>
       <c r="C31" s="68"/>
       <c r="D31" s="68"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="68"/>
-      <c r="I31" s="68"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="68"/>
-      <c r="L31" s="68"/>
-      <c r="M31" s="47"/>
-      <c r="N31" s="47"/>
-      <c r="O31" s="47"/>
-      <c r="P31" s="47"/>
-      <c r="Q31" s="47"/>
-      <c r="R31" s="47"/>
-      <c r="S31" s="47"/>
-      <c r="T31" s="47"/>
-      <c r="U31" s="47"/>
-      <c r="V31" s="47"/>
-      <c r="W31" s="47"/>
-      <c r="X31" s="47"/>
-      <c r="Y31" s="47"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="65"/>
@@ -29740,6 +29740,19 @@
   </sheetData>
   <sheetProtection password="CF53" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="29">
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:E3"/>
@@ -29756,19 +29769,6 @@
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="X6:X7"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="W6:W7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" orientation="portrait" r:id="rId1"/>

--- a/service-loans/template/Template_CW_CMA_TL_WCTL.xlsx
+++ b/service-loans/template/Template_CW_CMA_TL_WCTL.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF5023C-5F8A-4915-8003-06B4A7A3B4CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="nMIDBcyH02QIBA4bXtkulhW+BkwLjO6uUdnHuLe/vey9rIzKWc8NDkCsYZON8UKSky/yikEzYHsiuF6pBe7KDg==" workbookSaltValue="OCFZwCBGKUImSpaXHpKcuQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="4020" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Operating Stmt." sheetId="2" r:id="rId1"/>
     <sheet name="Liabilities" sheetId="3" r:id="rId2"/>
     <sheet name="Asset" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -100,9 +108,6 @@
     <t xml:space="preserve">     i]  Raw materials[including stores     &amp; other items used in the process of manufacture]</t>
   </si>
   <si>
-    <t>5.  Cost of Sales</t>
-  </si>
-  <si>
     <t>4.  % rise [+] or fall [-]in net sales as compared to last year [annualised]</t>
   </si>
   <si>
@@ -110,9 +115,6 @@
   </si>
   <si>
     <t xml:space="preserve">   Deduct other items</t>
-  </si>
-  <si>
-    <t>2. Less Excise Duty</t>
   </si>
   <si>
     <t xml:space="preserve">     Total</t>
@@ -557,11 +559,17 @@
   <si>
     <t>Other Assets (Need to check at the time of Due Diligence)</t>
   </si>
+  <si>
+    <t>2. Less : Indirect Taxes</t>
+  </si>
+  <si>
+    <t>5.  Cost of Sales (including Indirect Taxes)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
@@ -1423,16 +1431,16 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
@@ -1445,6 +1453,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1476,18 +1490,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1496,16 +1510,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="4" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="2"/>
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
@@ -1566,7 +1574,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1599,9 +1607,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1634,6 +1659,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1809,15 +1851,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD86"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B67" sqref="B67"/>
       <selection pane="topRight" activeCell="B67" sqref="B67"/>
       <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1830,7 +1872,7 @@
   <sheetData>
     <row r="1" spans="1:16384" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="106" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B1" s="106"/>
       <c r="C1" s="106"/>
@@ -1845,25 +1887,25 @@
       <c r="L1" s="13"/>
       <c r="M1" s="78"/>
       <c r="N1" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O1" s="37" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="P1" s="37" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="Q1" s="38" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="R1" s="38" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="S1" s="38"/>
     </row>
     <row r="2" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A2" s="107" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B2" s="107"/>
       <c r="C2" s="107"/>
@@ -1878,7 +1920,7 @@
       <c r="L2" s="15"/>
       <c r="M2" s="79"/>
       <c r="N2" s="38" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O2" s="38"/>
       <c r="P2" s="38"/>
@@ -1888,7 +1930,7 @@
     </row>
     <row r="3" spans="1:16384" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="108" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B3" s="108"/>
       <c r="C3" s="108"/>
@@ -1911,15 +1953,15 @@
     </row>
     <row r="4" spans="1:16384" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="109" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B4" s="110"/>
       <c r="C4" s="110"/>
       <c r="D4" s="98" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E4" s="97" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
@@ -18402,81 +18444,81 @@
     <row r="6" spans="1:16384" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="85" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C6" s="86" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D6" s="86" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E6" s="87" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F6" s="87" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G6" s="87" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H6" s="87" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I6" s="87" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J6" s="87" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K6" s="87" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L6" s="87" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M6" s="87" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N6" s="87" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O6" s="87" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P6" s="87" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q6" s="87" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="R6" s="87" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="S6" s="87" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T6" s="87" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U6" s="87" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="V6" s="87" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W6" s="87" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X6" s="87" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y6" s="88" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B7" s="81"/>
       <c r="C7" s="81"/>
@@ -18505,7 +18547,7 @@
     </row>
     <row r="8" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
@@ -18534,7 +18576,7 @@
     </row>
     <row r="9" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
@@ -18563,7 +18605,7 @@
     </row>
     <row r="10" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
@@ -18592,7 +18634,7 @@
     </row>
     <row r="11" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B11" s="26">
         <f>SUM(ROUND(B8+B9+B10,2))</f>
@@ -18720,7 +18762,7 @@
     </row>
     <row r="13" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
@@ -18749,7 +18791,7 @@
     </row>
     <row r="14" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
@@ -18778,7 +18820,7 @@
     </row>
     <row r="15" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="26">
         <f t="shared" ref="B15:Y15" si="3">IF(B11=0,0,SUM(ROUND((B11)-(B13+B14),2)))</f>
@@ -18906,7 +18948,7 @@
     </row>
     <row r="17" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="26"/>
       <c r="C17" s="28">
@@ -19031,7 +19073,7 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>27</v>
+        <v>171</v>
       </c>
       <c r="B19" s="27"/>
       <c r="C19" s="27"/>
@@ -20520,7 +20562,7 @@
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B54" s="29"/>
       <c r="C54" s="29"/>
@@ -20576,7 +20618,7 @@
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B56" s="32"/>
       <c r="C56" s="32"/>
@@ -20632,7 +20674,7 @@
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B58" s="33">
         <f>(ROUND(B52+B56+B54,2))</f>
@@ -20760,7 +20802,7 @@
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B60" s="33">
         <f t="shared" ref="B60:Y60" si="25">IF(B58&lt;0,(ROUND(B15+B58,2)),(ROUND(B15-B58,2)))</f>
@@ -20888,7 +20930,7 @@
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -20944,7 +20986,7 @@
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B64" s="33">
         <f t="shared" ref="B64:Y64" si="26">(ROUND(B60-B62,2))</f>
@@ -21072,7 +21114,7 @@
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" s="20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -21489,7 +21531,7 @@
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B73" s="33">
         <f t="shared" ref="B73:Y73" si="30">SUM(ROUND(B64+B70-B71,2))</f>
@@ -21617,7 +21659,7 @@
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" s="20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
@@ -21646,7 +21688,7 @@
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" s="103" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
@@ -21836,7 +21878,7 @@
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B80" s="11"/>
       <c r="C80" s="10"/>
@@ -22020,7 +22062,7 @@
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B84" s="33">
         <f t="shared" ref="B84:Y84" si="32">B78-B80</f>
@@ -22148,7 +22190,7 @@
     </row>
     <row r="86" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="23" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B86" s="34">
         <f t="shared" ref="B86:Y86" si="33">IFERROR((B84/B78),0)</f>
@@ -22248,7 +22290,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="CF53" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
@@ -22256,10 +22298,10 @@
     <mergeCell ref="A4:C4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:M16 D79:M81 N11:Y11 N15:Y15 N20:Y20 N24:Y24 N36:Y36 N40:Y40 N44:Y44 N48:Y48 N52:Y52 N58:Y58 N60:Y60 N64:Y64 N67:Y67 N69:Y70 N73:Y73 B18:C81 D18:M77 D78:Y78">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:M16 D79:M81 N11:Y11 N15:Y15 N20:Y20 N24:Y24 N36:Y36 N40:Y40 N44:Y44 N48:Y48 N52:Y52 N58:Y58 N60:Y60 N64:Y64 N67:Y67 N69:Y70 N73:Y73 B18:C81 D18:M77 D78:Y78" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B82:M86 B17:Y17 N82:Y82 N84:Y84 N86:Y86"/>
+    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B82:M86 B17:Y17 N82:Y82 N84:Y84 N86:Y86" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -22267,7 +22309,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y87"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -22275,7 +22317,7 @@
       <selection activeCell="B67" sqref="B67"/>
       <selection pane="topRight" activeCell="B67" sqref="B67"/>
       <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -22286,40 +22328,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="119" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
+      <c r="A1" s="121" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
       <c r="F1" s="35"/>
       <c r="G1" s="36"/>
       <c r="H1" s="36"/>
       <c r="I1" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J1" s="37" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K1" s="37" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L1" s="38" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M1" s="38" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="120" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
+      <c r="A2" s="122" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
       <c r="F2" s="39"/>
       <c r="G2" s="39"/>
       <c r="H2" s="39"/>
@@ -22330,13 +22372,13 @@
       <c r="M2" s="39"/>
     </row>
     <row r="3" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="123" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="123"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
+      <c r="A3" s="125" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
       <c r="F3" s="41"/>
       <c r="G3" s="41"/>
       <c r="H3" s="41"/>
@@ -22347,16 +22389,16 @@
       <c r="M3" s="41"/>
     </row>
     <row r="4" spans="1:25" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="121" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="122"/>
-      <c r="C4" s="122"/>
+      <c r="A4" s="123" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="124"/>
+      <c r="C4" s="124"/>
       <c r="D4" s="100" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E4" s="99" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F4" s="42"/>
       <c r="G4" s="42"/>
@@ -22381,7 +22423,7 @@
     </row>
     <row r="5" spans="1:25" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="117" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B5" s="84">
         <f>'Operating Stmt.'!B5</f>
@@ -22482,133 +22524,133 @@
     </row>
     <row r="6" spans="1:25" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="118"/>
-      <c r="B6" s="124" t="str">
+      <c r="B6" s="126" t="str">
         <f>+'Operating Stmt.'!B6:B6</f>
         <v>Audited</v>
       </c>
-      <c r="C6" s="113" t="str">
+      <c r="C6" s="119" t="str">
         <f>+'Operating Stmt.'!C6:C6</f>
         <v>Audited</v>
       </c>
-      <c r="D6" s="113" t="str">
+      <c r="D6" s="119" t="str">
         <f>+'Operating Stmt.'!D6:D6</f>
         <v>Audited</v>
       </c>
-      <c r="E6" s="113" t="str">
+      <c r="E6" s="119" t="str">
         <f>+'Operating Stmt.'!E6:E6</f>
         <v>Estimated</v>
       </c>
-      <c r="F6" s="113" t="str">
+      <c r="F6" s="119" t="str">
         <f>+'Operating Stmt.'!F6:F6</f>
         <v>Projected</v>
       </c>
-      <c r="G6" s="113" t="str">
+      <c r="G6" s="119" t="str">
         <f>+'Operating Stmt.'!G6:G6</f>
         <v>Projected</v>
       </c>
-      <c r="H6" s="113" t="str">
+      <c r="H6" s="119" t="str">
         <f>+'Operating Stmt.'!H6:H6</f>
         <v>Projected</v>
       </c>
-      <c r="I6" s="113" t="str">
+      <c r="I6" s="119" t="str">
         <f>+'Operating Stmt.'!I6:I6</f>
         <v>Projected</v>
       </c>
-      <c r="J6" s="113" t="str">
+      <c r="J6" s="119" t="str">
         <f>+'Operating Stmt.'!J6:J6</f>
         <v>Projected</v>
       </c>
-      <c r="K6" s="113" t="str">
+      <c r="K6" s="119" t="str">
         <f>+'Operating Stmt.'!K6:K6</f>
         <v>Projected</v>
       </c>
-      <c r="L6" s="113" t="str">
+      <c r="L6" s="119" t="str">
         <f>+'Operating Stmt.'!L6:L6</f>
         <v>Projected</v>
       </c>
-      <c r="M6" s="111" t="str">
+      <c r="M6" s="129" t="str">
         <f>+'Operating Stmt.'!M6:M6</f>
         <v>Projected</v>
       </c>
-      <c r="N6" s="127" t="str">
+      <c r="N6" s="111" t="str">
         <f>+'Operating Stmt.'!N6:N6</f>
         <v>Projected</v>
       </c>
-      <c r="O6" s="127" t="str">
+      <c r="O6" s="111" t="str">
         <f>+'Operating Stmt.'!O6:O6</f>
         <v>Projected</v>
       </c>
-      <c r="P6" s="127" t="str">
+      <c r="P6" s="111" t="str">
         <f>+'Operating Stmt.'!P6:P6</f>
         <v>Projected</v>
       </c>
-      <c r="Q6" s="127" t="str">
+      <c r="Q6" s="111" t="str">
         <f>+'Operating Stmt.'!Q6:Q6</f>
         <v>Projected</v>
       </c>
-      <c r="R6" s="127" t="str">
+      <c r="R6" s="111" t="str">
         <f>+'Operating Stmt.'!R6:R6</f>
         <v>Projected</v>
       </c>
-      <c r="S6" s="127" t="str">
+      <c r="S6" s="111" t="str">
         <f>+'Operating Stmt.'!S6:S6</f>
         <v>Projected</v>
       </c>
-      <c r="T6" s="127" t="str">
+      <c r="T6" s="111" t="str">
         <f>+'Operating Stmt.'!T6:T6</f>
         <v>Projected</v>
       </c>
-      <c r="U6" s="127" t="str">
+      <c r="U6" s="111" t="str">
         <f>+'Operating Stmt.'!U6:U6</f>
         <v>Projected</v>
       </c>
-      <c r="V6" s="127" t="str">
+      <c r="V6" s="111" t="str">
         <f>+'Operating Stmt.'!V6:V6</f>
         <v>Projected</v>
       </c>
-      <c r="W6" s="127" t="str">
+      <c r="W6" s="111" t="str">
         <f>+'Operating Stmt.'!W6:W6</f>
         <v>Projected</v>
       </c>
-      <c r="X6" s="127" t="str">
+      <c r="X6" s="111" t="str">
         <f>+'Operating Stmt.'!X6:X6</f>
         <v>Projected</v>
       </c>
-      <c r="Y6" s="129" t="str">
+      <c r="Y6" s="113" t="str">
         <f>+'Operating Stmt.'!Y6:Y6</f>
         <v>Projected</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="118"/>
-      <c r="B7" s="125"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="112"/>
-      <c r="N7" s="128"/>
-      <c r="O7" s="128"/>
-      <c r="P7" s="128"/>
-      <c r="Q7" s="128"/>
-      <c r="R7" s="128"/>
-      <c r="S7" s="128"/>
-      <c r="T7" s="128"/>
-      <c r="U7" s="128"/>
-      <c r="V7" s="128"/>
-      <c r="W7" s="128"/>
-      <c r="X7" s="128"/>
-      <c r="Y7" s="130"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="120"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="120"/>
+      <c r="M7" s="130"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="112"/>
+      <c r="R7" s="112"/>
+      <c r="S7" s="112"/>
+      <c r="T7" s="112"/>
+      <c r="U7" s="112"/>
+      <c r="V7" s="112"/>
+      <c r="W7" s="112"/>
+      <c r="X7" s="112"/>
+      <c r="Y7" s="114"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="44" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B8" s="90"/>
       <c r="C8" s="90"/>
@@ -22637,7 +22679,7 @@
     </row>
     <row r="9" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B9" s="45"/>
       <c r="C9" s="45"/>
@@ -22695,7 +22737,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B11" s="46"/>
       <c r="C11" s="46"/>
@@ -22724,7 +22766,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B12" s="46"/>
       <c r="C12" s="46"/>
@@ -22753,7 +22795,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B13" s="46"/>
       <c r="C13" s="46"/>
@@ -22782,7 +22824,7 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B14" s="45"/>
       <c r="C14" s="45"/>
@@ -22811,7 +22853,7 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B15" s="47">
         <f>SUM(ROUND(B11+B12,2))</f>
@@ -22939,7 +22981,7 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B17" s="46"/>
       <c r="C17" s="46"/>
@@ -22995,7 +23037,7 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B19" s="45"/>
       <c r="C19" s="45"/>
@@ -23051,7 +23093,7 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B21" s="46"/>
       <c r="C21" s="46"/>
@@ -23107,7 +23149,7 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B23" s="46"/>
       <c r="C23" s="46"/>
@@ -23163,7 +23205,7 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B25" s="46"/>
       <c r="C25" s="46"/>
@@ -23219,7 +23261,7 @@
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B27" s="46"/>
       <c r="C27" s="46"/>
@@ -23275,7 +23317,7 @@
     </row>
     <row r="29" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="48" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B29" s="46"/>
       <c r="C29" s="46"/>
@@ -23358,7 +23400,7 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="49" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B32" s="50"/>
       <c r="C32" s="46"/>
@@ -23441,7 +23483,7 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="51" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B35" s="47">
         <f t="shared" ref="B35:Y35" si="1">SUM(ROUND(B17+B19+B21+B23+B25+B27+B29+B32,2))</f>
@@ -23569,7 +23611,7 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="52" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B37" s="47">
         <f t="shared" ref="B37:Y37" si="2">SUM(ROUND(B15+B35,2))</f>
@@ -23697,7 +23739,7 @@
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="55" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B39" s="45"/>
       <c r="C39" s="45"/>
@@ -23753,7 +23795,7 @@
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B41" s="46"/>
       <c r="C41" s="46"/>
@@ -23809,7 +23851,7 @@
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B43" s="46"/>
       <c r="C43" s="46"/>
@@ -23865,7 +23907,7 @@
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B45" s="46">
         <f>SUM(ROUND(B46+B47,2))</f>
@@ -23966,7 +24008,7 @@
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="56" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B46" s="46"/>
       <c r="C46" s="46"/>
@@ -23995,7 +24037,7 @@
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="56" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B47" s="46"/>
       <c r="C47" s="46"/>
@@ -24051,7 +24093,7 @@
     </row>
     <row r="49" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B49" s="46"/>
       <c r="C49" s="46"/>
@@ -24080,7 +24122,7 @@
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B50" s="45"/>
       <c r="C50" s="45"/>
@@ -24109,7 +24151,7 @@
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B51" s="46"/>
       <c r="C51" s="46"/>
@@ -24165,7 +24207,7 @@
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B53" s="46"/>
       <c r="C53" s="46"/>
@@ -24221,7 +24263,7 @@
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="57" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B55" s="47">
         <f t="shared" ref="B55:Y55" si="4">SUM(ROUND(B41+B43+B45+B49+B51+B53,2))</f>
@@ -24349,7 +24391,7 @@
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="57" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B57" s="46">
         <f>SUM(ROUND(B58+B59+B60+B61,2))</f>
@@ -24450,7 +24492,7 @@
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="58" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B58" s="47"/>
       <c r="C58" s="47"/>
@@ -24479,7 +24521,7 @@
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="58" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B59" s="47"/>
       <c r="C59" s="47"/>
@@ -24508,7 +24550,7 @@
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="58" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B60" s="47"/>
       <c r="C60" s="47"/>
@@ -24537,7 +24579,7 @@
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="58" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B61" s="47"/>
       <c r="C61" s="47"/>
@@ -24593,7 +24635,7 @@
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="59" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B63" s="47">
         <f t="shared" ref="B63:Y63" si="6">SUM(ROUND(B37+B55+B57,2))</f>
@@ -24721,7 +24763,7 @@
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="44" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B65" s="45"/>
       <c r="C65" s="45"/>
@@ -24777,7 +24819,7 @@
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" s="20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B67" s="46"/>
       <c r="C67" s="46"/>
@@ -24833,7 +24875,7 @@
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B69" s="46"/>
       <c r="C69" s="46"/>
@@ -24889,7 +24931,7 @@
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" s="20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B71" s="45"/>
       <c r="C71" s="45"/>
@@ -24945,7 +24987,7 @@
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B73" s="46"/>
       <c r="C73" s="46"/>
@@ -25001,7 +25043,7 @@
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B75" s="46"/>
       <c r="C75" s="46"/>
@@ -25057,7 +25099,7 @@
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B77" s="46"/>
       <c r="C77" s="46"/>
@@ -25113,7 +25155,7 @@
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" s="22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B79" s="46"/>
       <c r="C79" s="46"/>
@@ -25169,7 +25211,7 @@
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B81" s="45"/>
       <c r="C81" s="45"/>
@@ -25225,7 +25267,7 @@
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B83" s="45"/>
       <c r="C83" s="45"/>
@@ -25281,7 +25323,7 @@
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B85" s="47">
         <f>SUM(ROUND(B67+B69+B71+B73+B75+B77+B79+B81+B83,2))</f>
@@ -25382,7 +25424,7 @@
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86" s="103" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B86" s="45"/>
       <c r="C86" s="45"/>
@@ -25411,7 +25453,7 @@
     </row>
     <row r="87" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="60" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B87" s="61">
         <f t="shared" ref="B87:Y87" si="8">SUM(ROUND(B63+B85+B86,2))</f>
@@ -25513,18 +25555,12 @@
   </sheetData>
   <sheetProtection password="CF53" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="30">
-    <mergeCell ref="X6:X7"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="W6:W7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="I6:I7"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="L6:L7"/>
@@ -25537,18 +25573,24 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="W6:W7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11:M13 B17:M32 B82:M83 B41:M53 B67:M80 B57:Y57 N45:Y45">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11:M13 B17:M32 B82:M83 B41:M53 B67:M80 B57:Y57 N45:Y45" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B81:M81">
+    <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B81:M81" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>1E+35</formula1>
     </dataValidation>
   </dataValidations>
@@ -25558,10 +25600,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:XFD99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B67" sqref="B67"/>
       <selection pane="topRight" activeCell="B67" sqref="B67"/>
@@ -25579,40 +25621,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="119" t="s">
-        <v>97</v>
-      </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
+      <c r="A1" s="121" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
       <c r="F1" s="36"/>
       <c r="G1" s="36"/>
       <c r="H1" s="36"/>
       <c r="I1" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J1" s="37" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K1" s="37" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L1" s="38" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M1" s="38" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="120" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
+      <c r="A2" s="122" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
       <c r="F2" s="39"/>
       <c r="G2" s="39"/>
       <c r="H2" s="39"/>
@@ -25623,13 +25665,13 @@
       <c r="M2" s="39"/>
     </row>
     <row r="3" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="123" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="123"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
+      <c r="A3" s="125" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
       <c r="F3" s="41"/>
       <c r="G3" s="41"/>
       <c r="H3" s="41"/>
@@ -25640,16 +25682,16 @@
       <c r="M3" s="41"/>
     </row>
     <row r="4" spans="1:25" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="121" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="122"/>
-      <c r="C4" s="122"/>
+      <c r="A4" s="123" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="124"/>
+      <c r="C4" s="124"/>
       <c r="D4" s="101" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E4" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F4" s="42"/>
       <c r="G4" s="42"/>
@@ -25673,8 +25715,8 @@
       <c r="Y4" s="42"/>
     </row>
     <row r="5" spans="1:25" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="132" t="s">
-        <v>96</v>
+      <c r="A5" s="134" t="s">
+        <v>94</v>
       </c>
       <c r="B5" s="84">
         <f>'Operating Stmt.'!B5</f>
@@ -25774,117 +25816,117 @@
       </c>
     </row>
     <row r="6" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="133"/>
-      <c r="B6" s="124" t="str">
+      <c r="A6" s="135"/>
+      <c r="B6" s="126" t="str">
         <f>Liabilities!B6</f>
         <v>Audited</v>
       </c>
-      <c r="C6" s="113" t="str">
+      <c r="C6" s="119" t="str">
         <f>Liabilities!C6</f>
         <v>Audited</v>
       </c>
-      <c r="D6" s="113" t="str">
+      <c r="D6" s="119" t="str">
         <f>Liabilities!D6</f>
         <v>Audited</v>
       </c>
-      <c r="E6" s="113" t="str">
+      <c r="E6" s="119" t="str">
         <f>Liabilities!E6</f>
         <v>Estimated</v>
       </c>
-      <c r="F6" s="113" t="str">
+      <c r="F6" s="119" t="str">
         <f>Liabilities!F6</f>
         <v>Projected</v>
       </c>
-      <c r="G6" s="113" t="str">
+      <c r="G6" s="119" t="str">
         <f>Liabilities!G6</f>
         <v>Projected</v>
       </c>
-      <c r="H6" s="113" t="str">
+      <c r="H6" s="119" t="str">
         <f>Liabilities!H6</f>
         <v>Projected</v>
       </c>
-      <c r="I6" s="113" t="str">
+      <c r="I6" s="119" t="str">
         <f>Liabilities!I6</f>
         <v>Projected</v>
       </c>
-      <c r="J6" s="113" t="str">
+      <c r="J6" s="119" t="str">
         <f>Liabilities!J6</f>
         <v>Projected</v>
       </c>
-      <c r="K6" s="113" t="str">
+      <c r="K6" s="119" t="str">
         <f>Liabilities!K6</f>
         <v>Projected</v>
       </c>
-      <c r="L6" s="113" t="str">
+      <c r="L6" s="119" t="str">
         <f>Liabilities!L6</f>
         <v>Projected</v>
       </c>
-      <c r="M6" s="111" t="str">
+      <c r="M6" s="129" t="str">
         <f>Liabilities!M6</f>
         <v>Projected</v>
       </c>
-      <c r="N6" s="111" t="str">
+      <c r="N6" s="129" t="str">
         <f>Liabilities!N6</f>
         <v>Projected</v>
       </c>
-      <c r="O6" s="111" t="str">
+      <c r="O6" s="129" t="str">
         <f>Liabilities!O6</f>
         <v>Projected</v>
       </c>
-      <c r="P6" s="111" t="str">
+      <c r="P6" s="129" t="str">
         <f>Liabilities!P6</f>
         <v>Projected</v>
       </c>
-      <c r="Q6" s="111" t="str">
+      <c r="Q6" s="129" t="str">
         <f>Liabilities!Q6</f>
         <v>Projected</v>
       </c>
-      <c r="R6" s="111" t="str">
+      <c r="R6" s="129" t="str">
         <f>Liabilities!R6</f>
         <v>Projected</v>
       </c>
-      <c r="S6" s="111" t="str">
+      <c r="S6" s="129" t="str">
         <f>Liabilities!S6</f>
         <v>Projected</v>
       </c>
-      <c r="T6" s="111" t="str">
+      <c r="T6" s="129" t="str">
         <f>Liabilities!T6</f>
         <v>Projected</v>
       </c>
-      <c r="U6" s="111" t="str">
+      <c r="U6" s="129" t="str">
         <f>Liabilities!U6</f>
         <v>Projected</v>
       </c>
-      <c r="V6" s="111" t="str">
+      <c r="V6" s="129" t="str">
         <f>Liabilities!V6</f>
         <v>Projected</v>
       </c>
-      <c r="W6" s="111" t="str">
+      <c r="W6" s="129" t="str">
         <f>Liabilities!W6</f>
         <v>Projected</v>
       </c>
-      <c r="X6" s="111" t="str">
+      <c r="X6" s="129" t="str">
         <f>Liabilities!X6</f>
         <v>Projected</v>
       </c>
-      <c r="Y6" s="134" t="str">
+      <c r="Y6" s="132" t="str">
         <f>Liabilities!Y6</f>
         <v>Projected</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="133"/>
-      <c r="B7" s="125"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
-      <c r="H7" s="126"/>
-      <c r="I7" s="126"/>
-      <c r="J7" s="126"/>
-      <c r="K7" s="126"/>
-      <c r="L7" s="126"/>
+      <c r="A7" s="135"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="128"/>
+      <c r="H7" s="128"/>
+      <c r="I7" s="128"/>
+      <c r="J7" s="128"/>
+      <c r="K7" s="128"/>
+      <c r="L7" s="128"/>
       <c r="M7" s="131"/>
       <c r="N7" s="131"/>
       <c r="O7" s="131"/>
@@ -25897,11 +25939,11 @@
       <c r="V7" s="131"/>
       <c r="W7" s="131"/>
       <c r="X7" s="131"/>
-      <c r="Y7" s="135"/>
+      <c r="Y7" s="133"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="64" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B8" s="93"/>
       <c r="C8" s="94"/>
@@ -25930,7 +25972,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="65" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B9" s="66"/>
       <c r="C9" s="45"/>
@@ -25986,7 +26028,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="67" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B11" s="68">
         <f t="shared" ref="B11:Y11" si="0">SUM(ROUND(B13+B15,2))</f>
@@ -26087,7 +26129,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="65" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B12" s="66"/>
       <c r="C12" s="45"/>
@@ -26116,7 +26158,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="65" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B13" s="66"/>
       <c r="C13" s="45"/>
@@ -26145,7 +26187,7 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="65" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B14" s="66"/>
       <c r="C14" s="66"/>
@@ -26174,7 +26216,7 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="65" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B15" s="66"/>
       <c r="C15" s="45"/>
@@ -26203,7 +26245,7 @@
     </row>
     <row r="16" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="67" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B16" s="66"/>
       <c r="C16" s="45"/>
@@ -26232,7 +26274,7 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="65" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B17" s="66"/>
       <c r="C17" s="66"/>
@@ -26261,7 +26303,7 @@
     </row>
     <row r="18" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="67" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B18" s="66"/>
       <c r="C18" s="45"/>
@@ -26290,7 +26332,7 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="65" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B19" s="66"/>
       <c r="C19" s="66"/>
@@ -26319,7 +26361,7 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="67" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B20" s="66"/>
       <c r="C20" s="45"/>
@@ -26375,7 +26417,7 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="65" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B22" s="68">
         <f t="shared" ref="B22:Y22" si="1">SUM(ROUND(B24+B29+B31+B33,2))</f>
@@ -26503,7 +26545,7 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="65" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B24" s="68">
         <f t="shared" ref="B24:Y24" si="2">SUM(ROUND(B26+B27,2))</f>
@@ -26604,7 +26646,7 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="65" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B25" s="66"/>
       <c r="C25" s="45"/>
@@ -26633,7 +26675,7 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="65" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B26" s="66"/>
       <c r="C26" s="45"/>
@@ -26662,7 +26704,7 @@
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="65" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B27" s="66"/>
       <c r="C27" s="45"/>
@@ -26718,7 +26760,7 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="65" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B29" s="68"/>
       <c r="C29" s="68"/>
@@ -26774,7 +26816,7 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="65" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B31" s="68"/>
       <c r="C31" s="68"/>
@@ -26830,7 +26872,7 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="65" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B33" s="68">
         <f t="shared" ref="B33:Y33" si="3">SUM(ROUND(B34+B35,2))</f>
@@ -26931,7 +26973,7 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="65" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B34" s="66"/>
       <c r="C34" s="45"/>
@@ -26960,7 +27002,7 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="65" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B35" s="66"/>
       <c r="C35" s="45"/>
@@ -27016,7 +27058,7 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="67" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B37" s="66"/>
       <c r="C37" s="45"/>
@@ -27045,7 +27087,7 @@
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="65" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B38" s="66"/>
       <c r="C38" s="66"/>
@@ -27074,7 +27116,7 @@
     </row>
     <row r="39" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="65" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B39" s="66"/>
       <c r="C39" s="45"/>
@@ -27130,7 +27172,7 @@
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="67" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B41" s="66"/>
       <c r="C41" s="45"/>
@@ -27186,7 +27228,7 @@
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="65" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B43" s="68">
         <f t="shared" ref="B43:Y43" si="4">SUM(ROUND(B9+B11+B16+B18+B20+B22+B37+B39+B41,2))</f>
@@ -27314,7 +27356,7 @@
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="67" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B45" s="66">
         <f>SUM(ROUND(B46+B47+B48+B49+B50,2))</f>
@@ -27415,7 +27457,7 @@
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="70" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B46" s="66"/>
       <c r="C46" s="45"/>
@@ -27444,7 +27486,7 @@
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="70" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B47" s="66"/>
       <c r="C47" s="45"/>
@@ -27554,7 +27596,7 @@
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="65" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B51" s="66"/>
       <c r="C51" s="66"/>
@@ -27583,7 +27625,7 @@
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="65" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B52" s="66"/>
       <c r="C52" s="45"/>
@@ -27639,7 +27681,7 @@
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="65" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B54" s="66"/>
       <c r="C54" s="45"/>
@@ -27695,7 +27737,7 @@
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="65" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B56" s="68">
         <f>SUM(ROUND(B45-B52-B54,2))</f>
@@ -27823,7 +27865,7 @@
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="64" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B58" s="66"/>
       <c r="C58" s="45"/>
@@ -27879,7 +27921,7 @@
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="65" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B60" s="66"/>
       <c r="C60" s="45"/>
@@ -27935,7 +27977,7 @@
     </row>
     <row r="62" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="67" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B62" s="68">
         <f>B64+B65+B67+B69+B71</f>
@@ -28036,7 +28078,7 @@
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="65" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B63" s="66"/>
       <c r="C63" s="45"/>
@@ -28065,7 +28107,7 @@
     </row>
     <row r="64" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="67" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B64" s="66"/>
       <c r="C64" s="45"/>
@@ -28094,7 +28136,7 @@
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="65" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B65" s="66"/>
       <c r="C65" s="45"/>
@@ -28150,7 +28192,7 @@
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" s="67" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B67" s="66"/>
       <c r="C67" s="45"/>
@@ -28179,7 +28221,7 @@
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" s="65" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B68" s="66"/>
       <c r="C68" s="66"/>
@@ -28208,7 +28250,7 @@
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" s="67" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B69" s="66"/>
       <c r="C69" s="45"/>
@@ -28237,7 +28279,7 @@
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" s="65" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B70" s="66"/>
       <c r="C70" s="66"/>
@@ -28266,7 +28308,7 @@
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" s="65" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B71" s="50">
         <f>SUM(ROUND(B72+B73+B74,2))</f>
@@ -28367,7 +28409,7 @@
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" s="71" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B72" s="66"/>
       <c r="C72" s="45"/>
@@ -28396,7 +28438,7 @@
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" s="71" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B73" s="66"/>
       <c r="C73" s="45"/>
@@ -28425,7 +28467,7 @@
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" s="71" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B74" s="66"/>
       <c r="C74" s="45"/>
@@ -28481,7 +28523,7 @@
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" s="65" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B76" s="66"/>
       <c r="C76" s="45"/>
@@ -28539,7 +28581,7 @@
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" s="67" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B78" s="66"/>
       <c r="C78" s="45"/>
@@ -28595,7 +28637,7 @@
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" s="72" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B80" s="68">
         <f>SUM(ROUND(B60+B62+B76+B78,2))</f>
@@ -28723,7 +28765,7 @@
     </row>
     <row r="82" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="67" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B82" s="68">
         <f t="shared" ref="B82:Y82" si="10">ROUND(B83+B84+B85+B86+B87,2)</f>
@@ -28824,7 +28866,7 @@
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" s="73" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B83" s="66"/>
       <c r="C83" s="45"/>
@@ -28853,7 +28895,7 @@
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" s="73" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B84" s="66"/>
       <c r="C84" s="45"/>
@@ -28882,7 +28924,7 @@
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85" s="73" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B85" s="66"/>
       <c r="C85" s="45"/>
@@ -28911,7 +28953,7 @@
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86" s="73" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B86" s="66"/>
       <c r="C86" s="45"/>
@@ -28940,7 +28982,7 @@
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87" s="73" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B87" s="66"/>
       <c r="C87" s="45"/>
@@ -28969,7 +29011,7 @@
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88" s="103" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B88" s="66"/>
       <c r="C88" s="66"/>
@@ -28998,7 +29040,7 @@
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89" s="65" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B89" s="68">
         <f>SUM(ROUND(B43+B56+B80+B82+B88,2))</f>
@@ -29126,7 +29168,7 @@
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91" s="72" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B91" s="68">
         <f>ROUND(Liabilities!B85-Liabilities!B75-Asset!B82,2)</f>
@@ -29254,7 +29296,7 @@
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93" s="65" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B93" s="68">
         <f>SUM(ROUND(Liabilities!B55+Liabilities!B85,2))-(ROUND(B56+B80+B82,2))</f>
@@ -29382,7 +29424,7 @@
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95" s="65" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B95" s="68">
         <f>IF(Liabilities!B37=0,0,(ROUND(B43/Liabilities!B37,2)))</f>
@@ -29510,7 +29552,7 @@
     </row>
     <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97" s="65" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B97" s="68">
         <f>IF(B91=0,0,(ROUND(Liabilities!B63/B91,2)))</f>
@@ -29638,7 +29680,7 @@
     </row>
     <row r="99" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="74" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B99" s="75">
         <f>IF(B91=0,0,(ROUND(Liabilities!B55/B91,2)))</f>
@@ -29740,19 +29782,6 @@
   </sheetData>
   <sheetProtection password="CF53" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="29">
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="X6:X7"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="W6:W7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:E3"/>
@@ -29769,6 +29798,19 @@
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="W6:W7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" orientation="portrait" r:id="rId1"/>

--- a/service-loans/template/Template_CW_CMA_TL_WCTL.xlsx
+++ b/service-loans/template/Template_CW_CMA_TL_WCTL.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF5023C-5F8A-4915-8003-06B4A7A3B4CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B79929-6C7E-4F61-9B60-C74E7211574E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="nMIDBcyH02QIBA4bXtkulhW+BkwLjO6uUdnHuLe/vey9rIzKWc8NDkCsYZON8UKSky/yikEzYHsiuF6pBe7KDg==" workbookSaltValue="OCFZwCBGKUImSpaXHpKcuQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Operating Stmt." sheetId="2" r:id="rId1"/>
@@ -551,9 +551,6 @@
     <t>31. Investments [other than long-term investments]</t>
   </si>
   <si>
-    <t>Other Income: Need to check at the time of Due Diligence</t>
-  </si>
-  <si>
     <t>Other Liabilities (Need to check at the time of Due Diligence)</t>
   </si>
   <si>
@@ -565,14 +562,18 @@
   <si>
     <t>5.  Cost of Sales (including Indirect Taxes)</t>
   </si>
+  <si>
+    <t>Other Income/(Expenses): Need to check at the time of Due Diligence</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="0.00_);\(0.00\)"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -1147,7 +1148,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -1408,8 +1409,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1855,29 +1857,29 @@
   <dimension ref="A1:XFD86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B57" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B67" sqref="B67"/>
       <selection pane="topRight" activeCell="B67" sqref="B67"/>
       <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
-      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomRight" activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="59" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="25" width="17.7109375" style="14" customWidth="1" collapsed="1"/>
-    <col min="26" max="33" width="9.140625" style="14" hidden="1" customWidth="1"/>
-    <col min="34" max="16384" width="9.140625" style="14" hidden="1" collapsed="1"/>
+    <col min="1" max="1" width="61.5546875" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="25" width="17.6640625" style="14" customWidth="1" collapsed="1"/>
+    <col min="26" max="33" width="9.109375" style="14" hidden="1" customWidth="1"/>
+    <col min="34" max="16384" width="9.109375" style="14" hidden="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16384" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="106" t="s">
+    <row r="1" spans="1:16384" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="107" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
@@ -1903,14 +1905,14 @@
       </c>
       <c r="S1" s="38"/>
     </row>
-    <row r="2" spans="1:16384" x14ac:dyDescent="0.25">
-      <c r="A2" s="107" t="s">
+    <row r="2" spans="1:16384" x14ac:dyDescent="0.3">
+      <c r="A2" s="108" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
@@ -1928,14 +1930,14 @@
       <c r="R2" s="38"/>
       <c r="S2" s="38"/>
     </row>
-    <row r="3" spans="1:16384" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="108" t="s">
+    <row r="3" spans="1:16384" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
@@ -1951,12 +1953,12 @@
       <c r="R3" s="38"/>
       <c r="S3" s="38"/>
     </row>
-    <row r="4" spans="1:16384" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="109" t="s">
+    <row r="4" spans="1:16384" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
       <c r="D4" s="98" t="s">
         <v>39</v>
       </c>
@@ -18343,7 +18345,7 @@
       <c r="XFC4" s="17"/>
       <c r="XFD4" s="17"/>
     </row>
-    <row r="5" spans="1:16384" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16384" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="18"/>
       <c r="B5" s="84">
         <v>2015</v>
@@ -18441,7 +18443,7 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="6" spans="1:16384" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16384" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="85" t="s">
         <v>37</v>
@@ -18516,7 +18518,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>34</v>
       </c>
@@ -18545,7 +18547,7 @@
       <c r="X7" s="83"/>
       <c r="Y7" s="83"/>
     </row>
-    <row r="8" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>33</v>
       </c>
@@ -18574,7 +18576,7 @@
       <c r="X8" s="77"/>
       <c r="Y8" s="77"/>
     </row>
-    <row r="9" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>32</v>
       </c>
@@ -18603,7 +18605,7 @@
       <c r="X9" s="77"/>
       <c r="Y9" s="77"/>
     </row>
-    <row r="10" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
         <v>31</v>
       </c>
@@ -18632,7 +18634,7 @@
       <c r="X10" s="77"/>
       <c r="Y10" s="77"/>
     </row>
-    <row r="11" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>30</v>
       </c>
@@ -18733,7 +18735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A12" s="20"/>
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
@@ -18760,9 +18762,9 @@
       <c r="X12" s="77"/>
       <c r="Y12" s="77"/>
     </row>
-    <row r="13" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
@@ -18789,7 +18791,7 @@
       <c r="X13" s="77"/>
       <c r="Y13" s="77"/>
     </row>
-    <row r="14" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
         <v>29</v>
       </c>
@@ -18818,7 +18820,7 @@
       <c r="X14" s="77"/>
       <c r="Y14" s="77"/>
     </row>
-    <row r="15" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
         <v>28</v>
       </c>
@@ -18919,7 +18921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A16" s="20"/>
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
@@ -18946,7 +18948,7 @@
       <c r="X16" s="77"/>
       <c r="Y16" s="77"/>
     </row>
-    <row r="17" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
         <v>27</v>
       </c>
@@ -19044,7 +19046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="20"/>
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
@@ -19071,9 +19073,9 @@
       <c r="X18" s="77"/>
       <c r="Y18" s="77"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B19" s="27"/>
       <c r="C19" s="27"/>
@@ -19100,7 +19102,7 @@
       <c r="X19" s="77"/>
       <c r="Y19" s="77"/>
     </row>
-    <row r="20" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
         <v>26</v>
       </c>
@@ -19201,7 +19203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
         <v>25</v>
       </c>
@@ -19230,7 +19232,7 @@
       <c r="X21" s="77"/>
       <c r="Y21" s="77"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
         <v>24</v>
       </c>
@@ -19259,7 +19261,7 @@
       <c r="X22" s="77"/>
       <c r="Y22" s="77"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" s="20"/>
       <c r="B23" s="29"/>
       <c r="C23" s="29"/>
@@ -19286,7 +19288,7 @@
       <c r="X23" s="77"/>
       <c r="Y23" s="77"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
         <v>23</v>
       </c>
@@ -19387,7 +19389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
         <v>22</v>
       </c>
@@ -19416,7 +19418,7 @@
       <c r="X25" s="77"/>
       <c r="Y25" s="77"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
         <v>21</v>
       </c>
@@ -19445,7 +19447,7 @@
       <c r="X26" s="77"/>
       <c r="Y26" s="77"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" s="20"/>
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
@@ -19472,7 +19474,7 @@
       <c r="X27" s="77"/>
       <c r="Y27" s="77"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
         <v>20</v>
       </c>
@@ -19501,7 +19503,7 @@
       <c r="X28" s="77"/>
       <c r="Y28" s="77"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" s="20"/>
       <c r="B29" s="29"/>
       <c r="C29" s="29"/>
@@ -19528,7 +19530,7 @@
       <c r="X29" s="77"/>
       <c r="Y29" s="77"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" s="20" t="s">
         <v>19</v>
       </c>
@@ -19557,7 +19559,7 @@
       <c r="X30" s="77"/>
       <c r="Y30" s="77"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" s="20"/>
       <c r="B31" s="27"/>
       <c r="C31" s="27"/>
@@ -19584,7 +19586,7 @@
       <c r="X31" s="77"/>
       <c r="Y31" s="77"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" s="20" t="s">
         <v>18</v>
       </c>
@@ -19613,7 +19615,7 @@
       <c r="X32" s="77"/>
       <c r="Y32" s="77"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33" s="20"/>
       <c r="B33" s="29"/>
       <c r="C33" s="29"/>
@@ -19640,7 +19642,7 @@
       <c r="X33" s="77"/>
       <c r="Y33" s="77"/>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34" s="20" t="s">
         <v>17</v>
       </c>
@@ -19669,7 +19671,7 @@
       <c r="X34" s="77"/>
       <c r="Y34" s="77"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35" s="20"/>
       <c r="B35" s="27"/>
       <c r="C35" s="27"/>
@@ -19696,7 +19698,7 @@
       <c r="X35" s="77"/>
       <c r="Y35" s="77"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36" s="20" t="s">
         <v>16</v>
       </c>
@@ -19797,7 +19799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37" s="20"/>
       <c r="B37" s="29"/>
       <c r="C37" s="29"/>
@@ -19824,7 +19826,7 @@
       <c r="X37" s="77"/>
       <c r="Y37" s="77"/>
     </row>
-    <row r="38" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="20" t="s">
         <v>15</v>
       </c>
@@ -19853,7 +19855,7 @@
       <c r="X38" s="77"/>
       <c r="Y38" s="77"/>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39" s="20"/>
       <c r="B39" s="27"/>
       <c r="C39" s="27"/>
@@ -19880,7 +19882,7 @@
       <c r="X39" s="77"/>
       <c r="Y39" s="77"/>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40" s="20" t="s">
         <v>14</v>
       </c>
@@ -19981,7 +19983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="20"/>
       <c r="B41" s="31"/>
       <c r="C41" s="27"/>
@@ -20008,7 +20010,7 @@
       <c r="X41" s="77"/>
       <c r="Y41" s="77"/>
     </row>
-    <row r="42" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="20" t="s">
         <v>13</v>
       </c>
@@ -20037,7 +20039,7 @@
       <c r="X42" s="77"/>
       <c r="Y42" s="77"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43" s="20"/>
       <c r="B43" s="29"/>
       <c r="C43" s="29"/>
@@ -20064,7 +20066,7 @@
       <c r="X43" s="77"/>
       <c r="Y43" s="77"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44" s="20" t="s">
         <v>12</v>
       </c>
@@ -20165,7 +20167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45" s="20"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -20192,7 +20194,7 @@
       <c r="X45" s="77"/>
       <c r="Y45" s="77"/>
     </row>
-    <row r="46" spans="1:25" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="20" t="s">
         <v>11</v>
       </c>
@@ -20221,7 +20223,7 @@
       <c r="X46" s="77"/>
       <c r="Y46" s="77"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47" s="20"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -20248,7 +20250,7 @@
       <c r="X47" s="77"/>
       <c r="Y47" s="77"/>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48" s="20" t="s">
         <v>10</v>
       </c>
@@ -20349,7 +20351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A49" s="20"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -20376,7 +20378,7 @@
       <c r="X49" s="77"/>
       <c r="Y49" s="77"/>
     </row>
-    <row r="50" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="20" t="s">
         <v>9</v>
       </c>
@@ -20405,7 +20407,7 @@
       <c r="X50" s="77"/>
       <c r="Y50" s="77"/>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A51" s="20"/>
       <c r="B51" s="29"/>
       <c r="C51" s="29"/>
@@ -20432,7 +20434,7 @@
       <c r="X51" s="77"/>
       <c r="Y51" s="77"/>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A52" s="20" t="s">
         <v>8</v>
       </c>
@@ -20533,7 +20535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A53" s="20"/>
       <c r="B53" s="29"/>
       <c r="C53" s="29"/>
@@ -20560,7 +20562,7 @@
       <c r="X53" s="77"/>
       <c r="Y53" s="77"/>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A54" s="20" t="s">
         <v>97</v>
       </c>
@@ -20589,7 +20591,7 @@
       <c r="X54" s="77"/>
       <c r="Y54" s="77"/>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A55" s="20"/>
       <c r="B55" s="29"/>
       <c r="C55" s="29"/>
@@ -20616,7 +20618,7 @@
       <c r="X55" s="77"/>
       <c r="Y55" s="77"/>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A56" s="20" t="s">
         <v>98</v>
       </c>
@@ -20645,7 +20647,7 @@
       <c r="X56" s="77"/>
       <c r="Y56" s="77"/>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A57" s="20"/>
       <c r="B57" s="29"/>
       <c r="C57" s="29"/>
@@ -20672,7 +20674,7 @@
       <c r="X57" s="77"/>
       <c r="Y57" s="77"/>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A58" s="20" t="s">
         <v>99</v>
       </c>
@@ -20773,7 +20775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A59" s="20"/>
       <c r="B59" s="29"/>
       <c r="C59" s="29"/>
@@ -20800,7 +20802,7 @@
       <c r="X59" s="77"/>
       <c r="Y59" s="77"/>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A60" s="20" t="s">
         <v>100</v>
       </c>
@@ -20901,7 +20903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A61" s="20"/>
       <c r="B61" s="29"/>
       <c r="C61" s="29"/>
@@ -20928,7 +20930,7 @@
       <c r="X61" s="77"/>
       <c r="Y61" s="77"/>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A62" s="20" t="s">
         <v>101</v>
       </c>
@@ -20957,7 +20959,7 @@
       <c r="X62" s="77"/>
       <c r="Y62" s="77"/>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A63" s="20"/>
       <c r="B63" s="29"/>
       <c r="C63" s="29"/>
@@ -20984,7 +20986,7 @@
       <c r="X63" s="77"/>
       <c r="Y63" s="77"/>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A64" s="20" t="s">
         <v>102</v>
       </c>
@@ -21085,7 +21087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A65" s="20"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -21112,7 +21114,7 @@
       <c r="X65" s="77"/>
       <c r="Y65" s="77"/>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A66" s="20" t="s">
         <v>103</v>
       </c>
@@ -21141,7 +21143,7 @@
       <c r="X66" s="77"/>
       <c r="Y66" s="77"/>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A67" s="20" t="s">
         <v>7</v>
       </c>
@@ -21242,7 +21244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A68" s="20" t="s">
         <v>6</v>
       </c>
@@ -21271,7 +21273,7 @@
       <c r="X68" s="77"/>
       <c r="Y68" s="77"/>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A69" s="20" t="s">
         <v>5</v>
       </c>
@@ -21372,7 +21374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A70" s="20" t="s">
         <v>4</v>
       </c>
@@ -21473,7 +21475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A71" s="22" t="s">
         <v>3</v>
       </c>
@@ -21502,7 +21504,7 @@
       <c r="X71" s="77"/>
       <c r="Y71" s="77"/>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A72" s="20"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -21529,7 +21531,7 @@
       <c r="X72" s="77"/>
       <c r="Y72" s="77"/>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A73" s="20" t="s">
         <v>104</v>
       </c>
@@ -21630,7 +21632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A74" s="20"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
@@ -21657,7 +21659,7 @@
       <c r="X74" s="77"/>
       <c r="Y74" s="77"/>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A75" s="20" t="s">
         <v>105</v>
       </c>
@@ -21686,36 +21688,36 @@
       <c r="X75" s="77"/>
       <c r="Y75" s="77"/>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A76" s="103" t="s">
-        <v>167</v>
-      </c>
-      <c r="B76" s="10"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="10"/>
-      <c r="I76" s="10"/>
-      <c r="J76" s="10"/>
-      <c r="K76" s="10"/>
-      <c r="L76" s="10"/>
-      <c r="M76" s="10"/>
-      <c r="N76" s="104"/>
-      <c r="O76" s="104"/>
-      <c r="P76" s="104"/>
-      <c r="Q76" s="104"/>
-      <c r="R76" s="104"/>
-      <c r="S76" s="104"/>
-      <c r="T76" s="104"/>
-      <c r="U76" s="104"/>
-      <c r="V76" s="104"/>
-      <c r="W76" s="104"/>
-      <c r="X76" s="104"/>
-      <c r="Y76" s="104"/>
+        <v>171</v>
+      </c>
+      <c r="B76" s="105"/>
+      <c r="C76" s="105"/>
+      <c r="D76" s="105"/>
+      <c r="E76" s="105"/>
+      <c r="F76" s="105"/>
+      <c r="G76" s="105"/>
+      <c r="H76" s="105"/>
+      <c r="I76" s="105"/>
+      <c r="J76" s="105"/>
+      <c r="K76" s="105"/>
+      <c r="L76" s="105"/>
+      <c r="M76" s="105"/>
+      <c r="N76" s="106"/>
+      <c r="O76" s="106"/>
+      <c r="P76" s="106"/>
+      <c r="Q76" s="106"/>
+      <c r="R76" s="106"/>
+      <c r="S76" s="106"/>
+      <c r="T76" s="106"/>
+      <c r="U76" s="106"/>
+      <c r="V76" s="106"/>
+      <c r="W76" s="106"/>
+      <c r="X76" s="106"/>
+      <c r="Y76" s="106"/>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A77" s="20" t="s">
         <v>1</v>
       </c>
@@ -21744,7 +21746,7 @@
       <c r="X77" s="77"/>
       <c r="Y77" s="77"/>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A78" s="20" t="str">
         <f>IF(A79="15. Profit After Tax [for the year]","","15. Net Profit/loss [13-14]")</f>
         <v>15. Net Profit/loss [13-14]</v>
@@ -21846,7 +21848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A79" s="21" t="str">
         <f>IF(OR(B76&gt;0,C76&gt;0,D76&gt;0,E76&gt;0),"14. Profit After Tax [for the year]","")</f>
         <v/>
@@ -21876,7 +21878,7 @@
       <c r="X79" s="77"/>
       <c r="Y79" s="77"/>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A80" s="20" t="s">
         <v>106</v>
       </c>
@@ -21905,7 +21907,7 @@
       <c r="X80" s="77"/>
       <c r="Y80" s="77"/>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A81" s="20"/>
       <c r="B81" s="11"/>
       <c r="C81" s="10"/>
@@ -21932,7 +21934,7 @@
       <c r="X81" s="77"/>
       <c r="Y81" s="77"/>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A82" s="20" t="s">
         <v>0</v>
       </c>
@@ -22033,7 +22035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A83" s="20"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
@@ -22060,7 +22062,7 @@
       <c r="X83" s="77"/>
       <c r="Y83" s="77"/>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A84" s="20" t="s">
         <v>107</v>
       </c>
@@ -22161,7 +22163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A85" s="20"/>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
@@ -22188,7 +22190,7 @@
       <c r="X85" s="77"/>
       <c r="Y85" s="77"/>
     </row>
-    <row r="86" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="23" t="s">
         <v>108</v>
       </c>
@@ -22290,7 +22292,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="LD1NYLAHTavVOEMTO0MN8luvsRIWM4J+PlAw9nbNZQK1ljorLndMVPym7eEhPRB2Igup0S6RW+ITrkjxo9w0Rw==" saltValue="JXDViZfwfmJuJTvh2KbKdQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
@@ -22298,7 +22300,7 @@
     <mergeCell ref="A4:C4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:M16 D79:M81 N11:Y11 N15:Y15 N20:Y20 N24:Y24 N36:Y36 N40:Y40 N44:Y44 N48:Y48 N52:Y52 N58:Y58 N60:Y60 N64:Y64 N67:Y67 N69:Y70 N73:Y73 B18:C81 D18:M77 D78:Y78" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:M16 D79:M81 N11:Y11 N15:Y15 N20:Y20 N24:Y24 N36:Y36 N40:Y40 N44:Y44 N48:Y48 N52:Y52 N58:Y58 N60:Y60 N64:Y64 N67:Y67 N69:Y70 N73:Y73 D78:Y78 D18:M77 B18:C81" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B82:M86 B17:Y17 N82:Y82 N84:Y84 N86:Y86" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
@@ -22320,21 +22322,21 @@
       <selection pane="bottomRight" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="59" style="40" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="25" width="17.7109375" style="40" customWidth="1" collapsed="1"/>
-    <col min="26" max="16384" width="9.140625" style="40" hidden="1" collapsed="1"/>
+    <col min="2" max="25" width="17.6640625" style="40" customWidth="1" collapsed="1"/>
+    <col min="26" max="16384" width="9.109375" style="40" hidden="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="121" t="s">
+    <row r="1" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="122" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
       <c r="F1" s="35"/>
       <c r="G1" s="36"/>
       <c r="H1" s="36"/>
@@ -22354,14 +22356,14 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="122" t="s">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A2" s="123" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
       <c r="F2" s="39"/>
       <c r="G2" s="39"/>
       <c r="H2" s="39"/>
@@ -22371,14 +22373,14 @@
       <c r="L2" s="39"/>
       <c r="M2" s="39"/>
     </row>
-    <row r="3" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="125" t="s">
+    <row r="3" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="126" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
       <c r="F3" s="41"/>
       <c r="G3" s="41"/>
       <c r="H3" s="41"/>
@@ -22388,12 +22390,12 @@
       <c r="L3" s="41"/>
       <c r="M3" s="41"/>
     </row>
-    <row r="4" spans="1:25" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="123" t="s">
+    <row r="4" spans="1:25" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="124" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="124"/>
-      <c r="C4" s="124"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="125"/>
       <c r="D4" s="100" t="s">
         <v>39</v>
       </c>
@@ -22421,8 +22423,8 @@
       <c r="X4" s="42"/>
       <c r="Y4" s="42"/>
     </row>
-    <row r="5" spans="1:25" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="117" t="s">
+    <row r="5" spans="1:25" ht="18" x14ac:dyDescent="0.3">
+      <c r="A5" s="118" t="s">
         <v>70</v>
       </c>
       <c r="B5" s="84">
@@ -22522,133 +22524,133 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="118"/>
-      <c r="B6" s="126" t="str">
+    <row r="6" spans="1:25" ht="3.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="119"/>
+      <c r="B6" s="127" t="str">
         <f>+'Operating Stmt.'!B6:B6</f>
         <v>Audited</v>
       </c>
-      <c r="C6" s="119" t="str">
+      <c r="C6" s="120" t="str">
         <f>+'Operating Stmt.'!C6:C6</f>
         <v>Audited</v>
       </c>
-      <c r="D6" s="119" t="str">
+      <c r="D6" s="120" t="str">
         <f>+'Operating Stmt.'!D6:D6</f>
         <v>Audited</v>
       </c>
-      <c r="E6" s="119" t="str">
+      <c r="E6" s="120" t="str">
         <f>+'Operating Stmt.'!E6:E6</f>
         <v>Estimated</v>
       </c>
-      <c r="F6" s="119" t="str">
+      <c r="F6" s="120" t="str">
         <f>+'Operating Stmt.'!F6:F6</f>
         <v>Projected</v>
       </c>
-      <c r="G6" s="119" t="str">
+      <c r="G6" s="120" t="str">
         <f>+'Operating Stmt.'!G6:G6</f>
         <v>Projected</v>
       </c>
-      <c r="H6" s="119" t="str">
+      <c r="H6" s="120" t="str">
         <f>+'Operating Stmt.'!H6:H6</f>
         <v>Projected</v>
       </c>
-      <c r="I6" s="119" t="str">
+      <c r="I6" s="120" t="str">
         <f>+'Operating Stmt.'!I6:I6</f>
         <v>Projected</v>
       </c>
-      <c r="J6" s="119" t="str">
+      <c r="J6" s="120" t="str">
         <f>+'Operating Stmt.'!J6:J6</f>
         <v>Projected</v>
       </c>
-      <c r="K6" s="119" t="str">
+      <c r="K6" s="120" t="str">
         <f>+'Operating Stmt.'!K6:K6</f>
         <v>Projected</v>
       </c>
-      <c r="L6" s="119" t="str">
+      <c r="L6" s="120" t="str">
         <f>+'Operating Stmt.'!L6:L6</f>
         <v>Projected</v>
       </c>
-      <c r="M6" s="129" t="str">
+      <c r="M6" s="130" t="str">
         <f>+'Operating Stmt.'!M6:M6</f>
         <v>Projected</v>
       </c>
-      <c r="N6" s="111" t="str">
+      <c r="N6" s="112" t="str">
         <f>+'Operating Stmt.'!N6:N6</f>
         <v>Projected</v>
       </c>
-      <c r="O6" s="111" t="str">
+      <c r="O6" s="112" t="str">
         <f>+'Operating Stmt.'!O6:O6</f>
         <v>Projected</v>
       </c>
-      <c r="P6" s="111" t="str">
+      <c r="P6" s="112" t="str">
         <f>+'Operating Stmt.'!P6:P6</f>
         <v>Projected</v>
       </c>
-      <c r="Q6" s="111" t="str">
+      <c r="Q6" s="112" t="str">
         <f>+'Operating Stmt.'!Q6:Q6</f>
         <v>Projected</v>
       </c>
-      <c r="R6" s="111" t="str">
+      <c r="R6" s="112" t="str">
         <f>+'Operating Stmt.'!R6:R6</f>
         <v>Projected</v>
       </c>
-      <c r="S6" s="111" t="str">
+      <c r="S6" s="112" t="str">
         <f>+'Operating Stmt.'!S6:S6</f>
         <v>Projected</v>
       </c>
-      <c r="T6" s="111" t="str">
+      <c r="T6" s="112" t="str">
         <f>+'Operating Stmt.'!T6:T6</f>
         <v>Projected</v>
       </c>
-      <c r="U6" s="111" t="str">
+      <c r="U6" s="112" t="str">
         <f>+'Operating Stmt.'!U6:U6</f>
         <v>Projected</v>
       </c>
-      <c r="V6" s="111" t="str">
+      <c r="V6" s="112" t="str">
         <f>+'Operating Stmt.'!V6:V6</f>
         <v>Projected</v>
       </c>
-      <c r="W6" s="111" t="str">
+      <c r="W6" s="112" t="str">
         <f>+'Operating Stmt.'!W6:W6</f>
         <v>Projected</v>
       </c>
-      <c r="X6" s="111" t="str">
+      <c r="X6" s="112" t="str">
         <f>+'Operating Stmt.'!X6:X6</f>
         <v>Projected</v>
       </c>
-      <c r="Y6" s="113" t="str">
+      <c r="Y6" s="114" t="str">
         <f>+'Operating Stmt.'!Y6:Y6</f>
         <v>Projected</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="118"/>
-      <c r="B7" s="127"/>
-      <c r="C7" s="128"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="120"/>
-      <c r="H7" s="120"/>
-      <c r="I7" s="120"/>
-      <c r="J7" s="120"/>
-      <c r="K7" s="120"/>
-      <c r="L7" s="120"/>
-      <c r="M7" s="130"/>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="112"/>
-      <c r="S7" s="112"/>
-      <c r="T7" s="112"/>
-      <c r="U7" s="112"/>
-      <c r="V7" s="112"/>
-      <c r="W7" s="112"/>
-      <c r="X7" s="112"/>
-      <c r="Y7" s="114"/>
+    <row r="7" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="119"/>
+      <c r="B7" s="128"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="121"/>
+      <c r="L7" s="121"/>
+      <c r="M7" s="131"/>
+      <c r="N7" s="113"/>
+      <c r="O7" s="113"/>
+      <c r="P7" s="113"/>
+      <c r="Q7" s="113"/>
+      <c r="R7" s="113"/>
+      <c r="S7" s="113"/>
+      <c r="T7" s="113"/>
+      <c r="U7" s="113"/>
+      <c r="V7" s="113"/>
+      <c r="W7" s="113"/>
+      <c r="X7" s="113"/>
+      <c r="Y7" s="115"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="44" t="s">
         <v>69</v>
       </c>
@@ -22677,7 +22679,7 @@
       <c r="X8" s="92"/>
       <c r="Y8" s="92"/>
     </row>
-    <row r="9" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
         <v>68</v>
       </c>
@@ -22706,7 +22708,7 @@
       <c r="X9" s="89"/>
       <c r="Y9" s="89"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
         <v>2</v>
       </c>
@@ -22735,7 +22737,7 @@
       <c r="X10" s="89"/>
       <c r="Y10" s="89"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>67</v>
       </c>
@@ -22764,7 +22766,7 @@
       <c r="X11" s="89"/>
       <c r="Y11" s="89"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
         <v>66</v>
       </c>
@@ -22793,7 +22795,7 @@
       <c r="X12" s="89"/>
       <c r="Y12" s="89"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>110</v>
       </c>
@@ -22822,7 +22824,7 @@
       <c r="X13" s="89"/>
       <c r="Y13" s="89"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
         <v>65</v>
       </c>
@@ -22851,7 +22853,7 @@
       <c r="X14" s="89"/>
       <c r="Y14" s="89"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
         <v>64</v>
       </c>
@@ -22952,7 +22954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="20"/>
       <c r="B16" s="45"/>
       <c r="C16" s="45"/>
@@ -22979,7 +22981,7 @@
       <c r="X16" s="89"/>
       <c r="Y16" s="89"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
         <v>63</v>
       </c>
@@ -23008,7 +23010,7 @@
       <c r="X17" s="89"/>
       <c r="Y17" s="89"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="20"/>
       <c r="B18" s="45"/>
       <c r="C18" s="45"/>
@@ -23035,7 +23037,7 @@
       <c r="X18" s="89"/>
       <c r="Y18" s="89"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
         <v>62</v>
       </c>
@@ -23064,7 +23066,7 @@
       <c r="X19" s="89"/>
       <c r="Y19" s="89"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" s="20"/>
       <c r="B20" s="45"/>
       <c r="C20" s="45"/>
@@ -23091,7 +23093,7 @@
       <c r="X20" s="89"/>
       <c r="Y20" s="89"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="22" t="s">
         <v>61</v>
       </c>
@@ -23120,7 +23122,7 @@
       <c r="X21" s="89"/>
       <c r="Y21" s="89"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="20"/>
       <c r="B22" s="45"/>
       <c r="C22" s="45"/>
@@ -23147,7 +23149,7 @@
       <c r="X22" s="89"/>
       <c r="Y22" s="89"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
         <v>60</v>
       </c>
@@ -23176,7 +23178,7 @@
       <c r="X23" s="89"/>
       <c r="Y23" s="89"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" s="20"/>
       <c r="B24" s="45"/>
       <c r="C24" s="45"/>
@@ -23203,7 +23205,7 @@
       <c r="X24" s="89"/>
       <c r="Y24" s="89"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
         <v>59</v>
       </c>
@@ -23232,7 +23234,7 @@
       <c r="X25" s="89"/>
       <c r="Y25" s="89"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" s="20"/>
       <c r="B26" s="45"/>
       <c r="C26" s="45"/>
@@ -23259,7 +23261,7 @@
       <c r="X26" s="89"/>
       <c r="Y26" s="89"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" s="22" t="s">
         <v>58</v>
       </c>
@@ -23288,7 +23290,7 @@
       <c r="X27" s="89"/>
       <c r="Y27" s="89"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" s="20"/>
       <c r="B28" s="45"/>
       <c r="C28" s="45"/>
@@ -23315,7 +23317,7 @@
       <c r="X28" s="89"/>
       <c r="Y28" s="89"/>
     </row>
-    <row r="29" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="48" t="s">
         <v>57</v>
       </c>
@@ -23344,7 +23346,7 @@
       <c r="X29" s="89"/>
       <c r="Y29" s="89"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" s="48"/>
       <c r="B30" s="46"/>
       <c r="C30" s="46"/>
@@ -23371,7 +23373,7 @@
       <c r="X30" s="89"/>
       <c r="Y30" s="89"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" s="20"/>
       <c r="B31" s="45"/>
       <c r="C31" s="45"/>
@@ -23398,7 +23400,7 @@
       <c r="X31" s="89"/>
       <c r="Y31" s="89"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" s="49" t="s">
         <v>56</v>
       </c>
@@ -23427,8 +23429,8 @@
       <c r="X32" s="89"/>
       <c r="Y32" s="89"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A33" s="115"/>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A33" s="116"/>
       <c r="B33" s="45"/>
       <c r="C33" s="45"/>
       <c r="D33" s="45"/>
@@ -23454,8 +23456,8 @@
       <c r="X33" s="89"/>
       <c r="Y33" s="89"/>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A34" s="116"/>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A34" s="117"/>
       <c r="B34" s="45"/>
       <c r="C34" s="45"/>
       <c r="D34" s="45"/>
@@ -23481,7 +23483,7 @@
       <c r="X34" s="89"/>
       <c r="Y34" s="89"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35" s="51" t="s">
         <v>55</v>
       </c>
@@ -23582,7 +23584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36" s="20"/>
       <c r="B36" s="45"/>
       <c r="C36" s="45"/>
@@ -23609,7 +23611,7 @@
       <c r="X36" s="89"/>
       <c r="Y36" s="89"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37" s="52" t="s">
         <v>54</v>
       </c>
@@ -23710,7 +23712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38" s="53"/>
       <c r="B38" s="54"/>
       <c r="C38" s="54"/>
@@ -23737,7 +23739,7 @@
       <c r="X38" s="89"/>
       <c r="Y38" s="89"/>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39" s="55" t="s">
         <v>53</v>
       </c>
@@ -23766,7 +23768,7 @@
       <c r="X39" s="89"/>
       <c r="Y39" s="89"/>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40" s="20"/>
       <c r="B40" s="45"/>
       <c r="C40" s="45"/>
@@ -23793,7 +23795,7 @@
       <c r="X40" s="89"/>
       <c r="Y40" s="89"/>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41" s="20" t="s">
         <v>52</v>
       </c>
@@ -23822,7 +23824,7 @@
       <c r="X41" s="89"/>
       <c r="Y41" s="89"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42" s="20"/>
       <c r="B42" s="45"/>
       <c r="C42" s="45"/>
@@ -23849,7 +23851,7 @@
       <c r="X42" s="89"/>
       <c r="Y42" s="89"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43" s="22" t="s">
         <v>163</v>
       </c>
@@ -23878,7 +23880,7 @@
       <c r="X43" s="89"/>
       <c r="Y43" s="89"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44" s="20"/>
       <c r="B44" s="45"/>
       <c r="C44" s="45"/>
@@ -23905,7 +23907,7 @@
       <c r="X44" s="89"/>
       <c r="Y44" s="89"/>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45" s="22" t="s">
         <v>51</v>
       </c>
@@ -24006,7 +24008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46" s="56" t="s">
         <v>109</v>
       </c>
@@ -24035,7 +24037,7 @@
       <c r="X46" s="89"/>
       <c r="Y46" s="89"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47" s="56" t="s">
         <v>156</v>
       </c>
@@ -24064,7 +24066,7 @@
       <c r="X47" s="89"/>
       <c r="Y47" s="89"/>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48" s="20"/>
       <c r="B48" s="45"/>
       <c r="C48" s="45"/>
@@ -24091,7 +24093,7 @@
       <c r="X48" s="89"/>
       <c r="Y48" s="89"/>
     </row>
-    <row r="49" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="22" t="s">
         <v>50</v>
       </c>
@@ -24120,7 +24122,7 @@
       <c r="X49" s="89"/>
       <c r="Y49" s="89"/>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A50" s="20" t="s">
         <v>49</v>
       </c>
@@ -24149,7 +24151,7 @@
       <c r="X50" s="89"/>
       <c r="Y50" s="89"/>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A51" s="20" t="s">
         <v>48</v>
       </c>
@@ -24178,7 +24180,7 @@
       <c r="X51" s="89"/>
       <c r="Y51" s="89"/>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A52" s="20"/>
       <c r="B52" s="45"/>
       <c r="C52" s="45"/>
@@ -24205,7 +24207,7 @@
       <c r="X52" s="89"/>
       <c r="Y52" s="89"/>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A53" s="20" t="s">
         <v>47</v>
       </c>
@@ -24234,7 +24236,7 @@
       <c r="X53" s="89"/>
       <c r="Y53" s="89"/>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A54" s="20"/>
       <c r="B54" s="45"/>
       <c r="C54" s="45"/>
@@ -24261,7 +24263,7 @@
       <c r="X54" s="89"/>
       <c r="Y54" s="89"/>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A55" s="57" t="s">
         <v>46</v>
       </c>
@@ -24362,7 +24364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A56" s="57"/>
       <c r="B56" s="47"/>
       <c r="C56" s="47"/>
@@ -24389,7 +24391,7 @@
       <c r="X56" s="89"/>
       <c r="Y56" s="89"/>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A57" s="57" t="s">
         <v>112</v>
       </c>
@@ -24490,7 +24492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A58" s="58" t="s">
         <v>157</v>
       </c>
@@ -24519,7 +24521,7 @@
       <c r="X58" s="89"/>
       <c r="Y58" s="89"/>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A59" s="58" t="s">
         <v>159</v>
       </c>
@@ -24548,7 +24550,7 @@
       <c r="X59" s="89"/>
       <c r="Y59" s="89"/>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A60" s="58" t="s">
         <v>158</v>
       </c>
@@ -24577,7 +24579,7 @@
       <c r="X60" s="89"/>
       <c r="Y60" s="89"/>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A61" s="58" t="s">
         <v>111</v>
       </c>
@@ -24606,7 +24608,7 @@
       <c r="X61" s="89"/>
       <c r="Y61" s="89"/>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A62" s="20"/>
       <c r="B62" s="45"/>
       <c r="C62" s="45"/>
@@ -24633,7 +24635,7 @@
       <c r="X62" s="89"/>
       <c r="Y62" s="89"/>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A63" s="59" t="s">
         <v>113</v>
       </c>
@@ -24734,7 +24736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A64" s="20"/>
       <c r="B64" s="45"/>
       <c r="C64" s="45"/>
@@ -24761,7 +24763,7 @@
       <c r="X64" s="89"/>
       <c r="Y64" s="89"/>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A65" s="44" t="s">
         <v>45</v>
       </c>
@@ -24790,7 +24792,7 @@
       <c r="X65" s="89"/>
       <c r="Y65" s="89"/>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A66" s="20"/>
       <c r="B66" s="45"/>
       <c r="C66" s="45"/>
@@ -24817,7 +24819,7 @@
       <c r="X66" s="89"/>
       <c r="Y66" s="89"/>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A67" s="20" t="s">
         <v>114</v>
       </c>
@@ -24846,7 +24848,7 @@
       <c r="X67" s="89"/>
       <c r="Y67" s="89"/>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A68" s="20"/>
       <c r="B68" s="46"/>
       <c r="C68" s="46"/>
@@ -24873,7 +24875,7 @@
       <c r="X68" s="89"/>
       <c r="Y68" s="89"/>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A69" s="20" t="s">
         <v>115</v>
       </c>
@@ -24902,7 +24904,7 @@
       <c r="X69" s="89"/>
       <c r="Y69" s="89"/>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A70" s="20"/>
       <c r="B70" s="45"/>
       <c r="C70" s="45"/>
@@ -24929,7 +24931,7 @@
       <c r="X70" s="89"/>
       <c r="Y70" s="89"/>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A71" s="20" t="s">
         <v>116</v>
       </c>
@@ -24958,7 +24960,7 @@
       <c r="X71" s="89"/>
       <c r="Y71" s="89"/>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A72" s="20"/>
       <c r="B72" s="45"/>
       <c r="C72" s="45"/>
@@ -24985,7 +24987,7 @@
       <c r="X72" s="89"/>
       <c r="Y72" s="89"/>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A73" s="20" t="s">
         <v>117</v>
       </c>
@@ -25014,7 +25016,7 @@
       <c r="X73" s="89"/>
       <c r="Y73" s="89"/>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A74" s="20"/>
       <c r="B74" s="45"/>
       <c r="C74" s="45"/>
@@ -25041,7 +25043,7 @@
       <c r="X74" s="89"/>
       <c r="Y74" s="89"/>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A75" s="20" t="s">
         <v>118</v>
       </c>
@@ -25070,7 +25072,7 @@
       <c r="X75" s="89"/>
       <c r="Y75" s="89"/>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A76" s="20"/>
       <c r="B76" s="45"/>
       <c r="C76" s="45"/>
@@ -25097,7 +25099,7 @@
       <c r="X76" s="89"/>
       <c r="Y76" s="89"/>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A77" s="20" t="s">
         <v>119</v>
       </c>
@@ -25126,7 +25128,7 @@
       <c r="X77" s="89"/>
       <c r="Y77" s="89"/>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A78" s="20"/>
       <c r="B78" s="45"/>
       <c r="C78" s="45"/>
@@ -25153,7 +25155,7 @@
       <c r="X78" s="89"/>
       <c r="Y78" s="89"/>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A79" s="22" t="s">
         <v>120</v>
       </c>
@@ -25182,7 +25184,7 @@
       <c r="X79" s="89"/>
       <c r="Y79" s="89"/>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A80" s="20"/>
       <c r="B80" s="45"/>
       <c r="C80" s="45"/>
@@ -25209,7 +25211,7 @@
       <c r="X80" s="89"/>
       <c r="Y80" s="89"/>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A81" s="20" t="s">
         <v>162</v>
       </c>
@@ -25238,7 +25240,7 @@
       <c r="X81" s="89"/>
       <c r="Y81" s="89"/>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A82" s="20"/>
       <c r="B82" s="45"/>
       <c r="C82" s="45"/>
@@ -25265,7 +25267,7 @@
       <c r="X82" s="89"/>
       <c r="Y82" s="89"/>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A83" s="20" t="s">
         <v>121</v>
       </c>
@@ -25294,7 +25296,7 @@
       <c r="X83" s="89"/>
       <c r="Y83" s="89"/>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A84" s="20"/>
       <c r="B84" s="45"/>
       <c r="C84" s="45"/>
@@ -25321,7 +25323,7 @@
       <c r="X84" s="89"/>
       <c r="Y84" s="89"/>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A85" s="20" t="s">
         <v>122</v>
       </c>
@@ -25422,9 +25424,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A86" s="103" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B86" s="45"/>
       <c r="C86" s="45"/>
@@ -25438,20 +25440,20 @@
       <c r="K86" s="45"/>
       <c r="L86" s="45"/>
       <c r="M86" s="45"/>
-      <c r="N86" s="105"/>
-      <c r="O86" s="105"/>
-      <c r="P86" s="105"/>
-      <c r="Q86" s="105"/>
-      <c r="R86" s="105"/>
-      <c r="S86" s="105"/>
-      <c r="T86" s="105"/>
-      <c r="U86" s="105"/>
-      <c r="V86" s="105"/>
-      <c r="W86" s="105"/>
-      <c r="X86" s="105"/>
-      <c r="Y86" s="105"/>
+      <c r="N86" s="104"/>
+      <c r="O86" s="104"/>
+      <c r="P86" s="104"/>
+      <c r="Q86" s="104"/>
+      <c r="R86" s="104"/>
+      <c r="S86" s="104"/>
+      <c r="T86" s="104"/>
+      <c r="U86" s="104"/>
+      <c r="V86" s="104"/>
+      <c r="W86" s="104"/>
+      <c r="X86" s="104"/>
+      <c r="Y86" s="104"/>
     </row>
-    <row r="87" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="60" t="s">
         <v>123</v>
       </c>
@@ -25611,23 +25613,23 @@
       <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="59" style="62" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="25" width="17.7109375" style="40" customWidth="1" collapsed="1"/>
-    <col min="26" max="16382" width="9.140625" style="40" hidden="1" collapsed="1"/>
+    <col min="2" max="25" width="17.6640625" style="40" customWidth="1" collapsed="1"/>
+    <col min="26" max="16382" width="9.109375" style="40" hidden="1" collapsed="1"/>
     <col min="16383" max="16383" width="0" style="40" hidden="1"/>
     <col min="16384" max="16384" width="0" style="40" hidden="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="121" t="s">
+    <row r="1" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="122" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
       <c r="F1" s="36"/>
       <c r="G1" s="36"/>
       <c r="H1" s="36"/>
@@ -25647,14 +25649,14 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="122" t="s">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A2" s="123" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
       <c r="F2" s="39"/>
       <c r="G2" s="39"/>
       <c r="H2" s="39"/>
@@ -25664,14 +25666,14 @@
       <c r="L2" s="39"/>
       <c r="M2" s="39"/>
     </row>
-    <row r="3" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="125" t="s">
+    <row r="3" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="126" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
       <c r="F3" s="41"/>
       <c r="G3" s="41"/>
       <c r="H3" s="41"/>
@@ -25681,12 +25683,12 @@
       <c r="L3" s="41"/>
       <c r="M3" s="41"/>
     </row>
-    <row r="4" spans="1:25" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="123" t="s">
+    <row r="4" spans="1:25" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="124" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="124"/>
-      <c r="C4" s="124"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="125"/>
       <c r="D4" s="101" t="s">
         <v>39</v>
       </c>
@@ -25714,8 +25716,8 @@
       <c r="X4" s="42"/>
       <c r="Y4" s="42"/>
     </row>
-    <row r="5" spans="1:25" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="134" t="s">
+    <row r="5" spans="1:25" ht="18" x14ac:dyDescent="0.3">
+      <c r="A5" s="135" t="s">
         <v>94</v>
       </c>
       <c r="B5" s="84">
@@ -25815,133 +25817,133 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="135"/>
-      <c r="B6" s="126" t="str">
+    <row r="6" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="136"/>
+      <c r="B6" s="127" t="str">
         <f>Liabilities!B6</f>
         <v>Audited</v>
       </c>
-      <c r="C6" s="119" t="str">
+      <c r="C6" s="120" t="str">
         <f>Liabilities!C6</f>
         <v>Audited</v>
       </c>
-      <c r="D6" s="119" t="str">
+      <c r="D6" s="120" t="str">
         <f>Liabilities!D6</f>
         <v>Audited</v>
       </c>
-      <c r="E6" s="119" t="str">
+      <c r="E6" s="120" t="str">
         <f>Liabilities!E6</f>
         <v>Estimated</v>
       </c>
-      <c r="F6" s="119" t="str">
+      <c r="F6" s="120" t="str">
         <f>Liabilities!F6</f>
         <v>Projected</v>
       </c>
-      <c r="G6" s="119" t="str">
+      <c r="G6" s="120" t="str">
         <f>Liabilities!G6</f>
         <v>Projected</v>
       </c>
-      <c r="H6" s="119" t="str">
+      <c r="H6" s="120" t="str">
         <f>Liabilities!H6</f>
         <v>Projected</v>
       </c>
-      <c r="I6" s="119" t="str">
+      <c r="I6" s="120" t="str">
         <f>Liabilities!I6</f>
         <v>Projected</v>
       </c>
-      <c r="J6" s="119" t="str">
+      <c r="J6" s="120" t="str">
         <f>Liabilities!J6</f>
         <v>Projected</v>
       </c>
-      <c r="K6" s="119" t="str">
+      <c r="K6" s="120" t="str">
         <f>Liabilities!K6</f>
         <v>Projected</v>
       </c>
-      <c r="L6" s="119" t="str">
+      <c r="L6" s="120" t="str">
         <f>Liabilities!L6</f>
         <v>Projected</v>
       </c>
-      <c r="M6" s="129" t="str">
+      <c r="M6" s="130" t="str">
         <f>Liabilities!M6</f>
         <v>Projected</v>
       </c>
-      <c r="N6" s="129" t="str">
+      <c r="N6" s="130" t="str">
         <f>Liabilities!N6</f>
         <v>Projected</v>
       </c>
-      <c r="O6" s="129" t="str">
+      <c r="O6" s="130" t="str">
         <f>Liabilities!O6</f>
         <v>Projected</v>
       </c>
-      <c r="P6" s="129" t="str">
+      <c r="P6" s="130" t="str">
         <f>Liabilities!P6</f>
         <v>Projected</v>
       </c>
-      <c r="Q6" s="129" t="str">
+      <c r="Q6" s="130" t="str">
         <f>Liabilities!Q6</f>
         <v>Projected</v>
       </c>
-      <c r="R6" s="129" t="str">
+      <c r="R6" s="130" t="str">
         <f>Liabilities!R6</f>
         <v>Projected</v>
       </c>
-      <c r="S6" s="129" t="str">
+      <c r="S6" s="130" t="str">
         <f>Liabilities!S6</f>
         <v>Projected</v>
       </c>
-      <c r="T6" s="129" t="str">
+      <c r="T6" s="130" t="str">
         <f>Liabilities!T6</f>
         <v>Projected</v>
       </c>
-      <c r="U6" s="129" t="str">
+      <c r="U6" s="130" t="str">
         <f>Liabilities!U6</f>
         <v>Projected</v>
       </c>
-      <c r="V6" s="129" t="str">
+      <c r="V6" s="130" t="str">
         <f>Liabilities!V6</f>
         <v>Projected</v>
       </c>
-      <c r="W6" s="129" t="str">
+      <c r="W6" s="130" t="str">
         <f>Liabilities!W6</f>
         <v>Projected</v>
       </c>
-      <c r="X6" s="129" t="str">
+      <c r="X6" s="130" t="str">
         <f>Liabilities!X6</f>
         <v>Projected</v>
       </c>
-      <c r="Y6" s="132" t="str">
+      <c r="Y6" s="133" t="str">
         <f>Liabilities!Y6</f>
         <v>Projected</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="135"/>
-      <c r="B7" s="127"/>
-      <c r="C7" s="128"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="128"/>
-      <c r="G7" s="128"/>
-      <c r="H7" s="128"/>
-      <c r="I7" s="128"/>
-      <c r="J7" s="128"/>
-      <c r="K7" s="128"/>
-      <c r="L7" s="128"/>
-      <c r="M7" s="131"/>
-      <c r="N7" s="131"/>
-      <c r="O7" s="131"/>
-      <c r="P7" s="131"/>
-      <c r="Q7" s="131"/>
-      <c r="R7" s="131"/>
-      <c r="S7" s="131"/>
-      <c r="T7" s="131"/>
-      <c r="U7" s="131"/>
-      <c r="V7" s="131"/>
-      <c r="W7" s="131"/>
-      <c r="X7" s="131"/>
-      <c r="Y7" s="133"/>
+    <row r="7" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="136"/>
+      <c r="B7" s="128"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="129"/>
+      <c r="K7" s="129"/>
+      <c r="L7" s="129"/>
+      <c r="M7" s="132"/>
+      <c r="N7" s="132"/>
+      <c r="O7" s="132"/>
+      <c r="P7" s="132"/>
+      <c r="Q7" s="132"/>
+      <c r="R7" s="132"/>
+      <c r="S7" s="132"/>
+      <c r="T7" s="132"/>
+      <c r="U7" s="132"/>
+      <c r="V7" s="132"/>
+      <c r="W7" s="132"/>
+      <c r="X7" s="132"/>
+      <c r="Y7" s="134"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="64" t="s">
         <v>93</v>
       </c>
@@ -25970,7 +25972,7 @@
       <c r="X8" s="92"/>
       <c r="Y8" s="92"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="65" t="s">
         <v>127</v>
       </c>
@@ -25999,7 +26001,7 @@
       <c r="X9" s="89"/>
       <c r="Y9" s="89"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="65"/>
       <c r="B10" s="66"/>
       <c r="C10" s="45"/>
@@ -26026,7 +26028,7 @@
       <c r="X10" s="89"/>
       <c r="Y10" s="89"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="67" t="s">
         <v>166</v>
       </c>
@@ -26127,7 +26129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="65" t="s">
         <v>83</v>
       </c>
@@ -26156,7 +26158,7 @@
       <c r="X12" s="89"/>
       <c r="Y12" s="89"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="65" t="s">
         <v>92</v>
       </c>
@@ -26185,7 +26187,7 @@
       <c r="X13" s="89"/>
       <c r="Y13" s="89"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="65" t="s">
         <v>77</v>
       </c>
@@ -26214,7 +26216,7 @@
       <c r="X14" s="89"/>
       <c r="Y14" s="89"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="65" t="s">
         <v>91</v>
       </c>
@@ -26243,7 +26245,7 @@
       <c r="X15" s="89"/>
       <c r="Y15" s="89"/>
     </row>
-    <row r="16" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="67" t="s">
         <v>128</v>
       </c>
@@ -26272,7 +26274,7 @@
       <c r="X16" s="89"/>
       <c r="Y16" s="89"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="65" t="s">
         <v>75</v>
       </c>
@@ -26301,7 +26303,7 @@
       <c r="X17" s="89"/>
       <c r="Y17" s="89"/>
     </row>
-    <row r="18" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="67" t="s">
         <v>90</v>
       </c>
@@ -26330,7 +26332,7 @@
       <c r="X18" s="89"/>
       <c r="Y18" s="89"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="65" t="s">
         <v>89</v>
       </c>
@@ -26359,7 +26361,7 @@
       <c r="X19" s="89"/>
       <c r="Y19" s="89"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" s="67" t="s">
         <v>129</v>
       </c>
@@ -26388,7 +26390,7 @@
       <c r="X20" s="89"/>
       <c r="Y20" s="89"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="65"/>
       <c r="B21" s="66"/>
       <c r="C21" s="45"/>
@@ -26415,7 +26417,7 @@
       <c r="X21" s="89"/>
       <c r="Y21" s="89"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="65" t="s">
         <v>130</v>
       </c>
@@ -26516,7 +26518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" s="65"/>
       <c r="B23" s="66"/>
       <c r="C23" s="45"/>
@@ -26543,7 +26545,7 @@
       <c r="X23" s="89"/>
       <c r="Y23" s="89"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" s="65" t="s">
         <v>88</v>
       </c>
@@ -26644,7 +26646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" s="65" t="s">
         <v>77</v>
       </c>
@@ -26673,7 +26675,7 @@
       <c r="X25" s="89"/>
       <c r="Y25" s="89"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" s="65" t="s">
         <v>84</v>
       </c>
@@ -26702,7 +26704,7 @@
       <c r="X26" s="89"/>
       <c r="Y26" s="89"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" s="65" t="s">
         <v>164</v>
       </c>
@@ -26731,7 +26733,7 @@
       <c r="X27" s="89"/>
       <c r="Y27" s="89"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" s="65"/>
       <c r="B28" s="66"/>
       <c r="C28" s="45"/>
@@ -26758,7 +26760,7 @@
       <c r="X28" s="89"/>
       <c r="Y28" s="89"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" s="65" t="s">
         <v>87</v>
       </c>
@@ -26787,7 +26789,7 @@
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" s="65"/>
       <c r="B30" s="66"/>
       <c r="C30" s="45"/>
@@ -26814,7 +26816,7 @@
       <c r="X30" s="89"/>
       <c r="Y30" s="89"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" s="65" t="s">
         <v>86</v>
       </c>
@@ -26843,7 +26845,7 @@
       <c r="X31" s="2"/>
       <c r="Y31" s="2"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" s="65"/>
       <c r="B32" s="66"/>
       <c r="C32" s="45"/>
@@ -26870,7 +26872,7 @@
       <c r="X32" s="89"/>
       <c r="Y32" s="89"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33" s="65" t="s">
         <v>85</v>
       </c>
@@ -26971,7 +26973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34" s="65" t="s">
         <v>84</v>
       </c>
@@ -27000,7 +27002,7 @@
       <c r="X34" s="89"/>
       <c r="Y34" s="89"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35" s="65" t="s">
         <v>164</v>
       </c>
@@ -27029,7 +27031,7 @@
       <c r="X35" s="89"/>
       <c r="Y35" s="89"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36" s="65"/>
       <c r="B36" s="66"/>
       <c r="C36" s="45"/>
@@ -27056,7 +27058,7 @@
       <c r="X36" s="89"/>
       <c r="Y36" s="89"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37" s="67" t="s">
         <v>131</v>
       </c>
@@ -27085,7 +27087,7 @@
       <c r="X37" s="89"/>
       <c r="Y37" s="89"/>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38" s="65" t="s">
         <v>49</v>
       </c>
@@ -27114,7 +27116,7 @@
       <c r="X38" s="89"/>
       <c r="Y38" s="89"/>
     </row>
-    <row r="39" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="65" t="s">
         <v>132</v>
       </c>
@@ -27143,7 +27145,7 @@
       <c r="X39" s="89"/>
       <c r="Y39" s="89"/>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40" s="65"/>
       <c r="B40" s="66"/>
       <c r="C40" s="66"/>
@@ -27170,7 +27172,7 @@
       <c r="X40" s="89"/>
       <c r="Y40" s="89"/>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41" s="67" t="s">
         <v>133</v>
       </c>
@@ -27199,7 +27201,7 @@
       <c r="X41" s="89"/>
       <c r="Y41" s="89"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42" s="69"/>
       <c r="B42" s="66"/>
       <c r="C42" s="45"/>
@@ -27226,7 +27228,7 @@
       <c r="X42" s="89"/>
       <c r="Y42" s="89"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43" s="65" t="s">
         <v>134</v>
       </c>
@@ -27327,7 +27329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44" s="67"/>
       <c r="B44" s="66"/>
       <c r="C44" s="45"/>
@@ -27354,7 +27356,7 @@
       <c r="X44" s="89"/>
       <c r="Y44" s="89"/>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45" s="67" t="s">
         <v>135</v>
       </c>
@@ -27455,7 +27457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46" s="70" t="s">
         <v>142</v>
       </c>
@@ -27484,7 +27486,7 @@
       <c r="X46" s="89"/>
       <c r="Y46" s="89"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47" s="70" t="s">
         <v>143</v>
       </c>
@@ -27513,7 +27515,7 @@
       <c r="X47" s="89"/>
       <c r="Y47" s="89"/>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48" s="70"/>
       <c r="B48" s="66"/>
       <c r="C48" s="45"/>
@@ -27540,7 +27542,7 @@
       <c r="X48" s="89"/>
       <c r="Y48" s="89"/>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A49" s="70"/>
       <c r="B49" s="66"/>
       <c r="C49" s="45"/>
@@ -27567,7 +27569,7 @@
       <c r="X49" s="89"/>
       <c r="Y49" s="89"/>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A50" s="70"/>
       <c r="B50" s="66"/>
       <c r="C50" s="45"/>
@@ -27594,7 +27596,7 @@
       <c r="X50" s="89"/>
       <c r="Y50" s="89"/>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A51" s="65" t="s">
         <v>83</v>
       </c>
@@ -27623,7 +27625,7 @@
       <c r="X51" s="89"/>
       <c r="Y51" s="89"/>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A52" s="65" t="s">
         <v>136</v>
       </c>
@@ -27652,7 +27654,7 @@
       <c r="X52" s="89"/>
       <c r="Y52" s="89"/>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A53" s="65"/>
       <c r="B53" s="66"/>
       <c r="C53" s="66"/>
@@ -27679,7 +27681,7 @@
       <c r="X53" s="89"/>
       <c r="Y53" s="89"/>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A54" s="65" t="s">
         <v>137</v>
       </c>
@@ -27708,7 +27710,7 @@
       <c r="X54" s="89"/>
       <c r="Y54" s="89"/>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A55" s="65"/>
       <c r="B55" s="66"/>
       <c r="C55" s="45"/>
@@ -27735,7 +27737,7 @@
       <c r="X55" s="89"/>
       <c r="Y55" s="89"/>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A56" s="65" t="s">
         <v>138</v>
       </c>
@@ -27836,7 +27838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A57" s="65"/>
       <c r="B57" s="66"/>
       <c r="C57" s="45"/>
@@ -27863,7 +27865,7 @@
       <c r="X57" s="89"/>
       <c r="Y57" s="89"/>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A58" s="64" t="s">
         <v>82</v>
       </c>
@@ -27892,7 +27894,7 @@
       <c r="X58" s="89"/>
       <c r="Y58" s="89"/>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A59" s="65"/>
       <c r="B59" s="66"/>
       <c r="C59" s="45"/>
@@ -27919,7 +27921,7 @@
       <c r="X59" s="89"/>
       <c r="Y59" s="89"/>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A60" s="65" t="s">
         <v>144</v>
       </c>
@@ -27948,7 +27950,7 @@
       <c r="X60" s="89"/>
       <c r="Y60" s="89"/>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A61" s="65"/>
       <c r="B61" s="66"/>
       <c r="C61" s="45"/>
@@ -27975,7 +27977,7 @@
       <c r="X61" s="89"/>
       <c r="Y61" s="89"/>
     </row>
-    <row r="62" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="67" t="s">
         <v>145</v>
       </c>
@@ -28076,7 +28078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A63" s="65" t="s">
         <v>81</v>
       </c>
@@ -28105,7 +28107,7 @@
       <c r="X63" s="89"/>
       <c r="Y63" s="89"/>
     </row>
-    <row r="64" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="67" t="s">
         <v>80</v>
       </c>
@@ -28134,7 +28136,7 @@
       <c r="X64" s="89"/>
       <c r="Y64" s="89"/>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A65" s="65" t="s">
         <v>79</v>
       </c>
@@ -28163,7 +28165,7 @@
       <c r="X65" s="89"/>
       <c r="Y65" s="89"/>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A66" s="65"/>
       <c r="B66" s="66"/>
       <c r="C66" s="66"/>
@@ -28190,7 +28192,7 @@
       <c r="X66" s="89"/>
       <c r="Y66" s="89"/>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A67" s="67" t="s">
         <v>78</v>
       </c>
@@ -28219,7 +28221,7 @@
       <c r="X67" s="89"/>
       <c r="Y67" s="89"/>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A68" s="65" t="s">
         <v>77</v>
       </c>
@@ -28248,7 +28250,7 @@
       <c r="X68" s="89"/>
       <c r="Y68" s="89"/>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A69" s="67" t="s">
         <v>76</v>
       </c>
@@ -28277,7 +28279,7 @@
       <c r="X69" s="89"/>
       <c r="Y69" s="89"/>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A70" s="65" t="s">
         <v>75</v>
       </c>
@@ -28306,7 +28308,7 @@
       <c r="X70" s="89"/>
       <c r="Y70" s="89"/>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A71" s="65" t="s">
         <v>74</v>
       </c>
@@ -28407,7 +28409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A72" s="71" t="s">
         <v>124</v>
       </c>
@@ -28436,7 +28438,7 @@
       <c r="X72" s="89"/>
       <c r="Y72" s="89"/>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A73" s="71" t="s">
         <v>125</v>
       </c>
@@ -28465,7 +28467,7 @@
       <c r="X73" s="89"/>
       <c r="Y73" s="89"/>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A74" s="71" t="s">
         <v>126</v>
       </c>
@@ -28494,7 +28496,7 @@
       <c r="X74" s="89"/>
       <c r="Y74" s="89"/>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A75" s="65"/>
       <c r="B75" s="66"/>
       <c r="C75" s="66"/>
@@ -28521,7 +28523,7 @@
       <c r="X75" s="89"/>
       <c r="Y75" s="89"/>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A76" s="65" t="s">
         <v>146</v>
       </c>
@@ -28550,7 +28552,7 @@
       <c r="X76" s="89"/>
       <c r="Y76" s="89"/>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A77" s="65" t="s">
         <v>2</v>
       </c>
@@ -28579,7 +28581,7 @@
       <c r="X77" s="89"/>
       <c r="Y77" s="89"/>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A78" s="67" t="s">
         <v>147</v>
       </c>
@@ -28608,7 +28610,7 @@
       <c r="X78" s="89"/>
       <c r="Y78" s="89"/>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A79" s="65"/>
       <c r="B79" s="66"/>
       <c r="C79" s="45"/>
@@ -28635,7 +28637,7 @@
       <c r="X79" s="89"/>
       <c r="Y79" s="89"/>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A80" s="72" t="s">
         <v>148</v>
       </c>
@@ -28736,7 +28738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A81" s="65"/>
       <c r="B81" s="66"/>
       <c r="C81" s="45"/>
@@ -28763,7 +28765,7 @@
       <c r="X81" s="89"/>
       <c r="Y81" s="89"/>
     </row>
-    <row r="82" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="67" t="s">
         <v>149</v>
       </c>
@@ -28864,7 +28866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A83" s="73" t="s">
         <v>139</v>
       </c>
@@ -28893,7 +28895,7 @@
       <c r="X83" s="89"/>
       <c r="Y83" s="89"/>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A84" s="73" t="s">
         <v>140</v>
       </c>
@@ -28922,7 +28924,7 @@
       <c r="X84" s="89"/>
       <c r="Y84" s="89"/>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A85" s="73" t="s">
         <v>165</v>
       </c>
@@ -28951,7 +28953,7 @@
       <c r="X85" s="89"/>
       <c r="Y85" s="89"/>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A86" s="73" t="s">
         <v>141</v>
       </c>
@@ -28980,7 +28982,7 @@
       <c r="X86" s="89"/>
       <c r="Y86" s="89"/>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A87" s="73" t="s">
         <v>111</v>
       </c>
@@ -29009,9 +29011,9 @@
       <c r="X87" s="89"/>
       <c r="Y87" s="89"/>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A88" s="103" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B88" s="66"/>
       <c r="C88" s="66"/>
@@ -29025,20 +29027,20 @@
       <c r="K88" s="45"/>
       <c r="L88" s="45"/>
       <c r="M88" s="45"/>
-      <c r="N88" s="105"/>
-      <c r="O88" s="105"/>
-      <c r="P88" s="105"/>
-      <c r="Q88" s="105"/>
-      <c r="R88" s="105"/>
-      <c r="S88" s="105"/>
-      <c r="T88" s="105"/>
-      <c r="U88" s="105"/>
-      <c r="V88" s="105"/>
-      <c r="W88" s="105"/>
-      <c r="X88" s="105"/>
-      <c r="Y88" s="105"/>
+      <c r="N88" s="104"/>
+      <c r="O88" s="104"/>
+      <c r="P88" s="104"/>
+      <c r="Q88" s="104"/>
+      <c r="R88" s="104"/>
+      <c r="S88" s="104"/>
+      <c r="T88" s="104"/>
+      <c r="U88" s="104"/>
+      <c r="V88" s="104"/>
+      <c r="W88" s="104"/>
+      <c r="X88" s="104"/>
+      <c r="Y88" s="104"/>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A89" s="65" t="s">
         <v>153</v>
       </c>
@@ -29139,7 +29141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A90" s="65"/>
       <c r="B90" s="66"/>
       <c r="C90" s="45"/>
@@ -29166,7 +29168,7 @@
       <c r="X90" s="89"/>
       <c r="Y90" s="89"/>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A91" s="72" t="s">
         <v>154</v>
       </c>
@@ -29267,7 +29269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A92" s="65"/>
       <c r="B92" s="66"/>
       <c r="C92" s="45"/>
@@ -29294,7 +29296,7 @@
       <c r="X92" s="89"/>
       <c r="Y92" s="89"/>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A93" s="65" t="s">
         <v>155</v>
       </c>
@@ -29395,7 +29397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A94" s="65"/>
       <c r="B94" s="66"/>
       <c r="C94" s="45"/>
@@ -29422,7 +29424,7 @@
       <c r="X94" s="89"/>
       <c r="Y94" s="89"/>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A95" s="65" t="s">
         <v>150</v>
       </c>
@@ -29523,7 +29525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A96" s="65"/>
       <c r="B96" s="66"/>
       <c r="C96" s="45"/>
@@ -29550,7 +29552,7 @@
       <c r="X96" s="89"/>
       <c r="Y96" s="89"/>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A97" s="65" t="s">
         <v>151</v>
       </c>
@@ -29651,7 +29653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A98" s="65"/>
       <c r="B98" s="66"/>
       <c r="C98" s="45"/>
@@ -29678,7 +29680,7 @@
       <c r="X98" s="89"/>
       <c r="Y98" s="89"/>
     </row>
-    <row r="99" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="74" t="s">
         <v>152</v>
       </c>
